--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00758414-C5EB-4EB2-9407-AF07458161EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF318AA1-C65E-4977-AA0D-8615CF99037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>Vendedor</t>
   </si>
@@ -99,21 +99,6 @@
   </si>
   <si>
     <t>Codigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V 0003 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">V 0004 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">V 0005 </t>
-  </si>
-  <si>
-    <t>V 0001</t>
-  </si>
-  <si>
-    <t>V 0002</t>
   </si>
   <si>
     <t>Juan Lopez</t>
@@ -190,12 +175,28 @@
   <si>
     <t>Otros gastos</t>
   </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V 000</t>
+  </si>
+  <si>
+    <t>PRACTICA BUSCARV BUSCARH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,8 +225,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +249,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,19 +268,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{8F53062A-67EE-41F0-AC5B-03CBEEF10C8A}"/>
   </cellStyles>
@@ -4881,158 +4910,257 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A23CDF-F090-4714-AB49-78B50071C889}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4">
+        <v>28333.934600000001</v>
+      </c>
+      <c r="E2" s="4">
+        <v>21584.245800000001</v>
+      </c>
+      <c r="F2" s="4">
+        <v>24285.437999999998</v>
+      </c>
+      <c r="G2" s="4">
+        <v>22525.869900000002</v>
+      </c>
+      <c r="H2" s="4">
+        <v>27973.243200000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4">
+        <v>14782.922399999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>19923.9192</v>
+      </c>
+      <c r="F3" s="4">
+        <v>26713.981800000001</v>
+      </c>
+      <c r="G3" s="4">
+        <v>20154.725699999999</v>
+      </c>
+      <c r="H3" s="4">
+        <v>26641.184000000001</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4">
+        <v>27102.024399999998</v>
+      </c>
+      <c r="E4" s="4">
+        <v>25458.341199999999</v>
+      </c>
+      <c r="F4" s="4">
+        <v>23071.166099999999</v>
+      </c>
+      <c r="G4" s="4">
+        <v>23711.441999999999</v>
+      </c>
+      <c r="H4" s="4">
+        <v>30637.3616</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4" t="str">
+        <f>VLOOKUP(K4,B2:H6,2,0)</f>
+        <v>Roberto Martinez</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="4">
+        <f>HLOOKUP(M4,D1:H6,K4+1,0)</f>
+        <v>30797.755000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D5" s="4">
+        <v>22174.383600000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>23244.572400000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>20642.622299999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>24897.0141</v>
+      </c>
+      <c r="H5" s="4">
+        <v>25309.124800000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4">
+        <v>30797.755000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>20477.361400000002</v>
+      </c>
+      <c r="F6" s="4">
+        <v>26713.981800000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>27268.158299999999</v>
+      </c>
+      <c r="H6" s="4">
+        <v>22645.006399999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="C2">
-        <v>28333.934600000001</v>
-      </c>
-      <c r="D2">
-        <v>21584.245800000001</v>
-      </c>
-      <c r="E2">
-        <v>24285.437999999998</v>
-      </c>
-      <c r="F2">
-        <v>22525.869900000002</v>
-      </c>
-      <c r="G2">
-        <v>27973.243200000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3">
-        <v>14782.922399999999</v>
-      </c>
-      <c r="D3">
-        <v>19923.9192</v>
-      </c>
-      <c r="E3">
-        <v>26713.981800000001</v>
-      </c>
-      <c r="F3">
-        <v>20154.725699999999</v>
-      </c>
-      <c r="G3">
-        <v>26641.184000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4">
-        <v>27102.024399999998</v>
-      </c>
-      <c r="D4">
-        <v>25458.341199999999</v>
-      </c>
-      <c r="E4">
-        <v>23071.166099999999</v>
-      </c>
-      <c r="F4">
-        <v>23711.441999999999</v>
-      </c>
-      <c r="G4">
-        <v>30637.3616</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5">
-        <v>22174.383600000001</v>
-      </c>
-      <c r="D5">
-        <v>23244.572400000001</v>
-      </c>
-      <c r="E5">
-        <v>20642.622299999999</v>
-      </c>
-      <c r="F5">
-        <v>24897.0141</v>
-      </c>
-      <c r="G5">
-        <v>25309.124800000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>30797.755000000001</v>
-      </c>
-      <c r="D6">
-        <v>20477.361400000002</v>
-      </c>
-      <c r="E6">
-        <v>26713.981800000001</v>
-      </c>
-      <c r="F6">
-        <v>27268.158299999999</v>
-      </c>
-      <c r="G6">
-        <v>22645.006399999998</v>
+      <c r="D11">
+        <f>INDEX(B2:H6,MATCH(C11,C2:C6,0),1)</f>
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="e">
+        <f>INDEX(B2:H6,)</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4" xr:uid="{F328559E-C259-424E-8647-D702B705CAE7}">
+      <formula1>$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4 E11" xr:uid="{B2F78F40-476C-4B2D-8DD2-044C0E1F2B66}">
+      <formula1>$D$1:$H$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{72B1BD12-E104-4568-8B73-6F4B8CC66736}">
+      <formula1>$C$2:$C$6</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5048,22 +5176,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5187,27 +5315,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>9280</v>
@@ -5227,7 +5355,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>2336.08</v>
@@ -5247,7 +5375,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>550</v>
@@ -5267,7 +5395,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>2433.36</v>
@@ -5287,7 +5415,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5307,7 +5435,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5327,7 +5455,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>13100</v>
@@ -5347,7 +5475,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>305</v>
@@ -5367,7 +5495,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>152</v>
@@ -5394,11 +5522,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF169ED-0A5B-4E85-A1DC-CF4116D4BB32}">
   <dimension ref="B2:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="14.42578125" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF318AA1-C65E-4977-AA0D-8615CF99037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D645166-DC5A-44D5-A807-B0B3CACC9189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>Vendedor</t>
   </si>
@@ -187,6 +187,9 @@
   <si>
     <t>PRACTICA BUSCARV BUSCARH</t>
   </si>
+  <si>
+    <t>PRACTICA INDICE + COINCIDIR</t>
+  </si>
 </sst>
 </file>
 
@@ -194,9 +197,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +241,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,13 +268,87 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -273,19 +357,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -295,6 +406,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF6484C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4912,8 +5028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A23CDF-F090-4714-AB49-78B50071C889}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4926,43 +5042,43 @@
     <col min="14" max="14" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -4988,7 +5104,7 @@
       <c r="A3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -5009,16 +5125,16 @@
       <c r="H3" s="4">
         <v>26641.184000000001</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5026,7 +5142,7 @@
       <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -5047,26 +5163,26 @@
       <c r="H4" s="4">
         <v>30637.3616</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="9">
         <v>5</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L4" s="10" t="str">
         <f>VLOOKUP(K4,B2:H6,2,0)</f>
         <v>Roberto Martinez</v>
       </c>
-      <c r="M4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="11">
         <f>HLOOKUP(M4,D1:H6,K4+1,0)</f>
-        <v>30797.755000000001</v>
+        <v>27268.158299999999</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -5092,7 +5208,7 @@
       <c r="A6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -5114,40 +5230,61 @@
         <v>22645.006399999998</v>
       </c>
     </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="C10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="C11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="10">
         <f>INDEX(B2:H6,MATCH(C11,C2:C6,0),1)</f>
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="e">
-        <f>INDEX(B2:H6,)</f>
-        <v>#REF!</v>
+      <c r="F11" s="11">
+        <f>INDEX(B2:H6,D11,MATCH(E11,B1:H1,0))</f>
+        <v>20477.361400000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
+  <conditionalFormatting sqref="D2:H6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="15000"/>
+        <cfvo type="num" val="25000"/>
+        <cfvo type="num" val="30000"/>
+        <color rgb="FFF6484C"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4" xr:uid="{F328559E-C259-424E-8647-D702B705CAE7}">
       <formula1>$B$2:$B$6</formula1>

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D645166-DC5A-44D5-A807-B0B3CACC9189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD33CC2-6B45-4645-80D4-CB9D0B7B836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
@@ -422,6 +422,1447 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Ventas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> Mensual por Vendedor</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ventas x vendedor'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Juan Lopez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ventas x vendedor'!$D$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mayo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ventas x vendedor'!$D$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28333.934600000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21584.245800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24285.437999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22525.869900000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27973.243200000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-398C-413B-A1E9-15E98526A771}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ventas x vendedor'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maria González</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ventas x vendedor'!$D$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mayo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ventas x vendedor'!$D$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14782.922399999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19923.9192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26713.981800000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20154.725699999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26641.184000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-398C-413B-A1E9-15E98526A771}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ventas x vendedor'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sandra Blanco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ventas x vendedor'!$D$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mayo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ventas x vendedor'!$D$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>27102.024399999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25458.341199999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23071.166099999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23711.441999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30637.3616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-398C-413B-A1E9-15E98526A771}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ventas x vendedor'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jose Romero</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ventas x vendedor'!$D$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mayo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ventas x vendedor'!$D$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22174.383600000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23244.572400000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20642.622299999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24897.0141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25309.124800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-398C-413B-A1E9-15E98526A771}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ventas x vendedor'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Roberto Martinez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ventas x vendedor'!$D$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mayo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ventas x vendedor'!$D$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30797.755000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20477.361400000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26713.981800000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27268.158299999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22645.006399999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-398C-413B-A1E9-15E98526A771}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="999118223"/>
+        <c:axId val="999120623"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="999118223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="999120623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="999120623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="999118223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8A42F7-5B3F-D0D3-2093-EB3E91F64B6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -5029,7 +6470,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5254,18 +6695,18 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="10">
         <f>INDEX(B2:H6,MATCH(C11,C2:C6,0),1)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="11">
         <f>INDEX(B2:H6,D11,MATCH(E11,B1:H1,0))</f>
-        <v>20477.361400000002</v>
+        <v>25458.341199999999</v>
       </c>
     </row>
   </sheetData>
@@ -5298,6 +6739,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD33CC2-6B45-4645-80D4-CB9D0B7B836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024D2BCD-2700-4EF2-9343-37EB7821DC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>Vendedor</t>
   </si>
@@ -190,6 +190,24 @@
   <si>
     <t>PRACTICA INDICE + COINCIDIR</t>
   </si>
+  <si>
+    <t>Totales 2022</t>
+  </si>
+  <si>
+    <t>Totales 2023 (&gt; 130 mil)</t>
+  </si>
+  <si>
+    <t>Promedio Total 2022</t>
+  </si>
+  <si>
+    <t>Total 2023 o Tienda 3 &gt; 40 mil</t>
+  </si>
+  <si>
+    <t>Estado Ventas</t>
+  </si>
+  <si>
+    <t>Estado Ventas 2022</t>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +217,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +266,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +305,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -351,13 +388,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,12 +422,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -398,6 +447,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -1827,15 +1923,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6469,8 +6565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A23CDF-F090-4714-AB49-78B50071C889}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6484,36 +6580,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6566,16 +6662,16 @@
       <c r="H3" s="4">
         <v>26641.184000000001</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6604,19 +6700,19 @@
       <c r="H4" s="4">
         <v>30637.3616</v>
       </c>
-      <c r="K4" s="9">
-        <v>5</v>
-      </c>
-      <c r="L4" s="10" t="str">
+      <c r="K4" s="7">
+        <v>3</v>
+      </c>
+      <c r="L4" s="8" t="str">
         <f>VLOOKUP(K4,B2:H6,2,0)</f>
-        <v>Roberto Martinez</v>
-      </c>
-      <c r="M4" s="10" t="s">
+        <v>Sandra Blanco</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="9">
         <f>HLOOKUP(M4,D1:H6,K4+1,0)</f>
-        <v>27268.158299999999</v>
+        <v>23711.441999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -6672,41 +6768,41 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <f>INDEX(B2:H6,MATCH(C11,C2:C6,0),1)</f>
         <v>3</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="E11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="9">
         <f>INDEX(B2:H6,D11,MATCH(E11,B1:H1,0))</f>
-        <v>25458.341199999999</v>
+        <v>23711.441999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6745,132 +6841,287 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B68A6B-4F66-49B3-AEDB-48F8AD760459}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="G1" s="29"/>
+      <c r="H1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="18">
         <v>2022</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="19">
         <v>123191.02</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="19">
         <v>45580.68</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="19">
         <v>34493.49</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="19">
         <v>43116.86</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="G2" s="19"/>
+      <c r="H2" s="30" t="str">
+        <f>IF(C2&lt;130000,IF(C2&lt;111000,"Venta Baja","Venta Promedio"),"Ventas Altas")</f>
+        <v>Venta Promedio</v>
+      </c>
+      <c r="I2" s="24" t="str">
+        <f>IF(B2=2022,IF(C2&gt;120000,"Ventas Exitosas","Ventas Bajas"),"Otro año")</f>
+        <v>Ventas Exitosas</v>
+      </c>
+      <c r="J2" s="33">
+        <f>IF(B2=2022,C2,"No corresponde")</f>
+        <v>123191.02</v>
+      </c>
+      <c r="K2" s="24" t="str">
+        <f>IF(AND(B2=2023,C2&gt;130000),C2,"No cumple")</f>
+        <v>No cumple</v>
+      </c>
+      <c r="L2" s="25">
+        <f>IF(B2=2022,AVERAGE(D2:F2),"No Cumple")</f>
+        <v>41063.676666666666</v>
+      </c>
+      <c r="M2" s="26">
+        <f>IF(OR(B2=2023,F2&gt;40000),C2,"No cumple")</f>
+        <v>123191.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="18">
         <v>2022</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="19">
         <v>110688.44</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="19">
         <v>41884.949999999997</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="19">
         <v>35725.4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="19">
         <v>33078.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="G3" s="19"/>
+      <c r="H3" s="30" t="str">
+        <f t="shared" ref="H3:H6" si="0">IF(C3&lt;130000,IF(C3&lt;111000,"Venta Baja","Venta Promedio"),"Ventas Altas")</f>
+        <v>Venta Baja</v>
+      </c>
+      <c r="I3" s="24" t="str">
+        <f t="shared" ref="I3:I6" si="1">IF(B3=2022,IF(C3&gt;120000,"Ventas Exitosas","Ventas Bajas"),"Otro año")</f>
+        <v>Ventas Bajas</v>
+      </c>
+      <c r="J3" s="33">
+        <f t="shared" ref="J3:J6" si="2">IF(B3=2022,C3,"No corresponde")</f>
+        <v>110688.44</v>
+      </c>
+      <c r="K3" s="24" t="str">
+        <f t="shared" ref="K3:K6" si="3">IF(AND(B3=2023,C3&gt;130000),C3,"No cumple")</f>
+        <v>No cumple</v>
+      </c>
+      <c r="L3" s="25">
+        <f t="shared" ref="L3:L6" si="4">IF(B3=2022,AVERAGE(D3:F3),"No Cumple")</f>
+        <v>36896.15</v>
+      </c>
+      <c r="M3" s="26" t="str">
+        <f t="shared" ref="M3:M6" si="5">IF(OR(B3=2023,F3&gt;40000),C3,"No cumple")</f>
+        <v>No cumple</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="18">
+        <v>2023</v>
+      </c>
+      <c r="C4" s="19">
+        <v>121427.19</v>
+      </c>
+      <c r="D4" s="19">
+        <v>44348.77</v>
+      </c>
+      <c r="E4" s="19">
+        <v>36957.31</v>
+      </c>
+      <c r="F4" s="19">
+        <v>40121.120000000003</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Venta Promedio</v>
+      </c>
+      <c r="I4" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Otro año</v>
+      </c>
+      <c r="J4" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>No corresponde</v>
+      </c>
+      <c r="K4" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>No cumple</v>
+      </c>
+      <c r="L4" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>No Cumple</v>
+      </c>
+      <c r="M4" s="26">
+        <f t="shared" si="5"/>
+        <v>121427.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
         <v>2022</v>
       </c>
-      <c r="C4">
-        <v>121427.19</v>
-      </c>
-      <c r="D4">
-        <v>44348.77</v>
-      </c>
-      <c r="E4">
+      <c r="C5" s="19">
+        <v>118557.21</v>
+      </c>
+      <c r="D5" s="19">
+        <v>43116.86</v>
+      </c>
+      <c r="E5" s="19">
         <v>36957.31</v>
       </c>
-      <c r="F4">
-        <v>40121.120000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2022</v>
-      </c>
-      <c r="C5">
+      <c r="F5" s="19">
+        <v>38483.050000000003</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Venta Promedio</v>
+      </c>
+      <c r="I5" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>Ventas Bajas</v>
+      </c>
+      <c r="J5" s="33">
+        <f t="shared" si="2"/>
         <v>118557.21</v>
       </c>
-      <c r="D5">
+      <c r="K5" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>No cumple</v>
+      </c>
+      <c r="L5" s="25">
+        <f t="shared" si="4"/>
+        <v>39519.073333333334</v>
+      </c>
+      <c r="M5" s="26" t="str">
+        <f t="shared" si="5"/>
+        <v>No cumple</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="19">
+        <v>133205.92000000001</v>
+      </c>
+      <c r="D6" s="19">
         <v>43116.86</v>
       </c>
-      <c r="E5">
-        <v>36957.31</v>
-      </c>
-      <c r="F5">
-        <v>38483.050000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2022</v>
-      </c>
-      <c r="C6">
+      <c r="E6" s="19">
+        <v>34493.49</v>
+      </c>
+      <c r="F6" s="19">
+        <v>48092.27</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ventas Altas</v>
+      </c>
+      <c r="I6" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>Otro año</v>
+      </c>
+      <c r="J6" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>No corresponde</v>
+      </c>
+      <c r="K6" s="27">
+        <f t="shared" si="3"/>
         <v>133205.92000000001</v>
       </c>
-      <c r="D6">
-        <v>43116.86</v>
-      </c>
-      <c r="E6">
-        <v>34493.49</v>
-      </c>
-      <c r="F6">
-        <v>48092.27</v>
+      <c r="L6" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>No Cumple</v>
+      </c>
+      <c r="M6" s="28">
+        <f t="shared" si="5"/>
+        <v>133205.92000000001</v>
       </c>
     </row>
   </sheetData>

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024D2BCD-2700-4EF2-9343-37EB7821DC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19F67DE-687E-499A-AEA5-66A4C9586281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>Vendedor</t>
   </si>
@@ -208,16 +208,35 @@
   <si>
     <t>Estado Ventas 2022</t>
   </si>
+  <si>
+    <t>Buscador de Gastos</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Gasto</t>
+  </si>
+  <si>
+    <t>Total por Mes</t>
+  </si>
+  <si>
+    <t>Gasto total</t>
+  </si>
+  <si>
+    <t>Total por Concepto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode=";;;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +286,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -274,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,8 +344,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -406,13 +457,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -459,7 +578,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -480,7 +599,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -494,6 +613,28 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -6843,7 +6984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B68A6B-4F66-49B3-AEDB-48F8AD760459}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -7132,218 +7273,372 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9D3D7-F34D-4A34-8B58-0EC02683C78D}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="I1" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="M1" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="48"/>
+      <c r="P1" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="49"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="40">
         <v>9280</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="40">
         <v>9280</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="40">
         <v>9260</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="40">
         <v>9280</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="41">
         <v>9280</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G2" s="46">
+        <f>SUM(B2:F2)</f>
+        <v>46380</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="40">
         <v>2336.08</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="40">
+        <v>0</v>
+      </c>
+      <c r="D3" s="40">
         <v>2397.6799999999998</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="40">
         <v>2908.12</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="41">
         <v>3887.16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="46">
+        <f t="shared" ref="G3:G10" si="0">SUM(B3:F3)</f>
+        <v>11529.04</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="4">
+        <f>INDEX(B2:F10,MATCH(I3,A2:A10,0),MATCH(J3,B1:F1,0))</f>
+        <v>2240</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="4">
+        <f>INDEX(B2:F11,10,MATCH(M3,B1:F1,0))</f>
+        <v>28565.140000000003</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>INDEX(G2:G10,MATCH(P3,A2:A10,0),1)</f>
+        <v>2267.56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="40">
         <v>550</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="40">
         <v>550</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="40">
         <v>550</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="40">
         <v>550</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="41">
         <v>550</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G4" s="46">
+        <f t="shared" si="0"/>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="40">
         <v>2433.36</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="40">
         <v>2684.08</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="40">
         <v>2240</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="40">
         <v>2628</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="41">
         <v>2623.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="46">
+        <f t="shared" si="0"/>
+        <v>12608.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="40">
+        <v>0</v>
+      </c>
+      <c r="C6" s="40">
         <v>2500</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="40">
         <v>2500</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="40">
         <v>2500</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="41">
         <v>2500</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G6" s="46">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="40">
+        <v>0</v>
+      </c>
+      <c r="C7" s="40">
+        <v>0</v>
+      </c>
+      <c r="D7" s="40">
         <v>660.75</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="40">
         <v>660.75</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="41">
         <v>660.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G7" s="46">
+        <f t="shared" si="0"/>
+        <v>1982.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="40">
         <v>13100</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="40">
         <v>13050</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="40">
         <v>15760</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="40">
         <v>17432</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="41">
         <v>15620</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G8" s="46">
+        <f t="shared" si="0"/>
+        <v>74962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="40">
         <v>305</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="40">
         <v>381.56</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="40">
         <v>62.5</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="40">
         <v>818.5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="41">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="G9" s="46">
+        <f t="shared" si="0"/>
+        <v>2267.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="42">
         <v>152</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="42">
         <v>119.5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="42">
         <v>290</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="42">
         <v>917</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="43">
         <v>354.5</v>
       </c>
+      <c r="G10" s="46">
+        <f t="shared" si="0"/>
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="46">
+        <f>SUM(B2:B10)</f>
+        <v>28156.440000000002</v>
+      </c>
+      <c r="C11" s="46">
+        <f>SUM(C2:C10)</f>
+        <v>28565.140000000003</v>
+      </c>
+      <c r="D11" s="46">
+        <f>SUM(D2:D10)</f>
+        <v>33720.93</v>
+      </c>
+      <c r="E11" s="46">
+        <f>SUM(E2:E10)</f>
+        <v>37694.369999999995</v>
+      </c>
+      <c r="F11" s="46">
+        <f>SUM(F2:F10)</f>
+        <v>36175.910000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>INDEX(A1:F10,4,1)</f>
+        <v>Internet</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>MATCH("Febrero",A1:F1,0)</f>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 P3" xr:uid="{96EB9BDC-37E1-40F0-B4A3-820B0927F47B}">
+      <formula1>$A$2:$A$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3" xr:uid="{B9DA2119-5EB5-4B6D-9DDB-06F05D37C298}">
+      <formula1>"Enero,Febrero,Marzo,Abril,Mayo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3" xr:uid="{E08BD9CB-77CB-4CDB-BA1C-BB014B8375B0}">
+      <formula1>$B$1:$F$1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19F67DE-687E-499A-AEA5-66A4C9586281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42129194-6E9E-4FC1-B463-978A8BC6824D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
@@ -7276,7 +7276,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7628,6 +7628,20 @@
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="P1:Q1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B2:F10">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1302D64C-2ADB-4295-AA31-F653B049888E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 P3" xr:uid="{96EB9BDC-37E1-40F0-B4A3-820B0927F47B}">
       <formula1>$A$2:$A$10</formula1>
@@ -7640,6 +7654,25 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1302D64C-2ADB-4295-AA31-F653B049888E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:F10</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42129194-6E9E-4FC1-B463-978A8BC6824D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48E0F05-1BD2-4DE2-BAA0-AFD39C3216FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ventas!$A$1:$A$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ventas!$A$1:$I$184</definedName>
     <definedName name="JR_PAGE_ANCHOR_0_1">[1]Ventas!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>Vendedor</t>
   </si>
@@ -226,6 +226,12 @@
   <si>
     <t>Total por Concepto</t>
   </si>
+  <si>
+    <t>ID Mes</t>
+  </si>
+  <si>
+    <t>ID Dia</t>
+  </si>
 </sst>
 </file>
 
@@ -234,7 +240,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode=";;;"/>
+    <numFmt numFmtId="165" formatCode=";;;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -531,7 +537,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -566,12 +572,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,9 +584,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -616,25 +613,33 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -2450,4254 +2455,5727 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C0ADA3-4C22-4CF9-8AD3-3A127D5F6CB1}">
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="3"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="3"/>
+    <col min="4" max="4" width="16" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44562</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="50">
+        <f>MONTH(A2)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="50">
+        <f>WEEKDAY(A2,2)</f>
+        <v>6</v>
+      </c>
+      <c r="D2" s="51">
+        <v>0</v>
+      </c>
+      <c r="E2" s="51">
+        <v>0</v>
+      </c>
+      <c r="F2" s="51">
+        <v>0</v>
+      </c>
+      <c r="G2" s="51">
+        <v>0</v>
+      </c>
+      <c r="H2" s="51">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44563</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="50">
+        <f t="shared" ref="B3:B66" si="0">MONTH(A3)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="50">
+        <f t="shared" ref="C3:C66" si="1">WEEKDAY(A3,2)</f>
+        <v>7</v>
+      </c>
+      <c r="D3" s="51">
         <v>3574.28</v>
       </c>
-      <c r="C3">
+      <c r="E3" s="51">
         <v>3459.57</v>
       </c>
-      <c r="D3">
+      <c r="F3" s="51">
         <v>114.71</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="G3" s="51">
+        <v>0</v>
+      </c>
+      <c r="H3" s="51">
         <v>1908.81</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44564</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="51">
         <v>4942.17</v>
       </c>
-      <c r="C4">
+      <c r="E4" s="51">
         <v>4942.17</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="51">
+        <v>0</v>
+      </c>
+      <c r="G4" s="51">
+        <v>0</v>
+      </c>
+      <c r="H4" s="51">
         <v>2553.7800000000002</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44565</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="51">
         <v>5551.82</v>
       </c>
-      <c r="C5">
+      <c r="E5" s="51">
         <v>5108.04</v>
       </c>
-      <c r="D5">
+      <c r="F5" s="51">
         <v>443.78</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="G5" s="51">
+        <v>0</v>
+      </c>
+      <c r="H5" s="51">
         <v>2692.46</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44566</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="50">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="51">
         <v>6001.55</v>
       </c>
-      <c r="C6">
+      <c r="E6" s="51">
         <v>5876.3</v>
       </c>
-      <c r="D6">
+      <c r="F6" s="51">
         <v>125.25</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="G6" s="51">
+        <v>0</v>
+      </c>
+      <c r="H6" s="51">
         <v>3018.65</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44567</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7" s="50">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="51">
         <v>4118.8900000000003</v>
       </c>
-      <c r="C7">
+      <c r="E7" s="51">
         <v>3962.21</v>
       </c>
-      <c r="D7">
+      <c r="F7" s="51">
         <v>156.68</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="G7" s="51">
+        <v>0</v>
+      </c>
+      <c r="H7" s="51">
         <v>2053.39</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44568</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="50">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="51">
         <v>5649.31</v>
       </c>
-      <c r="C8">
+      <c r="E8" s="51">
         <v>4933.16</v>
       </c>
-      <c r="D8">
+      <c r="F8" s="51">
         <v>716.15</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="G8" s="51">
+        <v>0</v>
+      </c>
+      <c r="H8" s="51">
         <v>2779.85</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44569</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="50">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="51">
         <v>5302.13</v>
       </c>
-      <c r="C9">
+      <c r="E9" s="51">
         <v>4907.66</v>
       </c>
-      <c r="D9">
+      <c r="F9" s="51">
         <v>394.47</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="G9" s="51">
+        <v>0</v>
+      </c>
+      <c r="H9" s="51">
         <v>2587.8000000000002</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44570</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="50">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="51">
         <v>3478.01</v>
       </c>
-      <c r="C10">
+      <c r="E10" s="51">
         <v>1596.41</v>
       </c>
-      <c r="D10">
+      <c r="F10" s="51">
         <v>1881.6</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="G10" s="51">
+        <v>0</v>
+      </c>
+      <c r="H10" s="51">
         <v>1746.17</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44571</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="51">
         <v>7573.72</v>
       </c>
-      <c r="C11">
+      <c r="E11" s="51">
         <v>2347.08</v>
       </c>
-      <c r="D11">
+      <c r="F11" s="51">
         <v>94.28</v>
       </c>
-      <c r="E11">
+      <c r="G11" s="51">
         <v>5132.3599999999997</v>
       </c>
-      <c r="F11">
+      <c r="H11" s="51">
         <v>3802.33</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44572</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="51">
         <v>4226.25</v>
       </c>
-      <c r="C12">
+      <c r="E12" s="51">
         <v>3692.89</v>
       </c>
-      <c r="D12">
+      <c r="F12" s="51">
         <v>533.36</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="G12" s="51">
+        <v>0</v>
+      </c>
+      <c r="H12" s="51">
         <v>2411.77</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44573</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="50">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="51">
         <v>4172.46</v>
       </c>
-      <c r="C13">
+      <c r="E13" s="51">
         <v>4172.46</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="F13" s="51">
+        <v>0</v>
+      </c>
+      <c r="G13" s="51">
+        <v>0</v>
+      </c>
+      <c r="H13" s="51">
         <v>2291.9499999999998</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44574</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="50">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D14" s="51">
         <v>3580.9</v>
       </c>
-      <c r="C14">
+      <c r="E14" s="51">
         <v>3217.79</v>
       </c>
-      <c r="D14">
+      <c r="F14" s="51">
         <v>363.11</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="G14" s="51">
+        <v>0</v>
+      </c>
+      <c r="H14" s="51">
         <v>2032.93</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44575</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C15" s="50">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D15" s="51">
         <v>3503.12</v>
       </c>
-      <c r="C15">
+      <c r="E15" s="51">
         <v>2831.55</v>
       </c>
-      <c r="D15">
+      <c r="F15" s="51">
         <v>671.57</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="G15" s="51">
+        <v>0</v>
+      </c>
+      <c r="H15" s="51">
         <v>1996.33</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44576</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C16" s="50">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D16" s="51">
         <v>6727.53</v>
       </c>
-      <c r="C16">
+      <c r="E16" s="51">
         <v>5752.18</v>
       </c>
-      <c r="D16">
+      <c r="F16" s="51">
         <v>975.35</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="G16" s="51">
+        <v>0</v>
+      </c>
+      <c r="H16" s="51">
         <v>3750.84</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44577</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="50">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D17" s="51">
         <v>3620.16</v>
       </c>
-      <c r="C17">
+      <c r="E17" s="51">
         <v>3216.57</v>
       </c>
-      <c r="D17">
+      <c r="F17" s="51">
         <v>403.59</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="G17" s="51">
+        <v>0</v>
+      </c>
+      <c r="H17" s="51">
         <v>2127.77</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44578</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="51">
         <v>3178.41</v>
       </c>
-      <c r="C18">
+      <c r="E18" s="51">
         <v>3154.41</v>
       </c>
-      <c r="D18">
+      <c r="F18" s="51">
         <v>24</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="G18" s="51">
+        <v>0</v>
+      </c>
+      <c r="H18" s="51">
         <v>1826.18</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44579</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C19" s="50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="51">
         <v>3765.94</v>
       </c>
-      <c r="C19">
+      <c r="E19" s="51">
         <v>3388.37</v>
       </c>
-      <c r="D19">
+      <c r="F19" s="51">
         <v>377.57</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="G19" s="51">
+        <v>0</v>
+      </c>
+      <c r="H19" s="51">
         <v>2082.56</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44580</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C20" s="50">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D20" s="51">
         <v>3966.48</v>
       </c>
-      <c r="C20">
+      <c r="E20" s="51">
         <v>3605.21</v>
       </c>
-      <c r="D20">
+      <c r="F20" s="51">
         <v>361.27</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="G20" s="51">
+        <v>0</v>
+      </c>
+      <c r="H20" s="51">
         <v>2216.8200000000002</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44581</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="50">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D21" s="51">
         <v>3706.63</v>
       </c>
-      <c r="C21">
+      <c r="E21" s="51">
         <v>3706.63</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="F21" s="51">
+        <v>0</v>
+      </c>
+      <c r="G21" s="51">
+        <v>0</v>
+      </c>
+      <c r="H21" s="51">
         <v>2076.33</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44582</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C22" s="50">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D22" s="51">
         <v>2753.61</v>
       </c>
-      <c r="C22">
+      <c r="E22" s="51">
         <v>2753.61</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="F22" s="51">
+        <v>0</v>
+      </c>
+      <c r="G22" s="51">
+        <v>0</v>
+      </c>
+      <c r="H22" s="51">
         <v>1611.89</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44583</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="50">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D23" s="51">
         <v>6177.15</v>
       </c>
-      <c r="C23">
+      <c r="E23" s="51">
         <v>4991.5600000000004</v>
       </c>
-      <c r="D23">
+      <c r="F23" s="51">
         <v>1185.5899999999999</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="G23" s="51">
+        <v>0</v>
+      </c>
+      <c r="H23" s="51">
         <v>3505.85</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44584</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C24" s="50">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D24" s="51">
         <v>2919.39</v>
       </c>
-      <c r="C24">
+      <c r="E24" s="51">
         <v>2833.64</v>
       </c>
-      <c r="D24">
+      <c r="F24" s="51">
         <v>85.75</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="G24" s="51">
+        <v>0</v>
+      </c>
+      <c r="H24" s="51">
         <v>1654.02</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44585</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C25" s="50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="51">
         <v>3034.94</v>
       </c>
-      <c r="C25">
+      <c r="E25" s="51">
         <v>2721.46</v>
       </c>
-      <c r="D25">
+      <c r="F25" s="51">
         <v>313.48</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="G25" s="51">
+        <v>0</v>
+      </c>
+      <c r="H25" s="51">
         <v>1758.41</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44586</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C26" s="50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D26" s="51">
         <v>2491.39</v>
       </c>
-      <c r="C26">
+      <c r="E26" s="51">
         <v>2365.77</v>
       </c>
-      <c r="D26">
+      <c r="F26" s="51">
         <v>125.62</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
+      <c r="G26" s="51">
+        <v>0</v>
+      </c>
+      <c r="H26" s="51">
         <v>1430.55</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44587</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C27" s="50">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D27" s="51">
         <v>1881.23</v>
       </c>
-      <c r="C27">
+      <c r="E27" s="51">
         <v>1714.15</v>
       </c>
-      <c r="D27">
+      <c r="F27" s="51">
         <v>167.08</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
+      <c r="G27" s="51">
+        <v>0</v>
+      </c>
+      <c r="H27" s="51">
         <v>1141.31</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44588</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C28" s="50">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D28" s="51">
         <v>2533.27</v>
       </c>
-      <c r="C28">
+      <c r="E28" s="51">
         <v>1714.63</v>
       </c>
-      <c r="D28">
+      <c r="F28" s="51">
         <v>818.64</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="G28" s="51">
+        <v>0</v>
+      </c>
+      <c r="H28" s="51">
         <v>1442.5</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44589</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="50">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D29" s="51">
         <v>4445.8599999999997</v>
       </c>
-      <c r="C29">
+      <c r="E29" s="51">
         <v>4286.07</v>
       </c>
-      <c r="D29">
+      <c r="F29" s="51">
         <v>159.79</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="G29" s="51">
+        <v>0</v>
+      </c>
+      <c r="H29" s="51">
         <v>2488.38</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>44590</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C30" s="50">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D30" s="51">
         <v>3152.18</v>
       </c>
-      <c r="C30">
+      <c r="E30" s="51">
         <v>2150.65</v>
       </c>
-      <c r="D30">
+      <c r="F30" s="51">
         <v>1001.53</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="G30" s="51">
+        <v>0</v>
+      </c>
+      <c r="H30" s="51">
         <v>1844.08</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>44591</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C31" s="50">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D31" s="51">
         <v>2940.98</v>
       </c>
-      <c r="C31">
+      <c r="E31" s="51">
         <v>2819.89</v>
       </c>
-      <c r="D31">
+      <c r="F31" s="51">
         <v>121.09</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
+      <c r="G31" s="51">
+        <v>0</v>
+      </c>
+      <c r="H31" s="51">
         <v>1669.58</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44592</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C32" s="50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="51">
         <v>4221.26</v>
       </c>
-      <c r="C32">
+      <c r="E32" s="51">
         <v>4169.25</v>
       </c>
-      <c r="D32">
+      <c r="F32" s="51">
         <v>52.01</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
+      <c r="G32" s="51">
+        <v>0</v>
+      </c>
+      <c r="H32" s="51">
         <v>2391.35</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44593</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C33" s="50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D33" s="51">
         <v>4717.8500000000004</v>
       </c>
-      <c r="C33">
+      <c r="E33" s="51">
         <v>4360.6400000000003</v>
       </c>
-      <c r="D33">
+      <c r="F33" s="51">
         <v>357.21</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
+      <c r="G33" s="51">
+        <v>0</v>
+      </c>
+      <c r="H33" s="51">
         <v>2616.06</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>44594</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C34" s="50">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D34" s="51">
         <v>4845.28</v>
       </c>
-      <c r="C34">
+      <c r="E34" s="51">
         <v>4845.28</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="F34" s="51">
+        <v>0</v>
+      </c>
+      <c r="G34" s="51">
+        <v>0</v>
+      </c>
+      <c r="H34" s="51">
         <v>2699.69</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>44595</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C35" s="50">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D35" s="51">
         <v>3418.45</v>
       </c>
-      <c r="C35">
+      <c r="E35" s="51">
         <v>3305.74</v>
       </c>
-      <c r="D35">
+      <c r="F35" s="51">
         <v>112.71</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
+      <c r="G35" s="51">
+        <v>0</v>
+      </c>
+      <c r="H35" s="51">
         <v>1962.65</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44596</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C36" s="50">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D36" s="51">
         <v>3483.92</v>
       </c>
-      <c r="C36">
+      <c r="E36" s="51">
         <v>2786.75</v>
       </c>
-      <c r="D36">
+      <c r="F36" s="51">
         <v>697.17</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
+      <c r="G36" s="51">
+        <v>0</v>
+      </c>
+      <c r="H36" s="51">
         <v>1975.94</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>44597</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C37" s="50">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D37" s="51">
         <v>4180.18</v>
       </c>
-      <c r="C37">
+      <c r="E37" s="51">
         <v>3462.69</v>
       </c>
-      <c r="D37">
+      <c r="F37" s="51">
         <v>717.49</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
+      <c r="G37" s="51">
+        <v>0</v>
+      </c>
+      <c r="H37" s="51">
         <v>2371.66</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44598</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C38" s="50">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D38" s="51">
         <v>2630.46</v>
       </c>
-      <c r="C38">
+      <c r="E38" s="51">
         <v>1803.43</v>
       </c>
-      <c r="D38">
+      <c r="F38" s="51">
         <v>827.03</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
+      <c r="G38" s="51">
+        <v>0</v>
+      </c>
+      <c r="H38" s="51">
         <v>1669.58</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44599</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C39" s="50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="51">
         <v>2654.27</v>
       </c>
-      <c r="C39">
+      <c r="E39" s="51">
         <v>2012.41</v>
       </c>
-      <c r="D39">
+      <c r="F39" s="51">
         <v>641.86</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
+      <c r="G39" s="51">
+        <v>0</v>
+      </c>
+      <c r="H39" s="51">
         <v>1524.11</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>44600</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C40" s="50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D40" s="51">
         <v>1405.34</v>
       </c>
-      <c r="C40">
+      <c r="E40" s="51">
         <v>1405.34</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
+      <c r="F40" s="51">
+        <v>0</v>
+      </c>
+      <c r="G40" s="51">
+        <v>0</v>
+      </c>
+      <c r="H40" s="51">
         <v>824.49</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>44601</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C41" s="50">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D41" s="51">
         <v>3204.92</v>
       </c>
-      <c r="C41">
+      <c r="E41" s="51">
         <v>2472.89</v>
       </c>
-      <c r="D41">
+      <c r="F41" s="51">
         <v>732.03</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
+      <c r="G41" s="51">
+        <v>0</v>
+      </c>
+      <c r="H41" s="51">
         <v>1810.88</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>44602</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C42" s="50">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D42" s="51">
         <v>3167.18</v>
       </c>
-      <c r="C42">
+      <c r="E42" s="51">
         <v>2983.18</v>
       </c>
-      <c r="D42">
+      <c r="F42" s="51">
         <v>184</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="G42" s="51">
+        <v>0</v>
+      </c>
+      <c r="H42" s="51">
         <v>1773.28</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>44603</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C43" s="50">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D43" s="51">
         <v>2384.7800000000002</v>
       </c>
-      <c r="C43">
+      <c r="E43" s="51">
         <v>2384.7800000000002</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
+      <c r="F43" s="51">
+        <v>0</v>
+      </c>
+      <c r="G43" s="51">
+        <v>0</v>
+      </c>
+      <c r="H43" s="51">
         <v>1326.82</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>44604</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C44" s="50">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D44" s="51">
         <v>4758.67</v>
       </c>
-      <c r="C44">
+      <c r="E44" s="51">
         <v>4515.74</v>
       </c>
-      <c r="D44">
+      <c r="F44" s="51">
         <v>242.93</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="G44" s="51">
+        <v>0</v>
+      </c>
+      <c r="H44" s="51">
         <v>2747.11</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44605</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C45" s="50">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D45" s="51">
         <v>2562.7199999999998</v>
       </c>
-      <c r="C45">
+      <c r="E45" s="51">
         <v>2031.79</v>
       </c>
-      <c r="D45">
+      <c r="F45" s="51">
         <v>530.92999999999995</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
+      <c r="G45" s="51">
+        <v>0</v>
+      </c>
+      <c r="H45" s="51">
         <v>1417.57</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44606</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C46" s="50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D46" s="51">
         <v>2791.7</v>
       </c>
-      <c r="C46">
+      <c r="E46" s="51">
         <v>2753.01</v>
       </c>
-      <c r="D46">
+      <c r="F46" s="51">
         <v>38.69</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
+      <c r="G46" s="51">
+        <v>0</v>
+      </c>
+      <c r="H46" s="51">
         <v>1599.99</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>44607</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C47" s="50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D47" s="51">
         <v>6054.22</v>
       </c>
-      <c r="C47">
+      <c r="E47" s="51">
         <v>5314.25</v>
       </c>
-      <c r="D47">
+      <c r="F47" s="51">
         <v>739.97</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
+      <c r="G47" s="51">
+        <v>0</v>
+      </c>
+      <c r="H47" s="51">
         <v>3472.59</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44608</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C48" s="50">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D48" s="51">
         <v>4255.83</v>
       </c>
-      <c r="C48">
+      <c r="E48" s="51">
         <v>4245.07</v>
       </c>
-      <c r="D48">
+      <c r="F48" s="51">
         <v>10.76</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
+      <c r="G48" s="51">
+        <v>0</v>
+      </c>
+      <c r="H48" s="51">
         <v>2387.1799999999998</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44609</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C49" s="50">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D49" s="51">
         <v>4820.66</v>
       </c>
-      <c r="C49">
+      <c r="E49" s="51">
         <v>3842.05</v>
       </c>
-      <c r="D49">
+      <c r="F49" s="51">
         <v>978.61</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
+      <c r="G49" s="51">
+        <v>0</v>
+      </c>
+      <c r="H49" s="51">
         <v>2765.3</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44610</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C50" s="50">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D50" s="51">
         <v>2980.8</v>
       </c>
-      <c r="C50">
+      <c r="E50" s="51">
         <v>2980.8</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
+      <c r="F50" s="51">
+        <v>0</v>
+      </c>
+      <c r="G50" s="51">
+        <v>0</v>
+      </c>
+      <c r="H50" s="51">
         <v>1736.15</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>44611</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C51" s="50">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D51" s="51">
         <v>5728.46</v>
       </c>
-      <c r="C51">
+      <c r="E51" s="51">
         <v>4623.34</v>
       </c>
-      <c r="D51">
+      <c r="F51" s="51">
         <v>1105.1199999999999</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
+      <c r="G51" s="51">
+        <v>0</v>
+      </c>
+      <c r="H51" s="51">
         <v>3210.62</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>44612</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C52" s="50">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D52" s="51">
         <v>5559.94</v>
       </c>
-      <c r="C52">
+      <c r="E52" s="51">
         <v>2744.5</v>
       </c>
-      <c r="D52">
+      <c r="F52" s="51">
         <v>2815.44</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
+      <c r="G52" s="51">
+        <v>0</v>
+      </c>
+      <c r="H52" s="51">
         <v>1440.61</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>44613</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C53" s="50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D53" s="51">
         <v>4966.54</v>
       </c>
-      <c r="C53">
+      <c r="E53" s="51">
         <v>4085.99</v>
       </c>
-      <c r="D53">
+      <c r="F53" s="51">
         <v>880.55</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
+      <c r="G53" s="51">
+        <v>0</v>
+      </c>
+      <c r="H53" s="51">
         <v>2924.42</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>44614</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C54" s="50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D54" s="51">
         <v>4648.99</v>
       </c>
-      <c r="C54">
+      <c r="E54" s="51">
         <v>4545.76</v>
       </c>
-      <c r="D54">
+      <c r="F54" s="51">
         <v>103.23</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
+      <c r="G54" s="51">
+        <v>0</v>
+      </c>
+      <c r="H54" s="51">
         <v>2535.5100000000002</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>44615</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C55" s="50">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D55" s="51">
         <v>3440.66</v>
       </c>
-      <c r="C55">
+      <c r="E55" s="51">
         <v>2997.29</v>
       </c>
-      <c r="D55">
+      <c r="F55" s="51">
         <v>443.37</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
+      <c r="G55" s="51">
+        <v>0</v>
+      </c>
+      <c r="H55" s="51">
         <v>1976.46</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>44616</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C56" s="50">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D56" s="51">
         <v>4088.09</v>
       </c>
-      <c r="C56">
+      <c r="E56" s="51">
         <v>3492.17</v>
       </c>
-      <c r="D56">
+      <c r="F56" s="51">
         <v>595.91999999999996</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
+      <c r="G56" s="51">
+        <v>0</v>
+      </c>
+      <c r="H56" s="51">
         <v>2317.0700000000002</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>44617</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C57" s="50">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D57" s="51">
         <v>2918.34</v>
       </c>
-      <c r="C57">
+      <c r="E57" s="51">
         <v>2489.85</v>
       </c>
-      <c r="D57">
+      <c r="F57" s="51">
         <v>428.49</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
+      <c r="G57" s="51">
+        <v>0</v>
+      </c>
+      <c r="H57" s="51">
         <v>1668.94</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44618</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C58" s="50">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D58" s="51">
         <v>7506.01</v>
       </c>
-      <c r="C58">
+      <c r="E58" s="51">
         <v>4240.6499999999996</v>
       </c>
-      <c r="D58">
+      <c r="F58" s="51">
         <v>3265.36</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
+      <c r="G58" s="51">
+        <v>0</v>
+      </c>
+      <c r="H58" s="51">
         <v>4222.74</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44619</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C59" s="50">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D59" s="51">
         <v>3184.52</v>
       </c>
-      <c r="C59">
+      <c r="E59" s="51">
         <v>2716.03</v>
       </c>
-      <c r="D59">
+      <c r="F59" s="51">
         <v>468.49</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
+      <c r="G59" s="51">
+        <v>0</v>
+      </c>
+      <c r="H59" s="51">
         <v>3015.9</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44620</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C60" s="50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D60" s="51">
         <v>4329.66</v>
       </c>
-      <c r="C60">
+      <c r="E60" s="51">
         <v>3982.75</v>
       </c>
-      <c r="D60">
+      <c r="F60" s="51">
         <v>346.91</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
+      <c r="G60" s="51">
+        <v>0</v>
+      </c>
+      <c r="H60" s="51">
+        <v>0</v>
+      </c>
+      <c r="I60">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>44621</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C61" s="50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D61" s="51">
         <v>6669.52</v>
       </c>
-      <c r="C61">
+      <c r="E61" s="51">
         <v>5792.44</v>
       </c>
-      <c r="D61">
+      <c r="F61" s="51">
         <v>877.08</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
+      <c r="G61" s="51">
+        <v>0</v>
+      </c>
+      <c r="H61" s="51">
+        <v>0</v>
+      </c>
+      <c r="I61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>44622</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C62" s="50">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D62" s="51">
         <v>2966.54</v>
       </c>
-      <c r="C62">
+      <c r="E62" s="51">
         <v>2898.01</v>
       </c>
-      <c r="D62">
+      <c r="F62" s="51">
         <v>68.53</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
+      <c r="G62" s="51">
+        <v>0</v>
+      </c>
+      <c r="H62" s="51">
+        <v>0</v>
+      </c>
+      <c r="I62">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>44623</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C63" s="50">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D63" s="51">
         <v>6080.77</v>
       </c>
-      <c r="C63">
+      <c r="E63" s="51">
         <v>4636.5600000000004</v>
       </c>
-      <c r="D63">
+      <c r="F63" s="51">
         <v>1444.21</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
+      <c r="G63" s="51">
+        <v>0</v>
+      </c>
+      <c r="H63" s="51">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>44624</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C64" s="50">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D64" s="51">
         <v>3690.55</v>
       </c>
-      <c r="C64">
+      <c r="E64" s="51">
         <v>3490.55</v>
       </c>
-      <c r="D64">
+      <c r="F64" s="51">
         <v>200</v>
       </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
+      <c r="G64" s="51">
+        <v>0</v>
+      </c>
+      <c r="H64" s="51">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>44625</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C65" s="50">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D65" s="51">
         <v>5746.1</v>
       </c>
-      <c r="C65">
+      <c r="E65" s="51">
         <v>4348.95</v>
       </c>
-      <c r="D65">
+      <c r="F65" s="51">
         <v>1397.15</v>
       </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
+      <c r="G65" s="51">
+        <v>0</v>
+      </c>
+      <c r="H65" s="51">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44626</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C66" s="50">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D66" s="51">
         <v>3095.82</v>
       </c>
-      <c r="C66">
+      <c r="E66" s="51">
         <v>2103.2800000000002</v>
       </c>
-      <c r="D66">
+      <c r="F66" s="51">
         <v>992.54</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
+      <c r="G66" s="51">
+        <v>0</v>
+      </c>
+      <c r="H66" s="51">
         <v>1751.75</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>44627</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="50">
+        <f t="shared" ref="B67:B130" si="2">MONTH(A67)</f>
+        <v>3</v>
+      </c>
+      <c r="C67" s="50">
+        <f t="shared" ref="C67:C130" si="3">WEEKDAY(A67,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D67" s="51">
         <v>3740.32</v>
       </c>
-      <c r="C67">
+      <c r="E67" s="51">
         <v>3377.27</v>
       </c>
-      <c r="D67">
+      <c r="F67" s="51">
         <v>363.05</v>
       </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
+      <c r="G67" s="51">
+        <v>0</v>
+      </c>
+      <c r="H67" s="51">
         <v>2132.7800000000002</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44628</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C68" s="50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D68" s="51">
         <v>5725.4</v>
       </c>
-      <c r="C68">
+      <c r="E68" s="51">
         <v>4397.01</v>
       </c>
-      <c r="D68">
+      <c r="F68" s="51">
         <v>1328.39</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
+      <c r="G68" s="51">
+        <v>0</v>
+      </c>
+      <c r="H68" s="51">
         <v>3161.2</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44629</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C69" s="50">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D69" s="51">
         <v>2361.6999999999998</v>
       </c>
-      <c r="C69">
+      <c r="E69" s="51">
         <v>2361.6999999999998</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
+      <c r="F69" s="51">
+        <v>0</v>
+      </c>
+      <c r="G69" s="51">
+        <v>0</v>
+      </c>
+      <c r="H69" s="51">
         <v>1436.16</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44630</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C70" s="50">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D70" s="51">
         <v>3606.48</v>
       </c>
-      <c r="C70">
+      <c r="E70" s="51">
         <v>3297.16</v>
       </c>
-      <c r="D70">
+      <c r="F70" s="51">
         <v>309.32</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
+      <c r="G70" s="51">
+        <v>0</v>
+      </c>
+      <c r="H70" s="51">
         <v>2165.2199999999998</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>44631</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C71" s="50">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D71" s="51">
         <v>4566.46</v>
       </c>
-      <c r="C71">
+      <c r="E71" s="51">
         <v>3666.12</v>
       </c>
-      <c r="D71">
+      <c r="F71" s="51">
         <v>725.34</v>
       </c>
-      <c r="E71">
+      <c r="G71" s="51">
         <v>175</v>
       </c>
-      <c r="F71">
+      <c r="H71" s="51">
         <v>2708.65</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44632</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C72" s="50">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D72" s="51">
         <v>2883.33</v>
       </c>
-      <c r="C72">
+      <c r="E72" s="51">
         <v>2424.5</v>
       </c>
-      <c r="D72">
+      <c r="F72" s="51">
         <v>458.83</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
+      <c r="G72" s="51">
+        <v>0</v>
+      </c>
+      <c r="H72" s="51">
         <v>1764.21</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>44633</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C73" s="50">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D73" s="51">
         <v>1853.87</v>
       </c>
-      <c r="C73">
+      <c r="E73" s="51">
         <v>1323.77</v>
       </c>
-      <c r="D73">
+      <c r="F73" s="51">
         <v>530.1</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
+      <c r="G73" s="51">
+        <v>0</v>
+      </c>
+      <c r="H73" s="51">
         <v>1137.25</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>44634</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C74" s="50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D74" s="51">
         <v>5483.77</v>
       </c>
-      <c r="C74">
+      <c r="E74" s="51">
         <v>3538.24</v>
       </c>
-      <c r="D74">
+      <c r="F74" s="51">
         <v>1945.53</v>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
+      <c r="G74" s="51">
+        <v>0</v>
+      </c>
+      <c r="H74" s="51">
         <v>3209.25</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>44635</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C75" s="50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D75" s="51">
         <v>5135.18</v>
       </c>
-      <c r="C75">
+      <c r="E75" s="51">
         <v>4967.13</v>
       </c>
-      <c r="D75">
+      <c r="F75" s="51">
         <v>168.05</v>
       </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
+      <c r="G75" s="51">
+        <v>0</v>
+      </c>
+      <c r="H75" s="51">
         <v>3103.21</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>44636</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C76" s="50">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D76" s="51">
         <v>3445.95</v>
       </c>
-      <c r="C76">
+      <c r="E76" s="51">
         <v>3445.95</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
+      <c r="F76" s="51">
+        <v>0</v>
+      </c>
+      <c r="G76" s="51">
+        <v>0</v>
+      </c>
+      <c r="H76" s="51">
         <v>2116.91</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>44637</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C77" s="50">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D77" s="51">
         <v>4681.26</v>
       </c>
-      <c r="C77">
+      <c r="E77" s="51">
         <v>3801.2</v>
       </c>
-      <c r="D77">
+      <c r="F77" s="51">
         <v>880.06</v>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
+      <c r="G77" s="51">
+        <v>0</v>
+      </c>
+      <c r="H77" s="51">
         <v>2789.94</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>44638</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C78" s="50">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D78" s="51">
         <v>4252.0200000000004</v>
       </c>
-      <c r="C78">
+      <c r="E78" s="51">
         <v>3042.13</v>
       </c>
-      <c r="D78">
+      <c r="F78" s="51">
         <v>1209.8900000000001</v>
       </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
+      <c r="G78" s="51">
+        <v>0</v>
+      </c>
+      <c r="H78" s="51">
         <v>2512.66</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>44639</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C79" s="50">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D79" s="51">
         <v>3686.54</v>
       </c>
-      <c r="C79">
+      <c r="E79" s="51">
         <v>3434.56</v>
       </c>
-      <c r="D79">
+      <c r="F79" s="51">
         <v>251.98</v>
       </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
+      <c r="G79" s="51">
+        <v>0</v>
+      </c>
+      <c r="H79" s="51">
         <v>2280.5</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44640</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C80" s="50">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D80" s="51">
         <v>3334.67</v>
       </c>
-      <c r="C80">
+      <c r="E80" s="51">
         <v>2580.8000000000002</v>
       </c>
-      <c r="D80">
+      <c r="F80" s="51">
         <v>753.87</v>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
+      <c r="G80" s="51">
+        <v>0</v>
+      </c>
+      <c r="H80" s="51">
         <v>2009.86</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>44641</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C81" s="50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D81" s="51">
         <v>3020.49</v>
       </c>
-      <c r="C81">
+      <c r="E81" s="51">
         <v>3020.49</v>
       </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
+      <c r="F81" s="51">
+        <v>0</v>
+      </c>
+      <c r="G81" s="51">
+        <v>0</v>
+      </c>
+      <c r="H81" s="51">
         <v>1712.65</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>44642</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C82" s="50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D82" s="51">
         <v>1648.64</v>
       </c>
-      <c r="C82">
+      <c r="E82" s="51">
         <v>1615.65</v>
       </c>
-      <c r="D82">
+      <c r="F82" s="51">
         <v>32.99</v>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
+      <c r="G82" s="51">
+        <v>0</v>
+      </c>
+      <c r="H82" s="51">
         <v>1045.55</v>
       </c>
-      <c r="G82">
+      <c r="I82">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>44643</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C83" s="50">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D83" s="51">
         <v>2574.2399999999998</v>
       </c>
-      <c r="C83">
+      <c r="E83" s="51">
         <v>2371.16</v>
       </c>
-      <c r="D83">
+      <c r="F83" s="51">
         <v>203.08</v>
       </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
+      <c r="G83" s="51">
+        <v>0</v>
+      </c>
+      <c r="H83" s="51">
         <v>1536.1</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>44644</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C84" s="50">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D84" s="51">
         <v>2477.08</v>
       </c>
-      <c r="C84">
+      <c r="E84" s="51">
         <v>2477.08</v>
       </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
+      <c r="F84" s="51">
+        <v>0</v>
+      </c>
+      <c r="G84" s="51">
+        <v>0</v>
+      </c>
+      <c r="H84" s="51">
         <v>1449.1</v>
       </c>
-      <c r="G84">
+      <c r="I84">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>44645</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C85" s="50">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D85" s="51">
         <v>4972.6000000000004</v>
       </c>
-      <c r="C85">
+      <c r="E85" s="51">
         <v>4293.55</v>
       </c>
-      <c r="D85">
+      <c r="F85" s="51">
         <v>679.05</v>
       </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
+      <c r="G85" s="51">
+        <v>0</v>
+      </c>
+      <c r="H85" s="51">
         <v>3010.9</v>
       </c>
-      <c r="G85">
+      <c r="I85">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>44646</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C86" s="50">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D86" s="51">
         <v>5208.8999999999996</v>
       </c>
-      <c r="C86">
+      <c r="E86" s="51">
         <v>4718.82</v>
       </c>
-      <c r="D86">
+      <c r="F86" s="51">
         <v>490.08</v>
       </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
+      <c r="G86" s="51">
+        <v>0</v>
+      </c>
+      <c r="H86" s="51">
         <v>3079.53</v>
       </c>
-      <c r="G86">
+      <c r="I86">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>44647</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C87" s="50">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D87" s="51">
         <v>1700.68</v>
       </c>
-      <c r="C87">
+      <c r="E87" s="51">
         <v>1371.44</v>
       </c>
-      <c r="D87">
+      <c r="F87" s="51">
         <v>329.24</v>
       </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
+      <c r="G87" s="51">
+        <v>0</v>
+      </c>
+      <c r="H87" s="51">
         <v>996.19</v>
       </c>
-      <c r="G87">
+      <c r="I87">
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>44648</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C88" s="50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D88" s="51">
         <v>4589.2700000000004</v>
       </c>
-      <c r="C88">
+      <c r="E88" s="51">
         <v>3800.38</v>
       </c>
-      <c r="D88">
+      <c r="F88" s="51">
         <v>788.89</v>
       </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
+      <c r="G88" s="51">
+        <v>0</v>
+      </c>
+      <c r="H88" s="51">
         <v>2821.77</v>
       </c>
-      <c r="G88">
+      <c r="I88">
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>44649</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C89" s="50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D89" s="51">
         <v>3952.03</v>
       </c>
-      <c r="C89">
+      <c r="E89" s="51">
         <v>3196.76</v>
       </c>
-      <c r="D89">
+      <c r="F89" s="51">
         <v>755.27</v>
       </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
+      <c r="G89" s="51">
+        <v>0</v>
+      </c>
+      <c r="H89" s="51">
         <v>2391.38</v>
       </c>
-      <c r="G89">
+      <c r="I89">
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>44650</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C90" s="50">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D90" s="51">
         <v>2922.44</v>
       </c>
-      <c r="C90">
+      <c r="E90" s="51">
         <v>2621.94</v>
       </c>
-      <c r="D90">
+      <c r="F90" s="51">
         <v>300.5</v>
       </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
+      <c r="G90" s="51">
+        <v>0</v>
+      </c>
+      <c r="H90" s="51">
         <v>1680.93</v>
       </c>
-      <c r="G90">
+      <c r="I90">
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>44651</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="50">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C91" s="50">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D91" s="51">
         <v>5354.57</v>
       </c>
-      <c r="C91">
+      <c r="E91" s="51">
         <v>4756.67</v>
       </c>
-      <c r="D91">
+      <c r="F91" s="51">
         <v>597.9</v>
       </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
+      <c r="G91" s="51">
+        <v>0</v>
+      </c>
+      <c r="H91" s="51">
         <v>3130.67</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>44652</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C92" s="50">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D92" s="51">
         <v>10255.379999999999</v>
       </c>
-      <c r="C92">
+      <c r="E92" s="51">
         <v>8344.65</v>
       </c>
-      <c r="D92">
+      <c r="F92" s="51">
         <v>1910.73</v>
       </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
+      <c r="G92" s="51">
+        <v>0</v>
+      </c>
+      <c r="H92" s="51">
         <v>6062.86</v>
       </c>
-      <c r="G92">
+      <c r="I92">
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>44653</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C93" s="50">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D93" s="51">
         <v>3892.35</v>
       </c>
-      <c r="C93">
+      <c r="E93" s="51">
         <v>3256.02</v>
       </c>
-      <c r="D93">
+      <c r="F93" s="51">
         <v>636.33000000000004</v>
       </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
+      <c r="G93" s="51">
+        <v>0</v>
+      </c>
+      <c r="H93" s="51">
         <v>2363.4</v>
       </c>
-      <c r="G93">
+      <c r="I93">
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>44654</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C94" s="50">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D94" s="51">
         <v>1394.7</v>
       </c>
-      <c r="C94">
+      <c r="E94" s="51">
         <v>1257.75</v>
       </c>
-      <c r="D94">
+      <c r="F94" s="51">
         <v>136.94999999999999</v>
       </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
+      <c r="G94" s="51">
+        <v>0</v>
+      </c>
+      <c r="H94" s="51">
         <v>849.14</v>
       </c>
-      <c r="G94">
+      <c r="I94">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>44655</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C95" s="50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D95" s="51">
         <v>2904.19</v>
       </c>
-      <c r="C95">
+      <c r="E95" s="51">
         <v>2723.13</v>
       </c>
-      <c r="D95">
+      <c r="F95" s="51">
         <v>181.06</v>
       </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
+      <c r="G95" s="51">
+        <v>0</v>
+      </c>
+      <c r="H95" s="51">
         <v>1778.45</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>44656</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C96" s="50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D96" s="51">
         <v>3574.76</v>
       </c>
-      <c r="C96">
+      <c r="E96" s="51">
         <v>3106.79</v>
       </c>
-      <c r="D96">
+      <c r="F96" s="51">
         <v>467.97</v>
       </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
+      <c r="G96" s="51">
+        <v>0</v>
+      </c>
+      <c r="H96" s="51">
         <v>2169.77</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44657</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C97" s="50">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D97" s="51">
         <v>3552.24</v>
       </c>
-      <c r="C97">
+      <c r="E97" s="51">
         <v>3143.27</v>
       </c>
-      <c r="D97">
+      <c r="F97" s="51">
         <v>408.97</v>
       </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
+      <c r="G97" s="51">
+        <v>0</v>
+      </c>
+      <c r="H97" s="51">
         <v>2140.11</v>
       </c>
-      <c r="G97">
+      <c r="I97">
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>44658</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C98" s="50">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D98" s="51">
         <v>4385.3500000000004</v>
       </c>
-      <c r="C98">
+      <c r="E98" s="51">
         <v>4385.3500000000004</v>
       </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
+      <c r="F98" s="51">
+        <v>0</v>
+      </c>
+      <c r="G98" s="51">
+        <v>0</v>
+      </c>
+      <c r="H98" s="51">
         <v>2619.86</v>
       </c>
-      <c r="G98">
+      <c r="I98">
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>44659</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C99" s="50">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D99" s="51">
         <v>4999.97</v>
       </c>
-      <c r="C99">
+      <c r="E99" s="51">
         <v>3970.51</v>
       </c>
-      <c r="D99">
+      <c r="F99" s="51">
         <v>1029.46</v>
       </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
+      <c r="G99" s="51">
+        <v>0</v>
+      </c>
+      <c r="H99" s="51">
         <v>2937.99</v>
       </c>
-      <c r="G99">
+      <c r="I99">
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44660</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C100" s="50">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D100" s="51">
         <v>4886.8999999999996</v>
       </c>
-      <c r="C100">
+      <c r="E100" s="51">
         <v>3893.99</v>
       </c>
-      <c r="D100">
+      <c r="F100" s="51">
         <v>992.91</v>
       </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
+      <c r="G100" s="51">
+        <v>0</v>
+      </c>
+      <c r="H100" s="51">
         <v>2862.35</v>
       </c>
-      <c r="G100">
+      <c r="I100">
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>44661</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C101" s="50">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D101" s="51">
         <v>2396.5700000000002</v>
       </c>
-      <c r="C101">
+      <c r="E101" s="51">
         <v>1637.17</v>
       </c>
-      <c r="D101">
+      <c r="F101" s="51">
         <v>759.4</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
+      <c r="G101" s="51">
+        <v>0</v>
+      </c>
+      <c r="H101" s="51">
         <v>1412</v>
       </c>
-      <c r="G101">
+      <c r="I101">
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>44662</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C102" s="50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D102" s="51">
         <v>3934.62</v>
       </c>
-      <c r="C102">
+      <c r="E102" s="51">
         <v>3762.78</v>
       </c>
-      <c r="D102">
+      <c r="F102" s="51">
         <v>171.84</v>
       </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
+      <c r="G102" s="51">
+        <v>0</v>
+      </c>
+      <c r="H102" s="51">
         <v>2347.96</v>
       </c>
-      <c r="G102">
+      <c r="I102">
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>44663</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C103" s="50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D103" s="51">
         <v>7285.53</v>
       </c>
-      <c r="C103">
+      <c r="E103" s="51">
         <v>6415.1</v>
       </c>
-      <c r="D103">
+      <c r="F103" s="51">
         <v>870.43</v>
       </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
+      <c r="G103" s="51">
+        <v>0</v>
+      </c>
+      <c r="H103" s="51">
         <v>4354.87</v>
       </c>
-      <c r="G103">
+      <c r="I103">
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>44664</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C104" s="50">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D104" s="51">
         <v>7784.47</v>
       </c>
-      <c r="C104">
+      <c r="E104" s="51">
         <v>7167.97</v>
       </c>
-      <c r="D104">
+      <c r="F104" s="51">
         <v>616.5</v>
       </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
+      <c r="G104" s="51">
+        <v>0</v>
+      </c>
+      <c r="H104" s="51">
         <v>4730.93</v>
       </c>
-      <c r="G104">
+      <c r="I104">
         <v>66</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>44665</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C105" s="50">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D105" s="51">
         <v>2113.21</v>
       </c>
-      <c r="C105">
+      <c r="E105" s="51">
         <v>1467.32</v>
       </c>
-      <c r="D105">
+      <c r="F105" s="51">
         <v>645.89</v>
       </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
+      <c r="G105" s="51">
+        <v>0</v>
+      </c>
+      <c r="H105" s="51">
         <v>1275.03</v>
       </c>
-      <c r="G105">
+      <c r="I105">
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>44666</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C106" s="50">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D106" s="51">
         <v>2323.02</v>
       </c>
-      <c r="C106">
+      <c r="E106" s="51">
         <v>2107.75</v>
       </c>
-      <c r="D106">
+      <c r="F106" s="51">
         <v>215.27</v>
       </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
+      <c r="G106" s="51">
+        <v>0</v>
+      </c>
+      <c r="H106" s="51">
         <v>1364.52</v>
       </c>
-      <c r="G106">
+      <c r="I106">
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>44667</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C107" s="50">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D107" s="51">
         <v>2517.63</v>
       </c>
-      <c r="C107">
+      <c r="E107" s="51">
         <v>1915.96</v>
       </c>
-      <c r="D107">
+      <c r="F107" s="51">
         <v>601.66999999999996</v>
       </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
+      <c r="G107" s="51">
+        <v>0</v>
+      </c>
+      <c r="H107" s="51">
         <v>1519.54</v>
       </c>
-      <c r="G107">
+      <c r="I107">
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>44668</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C108" s="50">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D108" s="51">
         <v>3773.66</v>
       </c>
-      <c r="C108">
+      <c r="E108" s="51">
         <v>3511.46</v>
       </c>
-      <c r="D108">
+      <c r="F108" s="51">
         <v>262.2</v>
       </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
+      <c r="G108" s="51">
+        <v>0</v>
+      </c>
+      <c r="H108" s="51">
         <v>2285.61</v>
       </c>
-      <c r="G108">
+      <c r="I108">
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>44669</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C109" s="50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D109" s="51">
         <v>4332.58</v>
       </c>
-      <c r="C109">
+      <c r="E109" s="51">
         <v>3719.02</v>
       </c>
-      <c r="D109">
+      <c r="F109" s="51">
         <v>613.55999999999995</v>
       </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
+      <c r="G109" s="51">
+        <v>0</v>
+      </c>
+      <c r="H109" s="51">
         <v>2577.2800000000002</v>
       </c>
-      <c r="G109">
+      <c r="I109">
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>44670</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C110" s="50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D110" s="51">
         <v>4677.13</v>
       </c>
-      <c r="C110">
+      <c r="E110" s="51">
         <v>4677.13</v>
       </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
+      <c r="F110" s="51">
+        <v>0</v>
+      </c>
+      <c r="G110" s="51">
+        <v>0</v>
+      </c>
+      <c r="H110" s="51">
         <v>2738.63</v>
       </c>
-      <c r="G110">
+      <c r="I110">
         <v>57</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>44671</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C111" s="50">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D111" s="51">
         <v>7803.19</v>
       </c>
-      <c r="C111">
+      <c r="E111" s="51">
         <v>7326.64</v>
       </c>
-      <c r="D111">
+      <c r="F111" s="51">
         <v>476.55</v>
       </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
+      <c r="G111" s="51">
+        <v>0</v>
+      </c>
+      <c r="H111" s="51">
         <v>4624.54</v>
       </c>
-      <c r="G111">
+      <c r="I111">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>44672</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C112" s="50">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D112" s="51">
         <v>4054.63</v>
       </c>
-      <c r="C112">
+      <c r="E112" s="51">
         <v>3408.61</v>
       </c>
-      <c r="D112">
+      <c r="F112" s="51">
         <v>646.02</v>
       </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
+      <c r="G112" s="51">
+        <v>0</v>
+      </c>
+      <c r="H112" s="51">
         <v>2478.44</v>
       </c>
-      <c r="G112">
+      <c r="I112">
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>44673</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C113" s="50">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D113" s="51">
         <v>3629.81</v>
       </c>
-      <c r="C113">
+      <c r="E113" s="51">
         <v>3038.84</v>
       </c>
-      <c r="D113">
+      <c r="F113" s="51">
         <v>590.97</v>
       </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
+      <c r="G113" s="51">
+        <v>0</v>
+      </c>
+      <c r="H113" s="51">
         <v>2063.79</v>
       </c>
-      <c r="G113">
+      <c r="I113">
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>44674</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C114" s="50">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D114" s="51">
         <v>2972.21</v>
       </c>
-      <c r="C114">
+      <c r="E114" s="51">
         <v>2714.06</v>
       </c>
-      <c r="D114">
+      <c r="F114" s="51">
         <v>258.14999999999998</v>
       </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
+      <c r="G114" s="51">
+        <v>0</v>
+      </c>
+      <c r="H114" s="51">
         <v>1788.48</v>
       </c>
-      <c r="G114">
+      <c r="I114">
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>44675</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C115" s="50">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D115" s="51">
         <v>1497.54</v>
       </c>
-      <c r="C115">
+      <c r="E115" s="51">
         <v>1497.54</v>
       </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
+      <c r="F115" s="51">
+        <v>0</v>
+      </c>
+      <c r="G115" s="51">
+        <v>0</v>
+      </c>
+      <c r="H115" s="51">
         <v>882.46</v>
       </c>
-      <c r="G115">
+      <c r="I115">
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>44676</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C116" s="50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D116" s="51">
         <v>3894.87</v>
       </c>
-      <c r="C116">
+      <c r="E116" s="51">
         <v>3577.5</v>
       </c>
-      <c r="D116">
+      <c r="F116" s="51">
         <v>317.37</v>
       </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
+      <c r="G116" s="51">
+        <v>0</v>
+      </c>
+      <c r="H116" s="51">
         <v>2377.1</v>
       </c>
-      <c r="G116">
+      <c r="I116">
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>44677</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C117" s="50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D117" s="51">
         <v>2496.5700000000002</v>
       </c>
-      <c r="C117">
+      <c r="E117" s="51">
         <v>2496.5700000000002</v>
       </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
+      <c r="F117" s="51">
+        <v>0</v>
+      </c>
+      <c r="G117" s="51">
+        <v>0</v>
+      </c>
+      <c r="H117" s="51">
         <v>1464.89</v>
       </c>
-      <c r="G117">
+      <c r="I117">
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>44678</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C118" s="50">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D118" s="51">
         <v>2155.31</v>
       </c>
-      <c r="C118">
+      <c r="E118" s="51">
         <v>2126.83</v>
       </c>
-      <c r="D118">
+      <c r="F118" s="51">
         <v>28.48</v>
       </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
+      <c r="G118" s="51">
+        <v>0</v>
+      </c>
+      <c r="H118" s="51">
         <v>1304.44</v>
       </c>
-      <c r="G118">
+      <c r="I118">
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>44679</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C119" s="50">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D119" s="51">
         <v>3407.9</v>
       </c>
-      <c r="C119">
+      <c r="E119" s="51">
         <v>2741.14</v>
       </c>
-      <c r="D119">
+      <c r="F119" s="51">
         <v>666.76</v>
       </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
+      <c r="G119" s="51">
+        <v>0</v>
+      </c>
+      <c r="H119" s="51">
         <v>2015.66</v>
       </c>
-      <c r="G119">
+      <c r="I119">
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>44680</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C120" s="50">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D120" s="51">
         <v>2724.02</v>
       </c>
-      <c r="C120">
+      <c r="E120" s="51">
         <v>2616.0300000000002</v>
       </c>
-      <c r="D120">
+      <c r="F120" s="51">
         <v>107.99</v>
       </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
+      <c r="G120" s="51">
+        <v>0</v>
+      </c>
+      <c r="H120" s="51">
         <v>1600.48</v>
       </c>
-      <c r="G120">
+      <c r="I120">
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>44681</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="50">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C121" s="50">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D121" s="51">
         <v>2936.9</v>
       </c>
-      <c r="C121">
+      <c r="E121" s="51">
         <v>2120.46</v>
       </c>
-      <c r="D121">
+      <c r="F121" s="51">
         <v>816.44</v>
       </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
+      <c r="G121" s="51">
+        <v>0</v>
+      </c>
+      <c r="H121" s="51">
         <v>1733.86</v>
       </c>
-      <c r="G121">
+      <c r="I121">
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>44682</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="50">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C122" s="50">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D122" s="51">
         <v>2299.4899999999998</v>
       </c>
-      <c r="C122">
+      <c r="E122" s="51">
         <v>1844.27</v>
       </c>
-      <c r="D122">
+      <c r="F122" s="51">
         <v>455.22</v>
       </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
+      <c r="G122" s="51">
+        <v>0</v>
+      </c>
+      <c r="H122" s="51">
         <v>1358.02</v>
       </c>
-      <c r="G122">
+      <c r="I122">
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>44683</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="50">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C123" s="50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D123" s="51">
         <v>5005.97</v>
       </c>
-      <c r="C123">
+      <c r="E123" s="51">
         <v>4914.97</v>
       </c>
-      <c r="D123">
+      <c r="F123" s="51">
         <v>91</v>
       </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
+      <c r="G123" s="51">
+        <v>0</v>
+      </c>
+      <c r="H123" s="51">
         <v>2991.38</v>
       </c>
-      <c r="G123">
+      <c r="I123">
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>44684</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="50">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C124" s="50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D124" s="51">
         <v>3559.06</v>
       </c>
-      <c r="C124">
+      <c r="E124" s="51">
         <v>3026.82</v>
       </c>
-      <c r="D124">
+      <c r="F124" s="51">
         <v>532.24</v>
       </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
+      <c r="G124" s="51">
+        <v>0</v>
+      </c>
+      <c r="H124" s="51">
         <v>2125.69</v>
       </c>
-      <c r="G124">
+      <c r="I124">
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>44685</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="50">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C125" s="50">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D125" s="51">
         <v>3769.1</v>
       </c>
-      <c r="C125">
+      <c r="E125" s="51">
         <v>3769.1</v>
       </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
+      <c r="F125" s="51">
+        <v>0</v>
+      </c>
+      <c r="G125" s="51">
+        <v>0</v>
+      </c>
+      <c r="H125" s="51">
         <v>2195.29</v>
       </c>
-      <c r="G125">
+      <c r="I125">
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>44686</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="50">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C126" s="50">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D126" s="51">
         <v>4005.34</v>
       </c>
-      <c r="C126">
+      <c r="E126" s="51">
         <v>3073.37</v>
       </c>
-      <c r="D126">
+      <c r="F126" s="51">
         <v>931.97</v>
       </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
+      <c r="G126" s="51">
+        <v>0</v>
+      </c>
+      <c r="H126" s="51">
         <v>2362.7600000000002</v>
       </c>
-      <c r="G126">
+      <c r="I126">
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>44687</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="50">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C127" s="50">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D127" s="51">
         <v>3641.77</v>
       </c>
-      <c r="C127">
+      <c r="E127" s="51">
         <v>3097.47</v>
       </c>
-      <c r="D127">
+      <c r="F127" s="51">
         <v>544.29999999999995</v>
       </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
+      <c r="G127" s="51">
+        <v>0</v>
+      </c>
+      <c r="H127" s="51">
         <v>2215.27</v>
       </c>
-      <c r="G127">
+      <c r="I127">
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>44688</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="50">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C128" s="50">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D128" s="51">
         <v>3771.87</v>
       </c>
-      <c r="C128">
+      <c r="E128" s="51">
         <v>3606.46</v>
       </c>
-      <c r="D128">
+      <c r="F128" s="51">
         <v>165.41</v>
       </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
+      <c r="G128" s="51">
+        <v>0</v>
+      </c>
+      <c r="H128" s="51">
         <v>2210.9</v>
       </c>
-      <c r="G128">
+      <c r="I128">
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>44689</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="50">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C129" s="50">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D129" s="51">
         <v>4323.88</v>
       </c>
-      <c r="C129">
+      <c r="E129" s="51">
         <v>4121.76</v>
       </c>
-      <c r="D129">
+      <c r="F129" s="51">
         <v>202.12</v>
       </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
+      <c r="G129" s="51">
+        <v>0</v>
+      </c>
+      <c r="H129" s="51">
         <v>2500.27</v>
       </c>
-      <c r="G129">
+      <c r="I129">
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>44690</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="50">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C130" s="50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D130" s="51">
         <v>6576.87</v>
       </c>
-      <c r="C130">
+      <c r="E130" s="51">
         <v>4606.3999999999996</v>
       </c>
-      <c r="D130">
+      <c r="F130" s="51">
         <v>1970.47</v>
       </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
+      <c r="G130" s="51">
+        <v>0</v>
+      </c>
+      <c r="H130" s="51">
         <v>3815.44</v>
       </c>
-      <c r="G130">
+      <c r="I130">
         <v>47</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>44691</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="50">
+        <f t="shared" ref="B131:B184" si="4">MONTH(A131)</f>
+        <v>5</v>
+      </c>
+      <c r="C131" s="50">
+        <f t="shared" ref="C131:C184" si="5">WEEKDAY(A131,2)</f>
+        <v>2</v>
+      </c>
+      <c r="D131" s="51">
         <v>4187.87</v>
       </c>
-      <c r="C131">
+      <c r="E131" s="51">
         <v>3274.09</v>
       </c>
-      <c r="D131">
+      <c r="F131" s="51">
         <v>546.08000000000004</v>
       </c>
-      <c r="E131">
+      <c r="G131" s="51">
         <v>367.7</v>
       </c>
-      <c r="F131">
+      <c r="H131" s="51">
         <v>2428.3000000000002</v>
       </c>
-      <c r="G131">
+      <c r="I131">
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>44692</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C132" s="50">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D132" s="51">
         <v>2697</v>
       </c>
-      <c r="C132">
+      <c r="E132" s="51">
         <v>2265.39</v>
       </c>
-      <c r="D132">
+      <c r="F132" s="51">
         <v>431.61</v>
       </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
+      <c r="G132" s="51">
+        <v>0</v>
+      </c>
+      <c r="H132" s="51">
         <v>1614.29</v>
       </c>
-      <c r="G132">
+      <c r="I132">
         <v>33</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>44693</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C133" s="50">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D133" s="51">
         <v>5016.97</v>
       </c>
-      <c r="C133">
+      <c r="E133" s="51">
         <v>3192.75</v>
       </c>
-      <c r="D133">
+      <c r="F133" s="51">
         <v>1824.22</v>
       </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
+      <c r="G133" s="51">
+        <v>0</v>
+      </c>
+      <c r="H133" s="51">
         <v>2935.17</v>
       </c>
-      <c r="G133">
+      <c r="I133">
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>44694</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C134" s="50">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D134" s="51">
         <v>6800.97</v>
       </c>
-      <c r="C134">
+      <c r="E134" s="51">
         <v>5259.85</v>
       </c>
-      <c r="D134">
+      <c r="F134" s="51">
         <v>1541.12</v>
       </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
+      <c r="G134" s="51">
+        <v>0</v>
+      </c>
+      <c r="H134" s="51">
         <v>4028.82</v>
       </c>
-      <c r="G134">
+      <c r="I134">
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>44695</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C135" s="50">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D135" s="51">
         <v>6474.39</v>
       </c>
-      <c r="C135">
+      <c r="E135" s="51">
         <v>4850.71</v>
       </c>
-      <c r="D135">
+      <c r="F135" s="51">
         <v>1400.68</v>
       </c>
-      <c r="E135">
+      <c r="G135" s="51">
         <v>223</v>
       </c>
-      <c r="F135">
+      <c r="H135" s="51">
         <v>3760.14</v>
       </c>
-      <c r="G135">
+      <c r="I135">
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>44696</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C136" s="50">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D136" s="51">
         <v>2278.7600000000002</v>
       </c>
-      <c r="C136">
+      <c r="E136" s="51">
         <v>2011.17</v>
       </c>
-      <c r="D136">
+      <c r="F136" s="51">
         <v>267.58999999999997</v>
       </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
+      <c r="G136" s="51">
+        <v>0</v>
+      </c>
+      <c r="H136" s="51">
         <v>1349.34</v>
       </c>
-      <c r="G136">
+      <c r="I136">
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>44697</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C137" s="50">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D137" s="51">
         <v>6836.33</v>
       </c>
-      <c r="C137">
+      <c r="E137" s="51">
         <v>5687.98</v>
       </c>
-      <c r="D137">
+      <c r="F137" s="51">
         <v>1148.3499999999999</v>
       </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
+      <c r="G137" s="51">
+        <v>0</v>
+      </c>
+      <c r="H137" s="51">
         <v>4091.26</v>
       </c>
-      <c r="G137">
+      <c r="I137">
         <v>60</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>44698</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C138" s="50">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D138" s="51">
         <v>2978.96</v>
       </c>
-      <c r="C138">
+      <c r="E138" s="51">
         <v>2784.96</v>
       </c>
-      <c r="D138">
+      <c r="F138" s="51">
         <v>194</v>
       </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
+      <c r="G138" s="51">
+        <v>0</v>
+      </c>
+      <c r="H138" s="51">
         <v>1801.97</v>
       </c>
-      <c r="G138">
+      <c r="I138">
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>44699</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C139" s="50">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D139" s="51">
         <v>3994.34</v>
       </c>
-      <c r="C139">
+      <c r="E139" s="51">
         <v>2886.69</v>
       </c>
-      <c r="D139">
+      <c r="F139" s="51">
         <v>1107.6500000000001</v>
       </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
+      <c r="G139" s="51">
+        <v>0</v>
+      </c>
+      <c r="H139" s="51">
         <v>2329.9499999999998</v>
       </c>
-      <c r="G139">
+      <c r="I139">
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>44700</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C140" s="50">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D140" s="51">
         <v>3841.43</v>
       </c>
-      <c r="C140">
+      <c r="E140" s="51">
         <v>3668.32</v>
       </c>
-      <c r="D140">
+      <c r="F140" s="51">
         <v>173.11</v>
       </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
+      <c r="G140" s="51">
+        <v>0</v>
+      </c>
+      <c r="H140" s="51">
         <v>2337.63</v>
       </c>
-      <c r="G140">
+      <c r="I140">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>44701</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C141" s="50">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D141" s="51">
         <v>5256.21</v>
       </c>
-      <c r="C141">
+      <c r="E141" s="51">
         <v>4466.4799999999996</v>
       </c>
-      <c r="D141">
+      <c r="F141" s="51">
         <v>318.81</v>
       </c>
-      <c r="E141">
+      <c r="G141" s="51">
         <v>470.92</v>
       </c>
-      <c r="F141">
+      <c r="H141" s="51">
         <v>3190.74</v>
       </c>
-      <c r="G141">
+      <c r="I141">
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>44702</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C142" s="50">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D142" s="51">
         <v>4876.71</v>
       </c>
-      <c r="C142">
+      <c r="E142" s="51">
         <v>4139.45</v>
       </c>
-      <c r="D142">
+      <c r="F142" s="51">
         <v>737.26</v>
       </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
+      <c r="G142" s="51">
+        <v>0</v>
+      </c>
+      <c r="H142" s="51">
         <v>2880.41</v>
       </c>
-      <c r="G142">
+      <c r="I142">
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>44703</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C143" s="50">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D143" s="51">
         <v>3625.34</v>
       </c>
-      <c r="C143">
+      <c r="E143" s="51">
         <v>2363.54</v>
       </c>
-      <c r="D143">
+      <c r="F143" s="51">
         <v>1261.8</v>
       </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
+      <c r="G143" s="51">
+        <v>0</v>
+      </c>
+      <c r="H143" s="51">
         <v>2172.88</v>
       </c>
-      <c r="G143">
+      <c r="I143">
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>44704</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C144" s="50">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D144" s="51">
         <v>2353.56</v>
       </c>
-      <c r="C144">
+      <c r="E144" s="51">
         <v>1970.94</v>
       </c>
-      <c r="D144">
+      <c r="F144" s="51">
         <v>382.62</v>
       </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
+      <c r="G144" s="51">
+        <v>0</v>
+      </c>
+      <c r="H144" s="51">
         <v>1398.95</v>
       </c>
-      <c r="G144">
+      <c r="I144">
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>44705</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C145" s="50">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D145" s="51">
         <v>2837.77</v>
       </c>
-      <c r="C145">
+      <c r="E145" s="51">
         <v>2560.34</v>
       </c>
-      <c r="D145">
+      <c r="F145" s="51">
         <v>277.43</v>
       </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
+      <c r="G145" s="51">
+        <v>0</v>
+      </c>
+      <c r="H145" s="51">
         <v>1671.61</v>
       </c>
-      <c r="G145">
+      <c r="I145">
         <v>33</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>44706</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C146" s="50">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D146" s="51">
         <v>6485.35</v>
       </c>
-      <c r="C146">
+      <c r="E146" s="51">
         <v>5601.1</v>
       </c>
-      <c r="D146">
+      <c r="F146" s="51">
         <v>884.25</v>
       </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
+      <c r="G146" s="51">
+        <v>0</v>
+      </c>
+      <c r="H146" s="51">
         <v>3843.54</v>
       </c>
-      <c r="G146">
+      <c r="I146">
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>44707</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C147" s="50">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D147" s="51">
         <v>4079.26</v>
       </c>
-      <c r="C147">
+      <c r="E147" s="51">
         <v>3574.25</v>
       </c>
-      <c r="D147">
+      <c r="F147" s="51">
         <v>505.01</v>
       </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
+      <c r="G147" s="51">
+        <v>0</v>
+      </c>
+      <c r="H147" s="51">
         <v>2365.6</v>
       </c>
-      <c r="G147">
+      <c r="I147">
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>44708</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C148" s="50">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D148" s="51">
         <v>6378.39</v>
       </c>
-      <c r="C148">
+      <c r="E148" s="51">
         <v>4568.8100000000004</v>
       </c>
-      <c r="D148">
+      <c r="F148" s="51">
         <v>903.56</v>
       </c>
-      <c r="E148">
+      <c r="G148" s="51">
         <v>906.02</v>
       </c>
-      <c r="F148">
+      <c r="H148" s="51">
         <v>3894.37</v>
       </c>
-      <c r="G148">
+      <c r="I148">
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>44709</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C149" s="50">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D149" s="51">
         <v>3786.59</v>
       </c>
-      <c r="C149">
+      <c r="E149" s="51">
         <v>3228.34</v>
       </c>
-      <c r="D149">
+      <c r="F149" s="51">
         <v>376.56</v>
       </c>
-      <c r="E149">
+      <c r="G149" s="51">
         <v>181.69</v>
       </c>
-      <c r="F149">
+      <c r="H149" s="51">
         <v>2274.87</v>
       </c>
-      <c r="G149">
+      <c r="I149">
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>44710</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C150" s="50">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D150" s="51">
         <v>3963.06</v>
       </c>
-      <c r="C150">
+      <c r="E150" s="51">
         <v>3963.06</v>
       </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
+      <c r="F150" s="51">
+        <v>0</v>
+      </c>
+      <c r="G150" s="51">
+        <v>0</v>
+      </c>
+      <c r="H150" s="51">
         <v>2283.02</v>
       </c>
-      <c r="G150">
+      <c r="I150">
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>44711</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C151" s="50">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D151" s="51">
         <v>4594.9449999999997</v>
       </c>
-      <c r="C151">
+      <c r="E151" s="51">
         <v>3829.46</v>
       </c>
-      <c r="D151">
+      <c r="F151" s="51">
         <v>765.48500000000001</v>
       </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
+      <c r="G151" s="51">
+        <v>0</v>
+      </c>
+      <c r="H151" s="51">
         <v>2665.0681</v>
       </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>44712</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C152" s="50">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D152" s="51">
         <v>2908.3649999999998</v>
       </c>
-      <c r="C152">
+      <c r="E152" s="51">
         <v>2672.65</v>
       </c>
-      <c r="D152">
+      <c r="F152" s="51">
         <v>235.715</v>
       </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152">
+      <c r="G152" s="51">
+        <v>0</v>
+      </c>
+      <c r="H152" s="51">
         <v>1657.7680499999999</v>
       </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>44568</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C153" s="50">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D153" s="51">
         <v>5649.31</v>
       </c>
-      <c r="C153">
+      <c r="E153" s="51">
         <v>4933.16</v>
       </c>
-      <c r="D153">
+      <c r="F153" s="51">
         <v>716.15</v>
       </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
+      <c r="G153" s="51">
+        <v>0</v>
+      </c>
+      <c r="H153" s="51">
         <v>2779.85</v>
       </c>
-      <c r="G153">
+      <c r="I153">
         <v>59</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>44575</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C154" s="50">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D154" s="51">
         <v>3503.12</v>
       </c>
-      <c r="C154">
+      <c r="E154" s="51">
         <v>2831.55</v>
       </c>
-      <c r="D154">
+      <c r="F154" s="51">
         <v>671.57</v>
       </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154">
+      <c r="G154" s="51">
+        <v>0</v>
+      </c>
+      <c r="H154" s="51">
         <v>1996.33</v>
       </c>
-      <c r="G154">
+      <c r="I154">
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>44576</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C155" s="50">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D155" s="51">
         <v>6727.53</v>
       </c>
-      <c r="C155">
+      <c r="E155" s="51">
         <v>5752.18</v>
       </c>
-      <c r="D155">
+      <c r="F155" s="51">
         <v>975.35</v>
       </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
+      <c r="G155" s="51">
+        <v>0</v>
+      </c>
+      <c r="H155" s="51">
         <v>3750.84</v>
       </c>
-      <c r="G155">
+      <c r="I155">
         <v>48</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>44577</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C156" s="50">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D156" s="51">
         <v>3620.16</v>
       </c>
-      <c r="C156">
+      <c r="E156" s="51">
         <v>3216.57</v>
       </c>
-      <c r="D156">
+      <c r="F156" s="51">
         <v>403.59</v>
       </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156">
+      <c r="G156" s="51">
+        <v>0</v>
+      </c>
+      <c r="H156" s="51">
         <v>2127.77</v>
       </c>
-      <c r="G156">
+      <c r="I156">
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>44616</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="50">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C157" s="50">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D157" s="51">
         <v>4088.09</v>
       </c>
-      <c r="C157">
+      <c r="E157" s="51">
         <v>3492.17</v>
       </c>
-      <c r="D157">
+      <c r="F157" s="51">
         <v>595.91999999999996</v>
       </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157">
+      <c r="G157" s="51">
+        <v>0</v>
+      </c>
+      <c r="H157" s="51">
         <v>2317.0700000000002</v>
       </c>
-      <c r="G157">
+      <c r="I157">
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>44617</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="50">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C158" s="50">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D158" s="51">
         <v>2918.34</v>
       </c>
-      <c r="C158">
+      <c r="E158" s="51">
         <v>2489.85</v>
       </c>
-      <c r="D158">
+      <c r="F158" s="51">
         <v>428.49</v>
       </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
+      <c r="G158" s="51">
+        <v>0</v>
+      </c>
+      <c r="H158" s="51">
         <v>1668.94</v>
       </c>
-      <c r="G158">
+      <c r="I158">
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>44618</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="50">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C159" s="50">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D159" s="51">
         <v>7506.01</v>
       </c>
-      <c r="C159">
+      <c r="E159" s="51">
         <v>4240.6499999999996</v>
       </c>
-      <c r="D159">
+      <c r="F159" s="51">
         <v>3265.36</v>
       </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159">
+      <c r="G159" s="51">
+        <v>0</v>
+      </c>
+      <c r="H159" s="51">
         <v>4222.74</v>
       </c>
-      <c r="G159">
+      <c r="I159">
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>44628</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="50">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C160" s="50">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D160" s="51">
         <v>5725.4</v>
       </c>
-      <c r="C160">
+      <c r="E160" s="51">
         <v>4397.01</v>
       </c>
-      <c r="D160">
+      <c r="F160" s="51">
         <v>1328.39</v>
       </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
+      <c r="G160" s="51">
+        <v>0</v>
+      </c>
+      <c r="H160" s="51">
         <v>3161.2</v>
       </c>
-      <c r="G160">
+      <c r="I160">
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>44658</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="50">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C161" s="50">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D161" s="51">
         <v>4385.3500000000004</v>
       </c>
-      <c r="C161">
+      <c r="E161" s="51">
         <v>4385.3500000000004</v>
       </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
+      <c r="F161" s="51">
+        <v>0</v>
+      </c>
+      <c r="G161" s="51">
+        <v>0</v>
+      </c>
+      <c r="H161" s="51">
         <v>2619.86</v>
       </c>
-      <c r="G161">
+      <c r="I161">
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>44659</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="50">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C162" s="50">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D162" s="51">
         <v>4999.97</v>
       </c>
-      <c r="C162">
+      <c r="E162" s="51">
         <v>3970.51</v>
       </c>
-      <c r="D162">
+      <c r="F162" s="51">
         <v>1029.46</v>
       </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-      <c r="F162">
+      <c r="G162" s="51">
+        <v>0</v>
+      </c>
+      <c r="H162" s="51">
         <v>2937.99</v>
       </c>
-      <c r="G162">
+      <c r="I162">
         <v>39</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>44660</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="50">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C163" s="50">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D163" s="51">
         <v>4886.8999999999996</v>
       </c>
-      <c r="C163">
+      <c r="E163" s="51">
         <v>3893.99</v>
       </c>
-      <c r="D163">
+      <c r="F163" s="51">
         <v>992.91</v>
       </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-      <c r="F163">
+      <c r="G163" s="51">
+        <v>0</v>
+      </c>
+      <c r="H163" s="51">
         <v>2862.35</v>
       </c>
-      <c r="G163">
+      <c r="I163">
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>44572</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C164" s="50">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D164" s="51">
         <v>4226.25</v>
       </c>
-      <c r="C164">
+      <c r="E164" s="51">
         <v>3692.89</v>
       </c>
-      <c r="D164">
+      <c r="F164" s="51">
         <v>533.36</v>
       </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
+      <c r="G164" s="51">
+        <v>0</v>
+      </c>
+      <c r="H164" s="51">
         <v>2411.77</v>
       </c>
-      <c r="G164">
+      <c r="I164">
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>44573</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C165" s="50">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D165" s="51">
         <v>4172.46</v>
       </c>
-      <c r="C165">
+      <c r="E165" s="51">
         <v>4172.46</v>
       </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
+      <c r="F165" s="51">
+        <v>0</v>
+      </c>
+      <c r="G165" s="51">
+        <v>0</v>
+      </c>
+      <c r="H165" s="51">
         <v>2291.9499999999998</v>
       </c>
-      <c r="G165">
+      <c r="I165">
         <v>48</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>44580</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C166" s="50">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D166" s="51">
         <v>3966.48</v>
       </c>
-      <c r="C166">
+      <c r="E166" s="51">
         <v>3605.21</v>
       </c>
-      <c r="D166">
+      <c r="F166" s="51">
         <v>361.27</v>
       </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166">
+      <c r="G166" s="51">
+        <v>0</v>
+      </c>
+      <c r="H166" s="51">
         <v>2216.8200000000002</v>
       </c>
-      <c r="G166">
+      <c r="I166">
         <v>53</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>44592</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C167" s="50">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D167" s="51">
         <v>4221.26</v>
       </c>
-      <c r="C167">
+      <c r="E167" s="51">
         <v>4169.25</v>
       </c>
-      <c r="D167">
+      <c r="F167" s="51">
         <v>52.01</v>
       </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-      <c r="F167">
+      <c r="G167" s="51">
+        <v>0</v>
+      </c>
+      <c r="H167" s="51">
         <v>2391.35</v>
       </c>
-      <c r="G167">
+      <c r="I167">
         <v>54</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>44598</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="50">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C168" s="50">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D168" s="51">
         <v>2630.46</v>
       </c>
-      <c r="C168">
+      <c r="E168" s="51">
         <v>1803.43</v>
       </c>
-      <c r="D168">
+      <c r="F168" s="51">
         <v>827.03</v>
       </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-      <c r="F168">
+      <c r="G168" s="51">
+        <v>0</v>
+      </c>
+      <c r="H168" s="51">
         <v>1669.58</v>
       </c>
-      <c r="G168">
+      <c r="I168">
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>44605</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="50">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C169" s="50">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D169" s="51">
         <v>2562.7199999999998</v>
       </c>
-      <c r="C169">
+      <c r="E169" s="51">
         <v>2031.79</v>
       </c>
-      <c r="D169">
+      <c r="F169" s="51">
         <v>530.92999999999995</v>
       </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
+      <c r="G169" s="51">
+        <v>0</v>
+      </c>
+      <c r="H169" s="51">
         <v>1417.57</v>
       </c>
-      <c r="G169">
+      <c r="I169">
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>44607</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="50">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C170" s="50">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D170" s="51">
         <v>6054.22</v>
       </c>
-      <c r="C170">
+      <c r="E170" s="51">
         <v>5314.25</v>
       </c>
-      <c r="D170">
+      <c r="F170" s="51">
         <v>739.97</v>
       </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-      <c r="F170">
+      <c r="G170" s="51">
+        <v>0</v>
+      </c>
+      <c r="H170" s="51">
         <v>3472.59</v>
       </c>
-      <c r="G170">
+      <c r="I170">
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>44618</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="50">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C171" s="50">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D171" s="51">
         <v>7506.01</v>
       </c>
-      <c r="C171">
+      <c r="E171" s="51">
         <v>4240.6499999999996</v>
       </c>
-      <c r="D171">
+      <c r="F171" s="51">
         <v>3265.36</v>
       </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171">
+      <c r="G171" s="51">
+        <v>0</v>
+      </c>
+      <c r="H171" s="51">
         <v>4222.74</v>
       </c>
-      <c r="G171">
+      <c r="I171">
         <v>49</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>44622</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="50">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C172" s="50">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D172" s="51">
         <v>2966.54</v>
       </c>
-      <c r="C172">
+      <c r="E172" s="51">
         <v>2898.01</v>
       </c>
-      <c r="D172">
+      <c r="F172" s="51">
         <v>68.53</v>
       </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
-      <c r="G172">
+      <c r="G172" s="51">
+        <v>0</v>
+      </c>
+      <c r="H172" s="51">
+        <v>0</v>
+      </c>
+      <c r="I172">
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>44630</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="50">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C173" s="50">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D173" s="51">
         <v>3606.48</v>
       </c>
-      <c r="C173">
+      <c r="E173" s="51">
         <v>3297.16</v>
       </c>
-      <c r="D173">
+      <c r="F173" s="51">
         <v>309.32</v>
       </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-      <c r="F173">
+      <c r="G173" s="51">
+        <v>0</v>
+      </c>
+      <c r="H173" s="51">
         <v>2165.2199999999998</v>
       </c>
-      <c r="G173">
+      <c r="I173">
         <v>44</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>44639</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="50">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C174" s="50">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D174" s="51">
         <v>3686.54</v>
       </c>
-      <c r="C174">
+      <c r="E174" s="51">
         <v>3434.56</v>
       </c>
-      <c r="D174">
+      <c r="F174" s="51">
         <v>251.98</v>
       </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-      <c r="F174">
+      <c r="G174" s="51">
+        <v>0</v>
+      </c>
+      <c r="H174" s="51">
         <v>2280.5</v>
       </c>
-      <c r="G174">
+      <c r="I174">
         <v>38</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>44650</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="50">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C175" s="50">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D175" s="51">
         <v>2922.44</v>
       </c>
-      <c r="C175">
+      <c r="E175" s="51">
         <v>2621.94</v>
       </c>
-      <c r="D175">
+      <c r="F175" s="51">
         <v>300.5</v>
       </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-      <c r="F175">
+      <c r="G175" s="51">
+        <v>0</v>
+      </c>
+      <c r="H175" s="51">
         <v>1680.93</v>
       </c>
-      <c r="G175">
+      <c r="I175">
         <v>29</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>44665</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="50">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C176" s="50">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D176" s="51">
         <v>2113.21</v>
       </c>
-      <c r="C176">
+      <c r="E176" s="51">
         <v>1467.32</v>
       </c>
-      <c r="D176">
+      <c r="F176" s="51">
         <v>645.89</v>
       </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-      <c r="F176">
+      <c r="G176" s="51">
+        <v>0</v>
+      </c>
+      <c r="H176" s="51">
         <v>1275.03</v>
       </c>
-      <c r="G176">
+      <c r="I176">
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>44688</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C177" s="50">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D177" s="51">
         <v>3771.87</v>
       </c>
-      <c r="C177">
+      <c r="E177" s="51">
         <v>3606.46</v>
       </c>
-      <c r="D177">
+      <c r="F177" s="51">
         <v>165.41</v>
       </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-      <c r="F177">
+      <c r="G177" s="51">
+        <v>0</v>
+      </c>
+      <c r="H177" s="51">
         <v>2210.9</v>
       </c>
-      <c r="G177">
+      <c r="I177">
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>44692</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C178" s="50">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D178" s="51">
         <v>2697</v>
       </c>
-      <c r="C178">
+      <c r="E178" s="51">
         <v>2265.39</v>
       </c>
-      <c r="D178">
+      <c r="F178" s="51">
         <v>431.61</v>
       </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178">
+      <c r="G178" s="51">
+        <v>0</v>
+      </c>
+      <c r="H178" s="51">
         <v>1614.29</v>
       </c>
-      <c r="G178">
+      <c r="I178">
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>44693</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C179" s="50">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D179" s="51">
         <v>5016.97</v>
       </c>
-      <c r="C179">
+      <c r="E179" s="51">
         <v>3192.75</v>
       </c>
-      <c r="D179">
+      <c r="F179" s="51">
         <v>1824.22</v>
       </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-      <c r="F179">
+      <c r="G179" s="51">
+        <v>0</v>
+      </c>
+      <c r="H179" s="51">
         <v>2935.17</v>
       </c>
-      <c r="G179">
+      <c r="I179">
         <v>48</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>44695</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C180" s="50">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D180" s="51">
         <v>6474.39</v>
       </c>
-      <c r="C180">
+      <c r="E180" s="51">
         <v>4850.71</v>
       </c>
-      <c r="D180">
+      <c r="F180" s="51">
         <v>1400.68</v>
       </c>
-      <c r="E180">
+      <c r="G180" s="51">
         <v>223</v>
       </c>
-      <c r="F180">
+      <c r="H180" s="51">
         <v>3760.14</v>
       </c>
-      <c r="G180">
+      <c r="I180">
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>44696</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C181" s="50">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D181" s="51">
         <v>2278.7600000000002</v>
       </c>
-      <c r="C181">
+      <c r="E181" s="51">
         <v>2011.17</v>
       </c>
-      <c r="D181">
+      <c r="F181" s="51">
         <v>267.58999999999997</v>
       </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-      <c r="F181">
+      <c r="G181" s="51">
+        <v>0</v>
+      </c>
+      <c r="H181" s="51">
         <v>1349.34</v>
       </c>
-      <c r="G181">
+      <c r="I181">
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>44709</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C182" s="50">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D182" s="51">
         <v>3786.59</v>
       </c>
-      <c r="C182">
+      <c r="E182" s="51">
         <v>3228.34</v>
       </c>
-      <c r="D182">
+      <c r="F182" s="51">
         <v>376.56</v>
       </c>
-      <c r="E182">
+      <c r="G182" s="51">
         <v>181.69</v>
       </c>
-      <c r="F182">
+      <c r="H182" s="51">
         <v>2274.87</v>
       </c>
-      <c r="G182">
+      <c r="I182">
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>44710</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="50">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C183" s="50">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D183" s="51">
         <v>3963.06</v>
       </c>
-      <c r="C183">
+      <c r="E183" s="51">
         <v>3963.06</v>
       </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
+      <c r="F183" s="51">
+        <v>0</v>
+      </c>
+      <c r="G183" s="51">
+        <v>0</v>
+      </c>
+      <c r="H183" s="51">
         <v>2283.02</v>
       </c>
-      <c r="G183">
+      <c r="I183">
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>44618</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="50">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C184" s="50">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D184" s="51">
         <v>7506.01</v>
       </c>
-      <c r="C184">
+      <c r="E184" s="51">
         <v>4240.6499999999996</v>
       </c>
-      <c r="D184">
+      <c r="F184" s="51">
         <v>3265.36</v>
       </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
-      <c r="F184">
+      <c r="G184" s="51">
+        <v>0</v>
+      </c>
+      <c r="H184" s="51">
         <v>4222.74</v>
       </c>
-      <c r="G184">
+      <c r="I184">
         <v>49</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I184" xr:uid="{B6C0ADA3-4C22-4CF9-8AD3-3A127D5F6CB1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6745,12 +8223,12 @@
       <c r="H1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6909,12 +8387,12 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="13" t="s">
@@ -6985,7 +8463,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7002,265 +8480,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="16">
         <v>2022</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <v>123191.02</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <v>45580.68</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="17">
         <v>34493.49</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="17">
         <v>43116.86</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="30" t="str">
+      <c r="G2" s="17"/>
+      <c r="H2" s="27" t="str">
         <f>IF(C2&lt;130000,IF(C2&lt;111000,"Venta Baja","Venta Promedio"),"Ventas Altas")</f>
         <v>Venta Promedio</v>
       </c>
-      <c r="I2" s="24" t="str">
+      <c r="I2" s="16" t="str">
         <f>IF(B2=2022,IF(C2&gt;120000,"Ventas Exitosas","Ventas Bajas"),"Otro año")</f>
         <v>Ventas Exitosas</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="30">
         <f>IF(B2=2022,C2,"No corresponde")</f>
         <v>123191.02</v>
       </c>
-      <c r="K2" s="24" t="str">
+      <c r="K2" s="16" t="str">
         <f>IF(AND(B2=2023,C2&gt;130000),C2,"No cumple")</f>
         <v>No cumple</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="22">
         <f>IF(B2=2022,AVERAGE(D2:F2),"No Cumple")</f>
         <v>41063.676666666666</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="23">
         <f>IF(OR(B2=2023,F2&gt;40000),C2,"No cumple")</f>
         <v>123191.02</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="16">
         <v>2022</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>110688.44</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <v>41884.949999999997</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <v>35725.4</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="17">
         <v>33078.1</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="30" t="str">
+      <c r="G3" s="17"/>
+      <c r="H3" s="27" t="str">
         <f t="shared" ref="H3:H6" si="0">IF(C3&lt;130000,IF(C3&lt;111000,"Venta Baja","Venta Promedio"),"Ventas Altas")</f>
         <v>Venta Baja</v>
       </c>
-      <c r="I3" s="24" t="str">
+      <c r="I3" s="16" t="str">
         <f t="shared" ref="I3:I6" si="1">IF(B3=2022,IF(C3&gt;120000,"Ventas Exitosas","Ventas Bajas"),"Otro año")</f>
         <v>Ventas Bajas</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="30">
         <f t="shared" ref="J3:J6" si="2">IF(B3=2022,C3,"No corresponde")</f>
         <v>110688.44</v>
       </c>
-      <c r="K3" s="24" t="str">
+      <c r="K3" s="16" t="str">
         <f t="shared" ref="K3:K6" si="3">IF(AND(B3=2023,C3&gt;130000),C3,"No cumple")</f>
         <v>No cumple</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="22">
         <f t="shared" ref="L3:L6" si="4">IF(B3=2022,AVERAGE(D3:F3),"No Cumple")</f>
         <v>36896.15</v>
       </c>
-      <c r="M3" s="26" t="str">
+      <c r="M3" s="23" t="str">
         <f t="shared" ref="M3:M6" si="5">IF(OR(B3=2023,F3&gt;40000),C3,"No cumple")</f>
         <v>No cumple</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>2023</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>121427.19</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>44348.77</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <v>36957.31</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="17">
         <v>40121.120000000003</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="30" t="str">
+      <c r="G4" s="17"/>
+      <c r="H4" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Venta Promedio</v>
       </c>
-      <c r="I4" s="24" t="str">
+      <c r="I4" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Otro año</v>
       </c>
-      <c r="J4" s="33" t="str">
+      <c r="J4" s="30" t="str">
         <f t="shared" si="2"/>
         <v>No corresponde</v>
       </c>
-      <c r="K4" s="24" t="str">
+      <c r="K4" s="16" t="str">
         <f t="shared" si="3"/>
         <v>No cumple</v>
       </c>
-      <c r="L4" s="25" t="str">
+      <c r="L4" s="22" t="str">
         <f t="shared" si="4"/>
         <v>No Cumple</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="23">
         <f t="shared" si="5"/>
         <v>121427.19</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>2022</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <v>118557.21</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <v>43116.86</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <v>36957.31</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="17">
         <v>38483.050000000003</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="30" t="str">
+      <c r="G5" s="17"/>
+      <c r="H5" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Venta Promedio</v>
       </c>
-      <c r="I5" s="24" t="str">
+      <c r="I5" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Ventas Bajas</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="30">
         <f t="shared" si="2"/>
         <v>118557.21</v>
       </c>
-      <c r="K5" s="24" t="str">
+      <c r="K5" s="16" t="str">
         <f t="shared" si="3"/>
         <v>No cumple</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="22">
         <f t="shared" si="4"/>
         <v>39519.073333333334</v>
       </c>
-      <c r="M5" s="26" t="str">
+      <c r="M5" s="23" t="str">
         <f t="shared" si="5"/>
         <v>No cumple</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="16">
         <v>2023</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <v>133205.92000000001</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <v>43116.86</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <v>34493.49</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="17">
         <v>48092.27</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="31" t="str">
+      <c r="G6" s="17"/>
+      <c r="H6" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Ventas Altas</v>
       </c>
-      <c r="I6" s="32" t="str">
+      <c r="I6" s="29" t="str">
         <f t="shared" si="1"/>
         <v>Otro año</v>
       </c>
-      <c r="J6" s="34" t="str">
+      <c r="J6" s="31" t="str">
         <f t="shared" si="2"/>
         <v>No corresponde</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="24">
         <f t="shared" si="3"/>
         <v>133205.92000000001</v>
       </c>
-      <c r="L6" s="27" t="str">
+      <c r="L6" s="24" t="str">
         <f t="shared" si="4"/>
         <v>No Cumple</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="25">
         <f t="shared" si="5"/>
         <v>133205.92000000001</v>
       </c>
@@ -7275,7 +8753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9D3D7-F34D-4A34-8B58-0EC02683C78D}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -7295,29 +8773,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
       <c r="M1" s="48" t="s">
         <v>60</v>
       </c>
@@ -7328,70 +8806,70 @@
       <c r="Q1" s="49"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="37">
         <v>9280</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="37">
         <v>9280</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="37">
         <v>9260</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="37">
         <v>9280</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="38">
         <v>9280</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="42">
         <f>SUM(B2:F2)</f>
         <v>46380</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="Q2" s="44" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="37">
         <v>2336.08</v>
       </c>
-      <c r="C3" s="40">
-        <v>0</v>
-      </c>
-      <c r="D3" s="40">
+      <c r="C3" s="37">
+        <v>0</v>
+      </c>
+      <c r="D3" s="37">
         <v>2397.6799999999998</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="37">
         <v>2908.12</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="38">
         <v>3887.16</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="42">
         <f t="shared" ref="G3:G10" si="0">SUM(B3:F3)</f>
         <v>11529.04</v>
       </c>
@@ -7421,191 +8899,191 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="37">
         <v>550</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="37">
         <v>550</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="37">
         <v>550</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="37">
         <v>550</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="38">
         <v>550</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="42">
         <f t="shared" si="0"/>
         <v>2750</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="37">
         <v>2433.36</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="37">
         <v>2684.08</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="37">
         <v>2240</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="37">
         <v>2628</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="38">
         <v>2623.5</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="42">
         <f t="shared" si="0"/>
         <v>12608.94</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="40">
-        <v>0</v>
-      </c>
-      <c r="C6" s="40">
+      <c r="B6" s="37">
+        <v>0</v>
+      </c>
+      <c r="C6" s="37">
         <v>2500</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="37">
         <v>2500</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="37">
         <v>2500</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="38">
         <v>2500</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="42">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="40">
-        <v>0</v>
-      </c>
-      <c r="C7" s="40">
-        <v>0</v>
-      </c>
-      <c r="D7" s="40">
+      <c r="B7" s="37">
+        <v>0</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0</v>
+      </c>
+      <c r="D7" s="37">
         <v>660.75</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="37">
         <v>660.75</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="38">
         <v>660.75</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="42">
         <f t="shared" si="0"/>
         <v>1982.25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="37">
         <v>13100</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="37">
         <v>13050</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="37">
         <v>15760</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="37">
         <v>17432</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="38">
         <v>15620</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="42">
         <f t="shared" si="0"/>
         <v>74962</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="37">
         <v>305</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="37">
         <v>381.56</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="37">
         <v>62.5</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="37">
         <v>818.5</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="38">
         <v>700</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="42">
         <f t="shared" si="0"/>
         <v>2267.56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="39">
         <v>152</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="39">
         <v>119.5</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="39">
         <v>290</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="39">
         <v>917</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="40">
         <v>354.5</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="42">
         <f t="shared" si="0"/>
         <v>1833</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="46">
+      <c r="B11" s="42">
         <f>SUM(B2:B10)</f>
         <v>28156.440000000002</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="42">
         <f>SUM(C2:C10)</f>
         <v>28565.140000000003</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="42">
         <f>SUM(D2:D10)</f>
         <v>33720.93</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="42">
         <f>SUM(E2:E10)</f>
         <v>37694.369999999995</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="42">
         <f>SUM(F2:F10)</f>
         <v>36175.910000000003</v>
       </c>

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48E0F05-1BD2-4DE2-BAA0-AFD39C3216FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B478BD67-E77E-4652-BDDE-720456483B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t>Vendedor</t>
   </si>
@@ -232,6 +232,45 @@
   <si>
     <t>ID Dia</t>
   </si>
+  <si>
+    <t>Dia Semana</t>
+  </si>
+  <si>
+    <t>Venta Total por Mes</t>
+  </si>
+  <si>
+    <t>Ventas Totales por Mes por Dia</t>
+  </si>
+  <si>
+    <t>Promedio Ventas por Mes por Dia</t>
+  </si>
+  <si>
+    <t>Formato Dias</t>
+  </si>
+  <si>
+    <t>Nombre Dia</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miercoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
 </sst>
 </file>
 
@@ -307,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,6 +410,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +588,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -640,6 +691,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -2455,10 +2525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C0ADA3-4C22-4CF9-8AD3-3A127D5F6CB1}">
-  <dimension ref="A1:I184"/>
+  <dimension ref="A1:O184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,38 +2540,53 @@
     <col min="6" max="6" width="13.42578125" style="51" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="51" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" style="51"/>
+    <col min="11" max="11" width="12.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="61" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1">
+        <v>4</v>
+      </c>
+      <c r="M1" s="16" t="str">
+        <f>VLOOKUP(L1,K15:L21,2)</f>
+        <v>Jueves</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44562</v>
       </c>
@@ -2532,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44563</v>
       </c>
@@ -2562,8 +2647,23 @@
       <c r="I3">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44564</v>
       </c>
@@ -2593,8 +2693,27 @@
       <c r="I4">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="52">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>$L$1</f>
+        <v>4</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUMIF(B2:B184,K4:K8,D2:D184)</f>
+        <v>159277.59000000003</v>
+      </c>
+      <c r="N4" s="4">
+        <f>SUMIFS(D2:D184,B2:B184,K4:K8,C2:C184,L4:L8)</f>
+        <v>13939.690000000002</v>
+      </c>
+      <c r="O4" s="4">
+        <f>AVERAGEIFS(D2:D184,B2:B184,K4:K8,C2:C184,L4:L8)</f>
+        <v>3484.9225000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44565</v>
       </c>
@@ -2624,8 +2743,27 @@
       <c r="I5">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="52">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L8" si="2">$L$1</f>
+        <v>4</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" ref="M5:M8" si="3">SUMIF(B3:B185,K5:K9,D3:D185)</f>
+        <v>151460.30000000002</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" ref="N5:N8" si="4">SUMIFS(D3:D185,B3:B185,K5:K9,C3:C185,L5:L9)</f>
+        <v>19582.47</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" ref="O5:O8" si="5">AVERAGEIFS(D3:D185,B3:B185,K5:K9,C3:C185,L5:L9)</f>
+        <v>3916.4940000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44566</v>
       </c>
@@ -2655,8 +2793,27 @@
       <c r="I6">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="52">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="3"/>
+        <v>140334.59</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="4"/>
+        <v>25806.639999999999</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="5"/>
+        <v>4301.1066666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44567</v>
       </c>
@@ -2686,8 +2843,27 @@
       <c r="I7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="52">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="3"/>
+        <v>134942.64000000001</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="4"/>
+        <v>20459.650000000001</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="5"/>
+        <v>3409.9416666666671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44568</v>
       </c>
@@ -2717,8 +2893,27 @@
       <c r="I8">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="52">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="3"/>
+        <v>161194.56</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="4"/>
+        <v>21959.97</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="5"/>
+        <v>4391.9940000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44569</v>
       </c>
@@ -2749,7 +2944,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44570</v>
       </c>
@@ -2780,7 +2975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44571</v>
       </c>
@@ -2811,7 +3006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44572</v>
       </c>
@@ -2842,7 +3037,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44573</v>
       </c>
@@ -2872,8 +3067,12 @@
       <c r="I13">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="55"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44574</v>
       </c>
@@ -2903,8 +3102,14 @@
       <c r="I14">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44575</v>
       </c>
@@ -2934,8 +3139,14 @@
       <c r="I15">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" s="58">
+        <v>1</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44576</v>
       </c>
@@ -2965,8 +3176,14 @@
       <c r="I16">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="58">
+        <v>2</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44577</v>
       </c>
@@ -2996,8 +3213,14 @@
       <c r="I17">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="58">
+        <v>3</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44578</v>
       </c>
@@ -3027,8 +3250,14 @@
       <c r="I18">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="58">
+        <v>4</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44579</v>
       </c>
@@ -3058,8 +3287,14 @@
       <c r="I19">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19" s="58">
+        <v>5</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44580</v>
       </c>
@@ -3089,8 +3324,14 @@
       <c r="I20">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20" s="58">
+        <v>6</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44581</v>
       </c>
@@ -3120,8 +3361,14 @@
       <c r="I21">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21" s="58">
+        <v>7</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44582</v>
       </c>
@@ -3152,7 +3399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44583</v>
       </c>
@@ -3183,7 +3430,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44584</v>
       </c>
@@ -3214,7 +3461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44585</v>
       </c>
@@ -3245,7 +3492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44586</v>
       </c>
@@ -3276,7 +3523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44587</v>
       </c>
@@ -3307,7 +3554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44588</v>
       </c>
@@ -3338,7 +3585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44589</v>
       </c>
@@ -3369,7 +3616,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>44590</v>
       </c>
@@ -3400,7 +3647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>44591</v>
       </c>
@@ -3431,7 +3678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44592</v>
       </c>
@@ -4521,11 +4768,11 @@
         <v>44627</v>
       </c>
       <c r="B67" s="50">
-        <f t="shared" ref="B67:B130" si="2">MONTH(A67)</f>
+        <f t="shared" ref="B67:B130" si="6">MONTH(A67)</f>
         <v>3</v>
       </c>
       <c r="C67" s="50">
-        <f t="shared" ref="C67:C130" si="3">WEEKDAY(A67,2)</f>
+        <f t="shared" ref="C67:C130" si="7">WEEKDAY(A67,2)</f>
         <v>1</v>
       </c>
       <c r="D67" s="51">
@@ -4552,11 +4799,11 @@
         <v>44628</v>
       </c>
       <c r="B68" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C68" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D68" s="51">
@@ -4583,11 +4830,11 @@
         <v>44629</v>
       </c>
       <c r="B69" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C69" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D69" s="51">
@@ -4614,11 +4861,11 @@
         <v>44630</v>
       </c>
       <c r="B70" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C70" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D70" s="51">
@@ -4645,11 +4892,11 @@
         <v>44631</v>
       </c>
       <c r="B71" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C71" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D71" s="51">
@@ -4676,11 +4923,11 @@
         <v>44632</v>
       </c>
       <c r="B72" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C72" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D72" s="51">
@@ -4707,11 +4954,11 @@
         <v>44633</v>
       </c>
       <c r="B73" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C73" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D73" s="51">
@@ -4738,11 +4985,11 @@
         <v>44634</v>
       </c>
       <c r="B74" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C74" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D74" s="51">
@@ -4769,11 +5016,11 @@
         <v>44635</v>
       </c>
       <c r="B75" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C75" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D75" s="51">
@@ -4800,11 +5047,11 @@
         <v>44636</v>
       </c>
       <c r="B76" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C76" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D76" s="51">
@@ -4831,11 +5078,11 @@
         <v>44637</v>
       </c>
       <c r="B77" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C77" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D77" s="51">
@@ -4862,11 +5109,11 @@
         <v>44638</v>
       </c>
       <c r="B78" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C78" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D78" s="51">
@@ -4893,11 +5140,11 @@
         <v>44639</v>
       </c>
       <c r="B79" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C79" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D79" s="51">
@@ -4924,11 +5171,11 @@
         <v>44640</v>
       </c>
       <c r="B80" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C80" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D80" s="51">
@@ -4955,11 +5202,11 @@
         <v>44641</v>
       </c>
       <c r="B81" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C81" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D81" s="51">
@@ -4986,11 +5233,11 @@
         <v>44642</v>
       </c>
       <c r="B82" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C82" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D82" s="51">
@@ -5017,11 +5264,11 @@
         <v>44643</v>
       </c>
       <c r="B83" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C83" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D83" s="51">
@@ -5048,11 +5295,11 @@
         <v>44644</v>
       </c>
       <c r="B84" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C84" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D84" s="51">
@@ -5079,11 +5326,11 @@
         <v>44645</v>
       </c>
       <c r="B85" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C85" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D85" s="51">
@@ -5110,11 +5357,11 @@
         <v>44646</v>
       </c>
       <c r="B86" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C86" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D86" s="51">
@@ -5141,11 +5388,11 @@
         <v>44647</v>
       </c>
       <c r="B87" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C87" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D87" s="51">
@@ -5172,11 +5419,11 @@
         <v>44648</v>
       </c>
       <c r="B88" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C88" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D88" s="51">
@@ -5203,11 +5450,11 @@
         <v>44649</v>
       </c>
       <c r="B89" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C89" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D89" s="51">
@@ -5234,11 +5481,11 @@
         <v>44650</v>
       </c>
       <c r="B90" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C90" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D90" s="51">
@@ -5265,11 +5512,11 @@
         <v>44651</v>
       </c>
       <c r="B91" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C91" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D91" s="51">
@@ -5296,11 +5543,11 @@
         <v>44652</v>
       </c>
       <c r="B92" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C92" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D92" s="51">
@@ -5327,11 +5574,11 @@
         <v>44653</v>
       </c>
       <c r="B93" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C93" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D93" s="51">
@@ -5358,11 +5605,11 @@
         <v>44654</v>
       </c>
       <c r="B94" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C94" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D94" s="51">
@@ -5389,11 +5636,11 @@
         <v>44655</v>
       </c>
       <c r="B95" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C95" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D95" s="51">
@@ -5420,11 +5667,11 @@
         <v>44656</v>
       </c>
       <c r="B96" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C96" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D96" s="51">
@@ -5451,11 +5698,11 @@
         <v>44657</v>
       </c>
       <c r="B97" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C97" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D97" s="51">
@@ -5482,11 +5729,11 @@
         <v>44658</v>
       </c>
       <c r="B98" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C98" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D98" s="51">
@@ -5513,11 +5760,11 @@
         <v>44659</v>
       </c>
       <c r="B99" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C99" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D99" s="51">
@@ -5544,11 +5791,11 @@
         <v>44660</v>
       </c>
       <c r="B100" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C100" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D100" s="51">
@@ -5575,11 +5822,11 @@
         <v>44661</v>
       </c>
       <c r="B101" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C101" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D101" s="51">
@@ -5606,11 +5853,11 @@
         <v>44662</v>
       </c>
       <c r="B102" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C102" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D102" s="51">
@@ -5637,11 +5884,11 @@
         <v>44663</v>
       </c>
       <c r="B103" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C103" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D103" s="51">
@@ -5668,11 +5915,11 @@
         <v>44664</v>
       </c>
       <c r="B104" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C104" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D104" s="51">
@@ -5699,11 +5946,11 @@
         <v>44665</v>
       </c>
       <c r="B105" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C105" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D105" s="51">
@@ -5730,11 +5977,11 @@
         <v>44666</v>
       </c>
       <c r="B106" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C106" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D106" s="51">
@@ -5761,11 +6008,11 @@
         <v>44667</v>
       </c>
       <c r="B107" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C107" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D107" s="51">
@@ -5792,11 +6039,11 @@
         <v>44668</v>
       </c>
       <c r="B108" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C108" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D108" s="51">
@@ -5823,11 +6070,11 @@
         <v>44669</v>
       </c>
       <c r="B109" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C109" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D109" s="51">
@@ -5854,11 +6101,11 @@
         <v>44670</v>
       </c>
       <c r="B110" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C110" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D110" s="51">
@@ -5885,11 +6132,11 @@
         <v>44671</v>
       </c>
       <c r="B111" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C111" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D111" s="51">
@@ -5916,11 +6163,11 @@
         <v>44672</v>
       </c>
       <c r="B112" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C112" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D112" s="51">
@@ -5947,11 +6194,11 @@
         <v>44673</v>
       </c>
       <c r="B113" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C113" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D113" s="51">
@@ -5978,11 +6225,11 @@
         <v>44674</v>
       </c>
       <c r="B114" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C114" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D114" s="51">
@@ -6009,11 +6256,11 @@
         <v>44675</v>
       </c>
       <c r="B115" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C115" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D115" s="51">
@@ -6040,11 +6287,11 @@
         <v>44676</v>
       </c>
       <c r="B116" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C116" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D116" s="51">
@@ -6071,11 +6318,11 @@
         <v>44677</v>
       </c>
       <c r="B117" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C117" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D117" s="51">
@@ -6102,11 +6349,11 @@
         <v>44678</v>
       </c>
       <c r="B118" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C118" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D118" s="51">
@@ -6133,11 +6380,11 @@
         <v>44679</v>
       </c>
       <c r="B119" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C119" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D119" s="51">
@@ -6164,11 +6411,11 @@
         <v>44680</v>
       </c>
       <c r="B120" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C120" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D120" s="51">
@@ -6195,11 +6442,11 @@
         <v>44681</v>
       </c>
       <c r="B121" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C121" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D121" s="51">
@@ -6226,11 +6473,11 @@
         <v>44682</v>
       </c>
       <c r="B122" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C122" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D122" s="51">
@@ -6257,11 +6504,11 @@
         <v>44683</v>
       </c>
       <c r="B123" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C123" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D123" s="51">
@@ -6288,11 +6535,11 @@
         <v>44684</v>
       </c>
       <c r="B124" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C124" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D124" s="51">
@@ -6319,11 +6566,11 @@
         <v>44685</v>
       </c>
       <c r="B125" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C125" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="D125" s="51">
@@ -6350,11 +6597,11 @@
         <v>44686</v>
       </c>
       <c r="B126" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C126" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="D126" s="51">
@@ -6381,11 +6628,11 @@
         <v>44687</v>
       </c>
       <c r="B127" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C127" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D127" s="51">
@@ -6412,11 +6659,11 @@
         <v>44688</v>
       </c>
       <c r="B128" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C128" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="D128" s="51">
@@ -6443,11 +6690,11 @@
         <v>44689</v>
       </c>
       <c r="B129" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C129" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="D129" s="51">
@@ -6474,11 +6721,11 @@
         <v>44690</v>
       </c>
       <c r="B130" s="50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C130" s="50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D130" s="51">
@@ -6505,11 +6752,11 @@
         <v>44691</v>
       </c>
       <c r="B131" s="50">
-        <f t="shared" ref="B131:B184" si="4">MONTH(A131)</f>
+        <f t="shared" ref="B131:B184" si="8">MONTH(A131)</f>
         <v>5</v>
       </c>
       <c r="C131" s="50">
-        <f t="shared" ref="C131:C184" si="5">WEEKDAY(A131,2)</f>
+        <f t="shared" ref="C131:C184" si="9">WEEKDAY(A131,2)</f>
         <v>2</v>
       </c>
       <c r="D131" s="51">
@@ -6536,11 +6783,11 @@
         <v>44692</v>
       </c>
       <c r="B132" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C132" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D132" s="51">
@@ -6567,11 +6814,11 @@
         <v>44693</v>
       </c>
       <c r="B133" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C133" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D133" s="51">
@@ -6598,11 +6845,11 @@
         <v>44694</v>
       </c>
       <c r="B134" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C134" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D134" s="51">
@@ -6629,11 +6876,11 @@
         <v>44695</v>
       </c>
       <c r="B135" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C135" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="D135" s="51">
@@ -6660,11 +6907,11 @@
         <v>44696</v>
       </c>
       <c r="B136" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C136" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="D136" s="51">
@@ -6691,11 +6938,11 @@
         <v>44697</v>
       </c>
       <c r="B137" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C137" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D137" s="51">
@@ -6722,11 +6969,11 @@
         <v>44698</v>
       </c>
       <c r="B138" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C138" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D138" s="51">
@@ -6753,11 +7000,11 @@
         <v>44699</v>
       </c>
       <c r="B139" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C139" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D139" s="51">
@@ -6784,11 +7031,11 @@
         <v>44700</v>
       </c>
       <c r="B140" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C140" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D140" s="51">
@@ -6815,11 +7062,11 @@
         <v>44701</v>
       </c>
       <c r="B141" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C141" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D141" s="51">
@@ -6846,11 +7093,11 @@
         <v>44702</v>
       </c>
       <c r="B142" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C142" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="D142" s="51">
@@ -6877,11 +7124,11 @@
         <v>44703</v>
       </c>
       <c r="B143" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C143" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="D143" s="51">
@@ -6908,11 +7155,11 @@
         <v>44704</v>
       </c>
       <c r="B144" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C144" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D144" s="51">
@@ -6939,11 +7186,11 @@
         <v>44705</v>
       </c>
       <c r="B145" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C145" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D145" s="51">
@@ -6970,11 +7217,11 @@
         <v>44706</v>
       </c>
       <c r="B146" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C146" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D146" s="51">
@@ -7001,11 +7248,11 @@
         <v>44707</v>
       </c>
       <c r="B147" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C147" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D147" s="51">
@@ -7032,11 +7279,11 @@
         <v>44708</v>
       </c>
       <c r="B148" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C148" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D148" s="51">
@@ -7063,11 +7310,11 @@
         <v>44709</v>
       </c>
       <c r="B149" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C149" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="D149" s="51">
@@ -7094,11 +7341,11 @@
         <v>44710</v>
       </c>
       <c r="B150" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C150" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="D150" s="51">
@@ -7125,11 +7372,11 @@
         <v>44711</v>
       </c>
       <c r="B151" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C151" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D151" s="51">
@@ -7156,11 +7403,11 @@
         <v>44712</v>
       </c>
       <c r="B152" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C152" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D152" s="51">
@@ -7187,11 +7434,11 @@
         <v>44568</v>
       </c>
       <c r="B153" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C153" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D153" s="51">
@@ -7218,11 +7465,11 @@
         <v>44575</v>
       </c>
       <c r="B154" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C154" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D154" s="51">
@@ -7249,11 +7496,11 @@
         <v>44576</v>
       </c>
       <c r="B155" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C155" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="D155" s="51">
@@ -7280,11 +7527,11 @@
         <v>44577</v>
       </c>
       <c r="B156" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C156" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="D156" s="51">
@@ -7311,11 +7558,11 @@
         <v>44616</v>
       </c>
       <c r="B157" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="C157" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D157" s="51">
@@ -7342,11 +7589,11 @@
         <v>44617</v>
       </c>
       <c r="B158" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="C158" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D158" s="51">
@@ -7373,11 +7620,11 @@
         <v>44618</v>
       </c>
       <c r="B159" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="C159" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="D159" s="51">
@@ -7404,11 +7651,11 @@
         <v>44628</v>
       </c>
       <c r="B160" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C160" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D160" s="51">
@@ -7435,11 +7682,11 @@
         <v>44658</v>
       </c>
       <c r="B161" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C161" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D161" s="51">
@@ -7466,11 +7713,11 @@
         <v>44659</v>
       </c>
       <c r="B162" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C162" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D162" s="51">
@@ -7497,11 +7744,11 @@
         <v>44660</v>
       </c>
       <c r="B163" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C163" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="D163" s="51">
@@ -7528,11 +7775,11 @@
         <v>44572</v>
       </c>
       <c r="B164" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C164" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D164" s="51">
@@ -7559,11 +7806,11 @@
         <v>44573</v>
       </c>
       <c r="B165" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C165" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D165" s="51">
@@ -7590,11 +7837,11 @@
         <v>44580</v>
       </c>
       <c r="B166" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C166" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D166" s="51">
@@ -7621,11 +7868,11 @@
         <v>44592</v>
       </c>
       <c r="B167" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C167" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D167" s="51">
@@ -7652,11 +7899,11 @@
         <v>44598</v>
       </c>
       <c r="B168" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="C168" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="D168" s="51">
@@ -7683,11 +7930,11 @@
         <v>44605</v>
       </c>
       <c r="B169" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="C169" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="D169" s="51">
@@ -7714,11 +7961,11 @@
         <v>44607</v>
       </c>
       <c r="B170" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="C170" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D170" s="51">
@@ -7745,11 +7992,11 @@
         <v>44618</v>
       </c>
       <c r="B171" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="C171" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="D171" s="51">
@@ -7776,11 +8023,11 @@
         <v>44622</v>
       </c>
       <c r="B172" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C172" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D172" s="51">
@@ -7807,11 +8054,11 @@
         <v>44630</v>
       </c>
       <c r="B173" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C173" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D173" s="51">
@@ -7838,11 +8085,11 @@
         <v>44639</v>
       </c>
       <c r="B174" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C174" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="D174" s="51">
@@ -7869,11 +8116,11 @@
         <v>44650</v>
       </c>
       <c r="B175" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C175" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D175" s="51">
@@ -7900,11 +8147,11 @@
         <v>44665</v>
       </c>
       <c r="B176" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C176" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D176" s="51">
@@ -7931,11 +8178,11 @@
         <v>44688</v>
       </c>
       <c r="B177" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C177" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="D177" s="51">
@@ -7962,11 +8209,11 @@
         <v>44692</v>
       </c>
       <c r="B178" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C178" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D178" s="51">
@@ -7993,11 +8240,11 @@
         <v>44693</v>
       </c>
       <c r="B179" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C179" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D179" s="51">
@@ -8024,11 +8271,11 @@
         <v>44695</v>
       </c>
       <c r="B180" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C180" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="D180" s="51">
@@ -8055,11 +8302,11 @@
         <v>44696</v>
       </c>
       <c r="B181" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C181" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="D181" s="51">
@@ -8086,11 +8333,11 @@
         <v>44709</v>
       </c>
       <c r="B182" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C182" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="D182" s="51">
@@ -8117,11 +8364,11 @@
         <v>44710</v>
       </c>
       <c r="B183" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C183" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="D183" s="51">
@@ -8148,11 +8395,11 @@
         <v>44618</v>
       </c>
       <c r="B184" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="C184" s="50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="D184" s="51">
@@ -8175,8 +8422,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I184" xr:uid="{B6C0ADA3-4C22-4CF9-8AD3-3A127D5F6CB1}"/>
+  <mergeCells count="1">
+    <mergeCell ref="K13:L13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{07D1794E-2D80-479F-805E-E7AEF1579975}">
+      <formula1>"1,2,3,4,5,6,7"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B478BD67-E77E-4652-BDDE-720456483B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974B85A6-AC21-48E8-9F6C-F850FF72452E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
   <si>
     <t>Vendedor</t>
   </si>
@@ -270,6 +270,15 @@
   </si>
   <si>
     <t>Domingo</t>
+  </si>
+  <si>
+    <t>Total Transferencia por Mes</t>
+  </si>
+  <si>
+    <t>Total Efectivo por Mes</t>
+  </si>
+  <si>
+    <t>Total Tarjeta por Mes</t>
   </si>
 </sst>
 </file>
@@ -2525,10 +2534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C0ADA3-4C22-4CF9-8AD3-3A127D5F6CB1}">
-  <dimension ref="A1:O184"/>
+  <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2536,8 +2545,7 @@
     <col min="1" max="1" width="11.5703125" style="3" customWidth="1"/>
     <col min="2" max="3" width="10.85546875" style="3"/>
     <col min="4" max="4" width="16" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="51" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="51" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" style="51"/>
     <col min="11" max="11" width="12.7109375" style="50" bestFit="1" customWidth="1"/>
@@ -2545,9 +2553,12 @@
     <col min="13" max="13" width="20.140625" customWidth="1"/>
     <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
@@ -2586,7 +2597,7 @@
         <v>Jueves</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44562</v>
       </c>
@@ -2617,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44563</v>
       </c>
@@ -2662,8 +2673,17 @@
       <c r="O3" s="53" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44564</v>
       </c>
@@ -2712,8 +2732,20 @@
         <f>AVERAGEIFS(D2:D184,B2:B184,K4:K8,C2:C184,L4:L8)</f>
         <v>3484.9225000000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="4">
+        <f>SUMIF(B2:B184,K4:K8,G2:G184)</f>
+        <v>5132.3599999999997</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>SUMIF(B2:B184,K4:K8,E2:E184)</f>
+        <v>138764.61000000002</v>
+      </c>
+      <c r="R4" s="4">
+        <f>SUMIF(B2:B184,K4:K8,F2:F184)</f>
+        <v>15380.620000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44565</v>
       </c>
@@ -2762,8 +2794,20 @@
         <f t="shared" ref="O5:O8" si="5">AVERAGEIFS(D3:D185,B3:B185,K5:K9,C3:C185,L5:L9)</f>
         <v>3916.4940000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="4">
+        <f t="shared" ref="P5:P8" si="6">SUMIF(B3:B185,K5:K9,G3:G185)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" ref="Q5:Q8" si="7">SUMIF(B3:B185,K5:K9,E3:E185)</f>
+        <v>121277.60999999997</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" ref="R5:R8" si="8">SUMIF(B3:B185,K5:K9,F3:F185)</f>
+        <v>30182.690000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44566</v>
       </c>
@@ -2812,8 +2856,20 @@
         <f t="shared" si="5"/>
         <v>4301.1066666666666</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="4">
+        <f t="shared" si="6"/>
+        <v>175</v>
+      </c>
+      <c r="Q6" s="4">
+        <f t="shared" si="7"/>
+        <v>119819.94999999998</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="8"/>
+        <v>20339.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44567</v>
       </c>
@@ -2862,8 +2918,20 @@
         <f t="shared" si="5"/>
         <v>3409.9416666666671</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" si="7"/>
+        <v>117844.51000000001</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="8"/>
+        <v>17098.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44568</v>
       </c>
@@ -2912,8 +2980,20 @@
         <f t="shared" si="5"/>
         <v>4391.9940000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="4">
+        <f t="shared" si="6"/>
+        <v>2554.02</v>
+      </c>
+      <c r="Q8" s="4">
+        <f t="shared" si="7"/>
+        <v>133998.82999999999</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="8"/>
+        <v>24641.710000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44569</v>
       </c>
@@ -2944,7 +3024,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44570</v>
       </c>
@@ -2975,7 +3055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44571</v>
       </c>
@@ -3006,7 +3086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44572</v>
       </c>
@@ -3037,7 +3117,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44573</v>
       </c>
@@ -3072,7 +3152,7 @@
       </c>
       <c r="L13" s="55"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44574</v>
       </c>
@@ -3109,7 +3189,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44575</v>
       </c>
@@ -3146,7 +3226,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44576</v>
       </c>
@@ -4768,11 +4848,11 @@
         <v>44627</v>
       </c>
       <c r="B67" s="50">
-        <f t="shared" ref="B67:B130" si="6">MONTH(A67)</f>
+        <f t="shared" ref="B67:B130" si="9">MONTH(A67)</f>
         <v>3</v>
       </c>
       <c r="C67" s="50">
-        <f t="shared" ref="C67:C130" si="7">WEEKDAY(A67,2)</f>
+        <f t="shared" ref="C67:C130" si="10">WEEKDAY(A67,2)</f>
         <v>1</v>
       </c>
       <c r="D67" s="51">
@@ -4799,11 +4879,11 @@
         <v>44628</v>
       </c>
       <c r="B68" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C68" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D68" s="51">
@@ -4830,11 +4910,11 @@
         <v>44629</v>
       </c>
       <c r="B69" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C69" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D69" s="51">
@@ -4861,11 +4941,11 @@
         <v>44630</v>
       </c>
       <c r="B70" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C70" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D70" s="51">
@@ -4892,11 +4972,11 @@
         <v>44631</v>
       </c>
       <c r="B71" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C71" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="D71" s="51">
@@ -4923,11 +5003,11 @@
         <v>44632</v>
       </c>
       <c r="B72" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C72" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="D72" s="51">
@@ -4954,11 +5034,11 @@
         <v>44633</v>
       </c>
       <c r="B73" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C73" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="D73" s="51">
@@ -4985,11 +5065,11 @@
         <v>44634</v>
       </c>
       <c r="B74" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C74" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D74" s="51">
@@ -5016,11 +5096,11 @@
         <v>44635</v>
       </c>
       <c r="B75" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C75" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D75" s="51">
@@ -5047,11 +5127,11 @@
         <v>44636</v>
       </c>
       <c r="B76" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C76" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D76" s="51">
@@ -5078,11 +5158,11 @@
         <v>44637</v>
       </c>
       <c r="B77" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C77" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D77" s="51">
@@ -5109,11 +5189,11 @@
         <v>44638</v>
       </c>
       <c r="B78" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C78" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="D78" s="51">
@@ -5140,11 +5220,11 @@
         <v>44639</v>
       </c>
       <c r="B79" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C79" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="D79" s="51">
@@ -5171,11 +5251,11 @@
         <v>44640</v>
       </c>
       <c r="B80" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C80" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="D80" s="51">
@@ -5202,11 +5282,11 @@
         <v>44641</v>
       </c>
       <c r="B81" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C81" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D81" s="51">
@@ -5233,11 +5313,11 @@
         <v>44642</v>
       </c>
       <c r="B82" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C82" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D82" s="51">
@@ -5264,11 +5344,11 @@
         <v>44643</v>
       </c>
       <c r="B83" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C83" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D83" s="51">
@@ -5295,11 +5375,11 @@
         <v>44644</v>
       </c>
       <c r="B84" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C84" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D84" s="51">
@@ -5326,11 +5406,11 @@
         <v>44645</v>
       </c>
       <c r="B85" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C85" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="D85" s="51">
@@ -5357,11 +5437,11 @@
         <v>44646</v>
       </c>
       <c r="B86" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C86" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="D86" s="51">
@@ -5388,11 +5468,11 @@
         <v>44647</v>
       </c>
       <c r="B87" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C87" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="D87" s="51">
@@ -5419,11 +5499,11 @@
         <v>44648</v>
       </c>
       <c r="B88" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C88" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D88" s="51">
@@ -5450,11 +5530,11 @@
         <v>44649</v>
       </c>
       <c r="B89" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C89" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D89" s="51">
@@ -5481,11 +5561,11 @@
         <v>44650</v>
       </c>
       <c r="B90" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C90" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D90" s="51">
@@ -5512,11 +5592,11 @@
         <v>44651</v>
       </c>
       <c r="B91" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C91" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D91" s="51">
@@ -5543,11 +5623,11 @@
         <v>44652</v>
       </c>
       <c r="B92" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C92" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="D92" s="51">
@@ -5574,11 +5654,11 @@
         <v>44653</v>
       </c>
       <c r="B93" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C93" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="D93" s="51">
@@ -5605,11 +5685,11 @@
         <v>44654</v>
       </c>
       <c r="B94" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C94" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="D94" s="51">
@@ -5636,11 +5716,11 @@
         <v>44655</v>
       </c>
       <c r="B95" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C95" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D95" s="51">
@@ -5667,11 +5747,11 @@
         <v>44656</v>
       </c>
       <c r="B96" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C96" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D96" s="51">
@@ -5698,11 +5778,11 @@
         <v>44657</v>
       </c>
       <c r="B97" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C97" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D97" s="51">
@@ -5729,11 +5809,11 @@
         <v>44658</v>
       </c>
       <c r="B98" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C98" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D98" s="51">
@@ -5760,11 +5840,11 @@
         <v>44659</v>
       </c>
       <c r="B99" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C99" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="D99" s="51">
@@ -5791,11 +5871,11 @@
         <v>44660</v>
       </c>
       <c r="B100" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C100" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="D100" s="51">
@@ -5822,11 +5902,11 @@
         <v>44661</v>
       </c>
       <c r="B101" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C101" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="D101" s="51">
@@ -5853,11 +5933,11 @@
         <v>44662</v>
       </c>
       <c r="B102" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C102" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D102" s="51">
@@ -5884,11 +5964,11 @@
         <v>44663</v>
       </c>
       <c r="B103" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C103" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D103" s="51">
@@ -5915,11 +5995,11 @@
         <v>44664</v>
       </c>
       <c r="B104" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C104" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D104" s="51">
@@ -5946,11 +6026,11 @@
         <v>44665</v>
       </c>
       <c r="B105" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C105" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D105" s="51">
@@ -5977,11 +6057,11 @@
         <v>44666</v>
       </c>
       <c r="B106" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C106" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="D106" s="51">
@@ -6008,11 +6088,11 @@
         <v>44667</v>
       </c>
       <c r="B107" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C107" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="D107" s="51">
@@ -6039,11 +6119,11 @@
         <v>44668</v>
       </c>
       <c r="B108" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C108" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="D108" s="51">
@@ -6070,11 +6150,11 @@
         <v>44669</v>
       </c>
       <c r="B109" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C109" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D109" s="51">
@@ -6101,11 +6181,11 @@
         <v>44670</v>
       </c>
       <c r="B110" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C110" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D110" s="51">
@@ -6132,11 +6212,11 @@
         <v>44671</v>
       </c>
       <c r="B111" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C111" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D111" s="51">
@@ -6163,11 +6243,11 @@
         <v>44672</v>
       </c>
       <c r="B112" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C112" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D112" s="51">
@@ -6194,11 +6274,11 @@
         <v>44673</v>
       </c>
       <c r="B113" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C113" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="D113" s="51">
@@ -6225,11 +6305,11 @@
         <v>44674</v>
       </c>
       <c r="B114" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C114" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="D114" s="51">
@@ -6256,11 +6336,11 @@
         <v>44675</v>
       </c>
       <c r="B115" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C115" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="D115" s="51">
@@ -6287,11 +6367,11 @@
         <v>44676</v>
       </c>
       <c r="B116" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C116" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D116" s="51">
@@ -6318,11 +6398,11 @@
         <v>44677</v>
       </c>
       <c r="B117" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C117" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D117" s="51">
@@ -6349,11 +6429,11 @@
         <v>44678</v>
       </c>
       <c r="B118" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C118" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D118" s="51">
@@ -6380,11 +6460,11 @@
         <v>44679</v>
       </c>
       <c r="B119" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C119" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D119" s="51">
@@ -6411,11 +6491,11 @@
         <v>44680</v>
       </c>
       <c r="B120" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C120" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="D120" s="51">
@@ -6442,11 +6522,11 @@
         <v>44681</v>
       </c>
       <c r="B121" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C121" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="D121" s="51">
@@ -6473,11 +6553,11 @@
         <v>44682</v>
       </c>
       <c r="B122" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C122" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="D122" s="51">
@@ -6504,11 +6584,11 @@
         <v>44683</v>
       </c>
       <c r="B123" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C123" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D123" s="51">
@@ -6535,11 +6615,11 @@
         <v>44684</v>
       </c>
       <c r="B124" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C124" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="D124" s="51">
@@ -6566,11 +6646,11 @@
         <v>44685</v>
       </c>
       <c r="B125" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C125" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="D125" s="51">
@@ -6597,11 +6677,11 @@
         <v>44686</v>
       </c>
       <c r="B126" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C126" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D126" s="51">
@@ -6628,11 +6708,11 @@
         <v>44687</v>
       </c>
       <c r="B127" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C127" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="D127" s="51">
@@ -6659,11 +6739,11 @@
         <v>44688</v>
       </c>
       <c r="B128" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C128" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="D128" s="51">
@@ -6690,11 +6770,11 @@
         <v>44689</v>
       </c>
       <c r="B129" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C129" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="D129" s="51">
@@ -6721,11 +6801,11 @@
         <v>44690</v>
       </c>
       <c r="B130" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C130" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D130" s="51">
@@ -6752,11 +6832,11 @@
         <v>44691</v>
       </c>
       <c r="B131" s="50">
-        <f t="shared" ref="B131:B184" si="8">MONTH(A131)</f>
+        <f t="shared" ref="B131:B184" si="11">MONTH(A131)</f>
         <v>5</v>
       </c>
       <c r="C131" s="50">
-        <f t="shared" ref="C131:C184" si="9">WEEKDAY(A131,2)</f>
+        <f t="shared" ref="C131:C184" si="12">WEEKDAY(A131,2)</f>
         <v>2</v>
       </c>
       <c r="D131" s="51">
@@ -6783,11 +6863,11 @@
         <v>44692</v>
       </c>
       <c r="B132" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C132" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D132" s="51">
@@ -6814,11 +6894,11 @@
         <v>44693</v>
       </c>
       <c r="B133" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C133" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D133" s="51">
@@ -6845,11 +6925,11 @@
         <v>44694</v>
       </c>
       <c r="B134" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C134" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="D134" s="51">
@@ -6876,11 +6956,11 @@
         <v>44695</v>
       </c>
       <c r="B135" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C135" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="D135" s="51">
@@ -6907,11 +6987,11 @@
         <v>44696</v>
       </c>
       <c r="B136" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C136" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="D136" s="51">
@@ -6938,11 +7018,11 @@
         <v>44697</v>
       </c>
       <c r="B137" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C137" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D137" s="51">
@@ -6969,11 +7049,11 @@
         <v>44698</v>
       </c>
       <c r="B138" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C138" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="D138" s="51">
@@ -7000,11 +7080,11 @@
         <v>44699</v>
       </c>
       <c r="B139" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C139" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D139" s="51">
@@ -7031,11 +7111,11 @@
         <v>44700</v>
       </c>
       <c r="B140" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C140" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D140" s="51">
@@ -7062,11 +7142,11 @@
         <v>44701</v>
       </c>
       <c r="B141" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C141" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="D141" s="51">
@@ -7093,11 +7173,11 @@
         <v>44702</v>
       </c>
       <c r="B142" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C142" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="D142" s="51">
@@ -7124,11 +7204,11 @@
         <v>44703</v>
       </c>
       <c r="B143" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C143" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="D143" s="51">
@@ -7155,11 +7235,11 @@
         <v>44704</v>
       </c>
       <c r="B144" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C144" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D144" s="51">
@@ -7186,11 +7266,11 @@
         <v>44705</v>
       </c>
       <c r="B145" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C145" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="D145" s="51">
@@ -7217,11 +7297,11 @@
         <v>44706</v>
       </c>
       <c r="B146" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C146" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D146" s="51">
@@ -7248,11 +7328,11 @@
         <v>44707</v>
       </c>
       <c r="B147" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C147" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D147" s="51">
@@ -7279,11 +7359,11 @@
         <v>44708</v>
       </c>
       <c r="B148" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C148" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="D148" s="51">
@@ -7310,11 +7390,11 @@
         <v>44709</v>
       </c>
       <c r="B149" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C149" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="D149" s="51">
@@ -7341,11 +7421,11 @@
         <v>44710</v>
       </c>
       <c r="B150" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C150" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="D150" s="51">
@@ -7372,11 +7452,11 @@
         <v>44711</v>
       </c>
       <c r="B151" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C151" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D151" s="51">
@@ -7403,11 +7483,11 @@
         <v>44712</v>
       </c>
       <c r="B152" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C152" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="D152" s="51">
@@ -7434,11 +7514,11 @@
         <v>44568</v>
       </c>
       <c r="B153" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C153" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="D153" s="51">
@@ -7465,11 +7545,11 @@
         <v>44575</v>
       </c>
       <c r="B154" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C154" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="D154" s="51">
@@ -7496,11 +7576,11 @@
         <v>44576</v>
       </c>
       <c r="B155" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C155" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="D155" s="51">
@@ -7527,11 +7607,11 @@
         <v>44577</v>
       </c>
       <c r="B156" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C156" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="D156" s="51">
@@ -7558,11 +7638,11 @@
         <v>44616</v>
       </c>
       <c r="B157" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C157" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D157" s="51">
@@ -7589,11 +7669,11 @@
         <v>44617</v>
       </c>
       <c r="B158" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C158" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="D158" s="51">
@@ -7620,11 +7700,11 @@
         <v>44618</v>
       </c>
       <c r="B159" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C159" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="D159" s="51">
@@ -7651,11 +7731,11 @@
         <v>44628</v>
       </c>
       <c r="B160" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C160" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="D160" s="51">
@@ -7682,11 +7762,11 @@
         <v>44658</v>
       </c>
       <c r="B161" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C161" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D161" s="51">
@@ -7713,11 +7793,11 @@
         <v>44659</v>
       </c>
       <c r="B162" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C162" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="D162" s="51">
@@ -7744,11 +7824,11 @@
         <v>44660</v>
       </c>
       <c r="B163" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C163" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="D163" s="51">
@@ -7775,11 +7855,11 @@
         <v>44572</v>
       </c>
       <c r="B164" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C164" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="D164" s="51">
@@ -7806,11 +7886,11 @@
         <v>44573</v>
       </c>
       <c r="B165" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C165" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D165" s="51">
@@ -7837,11 +7917,11 @@
         <v>44580</v>
       </c>
       <c r="B166" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C166" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D166" s="51">
@@ -7868,11 +7948,11 @@
         <v>44592</v>
       </c>
       <c r="B167" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C167" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D167" s="51">
@@ -7899,11 +7979,11 @@
         <v>44598</v>
       </c>
       <c r="B168" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C168" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="D168" s="51">
@@ -7930,11 +8010,11 @@
         <v>44605</v>
       </c>
       <c r="B169" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C169" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="D169" s="51">
@@ -7961,11 +8041,11 @@
         <v>44607</v>
       </c>
       <c r="B170" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C170" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="D170" s="51">
@@ -7992,11 +8072,11 @@
         <v>44618</v>
       </c>
       <c r="B171" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C171" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="D171" s="51">
@@ -8023,11 +8103,11 @@
         <v>44622</v>
       </c>
       <c r="B172" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C172" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D172" s="51">
@@ -8054,11 +8134,11 @@
         <v>44630</v>
       </c>
       <c r="B173" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C173" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D173" s="51">
@@ -8085,11 +8165,11 @@
         <v>44639</v>
       </c>
       <c r="B174" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C174" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="D174" s="51">
@@ -8116,11 +8196,11 @@
         <v>44650</v>
       </c>
       <c r="B175" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C175" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D175" s="51">
@@ -8147,11 +8227,11 @@
         <v>44665</v>
       </c>
       <c r="B176" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C176" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D176" s="51">
@@ -8178,11 +8258,11 @@
         <v>44688</v>
       </c>
       <c r="B177" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C177" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="D177" s="51">
@@ -8209,11 +8289,11 @@
         <v>44692</v>
       </c>
       <c r="B178" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C178" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D178" s="51">
@@ -8240,11 +8320,11 @@
         <v>44693</v>
       </c>
       <c r="B179" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C179" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D179" s="51">
@@ -8271,11 +8351,11 @@
         <v>44695</v>
       </c>
       <c r="B180" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C180" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="D180" s="51">
@@ -8302,11 +8382,11 @@
         <v>44696</v>
       </c>
       <c r="B181" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C181" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="D181" s="51">
@@ -8333,11 +8413,11 @@
         <v>44709</v>
       </c>
       <c r="B182" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C182" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="D182" s="51">
@@ -8364,11 +8444,11 @@
         <v>44710</v>
       </c>
       <c r="B183" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C183" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="D183" s="51">
@@ -8395,11 +8475,11 @@
         <v>44618</v>
       </c>
       <c r="B184" s="50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C184" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="D184" s="51">
@@ -8426,6 +8506,55 @@
     <mergeCell ref="K13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="Q4:Q8">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{61A26A7A-CF06-407E-8E73-B75C9E7D948E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:P8">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0CE60FC7-E93A-43FD-87E3-33C538A592F7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:R8">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7A68EB9D-668F-4349-A03A-4929245A877F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{07D1794E-2D80-479F-805E-E7AEF1579975}">
       <formula1>"1,2,3,4,5,6,7"</formula1>
@@ -8433,6 +8562,51 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{61A26A7A-CF06-407E-8E73-B75C9E7D948E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q4:Q8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0CE60FC7-E93A-43FD-87E3-33C538A592F7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P4:P8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7A68EB9D-668F-4349-A03A-4929245A877F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R4:R8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9010,7 +9184,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9130,14 +9304,14 @@
         <v>11529.04</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
         <v>34</v>
       </c>
       <c r="K3" s="4">
         <f>INDEX(B2:F10,MATCH(I3,A2:A10,0),MATCH(J3,B1:F1,0))</f>
-        <v>2240</v>
+        <v>2500</v>
       </c>
       <c r="M3" t="s">
         <v>33</v>

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974B85A6-AC21-48E8-9F6C-F850FF72452E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ADFF22-C2D1-4506-A514-05D13CCEA0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <t>Vendedor</t>
   </si>
@@ -279,6 +279,15 @@
   </si>
   <si>
     <t>Total Tarjeta por Mes</t>
+  </si>
+  <si>
+    <t>Total Efectivo por Dia</t>
+  </si>
+  <si>
+    <t>Total Transferencia por Dia</t>
+  </si>
+  <si>
+    <t>Total Tarjeta por Dia</t>
   </si>
 </sst>
 </file>
@@ -2537,7 +2546,7 @@
   <dimension ref="A1:R184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,11 +2599,11 @@
         <v>65</v>
       </c>
       <c r="L1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M1" s="16" t="str">
         <f>VLOOKUP(L1,K15:L21,2)</f>
-        <v>Jueves</v>
+        <v>Domingo</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -2718,7 +2727,7 @@
       </c>
       <c r="L4">
         <f>$L$1</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M4" s="4">
         <f>SUMIF(B2:B184,K4:K8,D2:D184)</f>
@@ -2726,11 +2735,11 @@
       </c>
       <c r="N4" s="4">
         <f>SUMIFS(D2:D184,B2:B184,K4:K8,C2:C184,L4:L8)</f>
-        <v>13939.690000000002</v>
+        <v>20152.98</v>
       </c>
       <c r="O4" s="4">
         <f>AVERAGEIFS(D2:D184,B2:B184,K4:K8,C2:C184,L4:L8)</f>
-        <v>3484.9225000000006</v>
+        <v>3358.83</v>
       </c>
       <c r="P4" s="4">
         <f>SUMIF(B2:B184,K4:K8,G2:G184)</f>
@@ -2780,7 +2789,7 @@
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L8" si="2">$L$1</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" ref="M5:M8" si="3">SUMIF(B3:B185,K5:K9,D3:D185)</f>
@@ -2788,11 +2797,11 @@
       </c>
       <c r="N5" s="4">
         <f t="shared" ref="N5:N8" si="4">SUMIFS(D3:D185,B3:B185,K5:K9,C3:C185,L5:L9)</f>
-        <v>19582.47</v>
+        <v>19130.82</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" ref="O5:O8" si="5">AVERAGEIFS(D3:D185,B3:B185,K5:K9,C3:C185,L5:L9)</f>
-        <v>3916.4940000000001</v>
+        <v>3188.47</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" ref="P5:P8" si="6">SUMIF(B3:B185,K5:K9,G3:G185)</f>
@@ -2842,7 +2851,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="3"/>
@@ -2850,11 +2859,11 @@
       </c>
       <c r="N6" s="4">
         <f t="shared" si="4"/>
-        <v>25806.639999999999</v>
+        <v>9985.0400000000009</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="5"/>
-        <v>4301.1066666666666</v>
+        <v>2496.2600000000002</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="6"/>
@@ -2904,7 +2913,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="3"/>
@@ -2912,11 +2921,11 @@
       </c>
       <c r="N7" s="4">
         <f t="shared" si="4"/>
-        <v>20459.650000000001</v>
+        <v>9062.4700000000012</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="5"/>
-        <v>3409.9416666666671</v>
+        <v>2265.6175000000003</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="6"/>
@@ -2966,7 +2975,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="3"/>
@@ -2974,11 +2983,11 @@
       </c>
       <c r="N8" s="4">
         <f t="shared" si="4"/>
-        <v>21959.97</v>
+        <v>22732.350000000002</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="5"/>
-        <v>4391.9940000000006</v>
+        <v>3247.4785714285717</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="6"/>
@@ -3188,6 +3197,15 @@
       <c r="L14" s="57" t="s">
         <v>70</v>
       </c>
+      <c r="N14" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -3225,6 +3243,18 @@
       <c r="L15" s="16" t="s">
         <v>71</v>
       </c>
+      <c r="N15" s="4">
+        <f>SUMIF(C2:C184,K15:K21,E2:E184)</f>
+        <v>82866.339999999982</v>
+      </c>
+      <c r="O15" s="4">
+        <f>SUMIF(C2:C184,K15:K21,G2:G184)</f>
+        <v>5132.3599999999997</v>
+      </c>
+      <c r="P15" s="4">
+        <f>SUMIF(C2:C184,K15:K21,F2:F184)</f>
+        <v>11183.015000000003</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -3262,8 +3292,20 @@
       <c r="L16" s="16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N16" s="4">
+        <f t="shared" ref="N16:N21" si="9">SUMIF(C3:C185,K16:K22,E3:E185)</f>
+        <v>94568.65</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" ref="O16:O21" si="10">SUMIF(C3:C185,K16:K22,G3:G185)</f>
+        <v>367.7</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" ref="P16:P21" si="11">SUMIF(C3:C185,K16:K22,F3:F185)</f>
+        <v>11568.105000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44577</v>
       </c>
@@ -3299,8 +3341,20 @@
       <c r="L17" s="16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N17" s="4">
+        <f t="shared" si="9"/>
+        <v>93477.410000000018</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="11"/>
+        <v>7527.7900000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44578</v>
       </c>
@@ -3336,8 +3390,20 @@
       <c r="L18" s="16" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N18" s="4">
+        <f t="shared" si="9"/>
+        <v>86538.930000000022</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="11"/>
+        <v>15209.489999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44579</v>
       </c>
@@ -3373,8 +3439,20 @@
       <c r="L19" s="16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N19" s="4">
+        <f t="shared" si="9"/>
+        <v>91634.38</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="10"/>
+        <v>1551.94</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="11"/>
+        <v>15495.329999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44580</v>
       </c>
@@ -3410,8 +3488,20 @@
       <c r="L20" s="16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N20" s="4">
+        <f t="shared" si="9"/>
+        <v>116784.93999999999</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="10"/>
+        <v>809.38000000000011</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="11"/>
+        <v>31430.260000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44581</v>
       </c>
@@ -3447,8 +3537,20 @@
       <c r="L21" s="16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21" s="4">
+        <f t="shared" si="9"/>
+        <v>62375.289999999986</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="11"/>
+        <v>15114.090000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44582</v>
       </c>
@@ -3479,7 +3581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44583</v>
       </c>
@@ -3510,7 +3612,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44584</v>
       </c>
@@ -3541,7 +3643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44585</v>
       </c>
@@ -3572,7 +3674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44586</v>
       </c>
@@ -3603,7 +3705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44587</v>
       </c>
@@ -3634,7 +3736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44588</v>
       </c>
@@ -3665,7 +3767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44589</v>
       </c>
@@ -3696,7 +3798,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>44590</v>
       </c>
@@ -3727,7 +3829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>44591</v>
       </c>
@@ -3758,7 +3860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44592</v>
       </c>
@@ -4848,11 +4950,11 @@
         <v>44627</v>
       </c>
       <c r="B67" s="50">
-        <f t="shared" ref="B67:B130" si="9">MONTH(A67)</f>
+        <f t="shared" ref="B67:B130" si="12">MONTH(A67)</f>
         <v>3</v>
       </c>
       <c r="C67" s="50">
-        <f t="shared" ref="C67:C130" si="10">WEEKDAY(A67,2)</f>
+        <f t="shared" ref="C67:C130" si="13">WEEKDAY(A67,2)</f>
         <v>1</v>
       </c>
       <c r="D67" s="51">
@@ -4879,11 +4981,11 @@
         <v>44628</v>
       </c>
       <c r="B68" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C68" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="D68" s="51">
@@ -4910,11 +5012,11 @@
         <v>44629</v>
       </c>
       <c r="B69" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C69" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D69" s="51">
@@ -4941,11 +5043,11 @@
         <v>44630</v>
       </c>
       <c r="B70" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C70" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D70" s="51">
@@ -4972,11 +5074,11 @@
         <v>44631</v>
       </c>
       <c r="B71" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C71" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D71" s="51">
@@ -5003,11 +5105,11 @@
         <v>44632</v>
       </c>
       <c r="B72" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C72" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D72" s="51">
@@ -5034,11 +5136,11 @@
         <v>44633</v>
       </c>
       <c r="B73" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C73" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D73" s="51">
@@ -5065,11 +5167,11 @@
         <v>44634</v>
       </c>
       <c r="B74" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C74" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D74" s="51">
@@ -5096,11 +5198,11 @@
         <v>44635</v>
       </c>
       <c r="B75" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C75" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="D75" s="51">
@@ -5127,11 +5229,11 @@
         <v>44636</v>
       </c>
       <c r="B76" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C76" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D76" s="51">
@@ -5158,11 +5260,11 @@
         <v>44637</v>
       </c>
       <c r="B77" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C77" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D77" s="51">
@@ -5189,11 +5291,11 @@
         <v>44638</v>
       </c>
       <c r="B78" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C78" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D78" s="51">
@@ -5220,11 +5322,11 @@
         <v>44639</v>
       </c>
       <c r="B79" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C79" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D79" s="51">
@@ -5251,11 +5353,11 @@
         <v>44640</v>
       </c>
       <c r="B80" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C80" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D80" s="51">
@@ -5282,11 +5384,11 @@
         <v>44641</v>
       </c>
       <c r="B81" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C81" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D81" s="51">
@@ -5313,11 +5415,11 @@
         <v>44642</v>
       </c>
       <c r="B82" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C82" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="D82" s="51">
@@ -5344,11 +5446,11 @@
         <v>44643</v>
       </c>
       <c r="B83" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C83" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D83" s="51">
@@ -5375,11 +5477,11 @@
         <v>44644</v>
       </c>
       <c r="B84" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C84" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D84" s="51">
@@ -5406,11 +5508,11 @@
         <v>44645</v>
       </c>
       <c r="B85" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C85" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D85" s="51">
@@ -5437,11 +5539,11 @@
         <v>44646</v>
       </c>
       <c r="B86" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C86" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D86" s="51">
@@ -5468,11 +5570,11 @@
         <v>44647</v>
       </c>
       <c r="B87" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C87" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D87" s="51">
@@ -5499,11 +5601,11 @@
         <v>44648</v>
       </c>
       <c r="B88" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C88" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D88" s="51">
@@ -5530,11 +5632,11 @@
         <v>44649</v>
       </c>
       <c r="B89" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C89" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="D89" s="51">
@@ -5561,11 +5663,11 @@
         <v>44650</v>
       </c>
       <c r="B90" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C90" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D90" s="51">
@@ -5592,11 +5694,11 @@
         <v>44651</v>
       </c>
       <c r="B91" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="C91" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D91" s="51">
@@ -5623,11 +5725,11 @@
         <v>44652</v>
       </c>
       <c r="B92" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C92" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D92" s="51">
@@ -5654,11 +5756,11 @@
         <v>44653</v>
       </c>
       <c r="B93" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C93" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D93" s="51">
@@ -5685,11 +5787,11 @@
         <v>44654</v>
       </c>
       <c r="B94" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C94" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D94" s="51">
@@ -5716,11 +5818,11 @@
         <v>44655</v>
       </c>
       <c r="B95" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C95" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D95" s="51">
@@ -5747,11 +5849,11 @@
         <v>44656</v>
       </c>
       <c r="B96" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C96" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="D96" s="51">
@@ -5778,11 +5880,11 @@
         <v>44657</v>
       </c>
       <c r="B97" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C97" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D97" s="51">
@@ -5809,11 +5911,11 @@
         <v>44658</v>
       </c>
       <c r="B98" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C98" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D98" s="51">
@@ -5840,11 +5942,11 @@
         <v>44659</v>
       </c>
       <c r="B99" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C99" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D99" s="51">
@@ -5871,11 +5973,11 @@
         <v>44660</v>
       </c>
       <c r="B100" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C100" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D100" s="51">
@@ -5902,11 +6004,11 @@
         <v>44661</v>
       </c>
       <c r="B101" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C101" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D101" s="51">
@@ -5933,11 +6035,11 @@
         <v>44662</v>
       </c>
       <c r="B102" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C102" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D102" s="51">
@@ -5964,11 +6066,11 @@
         <v>44663</v>
       </c>
       <c r="B103" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C103" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="D103" s="51">
@@ -5995,11 +6097,11 @@
         <v>44664</v>
       </c>
       <c r="B104" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C104" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D104" s="51">
@@ -6026,11 +6128,11 @@
         <v>44665</v>
       </c>
       <c r="B105" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C105" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D105" s="51">
@@ -6057,11 +6159,11 @@
         <v>44666</v>
       </c>
       <c r="B106" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C106" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D106" s="51">
@@ -6088,11 +6190,11 @@
         <v>44667</v>
       </c>
       <c r="B107" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C107" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D107" s="51">
@@ -6119,11 +6221,11 @@
         <v>44668</v>
       </c>
       <c r="B108" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C108" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D108" s="51">
@@ -6150,11 +6252,11 @@
         <v>44669</v>
       </c>
       <c r="B109" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C109" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D109" s="51">
@@ -6181,11 +6283,11 @@
         <v>44670</v>
       </c>
       <c r="B110" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C110" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="D110" s="51">
@@ -6212,11 +6314,11 @@
         <v>44671</v>
       </c>
       <c r="B111" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C111" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D111" s="51">
@@ -6243,11 +6345,11 @@
         <v>44672</v>
       </c>
       <c r="B112" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C112" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D112" s="51">
@@ -6274,11 +6376,11 @@
         <v>44673</v>
       </c>
       <c r="B113" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C113" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D113" s="51">
@@ -6305,11 +6407,11 @@
         <v>44674</v>
       </c>
       <c r="B114" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C114" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D114" s="51">
@@ -6336,11 +6438,11 @@
         <v>44675</v>
       </c>
       <c r="B115" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C115" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D115" s="51">
@@ -6367,11 +6469,11 @@
         <v>44676</v>
       </c>
       <c r="B116" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C116" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D116" s="51">
@@ -6398,11 +6500,11 @@
         <v>44677</v>
       </c>
       <c r="B117" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C117" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="D117" s="51">
@@ -6429,11 +6531,11 @@
         <v>44678</v>
       </c>
       <c r="B118" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C118" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D118" s="51">
@@ -6460,11 +6562,11 @@
         <v>44679</v>
       </c>
       <c r="B119" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C119" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D119" s="51">
@@ -6491,11 +6593,11 @@
         <v>44680</v>
       </c>
       <c r="B120" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C120" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D120" s="51">
@@ -6522,11 +6624,11 @@
         <v>44681</v>
       </c>
       <c r="B121" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C121" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D121" s="51">
@@ -6553,11 +6655,11 @@
         <v>44682</v>
       </c>
       <c r="B122" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C122" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D122" s="51">
@@ -6584,11 +6686,11 @@
         <v>44683</v>
       </c>
       <c r="B123" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C123" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D123" s="51">
@@ -6615,11 +6717,11 @@
         <v>44684</v>
       </c>
       <c r="B124" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C124" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="D124" s="51">
@@ -6646,11 +6748,11 @@
         <v>44685</v>
       </c>
       <c r="B125" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C125" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D125" s="51">
@@ -6677,11 +6779,11 @@
         <v>44686</v>
       </c>
       <c r="B126" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C126" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D126" s="51">
@@ -6708,11 +6810,11 @@
         <v>44687</v>
       </c>
       <c r="B127" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C127" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="D127" s="51">
@@ -6739,11 +6841,11 @@
         <v>44688</v>
       </c>
       <c r="B128" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C128" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="D128" s="51">
@@ -6770,11 +6872,11 @@
         <v>44689</v>
       </c>
       <c r="B129" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C129" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D129" s="51">
@@ -6801,11 +6903,11 @@
         <v>44690</v>
       </c>
       <c r="B130" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C130" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D130" s="51">
@@ -6832,11 +6934,11 @@
         <v>44691</v>
       </c>
       <c r="B131" s="50">
-        <f t="shared" ref="B131:B184" si="11">MONTH(A131)</f>
+        <f t="shared" ref="B131:B184" si="14">MONTH(A131)</f>
         <v>5</v>
       </c>
       <c r="C131" s="50">
-        <f t="shared" ref="C131:C184" si="12">WEEKDAY(A131,2)</f>
+        <f t="shared" ref="C131:C184" si="15">WEEKDAY(A131,2)</f>
         <v>2</v>
       </c>
       <c r="D131" s="51">
@@ -6863,11 +6965,11 @@
         <v>44692</v>
       </c>
       <c r="B132" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C132" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="D132" s="51">
@@ -6894,11 +6996,11 @@
         <v>44693</v>
       </c>
       <c r="B133" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C133" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="D133" s="51">
@@ -6925,11 +7027,11 @@
         <v>44694</v>
       </c>
       <c r="B134" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C134" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="D134" s="51">
@@ -6956,11 +7058,11 @@
         <v>44695</v>
       </c>
       <c r="B135" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C135" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="D135" s="51">
@@ -6987,11 +7089,11 @@
         <v>44696</v>
       </c>
       <c r="B136" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C136" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="D136" s="51">
@@ -7018,11 +7120,11 @@
         <v>44697</v>
       </c>
       <c r="B137" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C137" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D137" s="51">
@@ -7049,11 +7151,11 @@
         <v>44698</v>
       </c>
       <c r="B138" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C138" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D138" s="51">
@@ -7080,11 +7182,11 @@
         <v>44699</v>
       </c>
       <c r="B139" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C139" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="D139" s="51">
@@ -7111,11 +7213,11 @@
         <v>44700</v>
       </c>
       <c r="B140" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C140" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="D140" s="51">
@@ -7142,11 +7244,11 @@
         <v>44701</v>
       </c>
       <c r="B141" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C141" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="D141" s="51">
@@ -7173,11 +7275,11 @@
         <v>44702</v>
       </c>
       <c r="B142" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C142" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="D142" s="51">
@@ -7204,11 +7306,11 @@
         <v>44703</v>
       </c>
       <c r="B143" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C143" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="D143" s="51">
@@ -7235,11 +7337,11 @@
         <v>44704</v>
       </c>
       <c r="B144" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C144" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D144" s="51">
@@ -7266,11 +7368,11 @@
         <v>44705</v>
       </c>
       <c r="B145" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C145" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D145" s="51">
@@ -7297,11 +7399,11 @@
         <v>44706</v>
       </c>
       <c r="B146" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C146" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="D146" s="51">
@@ -7328,11 +7430,11 @@
         <v>44707</v>
       </c>
       <c r="B147" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C147" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="D147" s="51">
@@ -7359,11 +7461,11 @@
         <v>44708</v>
       </c>
       <c r="B148" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C148" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="D148" s="51">
@@ -7390,11 +7492,11 @@
         <v>44709</v>
       </c>
       <c r="B149" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C149" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="D149" s="51">
@@ -7421,11 +7523,11 @@
         <v>44710</v>
       </c>
       <c r="B150" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C150" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="D150" s="51">
@@ -7452,11 +7554,11 @@
         <v>44711</v>
       </c>
       <c r="B151" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C151" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D151" s="51">
@@ -7483,11 +7585,11 @@
         <v>44712</v>
       </c>
       <c r="B152" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C152" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D152" s="51">
@@ -7514,11 +7616,11 @@
         <v>44568</v>
       </c>
       <c r="B153" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C153" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="D153" s="51">
@@ -7545,11 +7647,11 @@
         <v>44575</v>
       </c>
       <c r="B154" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C154" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="D154" s="51">
@@ -7576,11 +7678,11 @@
         <v>44576</v>
       </c>
       <c r="B155" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C155" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="D155" s="51">
@@ -7607,11 +7709,11 @@
         <v>44577</v>
       </c>
       <c r="B156" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C156" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="D156" s="51">
@@ -7638,11 +7740,11 @@
         <v>44616</v>
       </c>
       <c r="B157" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C157" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="D157" s="51">
@@ -7669,11 +7771,11 @@
         <v>44617</v>
       </c>
       <c r="B158" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C158" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="D158" s="51">
@@ -7700,11 +7802,11 @@
         <v>44618</v>
       </c>
       <c r="B159" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C159" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="D159" s="51">
@@ -7731,11 +7833,11 @@
         <v>44628</v>
       </c>
       <c r="B160" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="C160" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D160" s="51">
@@ -7762,11 +7864,11 @@
         <v>44658</v>
       </c>
       <c r="B161" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="C161" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="D161" s="51">
@@ -7793,11 +7895,11 @@
         <v>44659</v>
       </c>
       <c r="B162" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="C162" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="D162" s="51">
@@ -7824,11 +7926,11 @@
         <v>44660</v>
       </c>
       <c r="B163" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="C163" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="D163" s="51">
@@ -7855,11 +7957,11 @@
         <v>44572</v>
       </c>
       <c r="B164" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C164" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D164" s="51">
@@ -7886,11 +7988,11 @@
         <v>44573</v>
       </c>
       <c r="B165" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C165" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="D165" s="51">
@@ -7917,11 +8019,11 @@
         <v>44580</v>
       </c>
       <c r="B166" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C166" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="D166" s="51">
@@ -7948,11 +8050,11 @@
         <v>44592</v>
       </c>
       <c r="B167" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C167" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="D167" s="51">
@@ -7979,11 +8081,11 @@
         <v>44598</v>
       </c>
       <c r="B168" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C168" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="D168" s="51">
@@ -8010,11 +8112,11 @@
         <v>44605</v>
       </c>
       <c r="B169" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C169" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="D169" s="51">
@@ -8041,11 +8143,11 @@
         <v>44607</v>
       </c>
       <c r="B170" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C170" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="D170" s="51">
@@ -8072,11 +8174,11 @@
         <v>44618</v>
       </c>
       <c r="B171" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C171" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="D171" s="51">
@@ -8103,11 +8205,11 @@
         <v>44622</v>
       </c>
       <c r="B172" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="C172" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="D172" s="51">
@@ -8134,11 +8236,11 @@
         <v>44630</v>
       </c>
       <c r="B173" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="C173" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="D173" s="51">
@@ -8165,11 +8267,11 @@
         <v>44639</v>
       </c>
       <c r="B174" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="C174" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="D174" s="51">
@@ -8196,11 +8298,11 @@
         <v>44650</v>
       </c>
       <c r="B175" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="C175" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="D175" s="51">
@@ -8227,11 +8329,11 @@
         <v>44665</v>
       </c>
       <c r="B176" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="C176" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="D176" s="51">
@@ -8258,11 +8360,11 @@
         <v>44688</v>
       </c>
       <c r="B177" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C177" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="D177" s="51">
@@ -8289,11 +8391,11 @@
         <v>44692</v>
       </c>
       <c r="B178" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C178" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="D178" s="51">
@@ -8320,11 +8422,11 @@
         <v>44693</v>
       </c>
       <c r="B179" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C179" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="D179" s="51">
@@ -8351,11 +8453,11 @@
         <v>44695</v>
       </c>
       <c r="B180" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C180" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="D180" s="51">
@@ -8382,11 +8484,11 @@
         <v>44696</v>
       </c>
       <c r="B181" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C181" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="D181" s="51">
@@ -8413,11 +8515,11 @@
         <v>44709</v>
       </c>
       <c r="B182" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C182" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="D182" s="51">
@@ -8444,11 +8546,11 @@
         <v>44710</v>
       </c>
       <c r="B183" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="C183" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="D183" s="51">
@@ -8475,11 +8577,11 @@
         <v>44618</v>
       </c>
       <c r="B184" s="50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="C184" s="50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="D184" s="51">
@@ -8507,14 +8609,14 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q4:Q8">
-    <cfRule type="iconSet" priority="4">
+    <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
         <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8528,7 +8630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P8">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8542,7 +8644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R8">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8551,6 +8653,48 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{7A68EB9D-668F-4349-A03A-4929245A877F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:N21">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{83840ACF-60BB-4474-A82A-CCB46564EAD3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15:O21">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C8C5B311-1156-4DA6-BA68-CE7DF52F88DB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15:P21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{501A4DFA-21DE-42CF-BAD7-E8DE206E9CF9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8603,6 +8747,39 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>R4:R8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{83840ACF-60BB-4474-A82A-CCB46564EAD3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N15:N21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C8C5B311-1156-4DA6-BA68-CE7DF52F88DB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O15:O21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{501A4DFA-21DE-42CF-BAD7-E8DE206E9CF9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P15:P21</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ADFF22-C2D1-4506-A514-05D13CCEA0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF281FAF-ABED-479D-A672-667CD37E83E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
   <si>
     <t>Vendedor</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>Total Tarjeta por Dia</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -3255,6 +3258,9 @@
         <f>SUMIF(C2:C184,K15:K21,F2:F184)</f>
         <v>11183.015000000003</v>
       </c>
+      <c r="R15" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -8792,7 +8798,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9017,18 +9023,18 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8">
         <f>INDEX(B2:H6,MATCH(C11,C2:C6,0),1)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="9">
         <f>INDEX(B2:H6,D11,MATCH(E11,B1:H1,0))</f>
-        <v>23711.441999999999</v>
+        <v>27268.158299999999</v>
       </c>
     </row>
   </sheetData>

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF281FAF-ABED-479D-A672-667CD37E83E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420C4E7C-0E5C-4299-B24C-E5F49AD0A540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>Vendedor</t>
   </si>
@@ -290,7 +290,13 @@
     <t>Total Tarjeta por Dia</t>
   </si>
   <si>
-    <t>z</t>
+    <t>ID Vendedor</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Jose</t>
   </si>
 </sst>
 </file>
@@ -609,12 +615,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -695,6 +700,22 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,27 +731,12 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -2548,19 +2554,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C0ADA3-4C22-4CF9-8AD3-3A127D5F6CB1}">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.85546875" style="3"/>
-    <col min="4" max="4" width="16" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="51"/>
-    <col min="11" max="11" width="12.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="2"/>
+    <col min="4" max="4" width="16" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="44"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="13" max="13" width="20.140625" customWidth="1"/>
     <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1"/>
@@ -2571,69 +2577,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="52" t="s">
         <v>65</v>
       </c>
       <c r="L1">
         <v>7</v>
       </c>
-      <c r="M1" s="16" t="str">
+      <c r="M1" s="15" t="str">
         <f>VLOOKUP(L1,K15:L21,2)</f>
         <v>Domingo</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>44562</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2">
         <f>MONTH(A2)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2">
         <f>WEEKDAY(A2,2)</f>
         <v>6</v>
       </c>
-      <c r="D2" s="51">
-        <v>0</v>
-      </c>
-      <c r="E2" s="51">
-        <v>0</v>
-      </c>
-      <c r="F2" s="51">
-        <v>0</v>
-      </c>
-      <c r="G2" s="51">
-        <v>0</v>
-      </c>
-      <c r="H2" s="51">
+      <c r="D2" s="44">
+        <v>0</v>
+      </c>
+      <c r="E2" s="44">
+        <v>0</v>
+      </c>
+      <c r="F2" s="44">
+        <v>0</v>
+      </c>
+      <c r="G2" s="44">
+        <v>0</v>
+      </c>
+      <c r="H2" s="44">
         <v>0</v>
       </c>
       <c r="I2">
@@ -2641,395 +2647,395 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>44563</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3">
         <f t="shared" ref="B3:B66" si="0">MONTH(A3)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3">
         <f t="shared" ref="C3:C66" si="1">WEEKDAY(A3,2)</f>
         <v>7</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="44">
         <v>3574.28</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="44">
         <v>3459.57</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="44">
         <v>114.71</v>
       </c>
-      <c r="G3" s="51">
-        <v>0</v>
-      </c>
-      <c r="H3" s="51">
+      <c r="G3" s="44">
+        <v>0</v>
+      </c>
+      <c r="H3" s="44">
         <v>1908.81</v>
       </c>
       <c r="I3">
         <v>25</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="O3" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="53" t="s">
+      <c r="P3" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="53" t="s">
+      <c r="Q3" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="R3" s="53" t="s">
+      <c r="R3" s="46" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>44564</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="44">
         <v>4942.17</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="44">
         <v>4942.17</v>
       </c>
-      <c r="F4" s="51">
-        <v>0</v>
-      </c>
-      <c r="G4" s="51">
-        <v>0</v>
-      </c>
-      <c r="H4" s="51">
+      <c r="F4" s="44">
+        <v>0</v>
+      </c>
+      <c r="G4" s="44">
+        <v>0</v>
+      </c>
+      <c r="H4" s="44">
         <v>2553.7800000000002</v>
       </c>
       <c r="I4">
         <v>47</v>
       </c>
-      <c r="K4" s="52">
+      <c r="K4" s="45">
         <v>1</v>
       </c>
       <c r="L4">
         <f>$L$1</f>
         <v>7</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUMIF(B2:B184,K4:K8,D2:D184)</f>
         <v>159277.59000000003</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <f>SUMIFS(D2:D184,B2:B184,K4:K8,C2:C184,L4:L8)</f>
         <v>20152.98</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <f>AVERAGEIFS(D2:D184,B2:B184,K4:K8,C2:C184,L4:L8)</f>
         <v>3358.83</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <f>SUMIF(B2:B184,K4:K8,G2:G184)</f>
         <v>5132.3599999999997</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <f>SUMIF(B2:B184,K4:K8,E2:E184)</f>
         <v>138764.61000000002</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="3">
         <f>SUMIF(B2:B184,K4:K8,F2:F184)</f>
         <v>15380.620000000003</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>44565</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="44">
         <v>5551.82</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="44">
         <v>5108.04</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="44">
         <v>443.78</v>
       </c>
-      <c r="G5" s="51">
-        <v>0</v>
-      </c>
-      <c r="H5" s="51">
+      <c r="G5" s="44">
+        <v>0</v>
+      </c>
+      <c r="H5" s="44">
         <v>2692.46</v>
       </c>
       <c r="I5">
         <v>55</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="45">
         <v>2</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L8" si="2">$L$1</f>
         <v>7</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <f t="shared" ref="M5:M8" si="3">SUMIF(B3:B185,K5:K9,D3:D185)</f>
         <v>151460.30000000002</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <f t="shared" ref="N5:N8" si="4">SUMIFS(D3:D185,B3:B185,K5:K9,C3:C185,L5:L9)</f>
         <v>19130.82</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <f t="shared" ref="O5:O8" si="5">AVERAGEIFS(D3:D185,B3:B185,K5:K9,C3:C185,L5:L9)</f>
         <v>3188.47</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <f t="shared" ref="P5:P8" si="6">SUMIF(B3:B185,K5:K9,G3:G185)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <f t="shared" ref="Q5:Q8" si="7">SUMIF(B3:B185,K5:K9,E3:E185)</f>
         <v>121277.60999999997</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <f t="shared" ref="R5:R8" si="8">SUMIF(B3:B185,K5:K9,F3:F185)</f>
         <v>30182.690000000002</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>44566</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="44">
         <v>6001.55</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="44">
         <v>5876.3</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="44">
         <v>125.25</v>
       </c>
-      <c r="G6" s="51">
-        <v>0</v>
-      </c>
-      <c r="H6" s="51">
+      <c r="G6" s="44">
+        <v>0</v>
+      </c>
+      <c r="H6" s="44">
         <v>3018.65</v>
       </c>
       <c r="I6">
         <v>58</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="45">
         <v>3</v>
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <f t="shared" si="3"/>
         <v>140334.59</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <f t="shared" si="4"/>
         <v>9985.0400000000009</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <f t="shared" si="5"/>
         <v>2496.2600000000002</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <f t="shared" si="6"/>
         <v>175</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <f t="shared" si="7"/>
         <v>119819.94999999998</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <f t="shared" si="8"/>
         <v>20339.64</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>44567</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="44">
         <v>4118.8900000000003</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="44">
         <v>3962.21</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="44">
         <v>156.68</v>
       </c>
-      <c r="G7" s="51">
-        <v>0</v>
-      </c>
-      <c r="H7" s="51">
+      <c r="G7" s="44">
+        <v>0</v>
+      </c>
+      <c r="H7" s="44">
         <v>2053.39</v>
       </c>
       <c r="I7">
         <v>50</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="45">
         <v>4</v>
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <f t="shared" si="3"/>
         <v>134942.64000000001</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <f t="shared" si="4"/>
         <v>9062.4700000000012</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <f t="shared" si="5"/>
         <v>2265.6175000000003</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <f t="shared" si="7"/>
         <v>117844.51000000001</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <f t="shared" si="8"/>
         <v>17098.13</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>44568</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="44">
         <v>5649.31</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="44">
         <v>4933.16</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="44">
         <v>716.15</v>
       </c>
-      <c r="G8" s="51">
-        <v>0</v>
-      </c>
-      <c r="H8" s="51">
+      <c r="G8" s="44">
+        <v>0</v>
+      </c>
+      <c r="H8" s="44">
         <v>2779.85</v>
       </c>
       <c r="I8">
         <v>59</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="45">
         <v>5</v>
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <f t="shared" si="3"/>
         <v>161194.56</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <f t="shared" si="4"/>
         <v>22732.350000000002</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <f t="shared" si="5"/>
         <v>3247.4785714285717</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <f t="shared" si="6"/>
         <v>2554.02</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <f t="shared" si="7"/>
         <v>133998.82999999999</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <f t="shared" si="8"/>
         <v>24641.710000000003</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>44569</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="44">
         <v>5302.13</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="44">
         <v>4907.66</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="44">
         <v>394.47</v>
       </c>
-      <c r="G9" s="51">
-        <v>0</v>
-      </c>
-      <c r="H9" s="51">
+      <c r="G9" s="44">
+        <v>0</v>
+      </c>
+      <c r="H9" s="44">
         <v>2587.8000000000002</v>
       </c>
       <c r="I9">
@@ -3037,30 +3043,30 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>44570</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="44">
         <v>3478.01</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="44">
         <v>1596.41</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="44">
         <v>1881.6</v>
       </c>
-      <c r="G10" s="51">
-        <v>0</v>
-      </c>
-      <c r="H10" s="51">
+      <c r="G10" s="44">
+        <v>0</v>
+      </c>
+      <c r="H10" s="44">
         <v>1746.17</v>
       </c>
       <c r="I10">
@@ -3068,30 +3074,30 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>44571</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="44">
         <v>7573.72</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="44">
         <v>2347.08</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="44">
         <v>94.28</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="44">
         <v>5132.3599999999997</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="44">
         <v>3802.33</v>
       </c>
       <c r="I11">
@@ -3099,30 +3105,30 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>44572</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="44">
         <v>4226.25</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="44">
         <v>3692.89</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="44">
         <v>533.36</v>
       </c>
-      <c r="G12" s="51">
-        <v>0</v>
-      </c>
-      <c r="H12" s="51">
+      <c r="G12" s="44">
+        <v>0</v>
+      </c>
+      <c r="H12" s="44">
         <v>2411.77</v>
       </c>
       <c r="I12">
@@ -3130,457 +3136,454 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>44573</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="44">
         <v>4172.46</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="44">
         <v>4172.46</v>
       </c>
-      <c r="F13" s="51">
-        <v>0</v>
-      </c>
-      <c r="G13" s="51">
-        <v>0</v>
-      </c>
-      <c r="H13" s="51">
+      <c r="F13" s="44">
+        <v>0</v>
+      </c>
+      <c r="G13" s="44">
+        <v>0</v>
+      </c>
+      <c r="H13" s="44">
         <v>2291.9499999999998</v>
       </c>
       <c r="I13">
         <v>48</v>
       </c>
-      <c r="K13" s="55" t="s">
+      <c r="K13" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="55"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>44574</v>
       </c>
-      <c r="B14" s="50">
+      <c r="B14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="44">
         <v>3580.9</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="44">
         <v>3217.79</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="44">
         <v>363.11</v>
       </c>
-      <c r="G14" s="51">
-        <v>0</v>
-      </c>
-      <c r="H14" s="51">
+      <c r="G14" s="44">
+        <v>0</v>
+      </c>
+      <c r="H14" s="44">
         <v>2032.93</v>
       </c>
       <c r="I14">
         <v>39</v>
       </c>
-      <c r="K14" s="56" t="s">
+      <c r="K14" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="57" t="s">
+      <c r="L14" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="N14" s="53" t="s">
+      <c r="N14" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="53" t="s">
+      <c r="O14" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="P14" s="53" t="s">
+      <c r="P14" s="46" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>44575</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="44">
         <v>3503.12</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="44">
         <v>2831.55</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="44">
         <v>671.57</v>
       </c>
-      <c r="G15" s="51">
-        <v>0</v>
-      </c>
-      <c r="H15" s="51">
+      <c r="G15" s="44">
+        <v>0</v>
+      </c>
+      <c r="H15" s="44">
         <v>1996.33</v>
       </c>
       <c r="I15">
         <v>33</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="48">
         <v>1</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <f>SUMIF(C2:C184,K15:K21,E2:E184)</f>
         <v>82866.339999999982</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <f>SUMIF(C2:C184,K15:K21,G2:G184)</f>
         <v>5132.3599999999997</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <f>SUMIF(C2:C184,K15:K21,F2:F184)</f>
         <v>11183.015000000003</v>
       </c>
-      <c r="R15" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>44576</v>
       </c>
-      <c r="B16" s="50">
+      <c r="B16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="44">
         <v>6727.53</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="44">
         <v>5752.18</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="44">
         <v>975.35</v>
       </c>
-      <c r="G16" s="51">
-        <v>0</v>
-      </c>
-      <c r="H16" s="51">
+      <c r="G16" s="44">
+        <v>0</v>
+      </c>
+      <c r="H16" s="44">
         <v>3750.84</v>
       </c>
       <c r="I16">
         <v>48</v>
       </c>
-      <c r="K16" s="58">
+      <c r="K16" s="48">
         <v>2</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <f t="shared" ref="N16:N21" si="9">SUMIF(C3:C185,K16:K22,E3:E185)</f>
         <v>94568.65</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <f t="shared" ref="O16:O21" si="10">SUMIF(C3:C185,K16:K22,G3:G185)</f>
         <v>367.7</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <f t="shared" ref="P16:P21" si="11">SUMIF(C3:C185,K16:K22,F3:F185)</f>
         <v>11568.105000000001</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>44577</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="44">
         <v>3620.16</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="44">
         <v>3216.57</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="44">
         <v>403.59</v>
       </c>
-      <c r="G17" s="51">
-        <v>0</v>
-      </c>
-      <c r="H17" s="51">
+      <c r="G17" s="44">
+        <v>0</v>
+      </c>
+      <c r="H17" s="44">
         <v>2127.77</v>
       </c>
       <c r="I17">
         <v>28</v>
       </c>
-      <c r="K17" s="58">
+      <c r="K17" s="48">
         <v>3</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <f t="shared" si="9"/>
         <v>93477.410000000018</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <f t="shared" si="11"/>
         <v>7527.7900000000009</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>44578</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="44">
         <v>3178.41</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="44">
         <v>3154.41</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="44">
         <v>24</v>
       </c>
-      <c r="G18" s="51">
-        <v>0</v>
-      </c>
-      <c r="H18" s="51">
+      <c r="G18" s="44">
+        <v>0</v>
+      </c>
+      <c r="H18" s="44">
         <v>1826.18</v>
       </c>
       <c r="I18">
         <v>34</v>
       </c>
-      <c r="K18" s="58">
+      <c r="K18" s="48">
         <v>4</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <f t="shared" si="9"/>
         <v>86538.930000000022</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <f t="shared" si="11"/>
         <v>15209.489999999998</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>44579</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="44">
         <v>3765.94</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="44">
         <v>3388.37</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="44">
         <v>377.57</v>
       </c>
-      <c r="G19" s="51">
-        <v>0</v>
-      </c>
-      <c r="H19" s="51">
+      <c r="G19" s="44">
+        <v>0</v>
+      </c>
+      <c r="H19" s="44">
         <v>2082.56</v>
       </c>
       <c r="I19">
         <v>40</v>
       </c>
-      <c r="K19" s="58">
+      <c r="K19" s="48">
         <v>5</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <f t="shared" si="9"/>
         <v>91634.38</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <f t="shared" si="10"/>
         <v>1551.94</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <f t="shared" si="11"/>
         <v>15495.329999999994</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>44580</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="44">
         <v>3966.48</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="44">
         <v>3605.21</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="44">
         <v>361.27</v>
       </c>
-      <c r="G20" s="51">
-        <v>0</v>
-      </c>
-      <c r="H20" s="51">
+      <c r="G20" s="44">
+        <v>0</v>
+      </c>
+      <c r="H20" s="44">
         <v>2216.8200000000002</v>
       </c>
       <c r="I20">
         <v>53</v>
       </c>
-      <c r="K20" s="58">
+      <c r="K20" s="48">
         <v>6</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <f t="shared" si="9"/>
         <v>116784.93999999999</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <f t="shared" si="10"/>
         <v>809.38000000000011</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <f t="shared" si="11"/>
         <v>31430.260000000002</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>44581</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="44">
         <v>3706.63</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="44">
         <v>3706.63</v>
       </c>
-      <c r="F21" s="51">
-        <v>0</v>
-      </c>
-      <c r="G21" s="51">
-        <v>0</v>
-      </c>
-      <c r="H21" s="51">
+      <c r="F21" s="44">
+        <v>0</v>
+      </c>
+      <c r="G21" s="44">
+        <v>0</v>
+      </c>
+      <c r="H21" s="44">
         <v>2076.33</v>
       </c>
       <c r="I21">
         <v>42</v>
       </c>
-      <c r="K21" s="58">
+      <c r="K21" s="48">
         <v>7</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <f t="shared" si="9"/>
         <v>62375.289999999986</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <f t="shared" si="11"/>
         <v>15114.090000000002</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>44582</v>
       </c>
-      <c r="B22" s="50">
+      <c r="B22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="44">
         <v>2753.61</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="44">
         <v>2753.61</v>
       </c>
-      <c r="F22" s="51">
-        <v>0</v>
-      </c>
-      <c r="G22" s="51">
-        <v>0</v>
-      </c>
-      <c r="H22" s="51">
+      <c r="F22" s="44">
+        <v>0</v>
+      </c>
+      <c r="G22" s="44">
+        <v>0</v>
+      </c>
+      <c r="H22" s="44">
         <v>1611.89</v>
       </c>
       <c r="I22">
@@ -3588,30 +3591,30 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>44583</v>
       </c>
-      <c r="B23" s="50">
+      <c r="B23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="44">
         <v>6177.15</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="44">
         <v>4991.5600000000004</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="44">
         <v>1185.5899999999999</v>
       </c>
-      <c r="G23" s="51">
-        <v>0</v>
-      </c>
-      <c r="H23" s="51">
+      <c r="G23" s="44">
+        <v>0</v>
+      </c>
+      <c r="H23" s="44">
         <v>3505.85</v>
       </c>
       <c r="I23">
@@ -3619,30 +3622,30 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>44584</v>
       </c>
-      <c r="B24" s="50">
+      <c r="B24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="44">
         <v>2919.39</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="44">
         <v>2833.64</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="44">
         <v>85.75</v>
       </c>
-      <c r="G24" s="51">
-        <v>0</v>
-      </c>
-      <c r="H24" s="51">
+      <c r="G24" s="44">
+        <v>0</v>
+      </c>
+      <c r="H24" s="44">
         <v>1654.02</v>
       </c>
       <c r="I24">
@@ -3650,30 +3653,30 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>44585</v>
       </c>
-      <c r="B25" s="50">
+      <c r="B25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="44">
         <v>3034.94</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="44">
         <v>2721.46</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="44">
         <v>313.48</v>
       </c>
-      <c r="G25" s="51">
-        <v>0</v>
-      </c>
-      <c r="H25" s="51">
+      <c r="G25" s="44">
+        <v>0</v>
+      </c>
+      <c r="H25" s="44">
         <v>1758.41</v>
       </c>
       <c r="I25">
@@ -3681,30 +3684,30 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>44586</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C26" s="50">
+      <c r="C26">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="44">
         <v>2491.39</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="44">
         <v>2365.77</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="44">
         <v>125.62</v>
       </c>
-      <c r="G26" s="51">
-        <v>0</v>
-      </c>
-      <c r="H26" s="51">
+      <c r="G26" s="44">
+        <v>0</v>
+      </c>
+      <c r="H26" s="44">
         <v>1430.55</v>
       </c>
       <c r="I26">
@@ -3712,30 +3715,30 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>44587</v>
       </c>
-      <c r="B27" s="50">
+      <c r="B27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="44">
         <v>1881.23</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="44">
         <v>1714.15</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="44">
         <v>167.08</v>
       </c>
-      <c r="G27" s="51">
-        <v>0</v>
-      </c>
-      <c r="H27" s="51">
+      <c r="G27" s="44">
+        <v>0</v>
+      </c>
+      <c r="H27" s="44">
         <v>1141.31</v>
       </c>
       <c r="I27">
@@ -3743,30 +3746,30 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>44588</v>
       </c>
-      <c r="B28" s="50">
+      <c r="B28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="44">
         <v>2533.27</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="44">
         <v>1714.63</v>
       </c>
-      <c r="F28" s="51">
+      <c r="F28" s="44">
         <v>818.64</v>
       </c>
-      <c r="G28" s="51">
-        <v>0</v>
-      </c>
-      <c r="H28" s="51">
+      <c r="G28" s="44">
+        <v>0</v>
+      </c>
+      <c r="H28" s="44">
         <v>1442.5</v>
       </c>
       <c r="I28">
@@ -3774,30 +3777,30 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>44589</v>
       </c>
-      <c r="B29" s="50">
+      <c r="B29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="44">
         <v>4445.8599999999997</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="44">
         <v>4286.07</v>
       </c>
-      <c r="F29" s="51">
+      <c r="F29" s="44">
         <v>159.79</v>
       </c>
-      <c r="G29" s="51">
-        <v>0</v>
-      </c>
-      <c r="H29" s="51">
+      <c r="G29" s="44">
+        <v>0</v>
+      </c>
+      <c r="H29" s="44">
         <v>2488.38</v>
       </c>
       <c r="I29">
@@ -3805,30 +3808,30 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>44590</v>
       </c>
-      <c r="B30" s="50">
+      <c r="B30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="44">
         <v>3152.18</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="44">
         <v>2150.65</v>
       </c>
-      <c r="F30" s="51">
+      <c r="F30" s="44">
         <v>1001.53</v>
       </c>
-      <c r="G30" s="51">
-        <v>0</v>
-      </c>
-      <c r="H30" s="51">
+      <c r="G30" s="44">
+        <v>0</v>
+      </c>
+      <c r="H30" s="44">
         <v>1844.08</v>
       </c>
       <c r="I30">
@@ -3836,30 +3839,30 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>44591</v>
       </c>
-      <c r="B31" s="50">
+      <c r="B31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C31" s="50">
+      <c r="C31">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="44">
         <v>2940.98</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="44">
         <v>2819.89</v>
       </c>
-      <c r="F31" s="51">
+      <c r="F31" s="44">
         <v>121.09</v>
       </c>
-      <c r="G31" s="51">
-        <v>0</v>
-      </c>
-      <c r="H31" s="51">
+      <c r="G31" s="44">
+        <v>0</v>
+      </c>
+      <c r="H31" s="44">
         <v>1669.58</v>
       </c>
       <c r="I31">
@@ -3867,30 +3870,30 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>44592</v>
       </c>
-      <c r="B32" s="50">
+      <c r="B32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="44">
         <v>4221.26</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="44">
         <v>4169.25</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F32" s="44">
         <v>52.01</v>
       </c>
-      <c r="G32" s="51">
-        <v>0</v>
-      </c>
-      <c r="H32" s="51">
+      <c r="G32" s="44">
+        <v>0</v>
+      </c>
+      <c r="H32" s="44">
         <v>2391.35</v>
       </c>
       <c r="I32">
@@ -3898,30 +3901,30 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>44593</v>
       </c>
-      <c r="B33" s="50">
+      <c r="B33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D33" s="44">
         <v>4717.8500000000004</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="44">
         <v>4360.6400000000003</v>
       </c>
-      <c r="F33" s="51">
+      <c r="F33" s="44">
         <v>357.21</v>
       </c>
-      <c r="G33" s="51">
-        <v>0</v>
-      </c>
-      <c r="H33" s="51">
+      <c r="G33" s="44">
+        <v>0</v>
+      </c>
+      <c r="H33" s="44">
         <v>2616.06</v>
       </c>
       <c r="I33">
@@ -3929,30 +3932,30 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>44594</v>
       </c>
-      <c r="B34" s="50">
+      <c r="B34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="44">
         <v>4845.28</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="44">
         <v>4845.28</v>
       </c>
-      <c r="F34" s="51">
-        <v>0</v>
-      </c>
-      <c r="G34" s="51">
-        <v>0</v>
-      </c>
-      <c r="H34" s="51">
+      <c r="F34" s="44">
+        <v>0</v>
+      </c>
+      <c r="G34" s="44">
+        <v>0</v>
+      </c>
+      <c r="H34" s="44">
         <v>2699.69</v>
       </c>
       <c r="I34">
@@ -3960,30 +3963,30 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>44595</v>
       </c>
-      <c r="B35" s="50">
+      <c r="B35">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="44">
         <v>3418.45</v>
       </c>
-      <c r="E35" s="51">
+      <c r="E35" s="44">
         <v>3305.74</v>
       </c>
-      <c r="F35" s="51">
+      <c r="F35" s="44">
         <v>112.71</v>
       </c>
-      <c r="G35" s="51">
-        <v>0</v>
-      </c>
-      <c r="H35" s="51">
+      <c r="G35" s="44">
+        <v>0</v>
+      </c>
+      <c r="H35" s="44">
         <v>1962.65</v>
       </c>
       <c r="I35">
@@ -3991,30 +3994,30 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>44596</v>
       </c>
-      <c r="B36" s="50">
+      <c r="B36">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="44">
         <v>3483.92</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="44">
         <v>2786.75</v>
       </c>
-      <c r="F36" s="51">
+      <c r="F36" s="44">
         <v>697.17</v>
       </c>
-      <c r="G36" s="51">
-        <v>0</v>
-      </c>
-      <c r="H36" s="51">
+      <c r="G36" s="44">
+        <v>0</v>
+      </c>
+      <c r="H36" s="44">
         <v>1975.94</v>
       </c>
       <c r="I36">
@@ -4022,30 +4025,30 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>44597</v>
       </c>
-      <c r="B37" s="50">
+      <c r="B37">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="44">
         <v>4180.18</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="44">
         <v>3462.69</v>
       </c>
-      <c r="F37" s="51">
+      <c r="F37" s="44">
         <v>717.49</v>
       </c>
-      <c r="G37" s="51">
-        <v>0</v>
-      </c>
-      <c r="H37" s="51">
+      <c r="G37" s="44">
+        <v>0</v>
+      </c>
+      <c r="H37" s="44">
         <v>2371.66</v>
       </c>
       <c r="I37">
@@ -4053,30 +4056,30 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>44598</v>
       </c>
-      <c r="B38" s="50">
+      <c r="B38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C38" s="50">
+      <c r="C38">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D38" s="51">
+      <c r="D38" s="44">
         <v>2630.46</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="44">
         <v>1803.43</v>
       </c>
-      <c r="F38" s="51">
+      <c r="F38" s="44">
         <v>827.03</v>
       </c>
-      <c r="G38" s="51">
-        <v>0</v>
-      </c>
-      <c r="H38" s="51">
+      <c r="G38" s="44">
+        <v>0</v>
+      </c>
+      <c r="H38" s="44">
         <v>1669.58</v>
       </c>
       <c r="I38">
@@ -4084,30 +4087,30 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>44599</v>
       </c>
-      <c r="B39" s="50">
+      <c r="B39">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C39" s="50">
+      <c r="C39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="44">
         <v>2654.27</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E39" s="44">
         <v>2012.41</v>
       </c>
-      <c r="F39" s="51">
+      <c r="F39" s="44">
         <v>641.86</v>
       </c>
-      <c r="G39" s="51">
-        <v>0</v>
-      </c>
-      <c r="H39" s="51">
+      <c r="G39" s="44">
+        <v>0</v>
+      </c>
+      <c r="H39" s="44">
         <v>1524.11</v>
       </c>
       <c r="I39">
@@ -4115,30 +4118,30 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>44600</v>
       </c>
-      <c r="B40" s="50">
+      <c r="B40">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C40" s="50">
+      <c r="C40">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="44">
         <v>1405.34</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="44">
         <v>1405.34</v>
       </c>
-      <c r="F40" s="51">
-        <v>0</v>
-      </c>
-      <c r="G40" s="51">
-        <v>0</v>
-      </c>
-      <c r="H40" s="51">
+      <c r="F40" s="44">
+        <v>0</v>
+      </c>
+      <c r="G40" s="44">
+        <v>0</v>
+      </c>
+      <c r="H40" s="44">
         <v>824.49</v>
       </c>
       <c r="I40">
@@ -4146,30 +4149,30 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>44601</v>
       </c>
-      <c r="B41" s="50">
+      <c r="B41">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C41" s="50">
+      <c r="C41">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D41" s="51">
+      <c r="D41" s="44">
         <v>3204.92</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="44">
         <v>2472.89</v>
       </c>
-      <c r="F41" s="51">
+      <c r="F41" s="44">
         <v>732.03</v>
       </c>
-      <c r="G41" s="51">
-        <v>0</v>
-      </c>
-      <c r="H41" s="51">
+      <c r="G41" s="44">
+        <v>0</v>
+      </c>
+      <c r="H41" s="44">
         <v>1810.88</v>
       </c>
       <c r="I41">
@@ -4177,30 +4180,30 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>44602</v>
       </c>
-      <c r="B42" s="50">
+      <c r="B42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="44">
         <v>3167.18</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="44">
         <v>2983.18</v>
       </c>
-      <c r="F42" s="51">
+      <c r="F42" s="44">
         <v>184</v>
       </c>
-      <c r="G42" s="51">
-        <v>0</v>
-      </c>
-      <c r="H42" s="51">
+      <c r="G42" s="44">
+        <v>0</v>
+      </c>
+      <c r="H42" s="44">
         <v>1773.28</v>
       </c>
       <c r="I42">
@@ -4208,30 +4211,30 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>44603</v>
       </c>
-      <c r="B43" s="50">
+      <c r="B43">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C43" s="50">
+      <c r="C43">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D43" s="51">
+      <c r="D43" s="44">
         <v>2384.7800000000002</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="44">
         <v>2384.7800000000002</v>
       </c>
-      <c r="F43" s="51">
-        <v>0</v>
-      </c>
-      <c r="G43" s="51">
-        <v>0</v>
-      </c>
-      <c r="H43" s="51">
+      <c r="F43" s="44">
+        <v>0</v>
+      </c>
+      <c r="G43" s="44">
+        <v>0</v>
+      </c>
+      <c r="H43" s="44">
         <v>1326.82</v>
       </c>
       <c r="I43">
@@ -4239,30 +4242,30 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>44604</v>
       </c>
-      <c r="B44" s="50">
+      <c r="B44">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C44" s="50">
+      <c r="C44">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D44" s="51">
+      <c r="D44" s="44">
         <v>4758.67</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="44">
         <v>4515.74</v>
       </c>
-      <c r="F44" s="51">
+      <c r="F44" s="44">
         <v>242.93</v>
       </c>
-      <c r="G44" s="51">
-        <v>0</v>
-      </c>
-      <c r="H44" s="51">
+      <c r="G44" s="44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="44">
         <v>2747.11</v>
       </c>
       <c r="I44">
@@ -4270,30 +4273,30 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>44605</v>
       </c>
-      <c r="B45" s="50">
+      <c r="B45">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C45" s="50">
+      <c r="C45">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D45" s="51">
+      <c r="D45" s="44">
         <v>2562.7199999999998</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="44">
         <v>2031.79</v>
       </c>
-      <c r="F45" s="51">
+      <c r="F45" s="44">
         <v>530.92999999999995</v>
       </c>
-      <c r="G45" s="51">
-        <v>0</v>
-      </c>
-      <c r="H45" s="51">
+      <c r="G45" s="44">
+        <v>0</v>
+      </c>
+      <c r="H45" s="44">
         <v>1417.57</v>
       </c>
       <c r="I45">
@@ -4301,30 +4304,30 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>44606</v>
       </c>
-      <c r="B46" s="50">
+      <c r="B46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C46" s="50">
+      <c r="C46">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D46" s="51">
+      <c r="D46" s="44">
         <v>2791.7</v>
       </c>
-      <c r="E46" s="51">
+      <c r="E46" s="44">
         <v>2753.01</v>
       </c>
-      <c r="F46" s="51">
+      <c r="F46" s="44">
         <v>38.69</v>
       </c>
-      <c r="G46" s="51">
-        <v>0</v>
-      </c>
-      <c r="H46" s="51">
+      <c r="G46" s="44">
+        <v>0</v>
+      </c>
+      <c r="H46" s="44">
         <v>1599.99</v>
       </c>
       <c r="I46">
@@ -4332,30 +4335,30 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>44607</v>
       </c>
-      <c r="B47" s="50">
+      <c r="B47">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C47" s="50">
+      <c r="C47">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D47" s="44">
         <v>6054.22</v>
       </c>
-      <c r="E47" s="51">
+      <c r="E47" s="44">
         <v>5314.25</v>
       </c>
-      <c r="F47" s="51">
+      <c r="F47" s="44">
         <v>739.97</v>
       </c>
-      <c r="G47" s="51">
-        <v>0</v>
-      </c>
-      <c r="H47" s="51">
+      <c r="G47" s="44">
+        <v>0</v>
+      </c>
+      <c r="H47" s="44">
         <v>3472.59</v>
       </c>
       <c r="I47">
@@ -4363,30 +4366,30 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>44608</v>
       </c>
-      <c r="B48" s="50">
+      <c r="B48">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C48" s="50">
+      <c r="C48">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D48" s="51">
+      <c r="D48" s="44">
         <v>4255.83</v>
       </c>
-      <c r="E48" s="51">
+      <c r="E48" s="44">
         <v>4245.07</v>
       </c>
-      <c r="F48" s="51">
+      <c r="F48" s="44">
         <v>10.76</v>
       </c>
-      <c r="G48" s="51">
-        <v>0</v>
-      </c>
-      <c r="H48" s="51">
+      <c r="G48" s="44">
+        <v>0</v>
+      </c>
+      <c r="H48" s="44">
         <v>2387.1799999999998</v>
       </c>
       <c r="I48">
@@ -4394,30 +4397,30 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>44609</v>
       </c>
-      <c r="B49" s="50">
+      <c r="B49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C49" s="50">
+      <c r="C49">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D49" s="51">
+      <c r="D49" s="44">
         <v>4820.66</v>
       </c>
-      <c r="E49" s="51">
+      <c r="E49" s="44">
         <v>3842.05</v>
       </c>
-      <c r="F49" s="51">
+      <c r="F49" s="44">
         <v>978.61</v>
       </c>
-      <c r="G49" s="51">
-        <v>0</v>
-      </c>
-      <c r="H49" s="51">
+      <c r="G49" s="44">
+        <v>0</v>
+      </c>
+      <c r="H49" s="44">
         <v>2765.3</v>
       </c>
       <c r="I49">
@@ -4425,30 +4428,30 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>44610</v>
       </c>
-      <c r="B50" s="50">
+      <c r="B50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C50" s="50">
+      <c r="C50">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D50" s="51">
+      <c r="D50" s="44">
         <v>2980.8</v>
       </c>
-      <c r="E50" s="51">
+      <c r="E50" s="44">
         <v>2980.8</v>
       </c>
-      <c r="F50" s="51">
-        <v>0</v>
-      </c>
-      <c r="G50" s="51">
-        <v>0</v>
-      </c>
-      <c r="H50" s="51">
+      <c r="F50" s="44">
+        <v>0</v>
+      </c>
+      <c r="G50" s="44">
+        <v>0</v>
+      </c>
+      <c r="H50" s="44">
         <v>1736.15</v>
       </c>
       <c r="I50">
@@ -4456,30 +4459,30 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>44611</v>
       </c>
-      <c r="B51" s="50">
+      <c r="B51">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C51" s="50">
+      <c r="C51">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D51" s="51">
+      <c r="D51" s="44">
         <v>5728.46</v>
       </c>
-      <c r="E51" s="51">
+      <c r="E51" s="44">
         <v>4623.34</v>
       </c>
-      <c r="F51" s="51">
+      <c r="F51" s="44">
         <v>1105.1199999999999</v>
       </c>
-      <c r="G51" s="51">
-        <v>0</v>
-      </c>
-      <c r="H51" s="51">
+      <c r="G51" s="44">
+        <v>0</v>
+      </c>
+      <c r="H51" s="44">
         <v>3210.62</v>
       </c>
       <c r="I51">
@@ -4487,30 +4490,30 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>44612</v>
       </c>
-      <c r="B52" s="50">
+      <c r="B52">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C52" s="50">
+      <c r="C52">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D52" s="51">
+      <c r="D52" s="44">
         <v>5559.94</v>
       </c>
-      <c r="E52" s="51">
+      <c r="E52" s="44">
         <v>2744.5</v>
       </c>
-      <c r="F52" s="51">
+      <c r="F52" s="44">
         <v>2815.44</v>
       </c>
-      <c r="G52" s="51">
-        <v>0</v>
-      </c>
-      <c r="H52" s="51">
+      <c r="G52" s="44">
+        <v>0</v>
+      </c>
+      <c r="H52" s="44">
         <v>1440.61</v>
       </c>
       <c r="I52">
@@ -4518,30 +4521,30 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>44613</v>
       </c>
-      <c r="B53" s="50">
+      <c r="B53">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C53" s="50">
+      <c r="C53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D53" s="51">
+      <c r="D53" s="44">
         <v>4966.54</v>
       </c>
-      <c r="E53" s="51">
+      <c r="E53" s="44">
         <v>4085.99</v>
       </c>
-      <c r="F53" s="51">
+      <c r="F53" s="44">
         <v>880.55</v>
       </c>
-      <c r="G53" s="51">
-        <v>0</v>
-      </c>
-      <c r="H53" s="51">
+      <c r="G53" s="44">
+        <v>0</v>
+      </c>
+      <c r="H53" s="44">
         <v>2924.42</v>
       </c>
       <c r="I53">
@@ -4549,30 +4552,30 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>44614</v>
       </c>
-      <c r="B54" s="50">
+      <c r="B54">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C54" s="50">
+      <c r="C54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D54" s="51">
+      <c r="D54" s="44">
         <v>4648.99</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E54" s="44">
         <v>4545.76</v>
       </c>
-      <c r="F54" s="51">
+      <c r="F54" s="44">
         <v>103.23</v>
       </c>
-      <c r="G54" s="51">
-        <v>0</v>
-      </c>
-      <c r="H54" s="51">
+      <c r="G54" s="44">
+        <v>0</v>
+      </c>
+      <c r="H54" s="44">
         <v>2535.5100000000002</v>
       </c>
       <c r="I54">
@@ -4580,30 +4583,30 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>44615</v>
       </c>
-      <c r="B55" s="50">
+      <c r="B55">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D55" s="51">
+      <c r="D55" s="44">
         <v>3440.66</v>
       </c>
-      <c r="E55" s="51">
+      <c r="E55" s="44">
         <v>2997.29</v>
       </c>
-      <c r="F55" s="51">
+      <c r="F55" s="44">
         <v>443.37</v>
       </c>
-      <c r="G55" s="51">
-        <v>0</v>
-      </c>
-      <c r="H55" s="51">
+      <c r="G55" s="44">
+        <v>0</v>
+      </c>
+      <c r="H55" s="44">
         <v>1976.46</v>
       </c>
       <c r="I55">
@@ -4611,30 +4614,30 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>44616</v>
       </c>
-      <c r="B56" s="50">
+      <c r="B56">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C56" s="50">
+      <c r="C56">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D56" s="51">
+      <c r="D56" s="44">
         <v>4088.09</v>
       </c>
-      <c r="E56" s="51">
+      <c r="E56" s="44">
         <v>3492.17</v>
       </c>
-      <c r="F56" s="51">
+      <c r="F56" s="44">
         <v>595.91999999999996</v>
       </c>
-      <c r="G56" s="51">
-        <v>0</v>
-      </c>
-      <c r="H56" s="51">
+      <c r="G56" s="44">
+        <v>0</v>
+      </c>
+      <c r="H56" s="44">
         <v>2317.0700000000002</v>
       </c>
       <c r="I56">
@@ -4642,30 +4645,30 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>44617</v>
       </c>
-      <c r="B57" s="50">
+      <c r="B57">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C57" s="50">
+      <c r="C57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D57" s="51">
+      <c r="D57" s="44">
         <v>2918.34</v>
       </c>
-      <c r="E57" s="51">
+      <c r="E57" s="44">
         <v>2489.85</v>
       </c>
-      <c r="F57" s="51">
+      <c r="F57" s="44">
         <v>428.49</v>
       </c>
-      <c r="G57" s="51">
-        <v>0</v>
-      </c>
-      <c r="H57" s="51">
+      <c r="G57" s="44">
+        <v>0</v>
+      </c>
+      <c r="H57" s="44">
         <v>1668.94</v>
       </c>
       <c r="I57">
@@ -4673,30 +4676,30 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>44618</v>
       </c>
-      <c r="B58" s="50">
+      <c r="B58">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C58" s="50">
+      <c r="C58">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D58" s="51">
+      <c r="D58" s="44">
         <v>7506.01</v>
       </c>
-      <c r="E58" s="51">
+      <c r="E58" s="44">
         <v>4240.6499999999996</v>
       </c>
-      <c r="F58" s="51">
+      <c r="F58" s="44">
         <v>3265.36</v>
       </c>
-      <c r="G58" s="51">
-        <v>0</v>
-      </c>
-      <c r="H58" s="51">
+      <c r="G58" s="44">
+        <v>0</v>
+      </c>
+      <c r="H58" s="44">
         <v>4222.74</v>
       </c>
       <c r="I58">
@@ -4704,30 +4707,30 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>44619</v>
       </c>
-      <c r="B59" s="50">
+      <c r="B59">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C59" s="50">
+      <c r="C59">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D59" s="51">
+      <c r="D59" s="44">
         <v>3184.52</v>
       </c>
-      <c r="E59" s="51">
+      <c r="E59" s="44">
         <v>2716.03</v>
       </c>
-      <c r="F59" s="51">
+      <c r="F59" s="44">
         <v>468.49</v>
       </c>
-      <c r="G59" s="51">
-        <v>0</v>
-      </c>
-      <c r="H59" s="51">
+      <c r="G59" s="44">
+        <v>0</v>
+      </c>
+      <c r="H59" s="44">
         <v>3015.9</v>
       </c>
       <c r="I59">
@@ -4735,30 +4738,30 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>44620</v>
       </c>
-      <c r="B60" s="50">
+      <c r="B60">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C60" s="50">
+      <c r="C60">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D60" s="51">
+      <c r="D60" s="44">
         <v>4329.66</v>
       </c>
-      <c r="E60" s="51">
+      <c r="E60" s="44">
         <v>3982.75</v>
       </c>
-      <c r="F60" s="51">
+      <c r="F60" s="44">
         <v>346.91</v>
       </c>
-      <c r="G60" s="51">
-        <v>0</v>
-      </c>
-      <c r="H60" s="51">
+      <c r="G60" s="44">
+        <v>0</v>
+      </c>
+      <c r="H60" s="44">
         <v>0</v>
       </c>
       <c r="I60">
@@ -4766,30 +4769,30 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>44621</v>
       </c>
-      <c r="B61" s="50">
+      <c r="B61">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C61" s="50">
+      <c r="C61">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D61" s="51">
+      <c r="D61" s="44">
         <v>6669.52</v>
       </c>
-      <c r="E61" s="51">
+      <c r="E61" s="44">
         <v>5792.44</v>
       </c>
-      <c r="F61" s="51">
+      <c r="F61" s="44">
         <v>877.08</v>
       </c>
-      <c r="G61" s="51">
-        <v>0</v>
-      </c>
-      <c r="H61" s="51">
+      <c r="G61" s="44">
+        <v>0</v>
+      </c>
+      <c r="H61" s="44">
         <v>0</v>
       </c>
       <c r="I61">
@@ -4797,30 +4800,30 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>44622</v>
       </c>
-      <c r="B62" s="50">
+      <c r="B62">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C62" s="50">
+      <c r="C62">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D62" s="51">
+      <c r="D62" s="44">
         <v>2966.54</v>
       </c>
-      <c r="E62" s="51">
+      <c r="E62" s="44">
         <v>2898.01</v>
       </c>
-      <c r="F62" s="51">
+      <c r="F62" s="44">
         <v>68.53</v>
       </c>
-      <c r="G62" s="51">
-        <v>0</v>
-      </c>
-      <c r="H62" s="51">
+      <c r="G62" s="44">
+        <v>0</v>
+      </c>
+      <c r="H62" s="44">
         <v>0</v>
       </c>
       <c r="I62">
@@ -4828,30 +4831,30 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>44623</v>
       </c>
-      <c r="B63" s="50">
+      <c r="B63">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C63" s="50">
+      <c r="C63">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D63" s="51">
+      <c r="D63" s="44">
         <v>6080.77</v>
       </c>
-      <c r="E63" s="51">
+      <c r="E63" s="44">
         <v>4636.5600000000004</v>
       </c>
-      <c r="F63" s="51">
+      <c r="F63" s="44">
         <v>1444.21</v>
       </c>
-      <c r="G63" s="51">
-        <v>0</v>
-      </c>
-      <c r="H63" s="51">
+      <c r="G63" s="44">
+        <v>0</v>
+      </c>
+      <c r="H63" s="44">
         <v>0</v>
       </c>
       <c r="I63">
@@ -4859,30 +4862,30 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>44624</v>
       </c>
-      <c r="B64" s="50">
+      <c r="B64">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C64" s="50">
+      <c r="C64">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D64" s="51">
+      <c r="D64" s="44">
         <v>3690.55</v>
       </c>
-      <c r="E64" s="51">
+      <c r="E64" s="44">
         <v>3490.55</v>
       </c>
-      <c r="F64" s="51">
+      <c r="F64" s="44">
         <v>200</v>
       </c>
-      <c r="G64" s="51">
-        <v>0</v>
-      </c>
-      <c r="H64" s="51">
+      <c r="G64" s="44">
+        <v>0</v>
+      </c>
+      <c r="H64" s="44">
         <v>0</v>
       </c>
       <c r="I64">
@@ -4890,30 +4893,30 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>44625</v>
       </c>
-      <c r="B65" s="50">
+      <c r="B65">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C65" s="50">
+      <c r="C65">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D65" s="51">
+      <c r="D65" s="44">
         <v>5746.1</v>
       </c>
-      <c r="E65" s="51">
+      <c r="E65" s="44">
         <v>4348.95</v>
       </c>
-      <c r="F65" s="51">
+      <c r="F65" s="44">
         <v>1397.15</v>
       </c>
-      <c r="G65" s="51">
-        <v>0</v>
-      </c>
-      <c r="H65" s="51">
+      <c r="G65" s="44">
+        <v>0</v>
+      </c>
+      <c r="H65" s="44">
         <v>0</v>
       </c>
       <c r="I65">
@@ -4921,30 +4924,30 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>44626</v>
       </c>
-      <c r="B66" s="50">
+      <c r="B66">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C66" s="50">
+      <c r="C66">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D66" s="51">
+      <c r="D66" s="44">
         <v>3095.82</v>
       </c>
-      <c r="E66" s="51">
+      <c r="E66" s="44">
         <v>2103.2800000000002</v>
       </c>
-      <c r="F66" s="51">
+      <c r="F66" s="44">
         <v>992.54</v>
       </c>
-      <c r="G66" s="51">
-        <v>0</v>
-      </c>
-      <c r="H66" s="51">
+      <c r="G66" s="44">
+        <v>0</v>
+      </c>
+      <c r="H66" s="44">
         <v>1751.75</v>
       </c>
       <c r="I66">
@@ -4952,30 +4955,30 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>44627</v>
       </c>
-      <c r="B67" s="50">
+      <c r="B67">
         <f t="shared" ref="B67:B130" si="12">MONTH(A67)</f>
         <v>3</v>
       </c>
-      <c r="C67" s="50">
+      <c r="C67">
         <f t="shared" ref="C67:C130" si="13">WEEKDAY(A67,2)</f>
         <v>1</v>
       </c>
-      <c r="D67" s="51">
+      <c r="D67" s="44">
         <v>3740.32</v>
       </c>
-      <c r="E67" s="51">
+      <c r="E67" s="44">
         <v>3377.27</v>
       </c>
-      <c r="F67" s="51">
+      <c r="F67" s="44">
         <v>363.05</v>
       </c>
-      <c r="G67" s="51">
-        <v>0</v>
-      </c>
-      <c r="H67" s="51">
+      <c r="G67" s="44">
+        <v>0</v>
+      </c>
+      <c r="H67" s="44">
         <v>2132.7800000000002</v>
       </c>
       <c r="I67">
@@ -4983,30 +4986,30 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>44628</v>
       </c>
-      <c r="B68" s="50">
+      <c r="B68">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C68" s="50">
+      <c r="C68">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="D68" s="51">
+      <c r="D68" s="44">
         <v>5725.4</v>
       </c>
-      <c r="E68" s="51">
+      <c r="E68" s="44">
         <v>4397.01</v>
       </c>
-      <c r="F68" s="51">
+      <c r="F68" s="44">
         <v>1328.39</v>
       </c>
-      <c r="G68" s="51">
-        <v>0</v>
-      </c>
-      <c r="H68" s="51">
+      <c r="G68" s="44">
+        <v>0</v>
+      </c>
+      <c r="H68" s="44">
         <v>3161.2</v>
       </c>
       <c r="I68">
@@ -5014,30 +5017,30 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>44629</v>
       </c>
-      <c r="B69" s="50">
+      <c r="B69">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C69" s="50">
+      <c r="C69">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="D69" s="51">
+      <c r="D69" s="44">
         <v>2361.6999999999998</v>
       </c>
-      <c r="E69" s="51">
+      <c r="E69" s="44">
         <v>2361.6999999999998</v>
       </c>
-      <c r="F69" s="51">
-        <v>0</v>
-      </c>
-      <c r="G69" s="51">
-        <v>0</v>
-      </c>
-      <c r="H69" s="51">
+      <c r="F69" s="44">
+        <v>0</v>
+      </c>
+      <c r="G69" s="44">
+        <v>0</v>
+      </c>
+      <c r="H69" s="44">
         <v>1436.16</v>
       </c>
       <c r="I69">
@@ -5045,30 +5048,30 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>44630</v>
       </c>
-      <c r="B70" s="50">
+      <c r="B70">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C70" s="50">
+      <c r="C70">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="D70" s="51">
+      <c r="D70" s="44">
         <v>3606.48</v>
       </c>
-      <c r="E70" s="51">
+      <c r="E70" s="44">
         <v>3297.16</v>
       </c>
-      <c r="F70" s="51">
+      <c r="F70" s="44">
         <v>309.32</v>
       </c>
-      <c r="G70" s="51">
-        <v>0</v>
-      </c>
-      <c r="H70" s="51">
+      <c r="G70" s="44">
+        <v>0</v>
+      </c>
+      <c r="H70" s="44">
         <v>2165.2199999999998</v>
       </c>
       <c r="I70">
@@ -5076,30 +5079,30 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>44631</v>
       </c>
-      <c r="B71" s="50">
+      <c r="B71">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C71" s="50">
+      <c r="C71">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="D71" s="51">
+      <c r="D71" s="44">
         <v>4566.46</v>
       </c>
-      <c r="E71" s="51">
+      <c r="E71" s="44">
         <v>3666.12</v>
       </c>
-      <c r="F71" s="51">
+      <c r="F71" s="44">
         <v>725.34</v>
       </c>
-      <c r="G71" s="51">
+      <c r="G71" s="44">
         <v>175</v>
       </c>
-      <c r="H71" s="51">
+      <c r="H71" s="44">
         <v>2708.65</v>
       </c>
       <c r="I71">
@@ -5107,30 +5110,30 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <v>44632</v>
       </c>
-      <c r="B72" s="50">
+      <c r="B72">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C72" s="50">
+      <c r="C72">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="D72" s="51">
+      <c r="D72" s="44">
         <v>2883.33</v>
       </c>
-      <c r="E72" s="51">
+      <c r="E72" s="44">
         <v>2424.5</v>
       </c>
-      <c r="F72" s="51">
+      <c r="F72" s="44">
         <v>458.83</v>
       </c>
-      <c r="G72" s="51">
-        <v>0</v>
-      </c>
-      <c r="H72" s="51">
+      <c r="G72" s="44">
+        <v>0</v>
+      </c>
+      <c r="H72" s="44">
         <v>1764.21</v>
       </c>
       <c r="I72">
@@ -5138,30 +5141,30 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>44633</v>
       </c>
-      <c r="B73" s="50">
+      <c r="B73">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C73" s="50">
+      <c r="C73">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="D73" s="51">
+      <c r="D73" s="44">
         <v>1853.87</v>
       </c>
-      <c r="E73" s="51">
+      <c r="E73" s="44">
         <v>1323.77</v>
       </c>
-      <c r="F73" s="51">
+      <c r="F73" s="44">
         <v>530.1</v>
       </c>
-      <c r="G73" s="51">
-        <v>0</v>
-      </c>
-      <c r="H73" s="51">
+      <c r="G73" s="44">
+        <v>0</v>
+      </c>
+      <c r="H73" s="44">
         <v>1137.25</v>
       </c>
       <c r="I73">
@@ -5169,30 +5172,30 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>44634</v>
       </c>
-      <c r="B74" s="50">
+      <c r="B74">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C74" s="50">
+      <c r="C74">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D74" s="51">
+      <c r="D74" s="44">
         <v>5483.77</v>
       </c>
-      <c r="E74" s="51">
+      <c r="E74" s="44">
         <v>3538.24</v>
       </c>
-      <c r="F74" s="51">
+      <c r="F74" s="44">
         <v>1945.53</v>
       </c>
-      <c r="G74" s="51">
-        <v>0</v>
-      </c>
-      <c r="H74" s="51">
+      <c r="G74" s="44">
+        <v>0</v>
+      </c>
+      <c r="H74" s="44">
         <v>3209.25</v>
       </c>
       <c r="I74">
@@ -5200,30 +5203,30 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>44635</v>
       </c>
-      <c r="B75" s="50">
+      <c r="B75">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C75" s="50">
+      <c r="C75">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="D75" s="51">
+      <c r="D75" s="44">
         <v>5135.18</v>
       </c>
-      <c r="E75" s="51">
+      <c r="E75" s="44">
         <v>4967.13</v>
       </c>
-      <c r="F75" s="51">
+      <c r="F75" s="44">
         <v>168.05</v>
       </c>
-      <c r="G75" s="51">
-        <v>0</v>
-      </c>
-      <c r="H75" s="51">
+      <c r="G75" s="44">
+        <v>0</v>
+      </c>
+      <c r="H75" s="44">
         <v>3103.21</v>
       </c>
       <c r="I75">
@@ -5231,30 +5234,30 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <v>44636</v>
       </c>
-      <c r="B76" s="50">
+      <c r="B76">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C76" s="50">
+      <c r="C76">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="D76" s="51">
+      <c r="D76" s="44">
         <v>3445.95</v>
       </c>
-      <c r="E76" s="51">
+      <c r="E76" s="44">
         <v>3445.95</v>
       </c>
-      <c r="F76" s="51">
-        <v>0</v>
-      </c>
-      <c r="G76" s="51">
-        <v>0</v>
-      </c>
-      <c r="H76" s="51">
+      <c r="F76" s="44">
+        <v>0</v>
+      </c>
+      <c r="G76" s="44">
+        <v>0</v>
+      </c>
+      <c r="H76" s="44">
         <v>2116.91</v>
       </c>
       <c r="I76">
@@ -5262,30 +5265,30 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <v>44637</v>
       </c>
-      <c r="B77" s="50">
+      <c r="B77">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C77" s="50">
+      <c r="C77">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="D77" s="51">
+      <c r="D77" s="44">
         <v>4681.26</v>
       </c>
-      <c r="E77" s="51">
+      <c r="E77" s="44">
         <v>3801.2</v>
       </c>
-      <c r="F77" s="51">
+      <c r="F77" s="44">
         <v>880.06</v>
       </c>
-      <c r="G77" s="51">
-        <v>0</v>
-      </c>
-      <c r="H77" s="51">
+      <c r="G77" s="44">
+        <v>0</v>
+      </c>
+      <c r="H77" s="44">
         <v>2789.94</v>
       </c>
       <c r="I77">
@@ -5293,30 +5296,30 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>44638</v>
       </c>
-      <c r="B78" s="50">
+      <c r="B78">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C78" s="50">
+      <c r="C78">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="D78" s="51">
+      <c r="D78" s="44">
         <v>4252.0200000000004</v>
       </c>
-      <c r="E78" s="51">
+      <c r="E78" s="44">
         <v>3042.13</v>
       </c>
-      <c r="F78" s="51">
+      <c r="F78" s="44">
         <v>1209.8900000000001</v>
       </c>
-      <c r="G78" s="51">
-        <v>0</v>
-      </c>
-      <c r="H78" s="51">
+      <c r="G78" s="44">
+        <v>0</v>
+      </c>
+      <c r="H78" s="44">
         <v>2512.66</v>
       </c>
       <c r="I78">
@@ -5324,30 +5327,30 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>44639</v>
       </c>
-      <c r="B79" s="50">
+      <c r="B79">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C79" s="50">
+      <c r="C79">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="D79" s="51">
+      <c r="D79" s="44">
         <v>3686.54</v>
       </c>
-      <c r="E79" s="51">
+      <c r="E79" s="44">
         <v>3434.56</v>
       </c>
-      <c r="F79" s="51">
+      <c r="F79" s="44">
         <v>251.98</v>
       </c>
-      <c r="G79" s="51">
-        <v>0</v>
-      </c>
-      <c r="H79" s="51">
+      <c r="G79" s="44">
+        <v>0</v>
+      </c>
+      <c r="H79" s="44">
         <v>2280.5</v>
       </c>
       <c r="I79">
@@ -5355,30 +5358,30 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <v>44640</v>
       </c>
-      <c r="B80" s="50">
+      <c r="B80">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C80" s="50">
+      <c r="C80">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="D80" s="51">
+      <c r="D80" s="44">
         <v>3334.67</v>
       </c>
-      <c r="E80" s="51">
+      <c r="E80" s="44">
         <v>2580.8000000000002</v>
       </c>
-      <c r="F80" s="51">
+      <c r="F80" s="44">
         <v>753.87</v>
       </c>
-      <c r="G80" s="51">
-        <v>0</v>
-      </c>
-      <c r="H80" s="51">
+      <c r="G80" s="44">
+        <v>0</v>
+      </c>
+      <c r="H80" s="44">
         <v>2009.86</v>
       </c>
       <c r="I80">
@@ -5386,30 +5389,30 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <v>44641</v>
       </c>
-      <c r="B81" s="50">
+      <c r="B81">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C81" s="50">
+      <c r="C81">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D81" s="51">
+      <c r="D81" s="44">
         <v>3020.49</v>
       </c>
-      <c r="E81" s="51">
+      <c r="E81" s="44">
         <v>3020.49</v>
       </c>
-      <c r="F81" s="51">
-        <v>0</v>
-      </c>
-      <c r="G81" s="51">
-        <v>0</v>
-      </c>
-      <c r="H81" s="51">
+      <c r="F81" s="44">
+        <v>0</v>
+      </c>
+      <c r="G81" s="44">
+        <v>0</v>
+      </c>
+      <c r="H81" s="44">
         <v>1712.65</v>
       </c>
       <c r="I81">
@@ -5417,30 +5420,30 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <v>44642</v>
       </c>
-      <c r="B82" s="50">
+      <c r="B82">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C82" s="50">
+      <c r="C82">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="D82" s="51">
+      <c r="D82" s="44">
         <v>1648.64</v>
       </c>
-      <c r="E82" s="51">
+      <c r="E82" s="44">
         <v>1615.65</v>
       </c>
-      <c r="F82" s="51">
+      <c r="F82" s="44">
         <v>32.99</v>
       </c>
-      <c r="G82" s="51">
-        <v>0</v>
-      </c>
-      <c r="H82" s="51">
+      <c r="G82" s="44">
+        <v>0</v>
+      </c>
+      <c r="H82" s="44">
         <v>1045.55</v>
       </c>
       <c r="I82">
@@ -5448,30 +5451,30 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="A83" s="2">
         <v>44643</v>
       </c>
-      <c r="B83" s="50">
+      <c r="B83">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C83" s="50">
+      <c r="C83">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="D83" s="51">
+      <c r="D83" s="44">
         <v>2574.2399999999998</v>
       </c>
-      <c r="E83" s="51">
+      <c r="E83" s="44">
         <v>2371.16</v>
       </c>
-      <c r="F83" s="51">
+      <c r="F83" s="44">
         <v>203.08</v>
       </c>
-      <c r="G83" s="51">
-        <v>0</v>
-      </c>
-      <c r="H83" s="51">
+      <c r="G83" s="44">
+        <v>0</v>
+      </c>
+      <c r="H83" s="44">
         <v>1536.1</v>
       </c>
       <c r="I83">
@@ -5479,30 +5482,30 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="A84" s="2">
         <v>44644</v>
       </c>
-      <c r="B84" s="50">
+      <c r="B84">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C84" s="50">
+      <c r="C84">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="D84" s="51">
+      <c r="D84" s="44">
         <v>2477.08</v>
       </c>
-      <c r="E84" s="51">
+      <c r="E84" s="44">
         <v>2477.08</v>
       </c>
-      <c r="F84" s="51">
-        <v>0</v>
-      </c>
-      <c r="G84" s="51">
-        <v>0</v>
-      </c>
-      <c r="H84" s="51">
+      <c r="F84" s="44">
+        <v>0</v>
+      </c>
+      <c r="G84" s="44">
+        <v>0</v>
+      </c>
+      <c r="H84" s="44">
         <v>1449.1</v>
       </c>
       <c r="I84">
@@ -5510,30 +5513,30 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="A85" s="2">
         <v>44645</v>
       </c>
-      <c r="B85" s="50">
+      <c r="B85">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C85" s="50">
+      <c r="C85">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="D85" s="51">
+      <c r="D85" s="44">
         <v>4972.6000000000004</v>
       </c>
-      <c r="E85" s="51">
+      <c r="E85" s="44">
         <v>4293.55</v>
       </c>
-      <c r="F85" s="51">
+      <c r="F85" s="44">
         <v>679.05</v>
       </c>
-      <c r="G85" s="51">
-        <v>0</v>
-      </c>
-      <c r="H85" s="51">
+      <c r="G85" s="44">
+        <v>0</v>
+      </c>
+      <c r="H85" s="44">
         <v>3010.9</v>
       </c>
       <c r="I85">
@@ -5541,30 +5544,30 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <v>44646</v>
       </c>
-      <c r="B86" s="50">
+      <c r="B86">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C86" s="50">
+      <c r="C86">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="D86" s="51">
+      <c r="D86" s="44">
         <v>5208.8999999999996</v>
       </c>
-      <c r="E86" s="51">
+      <c r="E86" s="44">
         <v>4718.82</v>
       </c>
-      <c r="F86" s="51">
+      <c r="F86" s="44">
         <v>490.08</v>
       </c>
-      <c r="G86" s="51">
-        <v>0</v>
-      </c>
-      <c r="H86" s="51">
+      <c r="G86" s="44">
+        <v>0</v>
+      </c>
+      <c r="H86" s="44">
         <v>3079.53</v>
       </c>
       <c r="I86">
@@ -5572,30 +5575,30 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="A87" s="2">
         <v>44647</v>
       </c>
-      <c r="B87" s="50">
+      <c r="B87">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C87" s="50">
+      <c r="C87">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="D87" s="51">
+      <c r="D87" s="44">
         <v>1700.68</v>
       </c>
-      <c r="E87" s="51">
+      <c r="E87" s="44">
         <v>1371.44</v>
       </c>
-      <c r="F87" s="51">
+      <c r="F87" s="44">
         <v>329.24</v>
       </c>
-      <c r="G87" s="51">
-        <v>0</v>
-      </c>
-      <c r="H87" s="51">
+      <c r="G87" s="44">
+        <v>0</v>
+      </c>
+      <c r="H87" s="44">
         <v>996.19</v>
       </c>
       <c r="I87">
@@ -5603,30 +5606,30 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="A88" s="2">
         <v>44648</v>
       </c>
-      <c r="B88" s="50">
+      <c r="B88">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C88" s="50">
+      <c r="C88">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D88" s="51">
+      <c r="D88" s="44">
         <v>4589.2700000000004</v>
       </c>
-      <c r="E88" s="51">
+      <c r="E88" s="44">
         <v>3800.38</v>
       </c>
-      <c r="F88" s="51">
+      <c r="F88" s="44">
         <v>788.89</v>
       </c>
-      <c r="G88" s="51">
-        <v>0</v>
-      </c>
-      <c r="H88" s="51">
+      <c r="G88" s="44">
+        <v>0</v>
+      </c>
+      <c r="H88" s="44">
         <v>2821.77</v>
       </c>
       <c r="I88">
@@ -5634,30 +5637,30 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+      <c r="A89" s="2">
         <v>44649</v>
       </c>
-      <c r="B89" s="50">
+      <c r="B89">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C89" s="50">
+      <c r="C89">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="D89" s="51">
+      <c r="D89" s="44">
         <v>3952.03</v>
       </c>
-      <c r="E89" s="51">
+      <c r="E89" s="44">
         <v>3196.76</v>
       </c>
-      <c r="F89" s="51">
+      <c r="F89" s="44">
         <v>755.27</v>
       </c>
-      <c r="G89" s="51">
-        <v>0</v>
-      </c>
-      <c r="H89" s="51">
+      <c r="G89" s="44">
+        <v>0</v>
+      </c>
+      <c r="H89" s="44">
         <v>2391.38</v>
       </c>
       <c r="I89">
@@ -5665,30 +5668,30 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="A90" s="2">
         <v>44650</v>
       </c>
-      <c r="B90" s="50">
+      <c r="B90">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C90" s="50">
+      <c r="C90">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="D90" s="51">
+      <c r="D90" s="44">
         <v>2922.44</v>
       </c>
-      <c r="E90" s="51">
+      <c r="E90" s="44">
         <v>2621.94</v>
       </c>
-      <c r="F90" s="51">
+      <c r="F90" s="44">
         <v>300.5</v>
       </c>
-      <c r="G90" s="51">
-        <v>0</v>
-      </c>
-      <c r="H90" s="51">
+      <c r="G90" s="44">
+        <v>0</v>
+      </c>
+      <c r="H90" s="44">
         <v>1680.93</v>
       </c>
       <c r="I90">
@@ -5696,30 +5699,30 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+      <c r="A91" s="2">
         <v>44651</v>
       </c>
-      <c r="B91" s="50">
+      <c r="B91">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="C91" s="50">
+      <c r="C91">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="D91" s="51">
+      <c r="D91" s="44">
         <v>5354.57</v>
       </c>
-      <c r="E91" s="51">
+      <c r="E91" s="44">
         <v>4756.67</v>
       </c>
-      <c r="F91" s="51">
+      <c r="F91" s="44">
         <v>597.9</v>
       </c>
-      <c r="G91" s="51">
-        <v>0</v>
-      </c>
-      <c r="H91" s="51">
+      <c r="G91" s="44">
+        <v>0</v>
+      </c>
+      <c r="H91" s="44">
         <v>3130.67</v>
       </c>
       <c r="I91">
@@ -5727,30 +5730,30 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="A92" s="2">
         <v>44652</v>
       </c>
-      <c r="B92" s="50">
+      <c r="B92">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C92" s="50">
+      <c r="C92">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="D92" s="51">
+      <c r="D92" s="44">
         <v>10255.379999999999</v>
       </c>
-      <c r="E92" s="51">
+      <c r="E92" s="44">
         <v>8344.65</v>
       </c>
-      <c r="F92" s="51">
+      <c r="F92" s="44">
         <v>1910.73</v>
       </c>
-      <c r="G92" s="51">
-        <v>0</v>
-      </c>
-      <c r="H92" s="51">
+      <c r="G92" s="44">
+        <v>0</v>
+      </c>
+      <c r="H92" s="44">
         <v>6062.86</v>
       </c>
       <c r="I92">
@@ -5758,30 +5761,30 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+      <c r="A93" s="2">
         <v>44653</v>
       </c>
-      <c r="B93" s="50">
+      <c r="B93">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C93" s="50">
+      <c r="C93">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="D93" s="51">
+      <c r="D93" s="44">
         <v>3892.35</v>
       </c>
-      <c r="E93" s="51">
+      <c r="E93" s="44">
         <v>3256.02</v>
       </c>
-      <c r="F93" s="51">
+      <c r="F93" s="44">
         <v>636.33000000000004</v>
       </c>
-      <c r="G93" s="51">
-        <v>0</v>
-      </c>
-      <c r="H93" s="51">
+      <c r="G93" s="44">
+        <v>0</v>
+      </c>
+      <c r="H93" s="44">
         <v>2363.4</v>
       </c>
       <c r="I93">
@@ -5789,30 +5792,30 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="A94" s="2">
         <v>44654</v>
       </c>
-      <c r="B94" s="50">
+      <c r="B94">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C94" s="50">
+      <c r="C94">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="D94" s="51">
+      <c r="D94" s="44">
         <v>1394.7</v>
       </c>
-      <c r="E94" s="51">
+      <c r="E94" s="44">
         <v>1257.75</v>
       </c>
-      <c r="F94" s="51">
+      <c r="F94" s="44">
         <v>136.94999999999999</v>
       </c>
-      <c r="G94" s="51">
-        <v>0</v>
-      </c>
-      <c r="H94" s="51">
+      <c r="G94" s="44">
+        <v>0</v>
+      </c>
+      <c r="H94" s="44">
         <v>849.14</v>
       </c>
       <c r="I94">
@@ -5820,30 +5823,30 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+      <c r="A95" s="2">
         <v>44655</v>
       </c>
-      <c r="B95" s="50">
+      <c r="B95">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C95" s="50">
+      <c r="C95">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D95" s="51">
+      <c r="D95" s="44">
         <v>2904.19</v>
       </c>
-      <c r="E95" s="51">
+      <c r="E95" s="44">
         <v>2723.13</v>
       </c>
-      <c r="F95" s="51">
+      <c r="F95" s="44">
         <v>181.06</v>
       </c>
-      <c r="G95" s="51">
-        <v>0</v>
-      </c>
-      <c r="H95" s="51">
+      <c r="G95" s="44">
+        <v>0</v>
+      </c>
+      <c r="H95" s="44">
         <v>1778.45</v>
       </c>
       <c r="I95">
@@ -5851,30 +5854,30 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="A96" s="2">
         <v>44656</v>
       </c>
-      <c r="B96" s="50">
+      <c r="B96">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C96" s="50">
+      <c r="C96">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="D96" s="51">
+      <c r="D96" s="44">
         <v>3574.76</v>
       </c>
-      <c r="E96" s="51">
+      <c r="E96" s="44">
         <v>3106.79</v>
       </c>
-      <c r="F96" s="51">
+      <c r="F96" s="44">
         <v>467.97</v>
       </c>
-      <c r="G96" s="51">
-        <v>0</v>
-      </c>
-      <c r="H96" s="51">
+      <c r="G96" s="44">
+        <v>0</v>
+      </c>
+      <c r="H96" s="44">
         <v>2169.77</v>
       </c>
       <c r="I96">
@@ -5882,30 +5885,30 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="A97" s="2">
         <v>44657</v>
       </c>
-      <c r="B97" s="50">
+      <c r="B97">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C97" s="50">
+      <c r="C97">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="D97" s="51">
+      <c r="D97" s="44">
         <v>3552.24</v>
       </c>
-      <c r="E97" s="51">
+      <c r="E97" s="44">
         <v>3143.27</v>
       </c>
-      <c r="F97" s="51">
+      <c r="F97" s="44">
         <v>408.97</v>
       </c>
-      <c r="G97" s="51">
-        <v>0</v>
-      </c>
-      <c r="H97" s="51">
+      <c r="G97" s="44">
+        <v>0</v>
+      </c>
+      <c r="H97" s="44">
         <v>2140.11</v>
       </c>
       <c r="I97">
@@ -5913,30 +5916,30 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="A98" s="2">
         <v>44658</v>
       </c>
-      <c r="B98" s="50">
+      <c r="B98">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C98" s="50">
+      <c r="C98">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="D98" s="51">
+      <c r="D98" s="44">
         <v>4385.3500000000004</v>
       </c>
-      <c r="E98" s="51">
+      <c r="E98" s="44">
         <v>4385.3500000000004</v>
       </c>
-      <c r="F98" s="51">
-        <v>0</v>
-      </c>
-      <c r="G98" s="51">
-        <v>0</v>
-      </c>
-      <c r="H98" s="51">
+      <c r="F98" s="44">
+        <v>0</v>
+      </c>
+      <c r="G98" s="44">
+        <v>0</v>
+      </c>
+      <c r="H98" s="44">
         <v>2619.86</v>
       </c>
       <c r="I98">
@@ -5944,30 +5947,30 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+      <c r="A99" s="2">
         <v>44659</v>
       </c>
-      <c r="B99" s="50">
+      <c r="B99">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C99" s="50">
+      <c r="C99">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="D99" s="51">
+      <c r="D99" s="44">
         <v>4999.97</v>
       </c>
-      <c r="E99" s="51">
+      <c r="E99" s="44">
         <v>3970.51</v>
       </c>
-      <c r="F99" s="51">
+      <c r="F99" s="44">
         <v>1029.46</v>
       </c>
-      <c r="G99" s="51">
-        <v>0</v>
-      </c>
-      <c r="H99" s="51">
+      <c r="G99" s="44">
+        <v>0</v>
+      </c>
+      <c r="H99" s="44">
         <v>2937.99</v>
       </c>
       <c r="I99">
@@ -5975,30 +5978,30 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+      <c r="A100" s="2">
         <v>44660</v>
       </c>
-      <c r="B100" s="50">
+      <c r="B100">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C100" s="50">
+      <c r="C100">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="D100" s="51">
+      <c r="D100" s="44">
         <v>4886.8999999999996</v>
       </c>
-      <c r="E100" s="51">
+      <c r="E100" s="44">
         <v>3893.99</v>
       </c>
-      <c r="F100" s="51">
+      <c r="F100" s="44">
         <v>992.91</v>
       </c>
-      <c r="G100" s="51">
-        <v>0</v>
-      </c>
-      <c r="H100" s="51">
+      <c r="G100" s="44">
+        <v>0</v>
+      </c>
+      <c r="H100" s="44">
         <v>2862.35</v>
       </c>
       <c r="I100">
@@ -6006,30 +6009,30 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+      <c r="A101" s="2">
         <v>44661</v>
       </c>
-      <c r="B101" s="50">
+      <c r="B101">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C101" s="50">
+      <c r="C101">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="D101" s="51">
+      <c r="D101" s="44">
         <v>2396.5700000000002</v>
       </c>
-      <c r="E101" s="51">
+      <c r="E101" s="44">
         <v>1637.17</v>
       </c>
-      <c r="F101" s="51">
+      <c r="F101" s="44">
         <v>759.4</v>
       </c>
-      <c r="G101" s="51">
-        <v>0</v>
-      </c>
-      <c r="H101" s="51">
+      <c r="G101" s="44">
+        <v>0</v>
+      </c>
+      <c r="H101" s="44">
         <v>1412</v>
       </c>
       <c r="I101">
@@ -6037,30 +6040,30 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+      <c r="A102" s="2">
         <v>44662</v>
       </c>
-      <c r="B102" s="50">
+      <c r="B102">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C102" s="50">
+      <c r="C102">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D102" s="51">
+      <c r="D102" s="44">
         <v>3934.62</v>
       </c>
-      <c r="E102" s="51">
+      <c r="E102" s="44">
         <v>3762.78</v>
       </c>
-      <c r="F102" s="51">
+      <c r="F102" s="44">
         <v>171.84</v>
       </c>
-      <c r="G102" s="51">
-        <v>0</v>
-      </c>
-      <c r="H102" s="51">
+      <c r="G102" s="44">
+        <v>0</v>
+      </c>
+      <c r="H102" s="44">
         <v>2347.96</v>
       </c>
       <c r="I102">
@@ -6068,30 +6071,30 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+      <c r="A103" s="2">
         <v>44663</v>
       </c>
-      <c r="B103" s="50">
+      <c r="B103">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C103" s="50">
+      <c r="C103">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="D103" s="51">
+      <c r="D103" s="44">
         <v>7285.53</v>
       </c>
-      <c r="E103" s="51">
+      <c r="E103" s="44">
         <v>6415.1</v>
       </c>
-      <c r="F103" s="51">
+      <c r="F103" s="44">
         <v>870.43</v>
       </c>
-      <c r="G103" s="51">
-        <v>0</v>
-      </c>
-      <c r="H103" s="51">
+      <c r="G103" s="44">
+        <v>0</v>
+      </c>
+      <c r="H103" s="44">
         <v>4354.87</v>
       </c>
       <c r="I103">
@@ -6099,30 +6102,30 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+      <c r="A104" s="2">
         <v>44664</v>
       </c>
-      <c r="B104" s="50">
+      <c r="B104">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C104" s="50">
+      <c r="C104">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="D104" s="51">
+      <c r="D104" s="44">
         <v>7784.47</v>
       </c>
-      <c r="E104" s="51">
+      <c r="E104" s="44">
         <v>7167.97</v>
       </c>
-      <c r="F104" s="51">
+      <c r="F104" s="44">
         <v>616.5</v>
       </c>
-      <c r="G104" s="51">
-        <v>0</v>
-      </c>
-      <c r="H104" s="51">
+      <c r="G104" s="44">
+        <v>0</v>
+      </c>
+      <c r="H104" s="44">
         <v>4730.93</v>
       </c>
       <c r="I104">
@@ -6130,30 +6133,30 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+      <c r="A105" s="2">
         <v>44665</v>
       </c>
-      <c r="B105" s="50">
+      <c r="B105">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C105" s="50">
+      <c r="C105">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="D105" s="51">
+      <c r="D105" s="44">
         <v>2113.21</v>
       </c>
-      <c r="E105" s="51">
+      <c r="E105" s="44">
         <v>1467.32</v>
       </c>
-      <c r="F105" s="51">
+      <c r="F105" s="44">
         <v>645.89</v>
       </c>
-      <c r="G105" s="51">
-        <v>0</v>
-      </c>
-      <c r="H105" s="51">
+      <c r="G105" s="44">
+        <v>0</v>
+      </c>
+      <c r="H105" s="44">
         <v>1275.03</v>
       </c>
       <c r="I105">
@@ -6161,30 +6164,30 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+      <c r="A106" s="2">
         <v>44666</v>
       </c>
-      <c r="B106" s="50">
+      <c r="B106">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C106" s="50">
+      <c r="C106">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="D106" s="51">
+      <c r="D106" s="44">
         <v>2323.02</v>
       </c>
-      <c r="E106" s="51">
+      <c r="E106" s="44">
         <v>2107.75</v>
       </c>
-      <c r="F106" s="51">
+      <c r="F106" s="44">
         <v>215.27</v>
       </c>
-      <c r="G106" s="51">
-        <v>0</v>
-      </c>
-      <c r="H106" s="51">
+      <c r="G106" s="44">
+        <v>0</v>
+      </c>
+      <c r="H106" s="44">
         <v>1364.52</v>
       </c>
       <c r="I106">
@@ -6192,30 +6195,30 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+      <c r="A107" s="2">
         <v>44667</v>
       </c>
-      <c r="B107" s="50">
+      <c r="B107">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C107" s="50">
+      <c r="C107">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="D107" s="51">
+      <c r="D107" s="44">
         <v>2517.63</v>
       </c>
-      <c r="E107" s="51">
+      <c r="E107" s="44">
         <v>1915.96</v>
       </c>
-      <c r="F107" s="51">
+      <c r="F107" s="44">
         <v>601.66999999999996</v>
       </c>
-      <c r="G107" s="51">
-        <v>0</v>
-      </c>
-      <c r="H107" s="51">
+      <c r="G107" s="44">
+        <v>0</v>
+      </c>
+      <c r="H107" s="44">
         <v>1519.54</v>
       </c>
       <c r="I107">
@@ -6223,30 +6226,30 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+      <c r="A108" s="2">
         <v>44668</v>
       </c>
-      <c r="B108" s="50">
+      <c r="B108">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C108" s="50">
+      <c r="C108">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="D108" s="51">
+      <c r="D108" s="44">
         <v>3773.66</v>
       </c>
-      <c r="E108" s="51">
+      <c r="E108" s="44">
         <v>3511.46</v>
       </c>
-      <c r="F108" s="51">
+      <c r="F108" s="44">
         <v>262.2</v>
       </c>
-      <c r="G108" s="51">
-        <v>0</v>
-      </c>
-      <c r="H108" s="51">
+      <c r="G108" s="44">
+        <v>0</v>
+      </c>
+      <c r="H108" s="44">
         <v>2285.61</v>
       </c>
       <c r="I108">
@@ -6254,30 +6257,30 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+      <c r="A109" s="2">
         <v>44669</v>
       </c>
-      <c r="B109" s="50">
+      <c r="B109">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C109" s="50">
+      <c r="C109">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D109" s="51">
+      <c r="D109" s="44">
         <v>4332.58</v>
       </c>
-      <c r="E109" s="51">
+      <c r="E109" s="44">
         <v>3719.02</v>
       </c>
-      <c r="F109" s="51">
+      <c r="F109" s="44">
         <v>613.55999999999995</v>
       </c>
-      <c r="G109" s="51">
-        <v>0</v>
-      </c>
-      <c r="H109" s="51">
+      <c r="G109" s="44">
+        <v>0</v>
+      </c>
+      <c r="H109" s="44">
         <v>2577.2800000000002</v>
       </c>
       <c r="I109">
@@ -6285,30 +6288,30 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+      <c r="A110" s="2">
         <v>44670</v>
       </c>
-      <c r="B110" s="50">
+      <c r="B110">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C110" s="50">
+      <c r="C110">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="D110" s="51">
+      <c r="D110" s="44">
         <v>4677.13</v>
       </c>
-      <c r="E110" s="51">
+      <c r="E110" s="44">
         <v>4677.13</v>
       </c>
-      <c r="F110" s="51">
-        <v>0</v>
-      </c>
-      <c r="G110" s="51">
-        <v>0</v>
-      </c>
-      <c r="H110" s="51">
+      <c r="F110" s="44">
+        <v>0</v>
+      </c>
+      <c r="G110" s="44">
+        <v>0</v>
+      </c>
+      <c r="H110" s="44">
         <v>2738.63</v>
       </c>
       <c r="I110">
@@ -6316,30 +6319,30 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+      <c r="A111" s="2">
         <v>44671</v>
       </c>
-      <c r="B111" s="50">
+      <c r="B111">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C111" s="50">
+      <c r="C111">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="D111" s="51">
+      <c r="D111" s="44">
         <v>7803.19</v>
       </c>
-      <c r="E111" s="51">
+      <c r="E111" s="44">
         <v>7326.64</v>
       </c>
-      <c r="F111" s="51">
+      <c r="F111" s="44">
         <v>476.55</v>
       </c>
-      <c r="G111" s="51">
-        <v>0</v>
-      </c>
-      <c r="H111" s="51">
+      <c r="G111" s="44">
+        <v>0</v>
+      </c>
+      <c r="H111" s="44">
         <v>4624.54</v>
       </c>
       <c r="I111">
@@ -6347,30 +6350,30 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+      <c r="A112" s="2">
         <v>44672</v>
       </c>
-      <c r="B112" s="50">
+      <c r="B112">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C112" s="50">
+      <c r="C112">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="D112" s="51">
+      <c r="D112" s="44">
         <v>4054.63</v>
       </c>
-      <c r="E112" s="51">
+      <c r="E112" s="44">
         <v>3408.61</v>
       </c>
-      <c r="F112" s="51">
+      <c r="F112" s="44">
         <v>646.02</v>
       </c>
-      <c r="G112" s="51">
-        <v>0</v>
-      </c>
-      <c r="H112" s="51">
+      <c r="G112" s="44">
+        <v>0</v>
+      </c>
+      <c r="H112" s="44">
         <v>2478.44</v>
       </c>
       <c r="I112">
@@ -6378,30 +6381,30 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+      <c r="A113" s="2">
         <v>44673</v>
       </c>
-      <c r="B113" s="50">
+      <c r="B113">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C113" s="50">
+      <c r="C113">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="D113" s="51">
+      <c r="D113" s="44">
         <v>3629.81</v>
       </c>
-      <c r="E113" s="51">
+      <c r="E113" s="44">
         <v>3038.84</v>
       </c>
-      <c r="F113" s="51">
+      <c r="F113" s="44">
         <v>590.97</v>
       </c>
-      <c r="G113" s="51">
-        <v>0</v>
-      </c>
-      <c r="H113" s="51">
+      <c r="G113" s="44">
+        <v>0</v>
+      </c>
+      <c r="H113" s="44">
         <v>2063.79</v>
       </c>
       <c r="I113">
@@ -6409,30 +6412,30 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+      <c r="A114" s="2">
         <v>44674</v>
       </c>
-      <c r="B114" s="50">
+      <c r="B114">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C114" s="50">
+      <c r="C114">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="D114" s="51">
+      <c r="D114" s="44">
         <v>2972.21</v>
       </c>
-      <c r="E114" s="51">
+      <c r="E114" s="44">
         <v>2714.06</v>
       </c>
-      <c r="F114" s="51">
+      <c r="F114" s="44">
         <v>258.14999999999998</v>
       </c>
-      <c r="G114" s="51">
-        <v>0</v>
-      </c>
-      <c r="H114" s="51">
+      <c r="G114" s="44">
+        <v>0</v>
+      </c>
+      <c r="H114" s="44">
         <v>1788.48</v>
       </c>
       <c r="I114">
@@ -6440,30 +6443,30 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+      <c r="A115" s="2">
         <v>44675</v>
       </c>
-      <c r="B115" s="50">
+      <c r="B115">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C115" s="50">
+      <c r="C115">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="D115" s="51">
+      <c r="D115" s="44">
         <v>1497.54</v>
       </c>
-      <c r="E115" s="51">
+      <c r="E115" s="44">
         <v>1497.54</v>
       </c>
-      <c r="F115" s="51">
-        <v>0</v>
-      </c>
-      <c r="G115" s="51">
-        <v>0</v>
-      </c>
-      <c r="H115" s="51">
+      <c r="F115" s="44">
+        <v>0</v>
+      </c>
+      <c r="G115" s="44">
+        <v>0</v>
+      </c>
+      <c r="H115" s="44">
         <v>882.46</v>
       </c>
       <c r="I115">
@@ -6471,30 +6474,30 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+      <c r="A116" s="2">
         <v>44676</v>
       </c>
-      <c r="B116" s="50">
+      <c r="B116">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C116" s="50">
+      <c r="C116">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D116" s="51">
+      <c r="D116" s="44">
         <v>3894.87</v>
       </c>
-      <c r="E116" s="51">
+      <c r="E116" s="44">
         <v>3577.5</v>
       </c>
-      <c r="F116" s="51">
+      <c r="F116" s="44">
         <v>317.37</v>
       </c>
-      <c r="G116" s="51">
-        <v>0</v>
-      </c>
-      <c r="H116" s="51">
+      <c r="G116" s="44">
+        <v>0</v>
+      </c>
+      <c r="H116" s="44">
         <v>2377.1</v>
       </c>
       <c r="I116">
@@ -6502,30 +6505,30 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+      <c r="A117" s="2">
         <v>44677</v>
       </c>
-      <c r="B117" s="50">
+      <c r="B117">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C117" s="50">
+      <c r="C117">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="D117" s="51">
+      <c r="D117" s="44">
         <v>2496.5700000000002</v>
       </c>
-      <c r="E117" s="51">
+      <c r="E117" s="44">
         <v>2496.5700000000002</v>
       </c>
-      <c r="F117" s="51">
-        <v>0</v>
-      </c>
-      <c r="G117" s="51">
-        <v>0</v>
-      </c>
-      <c r="H117" s="51">
+      <c r="F117" s="44">
+        <v>0</v>
+      </c>
+      <c r="G117" s="44">
+        <v>0</v>
+      </c>
+      <c r="H117" s="44">
         <v>1464.89</v>
       </c>
       <c r="I117">
@@ -6533,30 +6536,30 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+      <c r="A118" s="2">
         <v>44678</v>
       </c>
-      <c r="B118" s="50">
+      <c r="B118">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C118" s="50">
+      <c r="C118">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="D118" s="51">
+      <c r="D118" s="44">
         <v>2155.31</v>
       </c>
-      <c r="E118" s="51">
+      <c r="E118" s="44">
         <v>2126.83</v>
       </c>
-      <c r="F118" s="51">
+      <c r="F118" s="44">
         <v>28.48</v>
       </c>
-      <c r="G118" s="51">
-        <v>0</v>
-      </c>
-      <c r="H118" s="51">
+      <c r="G118" s="44">
+        <v>0</v>
+      </c>
+      <c r="H118" s="44">
         <v>1304.44</v>
       </c>
       <c r="I118">
@@ -6564,30 +6567,30 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+      <c r="A119" s="2">
         <v>44679</v>
       </c>
-      <c r="B119" s="50">
+      <c r="B119">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C119" s="50">
+      <c r="C119">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="D119" s="51">
+      <c r="D119" s="44">
         <v>3407.9</v>
       </c>
-      <c r="E119" s="51">
+      <c r="E119" s="44">
         <v>2741.14</v>
       </c>
-      <c r="F119" s="51">
+      <c r="F119" s="44">
         <v>666.76</v>
       </c>
-      <c r="G119" s="51">
-        <v>0</v>
-      </c>
-      <c r="H119" s="51">
+      <c r="G119" s="44">
+        <v>0</v>
+      </c>
+      <c r="H119" s="44">
         <v>2015.66</v>
       </c>
       <c r="I119">
@@ -6595,30 +6598,30 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+      <c r="A120" s="2">
         <v>44680</v>
       </c>
-      <c r="B120" s="50">
+      <c r="B120">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C120" s="50">
+      <c r="C120">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="D120" s="51">
+      <c r="D120" s="44">
         <v>2724.02</v>
       </c>
-      <c r="E120" s="51">
+      <c r="E120" s="44">
         <v>2616.0300000000002</v>
       </c>
-      <c r="F120" s="51">
+      <c r="F120" s="44">
         <v>107.99</v>
       </c>
-      <c r="G120" s="51">
-        <v>0</v>
-      </c>
-      <c r="H120" s="51">
+      <c r="G120" s="44">
+        <v>0</v>
+      </c>
+      <c r="H120" s="44">
         <v>1600.48</v>
       </c>
       <c r="I120">
@@ -6626,30 +6629,30 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+      <c r="A121" s="2">
         <v>44681</v>
       </c>
-      <c r="B121" s="50">
+      <c r="B121">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="C121" s="50">
+      <c r="C121">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="D121" s="51">
+      <c r="D121" s="44">
         <v>2936.9</v>
       </c>
-      <c r="E121" s="51">
+      <c r="E121" s="44">
         <v>2120.46</v>
       </c>
-      <c r="F121" s="51">
+      <c r="F121" s="44">
         <v>816.44</v>
       </c>
-      <c r="G121" s="51">
-        <v>0</v>
-      </c>
-      <c r="H121" s="51">
+      <c r="G121" s="44">
+        <v>0</v>
+      </c>
+      <c r="H121" s="44">
         <v>1733.86</v>
       </c>
       <c r="I121">
@@ -6657,30 +6660,30 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+      <c r="A122" s="2">
         <v>44682</v>
       </c>
-      <c r="B122" s="50">
+      <c r="B122">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="C122" s="50">
+      <c r="C122">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="D122" s="51">
+      <c r="D122" s="44">
         <v>2299.4899999999998</v>
       </c>
-      <c r="E122" s="51">
+      <c r="E122" s="44">
         <v>1844.27</v>
       </c>
-      <c r="F122" s="51">
+      <c r="F122" s="44">
         <v>455.22</v>
       </c>
-      <c r="G122" s="51">
-        <v>0</v>
-      </c>
-      <c r="H122" s="51">
+      <c r="G122" s="44">
+        <v>0</v>
+      </c>
+      <c r="H122" s="44">
         <v>1358.02</v>
       </c>
       <c r="I122">
@@ -6688,30 +6691,30 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+      <c r="A123" s="2">
         <v>44683</v>
       </c>
-      <c r="B123" s="50">
+      <c r="B123">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="C123" s="50">
+      <c r="C123">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D123" s="51">
+      <c r="D123" s="44">
         <v>5005.97</v>
       </c>
-      <c r="E123" s="51">
+      <c r="E123" s="44">
         <v>4914.97</v>
       </c>
-      <c r="F123" s="51">
+      <c r="F123" s="44">
         <v>91</v>
       </c>
-      <c r="G123" s="51">
-        <v>0</v>
-      </c>
-      <c r="H123" s="51">
+      <c r="G123" s="44">
+        <v>0</v>
+      </c>
+      <c r="H123" s="44">
         <v>2991.38</v>
       </c>
       <c r="I123">
@@ -6719,30 +6722,30 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+      <c r="A124" s="2">
         <v>44684</v>
       </c>
-      <c r="B124" s="50">
+      <c r="B124">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="C124" s="50">
+      <c r="C124">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="D124" s="51">
+      <c r="D124" s="44">
         <v>3559.06</v>
       </c>
-      <c r="E124" s="51">
+      <c r="E124" s="44">
         <v>3026.82</v>
       </c>
-      <c r="F124" s="51">
+      <c r="F124" s="44">
         <v>532.24</v>
       </c>
-      <c r="G124" s="51">
-        <v>0</v>
-      </c>
-      <c r="H124" s="51">
+      <c r="G124" s="44">
+        <v>0</v>
+      </c>
+      <c r="H124" s="44">
         <v>2125.69</v>
       </c>
       <c r="I124">
@@ -6750,30 +6753,30 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+      <c r="A125" s="2">
         <v>44685</v>
       </c>
-      <c r="B125" s="50">
+      <c r="B125">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="C125" s="50">
+      <c r="C125">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="D125" s="51">
+      <c r="D125" s="44">
         <v>3769.1</v>
       </c>
-      <c r="E125" s="51">
+      <c r="E125" s="44">
         <v>3769.1</v>
       </c>
-      <c r="F125" s="51">
-        <v>0</v>
-      </c>
-      <c r="G125" s="51">
-        <v>0</v>
-      </c>
-      <c r="H125" s="51">
+      <c r="F125" s="44">
+        <v>0</v>
+      </c>
+      <c r="G125" s="44">
+        <v>0</v>
+      </c>
+      <c r="H125" s="44">
         <v>2195.29</v>
       </c>
       <c r="I125">
@@ -6781,30 +6784,30 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+      <c r="A126" s="2">
         <v>44686</v>
       </c>
-      <c r="B126" s="50">
+      <c r="B126">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="C126" s="50">
+      <c r="C126">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="D126" s="51">
+      <c r="D126" s="44">
         <v>4005.34</v>
       </c>
-      <c r="E126" s="51">
+      <c r="E126" s="44">
         <v>3073.37</v>
       </c>
-      <c r="F126" s="51">
+      <c r="F126" s="44">
         <v>931.97</v>
       </c>
-      <c r="G126" s="51">
-        <v>0</v>
-      </c>
-      <c r="H126" s="51">
+      <c r="G126" s="44">
+        <v>0</v>
+      </c>
+      <c r="H126" s="44">
         <v>2362.7600000000002</v>
       </c>
       <c r="I126">
@@ -6812,30 +6815,30 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+      <c r="A127" s="2">
         <v>44687</v>
       </c>
-      <c r="B127" s="50">
+      <c r="B127">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="C127" s="50">
+      <c r="C127">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="D127" s="51">
+      <c r="D127" s="44">
         <v>3641.77</v>
       </c>
-      <c r="E127" s="51">
+      <c r="E127" s="44">
         <v>3097.47</v>
       </c>
-      <c r="F127" s="51">
+      <c r="F127" s="44">
         <v>544.29999999999995</v>
       </c>
-      <c r="G127" s="51">
-        <v>0</v>
-      </c>
-      <c r="H127" s="51">
+      <c r="G127" s="44">
+        <v>0</v>
+      </c>
+      <c r="H127" s="44">
         <v>2215.27</v>
       </c>
       <c r="I127">
@@ -6843,30 +6846,30 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+      <c r="A128" s="2">
         <v>44688</v>
       </c>
-      <c r="B128" s="50">
+      <c r="B128">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="C128" s="50">
+      <c r="C128">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="D128" s="51">
+      <c r="D128" s="44">
         <v>3771.87</v>
       </c>
-      <c r="E128" s="51">
+      <c r="E128" s="44">
         <v>3606.46</v>
       </c>
-      <c r="F128" s="51">
+      <c r="F128" s="44">
         <v>165.41</v>
       </c>
-      <c r="G128" s="51">
-        <v>0</v>
-      </c>
-      <c r="H128" s="51">
+      <c r="G128" s="44">
+        <v>0</v>
+      </c>
+      <c r="H128" s="44">
         <v>2210.9</v>
       </c>
       <c r="I128">
@@ -6874,30 +6877,30 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+      <c r="A129" s="2">
         <v>44689</v>
       </c>
-      <c r="B129" s="50">
+      <c r="B129">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="C129" s="50">
+      <c r="C129">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="D129" s="51">
+      <c r="D129" s="44">
         <v>4323.88</v>
       </c>
-      <c r="E129" s="51">
+      <c r="E129" s="44">
         <v>4121.76</v>
       </c>
-      <c r="F129" s="51">
+      <c r="F129" s="44">
         <v>202.12</v>
       </c>
-      <c r="G129" s="51">
-        <v>0</v>
-      </c>
-      <c r="H129" s="51">
+      <c r="G129" s="44">
+        <v>0</v>
+      </c>
+      <c r="H129" s="44">
         <v>2500.27</v>
       </c>
       <c r="I129">
@@ -6905,30 +6908,30 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+      <c r="A130" s="2">
         <v>44690</v>
       </c>
-      <c r="B130" s="50">
+      <c r="B130">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="C130" s="50">
+      <c r="C130">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="D130" s="51">
+      <c r="D130" s="44">
         <v>6576.87</v>
       </c>
-      <c r="E130" s="51">
+      <c r="E130" s="44">
         <v>4606.3999999999996</v>
       </c>
-      <c r="F130" s="51">
+      <c r="F130" s="44">
         <v>1970.47</v>
       </c>
-      <c r="G130" s="51">
-        <v>0</v>
-      </c>
-      <c r="H130" s="51">
+      <c r="G130" s="44">
+        <v>0</v>
+      </c>
+      <c r="H130" s="44">
         <v>3815.44</v>
       </c>
       <c r="I130">
@@ -6936,30 +6939,30 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+      <c r="A131" s="2">
         <v>44691</v>
       </c>
-      <c r="B131" s="50">
+      <c r="B131">
         <f t="shared" ref="B131:B184" si="14">MONTH(A131)</f>
         <v>5</v>
       </c>
-      <c r="C131" s="50">
+      <c r="C131">
         <f t="shared" ref="C131:C184" si="15">WEEKDAY(A131,2)</f>
         <v>2</v>
       </c>
-      <c r="D131" s="51">
+      <c r="D131" s="44">
         <v>4187.87</v>
       </c>
-      <c r="E131" s="51">
+      <c r="E131" s="44">
         <v>3274.09</v>
       </c>
-      <c r="F131" s="51">
+      <c r="F131" s="44">
         <v>546.08000000000004</v>
       </c>
-      <c r="G131" s="51">
+      <c r="G131" s="44">
         <v>367.7</v>
       </c>
-      <c r="H131" s="51">
+      <c r="H131" s="44">
         <v>2428.3000000000002</v>
       </c>
       <c r="I131">
@@ -6967,30 +6970,30 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+      <c r="A132" s="2">
         <v>44692</v>
       </c>
-      <c r="B132" s="50">
+      <c r="B132">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C132" s="50">
+      <c r="C132">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="D132" s="51">
+      <c r="D132" s="44">
         <v>2697</v>
       </c>
-      <c r="E132" s="51">
+      <c r="E132" s="44">
         <v>2265.39</v>
       </c>
-      <c r="F132" s="51">
+      <c r="F132" s="44">
         <v>431.61</v>
       </c>
-      <c r="G132" s="51">
-        <v>0</v>
-      </c>
-      <c r="H132" s="51">
+      <c r="G132" s="44">
+        <v>0</v>
+      </c>
+      <c r="H132" s="44">
         <v>1614.29</v>
       </c>
       <c r="I132">
@@ -6998,30 +7001,30 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+      <c r="A133" s="2">
         <v>44693</v>
       </c>
-      <c r="B133" s="50">
+      <c r="B133">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C133" s="50">
+      <c r="C133">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="D133" s="51">
+      <c r="D133" s="44">
         <v>5016.97</v>
       </c>
-      <c r="E133" s="51">
+      <c r="E133" s="44">
         <v>3192.75</v>
       </c>
-      <c r="F133" s="51">
+      <c r="F133" s="44">
         <v>1824.22</v>
       </c>
-      <c r="G133" s="51">
-        <v>0</v>
-      </c>
-      <c r="H133" s="51">
+      <c r="G133" s="44">
+        <v>0</v>
+      </c>
+      <c r="H133" s="44">
         <v>2935.17</v>
       </c>
       <c r="I133">
@@ -7029,30 +7032,30 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+      <c r="A134" s="2">
         <v>44694</v>
       </c>
-      <c r="B134" s="50">
+      <c r="B134">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C134" s="50">
+      <c r="C134">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="D134" s="51">
+      <c r="D134" s="44">
         <v>6800.97</v>
       </c>
-      <c r="E134" s="51">
+      <c r="E134" s="44">
         <v>5259.85</v>
       </c>
-      <c r="F134" s="51">
+      <c r="F134" s="44">
         <v>1541.12</v>
       </c>
-      <c r="G134" s="51">
-        <v>0</v>
-      </c>
-      <c r="H134" s="51">
+      <c r="G134" s="44">
+        <v>0</v>
+      </c>
+      <c r="H134" s="44">
         <v>4028.82</v>
       </c>
       <c r="I134">
@@ -7060,30 +7063,30 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+      <c r="A135" s="2">
         <v>44695</v>
       </c>
-      <c r="B135" s="50">
+      <c r="B135">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C135" s="50">
+      <c r="C135">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="D135" s="51">
+      <c r="D135" s="44">
         <v>6474.39</v>
       </c>
-      <c r="E135" s="51">
+      <c r="E135" s="44">
         <v>4850.71</v>
       </c>
-      <c r="F135" s="51">
+      <c r="F135" s="44">
         <v>1400.68</v>
       </c>
-      <c r="G135" s="51">
+      <c r="G135" s="44">
         <v>223</v>
       </c>
-      <c r="H135" s="51">
+      <c r="H135" s="44">
         <v>3760.14</v>
       </c>
       <c r="I135">
@@ -7091,30 +7094,30 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+      <c r="A136" s="2">
         <v>44696</v>
       </c>
-      <c r="B136" s="50">
+      <c r="B136">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C136" s="50">
+      <c r="C136">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="D136" s="51">
+      <c r="D136" s="44">
         <v>2278.7600000000002</v>
       </c>
-      <c r="E136" s="51">
+      <c r="E136" s="44">
         <v>2011.17</v>
       </c>
-      <c r="F136" s="51">
+      <c r="F136" s="44">
         <v>267.58999999999997</v>
       </c>
-      <c r="G136" s="51">
-        <v>0</v>
-      </c>
-      <c r="H136" s="51">
+      <c r="G136" s="44">
+        <v>0</v>
+      </c>
+      <c r="H136" s="44">
         <v>1349.34</v>
       </c>
       <c r="I136">
@@ -7122,30 +7125,30 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+      <c r="A137" s="2">
         <v>44697</v>
       </c>
-      <c r="B137" s="50">
+      <c r="B137">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C137" s="50">
+      <c r="C137">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="D137" s="51">
+      <c r="D137" s="44">
         <v>6836.33</v>
       </c>
-      <c r="E137" s="51">
+      <c r="E137" s="44">
         <v>5687.98</v>
       </c>
-      <c r="F137" s="51">
+      <c r="F137" s="44">
         <v>1148.3499999999999</v>
       </c>
-      <c r="G137" s="51">
-        <v>0</v>
-      </c>
-      <c r="H137" s="51">
+      <c r="G137" s="44">
+        <v>0</v>
+      </c>
+      <c r="H137" s="44">
         <v>4091.26</v>
       </c>
       <c r="I137">
@@ -7153,30 +7156,30 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+      <c r="A138" s="2">
         <v>44698</v>
       </c>
-      <c r="B138" s="50">
+      <c r="B138">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C138" s="50">
+      <c r="C138">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="D138" s="51">
+      <c r="D138" s="44">
         <v>2978.96</v>
       </c>
-      <c r="E138" s="51">
+      <c r="E138" s="44">
         <v>2784.96</v>
       </c>
-      <c r="F138" s="51">
+      <c r="F138" s="44">
         <v>194</v>
       </c>
-      <c r="G138" s="51">
-        <v>0</v>
-      </c>
-      <c r="H138" s="51">
+      <c r="G138" s="44">
+        <v>0</v>
+      </c>
+      <c r="H138" s="44">
         <v>1801.97</v>
       </c>
       <c r="I138">
@@ -7184,30 +7187,30 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+      <c r="A139" s="2">
         <v>44699</v>
       </c>
-      <c r="B139" s="50">
+      <c r="B139">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C139" s="50">
+      <c r="C139">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="D139" s="51">
+      <c r="D139" s="44">
         <v>3994.34</v>
       </c>
-      <c r="E139" s="51">
+      <c r="E139" s="44">
         <v>2886.69</v>
       </c>
-      <c r="F139" s="51">
+      <c r="F139" s="44">
         <v>1107.6500000000001</v>
       </c>
-      <c r="G139" s="51">
-        <v>0</v>
-      </c>
-      <c r="H139" s="51">
+      <c r="G139" s="44">
+        <v>0</v>
+      </c>
+      <c r="H139" s="44">
         <v>2329.9499999999998</v>
       </c>
       <c r="I139">
@@ -7215,30 +7218,30 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+      <c r="A140" s="2">
         <v>44700</v>
       </c>
-      <c r="B140" s="50">
+      <c r="B140">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C140" s="50">
+      <c r="C140">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="D140" s="51">
+      <c r="D140" s="44">
         <v>3841.43</v>
       </c>
-      <c r="E140" s="51">
+      <c r="E140" s="44">
         <v>3668.32</v>
       </c>
-      <c r="F140" s="51">
+      <c r="F140" s="44">
         <v>173.11</v>
       </c>
-      <c r="G140" s="51">
-        <v>0</v>
-      </c>
-      <c r="H140" s="51">
+      <c r="G140" s="44">
+        <v>0</v>
+      </c>
+      <c r="H140" s="44">
         <v>2337.63</v>
       </c>
       <c r="I140">
@@ -7246,30 +7249,30 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+      <c r="A141" s="2">
         <v>44701</v>
       </c>
-      <c r="B141" s="50">
+      <c r="B141">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C141" s="50">
+      <c r="C141">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="D141" s="51">
+      <c r="D141" s="44">
         <v>5256.21</v>
       </c>
-      <c r="E141" s="51">
+      <c r="E141" s="44">
         <v>4466.4799999999996</v>
       </c>
-      <c r="F141" s="51">
+      <c r="F141" s="44">
         <v>318.81</v>
       </c>
-      <c r="G141" s="51">
+      <c r="G141" s="44">
         <v>470.92</v>
       </c>
-      <c r="H141" s="51">
+      <c r="H141" s="44">
         <v>3190.74</v>
       </c>
       <c r="I141">
@@ -7277,30 +7280,30 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+      <c r="A142" s="2">
         <v>44702</v>
       </c>
-      <c r="B142" s="50">
+      <c r="B142">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C142" s="50">
+      <c r="C142">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="D142" s="51">
+      <c r="D142" s="44">
         <v>4876.71</v>
       </c>
-      <c r="E142" s="51">
+      <c r="E142" s="44">
         <v>4139.45</v>
       </c>
-      <c r="F142" s="51">
+      <c r="F142" s="44">
         <v>737.26</v>
       </c>
-      <c r="G142" s="51">
-        <v>0</v>
-      </c>
-      <c r="H142" s="51">
+      <c r="G142" s="44">
+        <v>0</v>
+      </c>
+      <c r="H142" s="44">
         <v>2880.41</v>
       </c>
       <c r="I142">
@@ -7308,30 +7311,30 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+      <c r="A143" s="2">
         <v>44703</v>
       </c>
-      <c r="B143" s="50">
+      <c r="B143">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C143" s="50">
+      <c r="C143">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="D143" s="51">
+      <c r="D143" s="44">
         <v>3625.34</v>
       </c>
-      <c r="E143" s="51">
+      <c r="E143" s="44">
         <v>2363.54</v>
       </c>
-      <c r="F143" s="51">
+      <c r="F143" s="44">
         <v>1261.8</v>
       </c>
-      <c r="G143" s="51">
-        <v>0</v>
-      </c>
-      <c r="H143" s="51">
+      <c r="G143" s="44">
+        <v>0</v>
+      </c>
+      <c r="H143" s="44">
         <v>2172.88</v>
       </c>
       <c r="I143">
@@ -7339,30 +7342,30 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+      <c r="A144" s="2">
         <v>44704</v>
       </c>
-      <c r="B144" s="50">
+      <c r="B144">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C144" s="50">
+      <c r="C144">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="D144" s="51">
+      <c r="D144" s="44">
         <v>2353.56</v>
       </c>
-      <c r="E144" s="51">
+      <c r="E144" s="44">
         <v>1970.94</v>
       </c>
-      <c r="F144" s="51">
+      <c r="F144" s="44">
         <v>382.62</v>
       </c>
-      <c r="G144" s="51">
-        <v>0</v>
-      </c>
-      <c r="H144" s="51">
+      <c r="G144" s="44">
+        <v>0</v>
+      </c>
+      <c r="H144" s="44">
         <v>1398.95</v>
       </c>
       <c r="I144">
@@ -7370,30 +7373,30 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+      <c r="A145" s="2">
         <v>44705</v>
       </c>
-      <c r="B145" s="50">
+      <c r="B145">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C145" s="50">
+      <c r="C145">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="D145" s="51">
+      <c r="D145" s="44">
         <v>2837.77</v>
       </c>
-      <c r="E145" s="51">
+      <c r="E145" s="44">
         <v>2560.34</v>
       </c>
-      <c r="F145" s="51">
+      <c r="F145" s="44">
         <v>277.43</v>
       </c>
-      <c r="G145" s="51">
-        <v>0</v>
-      </c>
-      <c r="H145" s="51">
+      <c r="G145" s="44">
+        <v>0</v>
+      </c>
+      <c r="H145" s="44">
         <v>1671.61</v>
       </c>
       <c r="I145">
@@ -7401,30 +7404,30 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+      <c r="A146" s="2">
         <v>44706</v>
       </c>
-      <c r="B146" s="50">
+      <c r="B146">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C146" s="50">
+      <c r="C146">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="D146" s="51">
+      <c r="D146" s="44">
         <v>6485.35</v>
       </c>
-      <c r="E146" s="51">
+      <c r="E146" s="44">
         <v>5601.1</v>
       </c>
-      <c r="F146" s="51">
+      <c r="F146" s="44">
         <v>884.25</v>
       </c>
-      <c r="G146" s="51">
-        <v>0</v>
-      </c>
-      <c r="H146" s="51">
+      <c r="G146" s="44">
+        <v>0</v>
+      </c>
+      <c r="H146" s="44">
         <v>3843.54</v>
       </c>
       <c r="I146">
@@ -7432,30 +7435,30 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+      <c r="A147" s="2">
         <v>44707</v>
       </c>
-      <c r="B147" s="50">
+      <c r="B147">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C147" s="50">
+      <c r="C147">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="D147" s="51">
+      <c r="D147" s="44">
         <v>4079.26</v>
       </c>
-      <c r="E147" s="51">
+      <c r="E147" s="44">
         <v>3574.25</v>
       </c>
-      <c r="F147" s="51">
+      <c r="F147" s="44">
         <v>505.01</v>
       </c>
-      <c r="G147" s="51">
-        <v>0</v>
-      </c>
-      <c r="H147" s="51">
+      <c r="G147" s="44">
+        <v>0</v>
+      </c>
+      <c r="H147" s="44">
         <v>2365.6</v>
       </c>
       <c r="I147">
@@ -7463,30 +7466,30 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+      <c r="A148" s="2">
         <v>44708</v>
       </c>
-      <c r="B148" s="50">
+      <c r="B148">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C148" s="50">
+      <c r="C148">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="D148" s="51">
+      <c r="D148" s="44">
         <v>6378.39</v>
       </c>
-      <c r="E148" s="51">
+      <c r="E148" s="44">
         <v>4568.8100000000004</v>
       </c>
-      <c r="F148" s="51">
+      <c r="F148" s="44">
         <v>903.56</v>
       </c>
-      <c r="G148" s="51">
+      <c r="G148" s="44">
         <v>906.02</v>
       </c>
-      <c r="H148" s="51">
+      <c r="H148" s="44">
         <v>3894.37</v>
       </c>
       <c r="I148">
@@ -7494,30 +7497,30 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+      <c r="A149" s="2">
         <v>44709</v>
       </c>
-      <c r="B149" s="50">
+      <c r="B149">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C149" s="50">
+      <c r="C149">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="D149" s="51">
+      <c r="D149" s="44">
         <v>3786.59</v>
       </c>
-      <c r="E149" s="51">
+      <c r="E149" s="44">
         <v>3228.34</v>
       </c>
-      <c r="F149" s="51">
+      <c r="F149" s="44">
         <v>376.56</v>
       </c>
-      <c r="G149" s="51">
+      <c r="G149" s="44">
         <v>181.69</v>
       </c>
-      <c r="H149" s="51">
+      <c r="H149" s="44">
         <v>2274.87</v>
       </c>
       <c r="I149">
@@ -7525,30 +7528,30 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+      <c r="A150" s="2">
         <v>44710</v>
       </c>
-      <c r="B150" s="50">
+      <c r="B150">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C150" s="50">
+      <c r="C150">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="D150" s="51">
+      <c r="D150" s="44">
         <v>3963.06</v>
       </c>
-      <c r="E150" s="51">
+      <c r="E150" s="44">
         <v>3963.06</v>
       </c>
-      <c r="F150" s="51">
-        <v>0</v>
-      </c>
-      <c r="G150" s="51">
-        <v>0</v>
-      </c>
-      <c r="H150" s="51">
+      <c r="F150" s="44">
+        <v>0</v>
+      </c>
+      <c r="G150" s="44">
+        <v>0</v>
+      </c>
+      <c r="H150" s="44">
         <v>2283.02</v>
       </c>
       <c r="I150">
@@ -7556,30 +7559,30 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
+      <c r="A151" s="2">
         <v>44711</v>
       </c>
-      <c r="B151" s="50">
+      <c r="B151">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C151" s="50">
+      <c r="C151">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="D151" s="51">
+      <c r="D151" s="44">
         <v>4594.9449999999997</v>
       </c>
-      <c r="E151" s="51">
+      <c r="E151" s="44">
         <v>3829.46</v>
       </c>
-      <c r="F151" s="51">
+      <c r="F151" s="44">
         <v>765.48500000000001</v>
       </c>
-      <c r="G151" s="51">
-        <v>0</v>
-      </c>
-      <c r="H151" s="51">
+      <c r="G151" s="44">
+        <v>0</v>
+      </c>
+      <c r="H151" s="44">
         <v>2665.0681</v>
       </c>
       <c r="I151">
@@ -7587,30 +7590,30 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+      <c r="A152" s="2">
         <v>44712</v>
       </c>
-      <c r="B152" s="50">
+      <c r="B152">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C152" s="50">
+      <c r="C152">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="D152" s="51">
+      <c r="D152" s="44">
         <v>2908.3649999999998</v>
       </c>
-      <c r="E152" s="51">
+      <c r="E152" s="44">
         <v>2672.65</v>
       </c>
-      <c r="F152" s="51">
+      <c r="F152" s="44">
         <v>235.715</v>
       </c>
-      <c r="G152" s="51">
-        <v>0</v>
-      </c>
-      <c r="H152" s="51">
+      <c r="G152" s="44">
+        <v>0</v>
+      </c>
+      <c r="H152" s="44">
         <v>1657.7680499999999</v>
       </c>
       <c r="I152">
@@ -7618,30 +7621,30 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
+      <c r="A153" s="2">
         <v>44568</v>
       </c>
-      <c r="B153" s="50">
+      <c r="B153">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="C153" s="50">
+      <c r="C153">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="D153" s="51">
+      <c r="D153" s="44">
         <v>5649.31</v>
       </c>
-      <c r="E153" s="51">
+      <c r="E153" s="44">
         <v>4933.16</v>
       </c>
-      <c r="F153" s="51">
+      <c r="F153" s="44">
         <v>716.15</v>
       </c>
-      <c r="G153" s="51">
-        <v>0</v>
-      </c>
-      <c r="H153" s="51">
+      <c r="G153" s="44">
+        <v>0</v>
+      </c>
+      <c r="H153" s="44">
         <v>2779.85</v>
       </c>
       <c r="I153">
@@ -7649,30 +7652,30 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+      <c r="A154" s="2">
         <v>44575</v>
       </c>
-      <c r="B154" s="50">
+      <c r="B154">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="C154" s="50">
+      <c r="C154">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="D154" s="51">
+      <c r="D154" s="44">
         <v>3503.12</v>
       </c>
-      <c r="E154" s="51">
+      <c r="E154" s="44">
         <v>2831.55</v>
       </c>
-      <c r="F154" s="51">
+      <c r="F154" s="44">
         <v>671.57</v>
       </c>
-      <c r="G154" s="51">
-        <v>0</v>
-      </c>
-      <c r="H154" s="51">
+      <c r="G154" s="44">
+        <v>0</v>
+      </c>
+      <c r="H154" s="44">
         <v>1996.33</v>
       </c>
       <c r="I154">
@@ -7680,30 +7683,30 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+      <c r="A155" s="2">
         <v>44576</v>
       </c>
-      <c r="B155" s="50">
+      <c r="B155">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="C155" s="50">
+      <c r="C155">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="D155" s="51">
+      <c r="D155" s="44">
         <v>6727.53</v>
       </c>
-      <c r="E155" s="51">
+      <c r="E155" s="44">
         <v>5752.18</v>
       </c>
-      <c r="F155" s="51">
+      <c r="F155" s="44">
         <v>975.35</v>
       </c>
-      <c r="G155" s="51">
-        <v>0</v>
-      </c>
-      <c r="H155" s="51">
+      <c r="G155" s="44">
+        <v>0</v>
+      </c>
+      <c r="H155" s="44">
         <v>3750.84</v>
       </c>
       <c r="I155">
@@ -7711,30 +7714,30 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+      <c r="A156" s="2">
         <v>44577</v>
       </c>
-      <c r="B156" s="50">
+      <c r="B156">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="C156" s="50">
+      <c r="C156">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="D156" s="51">
+      <c r="D156" s="44">
         <v>3620.16</v>
       </c>
-      <c r="E156" s="51">
+      <c r="E156" s="44">
         <v>3216.57</v>
       </c>
-      <c r="F156" s="51">
+      <c r="F156" s="44">
         <v>403.59</v>
       </c>
-      <c r="G156" s="51">
-        <v>0</v>
-      </c>
-      <c r="H156" s="51">
+      <c r="G156" s="44">
+        <v>0</v>
+      </c>
+      <c r="H156" s="44">
         <v>2127.77</v>
       </c>
       <c r="I156">
@@ -7742,30 +7745,30 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
+      <c r="A157" s="2">
         <v>44616</v>
       </c>
-      <c r="B157" s="50">
+      <c r="B157">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="C157" s="50">
+      <c r="C157">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="D157" s="51">
+      <c r="D157" s="44">
         <v>4088.09</v>
       </c>
-      <c r="E157" s="51">
+      <c r="E157" s="44">
         <v>3492.17</v>
       </c>
-      <c r="F157" s="51">
+      <c r="F157" s="44">
         <v>595.91999999999996</v>
       </c>
-      <c r="G157" s="51">
-        <v>0</v>
-      </c>
-      <c r="H157" s="51">
+      <c r="G157" s="44">
+        <v>0</v>
+      </c>
+      <c r="H157" s="44">
         <v>2317.0700000000002</v>
       </c>
       <c r="I157">
@@ -7773,30 +7776,30 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+      <c r="A158" s="2">
         <v>44617</v>
       </c>
-      <c r="B158" s="50">
+      <c r="B158">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="C158" s="50">
+      <c r="C158">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="D158" s="51">
+      <c r="D158" s="44">
         <v>2918.34</v>
       </c>
-      <c r="E158" s="51">
+      <c r="E158" s="44">
         <v>2489.85</v>
       </c>
-      <c r="F158" s="51">
+      <c r="F158" s="44">
         <v>428.49</v>
       </c>
-      <c r="G158" s="51">
-        <v>0</v>
-      </c>
-      <c r="H158" s="51">
+      <c r="G158" s="44">
+        <v>0</v>
+      </c>
+      <c r="H158" s="44">
         <v>1668.94</v>
       </c>
       <c r="I158">
@@ -7804,30 +7807,30 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
+      <c r="A159" s="2">
         <v>44618</v>
       </c>
-      <c r="B159" s="50">
+      <c r="B159">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="C159" s="50">
+      <c r="C159">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="D159" s="51">
+      <c r="D159" s="44">
         <v>7506.01</v>
       </c>
-      <c r="E159" s="51">
+      <c r="E159" s="44">
         <v>4240.6499999999996</v>
       </c>
-      <c r="F159" s="51">
+      <c r="F159" s="44">
         <v>3265.36</v>
       </c>
-      <c r="G159" s="51">
-        <v>0</v>
-      </c>
-      <c r="H159" s="51">
+      <c r="G159" s="44">
+        <v>0</v>
+      </c>
+      <c r="H159" s="44">
         <v>4222.74</v>
       </c>
       <c r="I159">
@@ -7835,30 +7838,30 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+      <c r="A160" s="2">
         <v>44628</v>
       </c>
-      <c r="B160" s="50">
+      <c r="B160">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="C160" s="50">
+      <c r="C160">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="D160" s="51">
+      <c r="D160" s="44">
         <v>5725.4</v>
       </c>
-      <c r="E160" s="51">
+      <c r="E160" s="44">
         <v>4397.01</v>
       </c>
-      <c r="F160" s="51">
+      <c r="F160" s="44">
         <v>1328.39</v>
       </c>
-      <c r="G160" s="51">
-        <v>0</v>
-      </c>
-      <c r="H160" s="51">
+      <c r="G160" s="44">
+        <v>0</v>
+      </c>
+      <c r="H160" s="44">
         <v>3161.2</v>
       </c>
       <c r="I160">
@@ -7866,30 +7869,30 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
+      <c r="A161" s="2">
         <v>44658</v>
       </c>
-      <c r="B161" s="50">
+      <c r="B161">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="C161" s="50">
+      <c r="C161">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="D161" s="51">
+      <c r="D161" s="44">
         <v>4385.3500000000004</v>
       </c>
-      <c r="E161" s="51">
+      <c r="E161" s="44">
         <v>4385.3500000000004</v>
       </c>
-      <c r="F161" s="51">
-        <v>0</v>
-      </c>
-      <c r="G161" s="51">
-        <v>0</v>
-      </c>
-      <c r="H161" s="51">
+      <c r="F161" s="44">
+        <v>0</v>
+      </c>
+      <c r="G161" s="44">
+        <v>0</v>
+      </c>
+      <c r="H161" s="44">
         <v>2619.86</v>
       </c>
       <c r="I161">
@@ -7897,30 +7900,30 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+      <c r="A162" s="2">
         <v>44659</v>
       </c>
-      <c r="B162" s="50">
+      <c r="B162">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="C162" s="50">
+      <c r="C162">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="D162" s="51">
+      <c r="D162" s="44">
         <v>4999.97</v>
       </c>
-      <c r="E162" s="51">
+      <c r="E162" s="44">
         <v>3970.51</v>
       </c>
-      <c r="F162" s="51">
+      <c r="F162" s="44">
         <v>1029.46</v>
       </c>
-      <c r="G162" s="51">
-        <v>0</v>
-      </c>
-      <c r="H162" s="51">
+      <c r="G162" s="44">
+        <v>0</v>
+      </c>
+      <c r="H162" s="44">
         <v>2937.99</v>
       </c>
       <c r="I162">
@@ -7928,30 +7931,30 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
+      <c r="A163" s="2">
         <v>44660</v>
       </c>
-      <c r="B163" s="50">
+      <c r="B163">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="C163" s="50">
+      <c r="C163">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="D163" s="51">
+      <c r="D163" s="44">
         <v>4886.8999999999996</v>
       </c>
-      <c r="E163" s="51">
+      <c r="E163" s="44">
         <v>3893.99</v>
       </c>
-      <c r="F163" s="51">
+      <c r="F163" s="44">
         <v>992.91</v>
       </c>
-      <c r="G163" s="51">
-        <v>0</v>
-      </c>
-      <c r="H163" s="51">
+      <c r="G163" s="44">
+        <v>0</v>
+      </c>
+      <c r="H163" s="44">
         <v>2862.35</v>
       </c>
       <c r="I163">
@@ -7959,30 +7962,30 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
+      <c r="A164" s="2">
         <v>44572</v>
       </c>
-      <c r="B164" s="50">
+      <c r="B164">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="C164" s="50">
+      <c r="C164">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="D164" s="51">
+      <c r="D164" s="44">
         <v>4226.25</v>
       </c>
-      <c r="E164" s="51">
+      <c r="E164" s="44">
         <v>3692.89</v>
       </c>
-      <c r="F164" s="51">
+      <c r="F164" s="44">
         <v>533.36</v>
       </c>
-      <c r="G164" s="51">
-        <v>0</v>
-      </c>
-      <c r="H164" s="51">
+      <c r="G164" s="44">
+        <v>0</v>
+      </c>
+      <c r="H164" s="44">
         <v>2411.77</v>
       </c>
       <c r="I164">
@@ -7990,30 +7993,30 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
+      <c r="A165" s="2">
         <v>44573</v>
       </c>
-      <c r="B165" s="50">
+      <c r="B165">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="C165" s="50">
+      <c r="C165">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="D165" s="51">
+      <c r="D165" s="44">
         <v>4172.46</v>
       </c>
-      <c r="E165" s="51">
+      <c r="E165" s="44">
         <v>4172.46</v>
       </c>
-      <c r="F165" s="51">
-        <v>0</v>
-      </c>
-      <c r="G165" s="51">
-        <v>0</v>
-      </c>
-      <c r="H165" s="51">
+      <c r="F165" s="44">
+        <v>0</v>
+      </c>
+      <c r="G165" s="44">
+        <v>0</v>
+      </c>
+      <c r="H165" s="44">
         <v>2291.9499999999998</v>
       </c>
       <c r="I165">
@@ -8021,30 +8024,30 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+      <c r="A166" s="2">
         <v>44580</v>
       </c>
-      <c r="B166" s="50">
+      <c r="B166">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="C166" s="50">
+      <c r="C166">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="D166" s="51">
+      <c r="D166" s="44">
         <v>3966.48</v>
       </c>
-      <c r="E166" s="51">
+      <c r="E166" s="44">
         <v>3605.21</v>
       </c>
-      <c r="F166" s="51">
+      <c r="F166" s="44">
         <v>361.27</v>
       </c>
-      <c r="G166" s="51">
-        <v>0</v>
-      </c>
-      <c r="H166" s="51">
+      <c r="G166" s="44">
+        <v>0</v>
+      </c>
+      <c r="H166" s="44">
         <v>2216.8200000000002</v>
       </c>
       <c r="I166">
@@ -8052,30 +8055,30 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
+      <c r="A167" s="2">
         <v>44592</v>
       </c>
-      <c r="B167" s="50">
+      <c r="B167">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="C167" s="50">
+      <c r="C167">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="D167" s="51">
+      <c r="D167" s="44">
         <v>4221.26</v>
       </c>
-      <c r="E167" s="51">
+      <c r="E167" s="44">
         <v>4169.25</v>
       </c>
-      <c r="F167" s="51">
+      <c r="F167" s="44">
         <v>52.01</v>
       </c>
-      <c r="G167" s="51">
-        <v>0</v>
-      </c>
-      <c r="H167" s="51">
+      <c r="G167" s="44">
+        <v>0</v>
+      </c>
+      <c r="H167" s="44">
         <v>2391.35</v>
       </c>
       <c r="I167">
@@ -8083,30 +8086,30 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
+      <c r="A168" s="2">
         <v>44598</v>
       </c>
-      <c r="B168" s="50">
+      <c r="B168">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="C168" s="50">
+      <c r="C168">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="D168" s="51">
+      <c r="D168" s="44">
         <v>2630.46</v>
       </c>
-      <c r="E168" s="51">
+      <c r="E168" s="44">
         <v>1803.43</v>
       </c>
-      <c r="F168" s="51">
+      <c r="F168" s="44">
         <v>827.03</v>
       </c>
-      <c r="G168" s="51">
-        <v>0</v>
-      </c>
-      <c r="H168" s="51">
+      <c r="G168" s="44">
+        <v>0</v>
+      </c>
+      <c r="H168" s="44">
         <v>1669.58</v>
       </c>
       <c r="I168">
@@ -8114,30 +8117,30 @@
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
+      <c r="A169" s="2">
         <v>44605</v>
       </c>
-      <c r="B169" s="50">
+      <c r="B169">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="C169" s="50">
+      <c r="C169">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="D169" s="51">
+      <c r="D169" s="44">
         <v>2562.7199999999998</v>
       </c>
-      <c r="E169" s="51">
+      <c r="E169" s="44">
         <v>2031.79</v>
       </c>
-      <c r="F169" s="51">
+      <c r="F169" s="44">
         <v>530.92999999999995</v>
       </c>
-      <c r="G169" s="51">
-        <v>0</v>
-      </c>
-      <c r="H169" s="51">
+      <c r="G169" s="44">
+        <v>0</v>
+      </c>
+      <c r="H169" s="44">
         <v>1417.57</v>
       </c>
       <c r="I169">
@@ -8145,30 +8148,30 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+      <c r="A170" s="2">
         <v>44607</v>
       </c>
-      <c r="B170" s="50">
+      <c r="B170">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="C170" s="50">
+      <c r="C170">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="D170" s="51">
+      <c r="D170" s="44">
         <v>6054.22</v>
       </c>
-      <c r="E170" s="51">
+      <c r="E170" s="44">
         <v>5314.25</v>
       </c>
-      <c r="F170" s="51">
+      <c r="F170" s="44">
         <v>739.97</v>
       </c>
-      <c r="G170" s="51">
-        <v>0</v>
-      </c>
-      <c r="H170" s="51">
+      <c r="G170" s="44">
+        <v>0</v>
+      </c>
+      <c r="H170" s="44">
         <v>3472.59</v>
       </c>
       <c r="I170">
@@ -8176,30 +8179,30 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
+      <c r="A171" s="2">
         <v>44618</v>
       </c>
-      <c r="B171" s="50">
+      <c r="B171">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="C171" s="50">
+      <c r="C171">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="D171" s="51">
+      <c r="D171" s="44">
         <v>7506.01</v>
       </c>
-      <c r="E171" s="51">
+      <c r="E171" s="44">
         <v>4240.6499999999996</v>
       </c>
-      <c r="F171" s="51">
+      <c r="F171" s="44">
         <v>3265.36</v>
       </c>
-      <c r="G171" s="51">
-        <v>0</v>
-      </c>
-      <c r="H171" s="51">
+      <c r="G171" s="44">
+        <v>0</v>
+      </c>
+      <c r="H171" s="44">
         <v>4222.74</v>
       </c>
       <c r="I171">
@@ -8207,30 +8210,30 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
+      <c r="A172" s="2">
         <v>44622</v>
       </c>
-      <c r="B172" s="50">
+      <c r="B172">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="C172" s="50">
+      <c r="C172">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="D172" s="51">
+      <c r="D172" s="44">
         <v>2966.54</v>
       </c>
-      <c r="E172" s="51">
+      <c r="E172" s="44">
         <v>2898.01</v>
       </c>
-      <c r="F172" s="51">
+      <c r="F172" s="44">
         <v>68.53</v>
       </c>
-      <c r="G172" s="51">
-        <v>0</v>
-      </c>
-      <c r="H172" s="51">
+      <c r="G172" s="44">
+        <v>0</v>
+      </c>
+      <c r="H172" s="44">
         <v>0</v>
       </c>
       <c r="I172">
@@ -8238,30 +8241,30 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
+      <c r="A173" s="2">
         <v>44630</v>
       </c>
-      <c r="B173" s="50">
+      <c r="B173">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="C173" s="50">
+      <c r="C173">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="D173" s="51">
+      <c r="D173" s="44">
         <v>3606.48</v>
       </c>
-      <c r="E173" s="51">
+      <c r="E173" s="44">
         <v>3297.16</v>
       </c>
-      <c r="F173" s="51">
+      <c r="F173" s="44">
         <v>309.32</v>
       </c>
-      <c r="G173" s="51">
-        <v>0</v>
-      </c>
-      <c r="H173" s="51">
+      <c r="G173" s="44">
+        <v>0</v>
+      </c>
+      <c r="H173" s="44">
         <v>2165.2199999999998</v>
       </c>
       <c r="I173">
@@ -8269,30 +8272,30 @@
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
+      <c r="A174" s="2">
         <v>44639</v>
       </c>
-      <c r="B174" s="50">
+      <c r="B174">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="C174" s="50">
+      <c r="C174">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="D174" s="51">
+      <c r="D174" s="44">
         <v>3686.54</v>
       </c>
-      <c r="E174" s="51">
+      <c r="E174" s="44">
         <v>3434.56</v>
       </c>
-      <c r="F174" s="51">
+      <c r="F174" s="44">
         <v>251.98</v>
       </c>
-      <c r="G174" s="51">
-        <v>0</v>
-      </c>
-      <c r="H174" s="51">
+      <c r="G174" s="44">
+        <v>0</v>
+      </c>
+      <c r="H174" s="44">
         <v>2280.5</v>
       </c>
       <c r="I174">
@@ -8300,30 +8303,30 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
+      <c r="A175" s="2">
         <v>44650</v>
       </c>
-      <c r="B175" s="50">
+      <c r="B175">
         <f t="shared" si="14"/>
         <v>3</v>
       </c>
-      <c r="C175" s="50">
+      <c r="C175">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="D175" s="51">
+      <c r="D175" s="44">
         <v>2922.44</v>
       </c>
-      <c r="E175" s="51">
+      <c r="E175" s="44">
         <v>2621.94</v>
       </c>
-      <c r="F175" s="51">
+      <c r="F175" s="44">
         <v>300.5</v>
       </c>
-      <c r="G175" s="51">
-        <v>0</v>
-      </c>
-      <c r="H175" s="51">
+      <c r="G175" s="44">
+        <v>0</v>
+      </c>
+      <c r="H175" s="44">
         <v>1680.93</v>
       </c>
       <c r="I175">
@@ -8331,30 +8334,30 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
+      <c r="A176" s="2">
         <v>44665</v>
       </c>
-      <c r="B176" s="50">
+      <c r="B176">
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="C176" s="50">
+      <c r="C176">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="D176" s="51">
+      <c r="D176" s="44">
         <v>2113.21</v>
       </c>
-      <c r="E176" s="51">
+      <c r="E176" s="44">
         <v>1467.32</v>
       </c>
-      <c r="F176" s="51">
+      <c r="F176" s="44">
         <v>645.89</v>
       </c>
-      <c r="G176" s="51">
-        <v>0</v>
-      </c>
-      <c r="H176" s="51">
+      <c r="G176" s="44">
+        <v>0</v>
+      </c>
+      <c r="H176" s="44">
         <v>1275.03</v>
       </c>
       <c r="I176">
@@ -8362,30 +8365,30 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
+      <c r="A177" s="2">
         <v>44688</v>
       </c>
-      <c r="B177" s="50">
+      <c r="B177">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C177" s="50">
+      <c r="C177">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="D177" s="51">
+      <c r="D177" s="44">
         <v>3771.87</v>
       </c>
-      <c r="E177" s="51">
+      <c r="E177" s="44">
         <v>3606.46</v>
       </c>
-      <c r="F177" s="51">
+      <c r="F177" s="44">
         <v>165.41</v>
       </c>
-      <c r="G177" s="51">
-        <v>0</v>
-      </c>
-      <c r="H177" s="51">
+      <c r="G177" s="44">
+        <v>0</v>
+      </c>
+      <c r="H177" s="44">
         <v>2210.9</v>
       </c>
       <c r="I177">
@@ -8393,30 +8396,30 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+      <c r="A178" s="2">
         <v>44692</v>
       </c>
-      <c r="B178" s="50">
+      <c r="B178">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C178" s="50">
+      <c r="C178">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="D178" s="51">
+      <c r="D178" s="44">
         <v>2697</v>
       </c>
-      <c r="E178" s="51">
+      <c r="E178" s="44">
         <v>2265.39</v>
       </c>
-      <c r="F178" s="51">
+      <c r="F178" s="44">
         <v>431.61</v>
       </c>
-      <c r="G178" s="51">
-        <v>0</v>
-      </c>
-      <c r="H178" s="51">
+      <c r="G178" s="44">
+        <v>0</v>
+      </c>
+      <c r="H178" s="44">
         <v>1614.29</v>
       </c>
       <c r="I178">
@@ -8424,30 +8427,30 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
+      <c r="A179" s="2">
         <v>44693</v>
       </c>
-      <c r="B179" s="50">
+      <c r="B179">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C179" s="50">
+      <c r="C179">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="D179" s="51">
+      <c r="D179" s="44">
         <v>5016.97</v>
       </c>
-      <c r="E179" s="51">
+      <c r="E179" s="44">
         <v>3192.75</v>
       </c>
-      <c r="F179" s="51">
+      <c r="F179" s="44">
         <v>1824.22</v>
       </c>
-      <c r="G179" s="51">
-        <v>0</v>
-      </c>
-      <c r="H179" s="51">
+      <c r="G179" s="44">
+        <v>0</v>
+      </c>
+      <c r="H179" s="44">
         <v>2935.17</v>
       </c>
       <c r="I179">
@@ -8455,30 +8458,30 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
+      <c r="A180" s="2">
         <v>44695</v>
       </c>
-      <c r="B180" s="50">
+      <c r="B180">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C180" s="50">
+      <c r="C180">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="D180" s="51">
+      <c r="D180" s="44">
         <v>6474.39</v>
       </c>
-      <c r="E180" s="51">
+      <c r="E180" s="44">
         <v>4850.71</v>
       </c>
-      <c r="F180" s="51">
+      <c r="F180" s="44">
         <v>1400.68</v>
       </c>
-      <c r="G180" s="51">
+      <c r="G180" s="44">
         <v>223</v>
       </c>
-      <c r="H180" s="51">
+      <c r="H180" s="44">
         <v>3760.14</v>
       </c>
       <c r="I180">
@@ -8486,30 +8489,30 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
+      <c r="A181" s="2">
         <v>44696</v>
       </c>
-      <c r="B181" s="50">
+      <c r="B181">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C181" s="50">
+      <c r="C181">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="D181" s="51">
+      <c r="D181" s="44">
         <v>2278.7600000000002</v>
       </c>
-      <c r="E181" s="51">
+      <c r="E181" s="44">
         <v>2011.17</v>
       </c>
-      <c r="F181" s="51">
+      <c r="F181" s="44">
         <v>267.58999999999997</v>
       </c>
-      <c r="G181" s="51">
-        <v>0</v>
-      </c>
-      <c r="H181" s="51">
+      <c r="G181" s="44">
+        <v>0</v>
+      </c>
+      <c r="H181" s="44">
         <v>1349.34</v>
       </c>
       <c r="I181">
@@ -8517,30 +8520,30 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+      <c r="A182" s="2">
         <v>44709</v>
       </c>
-      <c r="B182" s="50">
+      <c r="B182">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C182" s="50">
+      <c r="C182">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="D182" s="51">
+      <c r="D182" s="44">
         <v>3786.59</v>
       </c>
-      <c r="E182" s="51">
+      <c r="E182" s="44">
         <v>3228.34</v>
       </c>
-      <c r="F182" s="51">
+      <c r="F182" s="44">
         <v>376.56</v>
       </c>
-      <c r="G182" s="51">
+      <c r="G182" s="44">
         <v>181.69</v>
       </c>
-      <c r="H182" s="51">
+      <c r="H182" s="44">
         <v>2274.87</v>
       </c>
       <c r="I182">
@@ -8548,30 +8551,30 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
+      <c r="A183" s="2">
         <v>44710</v>
       </c>
-      <c r="B183" s="50">
+      <c r="B183">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="C183" s="50">
+      <c r="C183">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="D183" s="51">
+      <c r="D183" s="44">
         <v>3963.06</v>
       </c>
-      <c r="E183" s="51">
+      <c r="E183" s="44">
         <v>3963.06</v>
       </c>
-      <c r="F183" s="51">
-        <v>0</v>
-      </c>
-      <c r="G183" s="51">
-        <v>0</v>
-      </c>
-      <c r="H183" s="51">
+      <c r="F183" s="44">
+        <v>0</v>
+      </c>
+      <c r="G183" s="44">
+        <v>0</v>
+      </c>
+      <c r="H183" s="44">
         <v>2283.02</v>
       </c>
       <c r="I183">
@@ -8579,30 +8582,30 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
+      <c r="A184" s="2">
         <v>44618</v>
       </c>
-      <c r="B184" s="50">
+      <c r="B184">
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="C184" s="50">
+      <c r="C184">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="D184" s="51">
+      <c r="D184" s="44">
         <v>7506.01</v>
       </c>
-      <c r="E184" s="51">
+      <c r="E184" s="44">
         <v>4240.6499999999996</v>
       </c>
-      <c r="F184" s="51">
+      <c r="F184" s="44">
         <v>3265.36</v>
       </c>
-      <c r="G184" s="51">
-        <v>0</v>
-      </c>
-      <c r="H184" s="51">
+      <c r="G184" s="44">
+        <v>0</v>
+      </c>
+      <c r="H184" s="44">
         <v>4222.74</v>
       </c>
       <c r="I184">
@@ -8614,55 +8617,6 @@
     <mergeCell ref="K13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="Q4:Q8">
-    <cfRule type="iconSet" priority="7">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{61A26A7A-CF06-407E-8E73-B75C9E7D948E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P8">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0CE60FC7-E93A-43FD-87E3-33C538A592F7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R4:R8">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7A68EB9D-668F-4349-A03A-4929245A877F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N15:N21">
     <cfRule type="dataBar" priority="3">
       <dataBar>
@@ -8691,6 +8645,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P4:P8">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0CE60FC7-E93A-43FD-87E3-33C538A592F7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P15:P21">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -8705,6 +8673,41 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:Q8">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{61A26A7A-CF06-407E-8E73-B75C9E7D948E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:R8">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7A68EB9D-668F-4349-A03A-4929245A877F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{07D1794E-2D80-479F-805E-E7AEF1579975}">
       <formula1>"1,2,3,4,5,6,7"</formula1>
@@ -8715,45 +8718,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{61A26A7A-CF06-407E-8E73-B75C9E7D948E}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>Q4:Q8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0CE60FC7-E93A-43FD-87E3-33C538A592F7}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P4:P8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7A68EB9D-668F-4349-A03A-4929245A877F}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>R4:R8</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{83840ACF-60BB-4474-A82A-CCB46564EAD3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -8777,6 +8741,19 @@
           <xm:sqref>O15:O21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0CE60FC7-E93A-43FD-87E3-33C538A592F7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P4:P8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{501A4DFA-21DE-42CF-BAD7-E8DE206E9CF9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -8786,6 +8763,32 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>P15:P21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{61A26A7A-CF06-407E-8E73-B75C9E7D948E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q4:Q8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7A68EB9D-668F-4349-A03A-4929245A877F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R4:R8</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8812,60 +8815,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>28333.934600000001</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>21584.245800000001</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>24285.437999999998</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>22525.869900000002</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>27973.243200000001</v>
       </c>
     </row>
@@ -8873,37 +8876,37 @@
       <c r="A3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>14782.922399999999</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>19923.9192</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>26713.981800000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>20154.725699999999</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>26641.184000000001</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8911,38 +8914,38 @@
       <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>27102.024399999998</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>25458.341199999999</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>23071.166099999999</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>23711.441999999999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>30637.3616</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>3</v>
       </c>
-      <c r="L4" s="8" t="str">
+      <c r="L4" s="7" t="str">
         <f>VLOOKUP(K4,B2:H6,2,0)</f>
         <v>Sandra Blanco</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <f>HLOOKUP(M4,D1:H6,K4+1,0)</f>
         <v>23711.441999999999</v>
       </c>
@@ -8951,25 +8954,25 @@
       <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>22174.383600000001</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>23244.572400000001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>20642.622299999999</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>24897.0141</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>25309.124800000001</v>
       </c>
     </row>
@@ -8977,62 +8980,62 @@
       <c r="A6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>30797.755000000001</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>20477.361400000002</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>26713.981800000001</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>27268.158299999999</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>22645.006399999998</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f>INDEX(B2:H6,MATCH(C11,C2:C6,0),1)</f>
         <v>5</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f>INDEX(B2:H6,D11,MATCH(E11,B1:H1,0))</f>
         <v>27268.158299999999</v>
       </c>
@@ -9075,7 +9078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B68A6B-4F66-49B3-AEDB-48F8AD760459}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -9093,265 +9096,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>2022</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>123191.02</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>45580.68</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>34493.49</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>43116.86</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="27" t="str">
+      <c r="G2" s="16"/>
+      <c r="H2" s="26" t="str">
         <f>IF(C2&lt;130000,IF(C2&lt;111000,"Venta Baja","Venta Promedio"),"Ventas Altas")</f>
         <v>Venta Promedio</v>
       </c>
-      <c r="I2" s="16" t="str">
+      <c r="I2" s="15" t="str">
         <f>IF(B2=2022,IF(C2&gt;120000,"Ventas Exitosas","Ventas Bajas"),"Otro año")</f>
         <v>Ventas Exitosas</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="29">
         <f>IF(B2=2022,C2,"No corresponde")</f>
         <v>123191.02</v>
       </c>
-      <c r="K2" s="16" t="str">
+      <c r="K2" s="15" t="str">
         <f>IF(AND(B2=2023,C2&gt;130000),C2,"No cumple")</f>
         <v>No cumple</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="21">
         <f>IF(B2=2022,AVERAGE(D2:F2),"No Cumple")</f>
         <v>41063.676666666666</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="22">
         <f>IF(OR(B2=2023,F2&gt;40000),C2,"No cumple")</f>
         <v>123191.02</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>2022</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>110688.44</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>41884.949999999997</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>35725.4</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>33078.1</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="27" t="str">
+      <c r="G3" s="16"/>
+      <c r="H3" s="26" t="str">
         <f t="shared" ref="H3:H6" si="0">IF(C3&lt;130000,IF(C3&lt;111000,"Venta Baja","Venta Promedio"),"Ventas Altas")</f>
         <v>Venta Baja</v>
       </c>
-      <c r="I3" s="16" t="str">
+      <c r="I3" s="15" t="str">
         <f t="shared" ref="I3:I6" si="1">IF(B3=2022,IF(C3&gt;120000,"Ventas Exitosas","Ventas Bajas"),"Otro año")</f>
         <v>Ventas Bajas</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="29">
         <f t="shared" ref="J3:J6" si="2">IF(B3=2022,C3,"No corresponde")</f>
         <v>110688.44</v>
       </c>
-      <c r="K3" s="16" t="str">
+      <c r="K3" s="15" t="str">
         <f t="shared" ref="K3:K6" si="3">IF(AND(B3=2023,C3&gt;130000),C3,"No cumple")</f>
         <v>No cumple</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="21">
         <f t="shared" ref="L3:L6" si="4">IF(B3=2022,AVERAGE(D3:F3),"No Cumple")</f>
         <v>36896.15</v>
       </c>
-      <c r="M3" s="23" t="str">
+      <c r="M3" s="22" t="str">
         <f t="shared" ref="M3:M6" si="5">IF(OR(B3=2023,F3&gt;40000),C3,"No cumple")</f>
         <v>No cumple</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>2023</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>121427.19</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>44348.77</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>36957.31</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>40121.120000000003</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="27" t="str">
+      <c r="G4" s="16"/>
+      <c r="H4" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Venta Promedio</v>
       </c>
-      <c r="I4" s="16" t="str">
+      <c r="I4" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Otro año</v>
       </c>
-      <c r="J4" s="30" t="str">
+      <c r="J4" s="29" t="str">
         <f t="shared" si="2"/>
         <v>No corresponde</v>
       </c>
-      <c r="K4" s="16" t="str">
+      <c r="K4" s="15" t="str">
         <f t="shared" si="3"/>
         <v>No cumple</v>
       </c>
-      <c r="L4" s="22" t="str">
+      <c r="L4" s="21" t="str">
         <f t="shared" si="4"/>
         <v>No Cumple</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="22">
         <f t="shared" si="5"/>
         <v>121427.19</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>2022</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>118557.21</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>43116.86</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>36957.31</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>38483.050000000003</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="27" t="str">
+      <c r="G5" s="16"/>
+      <c r="H5" s="26" t="str">
         <f t="shared" si="0"/>
         <v>Venta Promedio</v>
       </c>
-      <c r="I5" s="16" t="str">
+      <c r="I5" s="15" t="str">
         <f t="shared" si="1"/>
         <v>Ventas Bajas</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="29">
         <f t="shared" si="2"/>
         <v>118557.21</v>
       </c>
-      <c r="K5" s="16" t="str">
+      <c r="K5" s="15" t="str">
         <f t="shared" si="3"/>
         <v>No cumple</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="21">
         <f t="shared" si="4"/>
         <v>39519.073333333334</v>
       </c>
-      <c r="M5" s="23" t="str">
+      <c r="M5" s="22" t="str">
         <f t="shared" si="5"/>
         <v>No cumple</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>2023</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>133205.92000000001</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>43116.86</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>34493.49</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>48092.27</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="28" t="str">
+      <c r="G6" s="16"/>
+      <c r="H6" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Ventas Altas</v>
       </c>
-      <c r="I6" s="29" t="str">
+      <c r="I6" s="28" t="str">
         <f t="shared" si="1"/>
         <v>Otro año</v>
       </c>
-      <c r="J6" s="31" t="str">
+      <c r="J6" s="30" t="str">
         <f t="shared" si="2"/>
         <v>No corresponde</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="23">
         <f t="shared" si="3"/>
         <v>133205.92000000001</v>
       </c>
-      <c r="L6" s="24" t="str">
+      <c r="L6" s="23" t="str">
         <f t="shared" si="4"/>
         <v>No Cumple</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="24">
         <f t="shared" si="5"/>
         <v>133205.92000000001</v>
       </c>
@@ -9386,103 +9389,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="M1" s="48" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="M1" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="P1" s="49" t="s">
+      <c r="N1" s="57"/>
+      <c r="P1" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="49"/>
+      <c r="Q1" s="58"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <v>9280</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="36">
         <v>9280</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="36">
         <v>9260</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="36">
         <v>9280</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="37">
         <v>9280</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="41">
         <f>SUM(B2:F2)</f>
         <v>46380</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>2336.08</v>
       </c>
-      <c r="C3" s="37">
-        <v>0</v>
-      </c>
-      <c r="D3" s="37">
+      <c r="C3" s="36">
+        <v>0</v>
+      </c>
+      <c r="D3" s="36">
         <v>2397.6799999999998</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="36">
         <v>2908.12</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="37">
         <v>3887.16</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="41">
         <f t="shared" ref="G3:G10" si="0">SUM(B3:F3)</f>
         <v>11529.04</v>
       </c>
@@ -9492,211 +9495,211 @@
       <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f>INDEX(B2:F10,MATCH(I3,A2:A10,0),MATCH(J3,B1:F1,0))</f>
         <v>2500</v>
       </c>
       <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <f>INDEX(B2:F11,10,MATCH(M3,B1:F1,0))</f>
         <v>28565.140000000003</v>
       </c>
       <c r="P3" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <f>INDEX(G2:G10,MATCH(P3,A2:A10,0),1)</f>
         <v>2267.56</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>550</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>550</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>550</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <v>550</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <v>550</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="41">
         <f t="shared" si="0"/>
         <v>2750</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>2433.36</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>2684.08</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>2240</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="36">
         <v>2628</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="37">
         <v>2623.5</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="41">
         <f t="shared" si="0"/>
         <v>12608.94</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="37">
-        <v>0</v>
-      </c>
-      <c r="C6" s="37">
+      <c r="B6" s="36">
+        <v>0</v>
+      </c>
+      <c r="C6" s="36">
         <v>2500</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="36">
         <v>2500</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>2500</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <v>2500</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="41">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="37">
-        <v>0</v>
-      </c>
-      <c r="C7" s="37">
-        <v>0</v>
-      </c>
-      <c r="D7" s="37">
+      <c r="B7" s="36">
+        <v>0</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0</v>
+      </c>
+      <c r="D7" s="36">
         <v>660.75</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="36">
         <v>660.75</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="37">
         <v>660.75</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="41">
         <f t="shared" si="0"/>
         <v>1982.25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="36">
         <v>13100</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <v>13050</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>15760</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>17432</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <v>15620</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="41">
         <f t="shared" si="0"/>
         <v>74962</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>305</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>381.56</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>62.5</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <v>818.5</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="37">
         <v>700</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="41">
         <f t="shared" si="0"/>
         <v>2267.56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="38">
         <v>152</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="38">
         <v>119.5</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="38">
         <v>290</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="38">
         <v>917</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="39">
         <v>354.5</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="41">
         <f t="shared" si="0"/>
         <v>1833</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="42">
+      <c r="B11" s="41">
         <f>SUM(B2:B10)</f>
         <v>28156.440000000002</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="41">
         <f>SUM(C2:C10)</f>
         <v>28565.140000000003</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="41">
         <f>SUM(D2:D10)</f>
         <v>33720.93</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="41">
         <f>SUM(E2:E10)</f>
         <v>37694.369999999995</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="41">
         <f>SUM(F2:F10)</f>
         <v>36175.910000000003</v>
       </c>
@@ -9769,30 +9772,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF169ED-0A5B-4E85-A1DC-CF4116D4BB32}">
-  <dimension ref="B2:H3"/>
+  <dimension ref="B2:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="59" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -9802,16 +9806,70 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="2"/>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="15">
+        <v>121322</v>
+      </c>
+      <c r="D3" s="60">
+        <v>44938</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{F36251BB-56F4-43B9-B232-3A615DD60EE7}">
+      <formula1>"Si,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3CE026AB-205D-4A37-92F4-1A7D62EC7FED}">
+          <x14:formula1>
+            <xm:f>'Ventas x tienda'!$D$1:$F$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F6409F9B-C6EA-412C-8E35-B550196A2BD7}">
+          <x14:formula1>
+            <xm:f>'Ventas x vendedor'!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{314CFB64-CA4F-4FEC-8B22-9AD8789EE513}">
+          <x14:formula1>
+            <xm:f>Ventas!$E$1:$G$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>I3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420C4E7C-0E5C-4299-B24C-E5F49AD0A540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9DD9FB-BF7A-46ED-8B63-E91AFA0EB1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
   <si>
     <t>Vendedor</t>
   </si>
@@ -293,10 +293,19 @@
     <t>ID Vendedor</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Nombre</t>
   </si>
   <si>
-    <t>Jose</t>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Fecha Compra</t>
+  </si>
+  <si>
+    <t>Requiere Factura</t>
+  </si>
+  <si>
+    <t>Forma de Pago</t>
   </si>
 </sst>
 </file>
@@ -9772,15 +9781,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF169ED-0A5B-4E85-A1DC-CF4116D4BB32}">
-  <dimension ref="B2:I3"/>
+  <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -9790,58 +9800,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="str">
+        <f>IFERROR(INDEX('Ventas x vendedor'!B2:C6,MATCH('Registro clientes'!C6,'Ventas x vendedor'!C2:C6,0),1)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D13" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="15">
-        <v>121322</v>
-      </c>
-      <c r="D3" s="60">
-        <v>44938</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>11</v>
-      </c>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{F36251BB-56F4-43B9-B232-3A615DD60EE7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{F36251BB-56F4-43B9-B232-3A615DD60EE7}">
       <formula1>"Si,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9854,19 +9895,19 @@
           <x14:formula1>
             <xm:f>'Ventas x tienda'!$D$1:$F$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E3</xm:sqref>
+          <xm:sqref>C5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F6409F9B-C6EA-412C-8E35-B550196A2BD7}">
           <x14:formula1>
             <xm:f>'Ventas x vendedor'!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F3</xm:sqref>
+          <xm:sqref>C6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{314CFB64-CA4F-4FEC-8B22-9AD8789EE513}">
           <x14:formula1>
             <xm:f>Ventas!$E$1:$G$1</xm:f>
           </x14:formula1>
-          <xm:sqref>I3</xm:sqref>
+          <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,25 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9DD9FB-BF7A-46ED-8B63-E91AFA0EB1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB38EBE-21D0-44C0-9E7B-308D7E89CD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="3" r:id="rId1"/>
     <sheet name="Ventas x vendedor" sheetId="5" r:id="rId2"/>
     <sheet name="Ventas x tienda" sheetId="6" r:id="rId3"/>
-    <sheet name="Gastos mensuales" sheetId="7" r:id="rId4"/>
-    <sheet name="Registro clientes" sheetId="8" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="9" r:id="rId4"/>
+    <sheet name="Gastos mensuales" sheetId="7" r:id="rId5"/>
+    <sheet name="Registro clientes" sheetId="8" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ventas!$A$1:$I$184</definedName>
     <definedName name="JR_PAGE_ANCHOR_0_1">[1]Ventas!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="11" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
   <si>
     <t>Vendedor</t>
   </si>
@@ -307,15 +311,34 @@
   <si>
     <t>Forma de Pago</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Suma de Marzo</t>
+  </si>
+  <si>
+    <t>Suma de Abril</t>
+  </si>
+  <si>
+    <t>Suma de Promedio total marzo-abril</t>
+  </si>
+  <si>
+    <t>Suma de Total por Concepto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode=";;;"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -624,7 +647,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -722,6 +745,12 @@
     <xf numFmtId="44" fontId="1" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -740,12 +769,9 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -1634,6 +1660,946 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Gastos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> Totales por Concepto</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Renta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etiquetas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Flete pedido</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Redes sociales</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sistema</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Otros gastos</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mantenimiento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gastos mensuales'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2336.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2433.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC0B-4906-9E75-3AFEFF057F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Renta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etiquetas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Flete pedido</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Redes sociales</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sistema</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Otros gastos</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mantenimiento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gastos mensuales'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2684.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>381.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC0B-4906-9E75-3AFEFF057F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Renta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etiquetas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Flete pedido</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Redes sociales</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sistema</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Otros gastos</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mantenimiento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gastos mensuales'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9260</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2397.6799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>660.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15760</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EC0B-4906-9E75-3AFEFF057F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Abril</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Renta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etiquetas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Flete pedido</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Redes sociales</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sistema</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Otros gastos</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mantenimiento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gastos mensuales'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2908.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>660.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17432</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>818.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EC0B-4906-9E75-3AFEFF057F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Renta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etiquetas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Flete pedido</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Redes sociales</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sistema</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Otros gastos</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mantenimiento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gastos mensuales'!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3887.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2623.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>660.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15620</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>354.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EC0B-4906-9E75-3AFEFF057F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1358391023"/>
+        <c:axId val="1249273007"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1358391023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1249273007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1249273007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358391023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1642,6 +2608,43 @@
   <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2170,6 +3173,508 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2191,6 +3696,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8A42F7-5B3F-D0D3-2093-EB3E91F64B6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF25E3A-FB73-F057-FFF6-E10704B57034}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,6 +3808,244 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeinfferson B" refreshedDate="45143.318033101852" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{05ED5F61-310A-475E-BA44-13CFE1031286}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F10" sheet="Gastos mensuales"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Mes" numFmtId="0">
+      <sharedItems count="9">
+        <s v="Renta"/>
+        <s v="Etiquetas"/>
+        <s v="Internet"/>
+        <s v="Flete pedido"/>
+        <s v="Redes sociales"/>
+        <s v="Sistema"/>
+        <s v="Sueldos"/>
+        <s v="Otros gastos"/>
+        <s v="Mantenimiento"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Enero" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="13100"/>
+    </cacheField>
+    <cacheField name="Febrero" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="13050"/>
+    </cacheField>
+    <cacheField name="Marzo" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="62.5" maxValue="15760" count="9">
+        <n v="9260"/>
+        <n v="2397.6799999999998"/>
+        <n v="550"/>
+        <n v="2240"/>
+        <n v="2500"/>
+        <n v="660.75"/>
+        <n v="15760"/>
+        <n v="62.5"/>
+        <n v="290"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Abril" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="550" maxValue="17432"/>
+    </cacheField>
+    <cacheField name="Mayo" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="354.5" maxValue="15620"/>
+    </cacheField>
+    <cacheField name="Promedio total marzo-abril" numFmtId="0" formula="AVERAGE(Marzo,Abril )" databaseField="0"/>
+    <cacheField name="Total por Concepto" numFmtId="0" formula="Enero +Febrero +Marzo +Abril +Mayo" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
+  <r>
+    <x v="0"/>
+    <n v="9280"/>
+    <n v="9280"/>
+    <x v="0"/>
+    <n v="9280"/>
+    <n v="9280"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2336.08"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="2908.12"/>
+    <n v="3887.16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="550"/>
+    <n v="550"/>
+    <x v="2"/>
+    <n v="550"/>
+    <n v="550"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2433.36"/>
+    <n v="2684.08"/>
+    <x v="3"/>
+    <n v="2628"/>
+    <n v="2623.5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="2500"/>
+    <x v="4"/>
+    <n v="2500"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="5"/>
+    <n v="660.75"/>
+    <n v="660.75"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="13100"/>
+    <n v="13050"/>
+    <x v="6"/>
+    <n v="17432"/>
+    <n v="15620"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="305"/>
+    <n v="381.56"/>
+    <x v="7"/>
+    <n v="818.5"/>
+    <n v="700"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="152"/>
+    <n v="119.5"/>
+    <x v="8"/>
+    <n v="917"/>
+    <n v="354.5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14230B4B-7596-48D2-BD9B-3511F1D42C7A}" name="TablaDinámica3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0">
+      <items count="10">
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Suma de Marzo" fld="3" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="Suma de Abril" fld="4" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="Suma de Promedio total marzo-abril" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Suma de Total por Concepto" fld="7" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2563,7 +4347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C0ADA3-4C22-4CF9-8AD3-3A127D5F6CB1}">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -3174,10 +4958,10 @@
       <c r="I13">
         <v>48</v>
       </c>
-      <c r="K13" s="53" t="s">
+      <c r="K13" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="53"/>
+      <c r="L13" s="55"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -3272,6 +5056,9 @@
       <c r="P15" s="3">
         <f>SUMIF(C2:C184,K15:K21,F2:F184)</f>
         <v>11183.015000000003</v>
+      </c>
+      <c r="R15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -8848,12 +10635,12 @@
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -9012,12 +10799,12 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="12" t="s">
@@ -9087,7 +10874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B68A6B-4F66-49B3-AEDB-48F8AD760459}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -9375,11 +11162,207 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D0FF2D-CC89-4DEC-8A31-5D5CCE8E047E}">
+  <dimension ref="A3:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="63">
+        <v>2397.6799999999998</v>
+      </c>
+      <c r="C4" s="63">
+        <v>2908.12</v>
+      </c>
+      <c r="D4" s="62">
+        <v>2652.8999999999996</v>
+      </c>
+      <c r="E4" s="62">
+        <v>11529.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="63">
+        <v>2240</v>
+      </c>
+      <c r="C5" s="63">
+        <v>2628</v>
+      </c>
+      <c r="D5" s="62">
+        <v>2434</v>
+      </c>
+      <c r="E5" s="62">
+        <v>12608.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="63">
+        <v>550</v>
+      </c>
+      <c r="C6" s="63">
+        <v>550</v>
+      </c>
+      <c r="D6" s="62">
+        <v>550</v>
+      </c>
+      <c r="E6" s="62">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="63">
+        <v>290</v>
+      </c>
+      <c r="C7" s="63">
+        <v>917</v>
+      </c>
+      <c r="D7" s="62">
+        <v>603.5</v>
+      </c>
+      <c r="E7" s="62">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="63">
+        <v>62.5</v>
+      </c>
+      <c r="C8" s="63">
+        <v>818.5</v>
+      </c>
+      <c r="D8" s="62">
+        <v>440.5</v>
+      </c>
+      <c r="E8" s="62">
+        <v>2267.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="63">
+        <v>2500</v>
+      </c>
+      <c r="C9" s="63">
+        <v>2500</v>
+      </c>
+      <c r="D9" s="62">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="62">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="63">
+        <v>9260</v>
+      </c>
+      <c r="C10" s="63">
+        <v>9280</v>
+      </c>
+      <c r="D10" s="62">
+        <v>9270</v>
+      </c>
+      <c r="E10" s="62">
+        <v>46380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="63">
+        <v>660.75</v>
+      </c>
+      <c r="C11" s="63">
+        <v>660.75</v>
+      </c>
+      <c r="D11" s="62">
+        <v>660.75</v>
+      </c>
+      <c r="E11" s="62">
+        <v>1982.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="63">
+        <v>15760</v>
+      </c>
+      <c r="C12" s="63">
+        <v>17432</v>
+      </c>
+      <c r="D12" s="62">
+        <v>16596</v>
+      </c>
+      <c r="E12" s="62">
+        <v>74962</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9D3D7-F34D-4A34-8B58-0EC02683C78D}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9416,19 +11399,19 @@
       <c r="F1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="M1" s="57" t="s">
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="M1" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="P1" s="58" t="s">
+      <c r="N1" s="59"/>
+      <c r="P1" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="58"/>
+      <c r="Q1" s="60"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -9499,28 +11482,28 @@
         <v>11529.04</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" s="3">
         <f>INDEX(B2:F10,MATCH(I3,A2:A10,0),MATCH(J3,B1:F1,0))</f>
-        <v>2500</v>
+        <v>660.75</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" s="3">
         <f>INDEX(B2:F11,10,MATCH(M3,B1:F1,0))</f>
-        <v>28565.140000000003</v>
+        <v>33720.93</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="3">
         <f>INDEX(G2:G10,MATCH(P3,A2:A10,0),1)</f>
-        <v>2267.56</v>
+        <v>1982.25</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -9711,18 +11694,6 @@
       <c r="F11" s="41">
         <f>SUM(F2:F10)</f>
         <v>36175.910000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>INDEX(A1:F10,4,1)</f>
-        <v>Internet</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f>MATCH("Febrero",A1:F1,0)</f>
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9757,6 +11728,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -9779,11 +11751,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF169ED-0A5B-4E85-A1DC-CF4116D4BB32}">
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -9851,7 +11823,7 @@
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -9873,7 +11845,7 @@
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="60"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB38EBE-21D0-44C0-9E7B-308D7E89CD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9556E535-6CD6-4EF0-9405-0E9ACAF715A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Ventas" sheetId="3" r:id="rId1"/>
     <sheet name="Ventas x vendedor" sheetId="5" r:id="rId2"/>
     <sheet name="Ventas x tienda" sheetId="6" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="9" r:id="rId4"/>
+    <sheet name="TD Gastos mensuales" sheetId="9" r:id="rId4"/>
     <sheet name="Gastos mensuales" sheetId="7" r:id="rId5"/>
     <sheet name="Registro clientes" sheetId="8" r:id="rId6"/>
   </sheets>
@@ -26,12 +26,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ventas!$A$1:$I$184</definedName>
     <definedName name="JR_PAGE_ANCHOR_0_1">[1]Ventas!#REF!</definedName>
+    <definedName name="SegmentaciónDeDatos_Mes">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId8"/>
+    <pivotCache cacheId="15" r:id="rId8"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId9"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -40,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
   <si>
     <t>Vendedor</t>
   </si>
@@ -1673,6 +1682,1249 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[ventas_original.xlsx]TD Gastos mensuales!TablaDinámica3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TD Gastos mensuales'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Marzo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TD Gastos mensuales'!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Etiquetas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Flete pedido</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mantenimiento</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Redes sociales</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sistema</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TD Gastos mensuales'!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>"$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2397.6799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>660.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15760</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B530-42B1-9CD3-232A0F450F3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TD Gastos mensuales'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Abril</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TD Gastos mensuales'!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Etiquetas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Flete pedido</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mantenimiento</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Redes sociales</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sistema</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TD Gastos mensuales'!$C$4:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>"$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2908.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>660.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B530-42B1-9CD3-232A0F450F3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TD Gastos mensuales'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Promedio total marzo-abril</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TD Gastos mensuales'!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Etiquetas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Flete pedido</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mantenimiento</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Redes sociales</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sistema</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TD Gastos mensuales'!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2652.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2434</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>603.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>660.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B530-42B1-9CD3-232A0F450F3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TD Gastos mensuales'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suma de Total por Concepto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TD Gastos mensuales'!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Etiquetas</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Flete pedido</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mantenimiento</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Redes sociales</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sistema</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TD Gastos mensuales'!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11529.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12608.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1982.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B530-42B1-9CD3-232A0F450F3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1174996479"/>
+        <c:axId val="1371926127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1174996479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1371926127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1371926127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174996479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2641,6 +3893,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -3174,6 +4466,508 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3718,6 +5512,125 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Mes">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B1BA75-62A5-DE85-3684-56E54BC66C20}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Mes"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7172325" y="381000"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499B2B71-B62E-09F9-8E6D-C38A4EFF2AC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -3830,10 +5743,28 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Enero" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="13100"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="13100" count="8">
+        <n v="9280"/>
+        <n v="2336.08"/>
+        <n v="550"/>
+        <n v="2433.36"/>
+        <n v="0"/>
+        <n v="13100"/>
+        <n v="305"/>
+        <n v="152"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Febrero" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="13050"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="13050" count="8">
+        <n v="9280"/>
+        <n v="0"/>
+        <n v="550"/>
+        <n v="2684.08"/>
+        <n v="2500"/>
+        <n v="13050"/>
+        <n v="381.56"/>
+        <n v="119.5"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Marzo" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="62.5" maxValue="15760" count="9">
@@ -3849,17 +5780,37 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Abril" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="550" maxValue="17432"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="550" maxValue="17432" count="9">
+        <n v="9280"/>
+        <n v="2908.12"/>
+        <n v="550"/>
+        <n v="2628"/>
+        <n v="2500"/>
+        <n v="660.75"/>
+        <n v="17432"/>
+        <n v="818.5"/>
+        <n v="917"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Mayo" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="354.5" maxValue="15620"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="354.5" maxValue="15620" count="9">
+        <n v="9280"/>
+        <n v="3887.16"/>
+        <n v="550"/>
+        <n v="2623.5"/>
+        <n v="2500"/>
+        <n v="660.75"/>
+        <n v="15620"/>
+        <n v="700"/>
+        <n v="354.5"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Promedio total marzo-abril" numFmtId="0" formula="AVERAGE(Marzo,Abril )" databaseField="0"/>
     <cacheField name="Total por Concepto" numFmtId="0" formula="Enero +Febrero +Marzo +Abril +Mayo" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="731672605"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -3869,82 +5820,82 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
   <r>
     <x v="0"/>
-    <n v="9280"/>
-    <n v="9280"/>
     <x v="0"/>
-    <n v="9280"/>
-    <n v="9280"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="2336.08"/>
-    <n v="0"/>
     <x v="1"/>
-    <n v="2908.12"/>
-    <n v="3887.16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="550"/>
-    <n v="550"/>
     <x v="2"/>
-    <n v="550"/>
-    <n v="550"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="2433.36"/>
-    <n v="2684.08"/>
     <x v="3"/>
-    <n v="2628"/>
-    <n v="2623.5"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="0"/>
-    <n v="2500"/>
     <x v="4"/>
-    <n v="2500"/>
-    <n v="2500"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="4"/>
+    <x v="1"/>
     <x v="5"/>
-    <n v="660.75"/>
-    <n v="660.75"/>
+    <x v="5"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="6"/>
-    <n v="13100"/>
-    <n v="13050"/>
+    <x v="5"/>
+    <x v="5"/>
     <x v="6"/>
-    <n v="17432"/>
-    <n v="15620"/>
+    <x v="6"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="7"/>
-    <n v="305"/>
-    <n v="381.56"/>
+    <x v="6"/>
+    <x v="6"/>
     <x v="7"/>
-    <n v="818.5"/>
-    <n v="700"/>
+    <x v="7"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="8"/>
-    <n v="152"/>
-    <n v="119.5"/>
+    <x v="7"/>
+    <x v="7"/>
     <x v="8"/>
-    <n v="917"/>
-    <n v="354.5"/>
+    <x v="8"/>
+    <x v="8"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14230B4B-7596-48D2-BD9B-3511F1D42C7A}" name="TablaDinámica3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E12" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14230B4B-7596-48D2-BD9B-3511F1D42C7A}" name="TablaDinámica3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
@@ -3952,16 +5903,40 @@
         <item x="3"/>
         <item x="2"/>
         <item x="8"/>
-        <item x="7"/>
+        <item h="1" x="7"/>
         <item x="4"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="5"/>
         <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0">
+      <items count="9">
+        <item x="1"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" numFmtId="164" showAll="0">
       <items count="10">
         <item x="7"/>
@@ -3976,15 +5951,41 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0">
+      <items count="10">
+        <item x="2"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0">
+      <items count="10">
+        <item x="8"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -3998,13 +5999,7 @@
       <x v="3"/>
     </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i>
       <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
     </i>
     <i>
       <x v="7"/>
@@ -4036,6 +6031,44 @@
     <dataField name="Suma de Promedio total marzo-abril" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
     <dataField name="Suma de Total por Concepto" fld="7" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -4046,6 +6079,35 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Mes" xr10:uid="{37AE8294-B539-4AE1-A65E-B40527D3FF64}" sourceName="Mes">
+  <pivotTables>
+    <pivotTable tabId="9" name="TablaDinámica3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="731672605">
+      <items count="9">
+        <i x="1" s="1"/>
+        <i x="3" s="1"/>
+        <i x="2" s="1"/>
+        <i x="8" s="1"/>
+        <i x="7"/>
+        <i x="4" s="1"/>
+        <i x="0"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Mes" xr10:uid="{E0A84BD0-B3B7-4135-8038-9A9C36746A45}" cache="SegmentaciónDeDatos_Mes" caption="Mes" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11163,10 +13225,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D0FF2D-CC89-4DEC-8A31-5D5CCE8E047E}">
-  <dimension ref="A3:E12"/>
+  <dimension ref="A3:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11268,92 +13330,66 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="63">
-        <v>62.5</v>
+        <v>2500</v>
       </c>
       <c r="C8" s="63">
-        <v>818.5</v>
+        <v>2500</v>
       </c>
       <c r="D8" s="62">
-        <v>440.5</v>
+        <v>2500</v>
       </c>
       <c r="E8" s="62">
-        <v>2267.56</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" s="63">
-        <v>2500</v>
+        <v>660.75</v>
       </c>
       <c r="C9" s="63">
-        <v>2500</v>
+        <v>660.75</v>
       </c>
       <c r="D9" s="62">
-        <v>2500</v>
+        <v>660.75</v>
       </c>
       <c r="E9" s="62">
-        <v>10000</v>
+        <v>1982.25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" s="63">
-        <v>9260</v>
+        <v>15760</v>
       </c>
       <c r="C10" s="63">
-        <v>9280</v>
+        <v>17432</v>
       </c>
       <c r="D10" s="62">
-        <v>9270</v>
+        <v>16596</v>
       </c>
       <c r="E10" s="62">
-        <v>46380</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="63">
-        <v>660.75</v>
-      </c>
-      <c r="C11" s="63">
-        <v>660.75</v>
-      </c>
-      <c r="D11" s="62">
-        <v>660.75</v>
-      </c>
-      <c r="E11" s="62">
-        <v>1982.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="63">
-        <v>15760</v>
-      </c>
-      <c r="C12" s="63">
-        <v>17432</v>
-      </c>
-      <c r="D12" s="62">
-        <v>16596</v>
-      </c>
-      <c r="E12" s="62">
         <v>74962</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11362,7 +13398,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,34 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9556E535-6CD6-4EF0-9405-0E9ACAF715A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE56B3B6-AF4E-4954-A6AA-9B4A79F4BA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="3" r:id="rId1"/>
-    <sheet name="Ventas x vendedor" sheetId="5" r:id="rId2"/>
-    <sheet name="Ventas x tienda" sheetId="6" r:id="rId3"/>
-    <sheet name="TD Gastos mensuales" sheetId="9" r:id="rId4"/>
-    <sheet name="Gastos mensuales" sheetId="7" r:id="rId5"/>
-    <sheet name="Registro clientes" sheetId="8" r:id="rId6"/>
+    <sheet name="Hoja3" sheetId="11" r:id="rId2"/>
+    <sheet name="Ventas x vendedor" sheetId="5" r:id="rId3"/>
+    <sheet name="Ventas x tienda" sheetId="6" r:id="rId4"/>
+    <sheet name="TD Gastos mensuales" sheetId="9" r:id="rId5"/>
+    <sheet name="Gastos mensuales" sheetId="7" r:id="rId6"/>
+    <sheet name="Registro clientes" sheetId="8" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ventas!$A$1:$I$184</definedName>
     <definedName name="JR_PAGE_ANCHOR_0_1">[1]Ventas!#REF!</definedName>
     <definedName name="SegmentaciónDeDatos_Mes">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Nombre_Vendedor">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId8"/>
+    <pivotCache cacheId="15" r:id="rId9"/>
+    <pivotCache cacheId="22" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId11"/>
+        <x14:slicerCache r:id="rId12"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
   <si>
     <t>Vendedor</t>
   </si>
@@ -324,6 +328,12 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
     <t>Etiquetas de fila</t>
   </si>
   <si>
@@ -337,6 +347,24 @@
   </si>
   <si>
     <t>Suma de Total por Concepto</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>ventas enero</t>
+  </si>
+  <si>
+    <t>ventas febrero</t>
+  </si>
+  <si>
+    <t>ventas marzo</t>
+  </si>
+  <si>
+    <t>ventas abril</t>
+  </si>
+  <si>
+    <t>ventas mayo</t>
   </si>
 </sst>
 </file>
@@ -656,7 +684,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -780,6 +808,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -806,6 +835,1594 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[ventas_original.xlsx]Hoja3!TablaDinámica5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="lt2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="lt2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="lt2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="lt2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jose Romero</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja3!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ventas enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ventas febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ventas marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ventas abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ventas mayo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22174.383600000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23244.572400000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20642.622299999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24897.0141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25309.124800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CECB-4443-A330-46F8777C9835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Juan Lopez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja3!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ventas enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ventas febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ventas marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ventas abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ventas mayo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28333.934600000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21584.245800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24285.437999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22525.869900000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27973.243200000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-CECB-4443-A330-46F8777C9835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maria González</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja3!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ventas enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ventas febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ventas marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ventas abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ventas mayo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14782.922399999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19923.9192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26713.981800000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20154.725699999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26641.184000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-CECB-4443-A330-46F8777C9835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Roberto Martinez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja3!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ventas enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ventas febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ventas marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ventas abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ventas mayo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30797.755000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20477.361400000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26713.981800000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27268.158299999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22645.006399999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-CECB-4443-A330-46F8777C9835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sandra Blanco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja3!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ventas enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ventas febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ventas marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ventas abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ventas mayo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>27102.024399999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25458.341199999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23071.166099999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23711.441999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30637.3616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-CECB-4443-A330-46F8777C9835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1339425951"/>
+        <c:axId val="1548851503"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1339425951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1548851503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1548851503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1339425951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1669,7 +3286,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2912,7 +4529,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3853,13 +5470,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3933,6 +5547,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -3970,6 +5624,475 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4465,7 +6588,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4967,7 +7090,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5473,6 +7596,125 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141FBA0E-BFB3-C808-4652-839F4CDCB297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Nombre Vendedor">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598550C1-194B-ED82-2A50-CB619A2B2587}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Nombre Vendedor"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7058025" y="0"/>
+              <a:ext cx="1828800" cy="1666875"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -5510,20 +7752,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5559,7 +7801,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7172325" y="381000"/>
+              <a:off x="7010400" y="371475"/>
               <a:ext cx="1828800" cy="2524125"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5593,15 +7835,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1562100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5629,7 +7871,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5816,6 +8058,51 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeinfferson B" refreshedDate="45143.331929745371" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="5" xr:uid="{2EA56007-4CF5-42C4-BB7B-D79F00A3530A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H6" sheet="Ventas x vendedor"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Codigo" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Nombre Vendedor" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Juan Lopez"/>
+        <s v="Maria González"/>
+        <s v="Sandra Blanco"/>
+        <s v="Jose Romero"/>
+        <s v="Roberto Martinez"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="enero" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14782.922399999999" maxValue="30797.755000000001"/>
+    </cacheField>
+    <cacheField name="febrero" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="19923.9192" maxValue="25458.341199999999"/>
+    </cacheField>
+    <cacheField name="marzo" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="20642.622299999999" maxValue="26713.981800000001"/>
+    </cacheField>
+    <cacheField name="abril" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="20154.725699999999" maxValue="27268.158299999999"/>
+    </cacheField>
+    <cacheField name="mayo" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="22645.006399999998" maxValue="30637.3616"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="2124534689"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
   <r>
@@ -5893,7 +8180,454 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
+  <r>
+    <s v="V 000"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="28333.934600000001"/>
+    <n v="21584.245800000001"/>
+    <n v="24285.437999999998"/>
+    <n v="22525.869900000002"/>
+    <n v="27973.243200000001"/>
+  </r>
+  <r>
+    <s v="V 000"/>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="14782.922399999999"/>
+    <n v="19923.9192"/>
+    <n v="26713.981800000001"/>
+    <n v="20154.725699999999"/>
+    <n v="26641.184000000001"/>
+  </r>
+  <r>
+    <s v="V 000"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="27102.024399999998"/>
+    <n v="25458.341199999999"/>
+    <n v="23071.166099999999"/>
+    <n v="23711.441999999999"/>
+    <n v="30637.3616"/>
+  </r>
+  <r>
+    <s v="V 000"/>
+    <n v="4"/>
+    <x v="3"/>
+    <n v="22174.383600000001"/>
+    <n v="23244.572400000001"/>
+    <n v="20642.622299999999"/>
+    <n v="24897.0141"/>
+    <n v="25309.124800000001"/>
+  </r>
+  <r>
+    <s v="V 000"/>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="30797.755000000001"/>
+    <n v="20477.361400000002"/>
+    <n v="26713.981800000001"/>
+    <n v="27268.158299999999"/>
+    <n v="22645.006399999998"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CC1C186-C3FE-465C-BDC9-DE8D65E8EFB0}" name="TablaDinámica5" cacheId="22" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:G7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="ventas enero" fld="3" baseField="2" baseItem="0"/>
+    <dataField name="ventas febrero" fld="4" baseField="2" baseItem="0"/>
+    <dataField name="ventas marzo" fld="5" baseField="2" baseItem="0"/>
+    <dataField name="ventas abril" fld="6" baseField="2" baseItem="0"/>
+    <dataField name="ventas mayo" fld="7" baseField="2" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="26">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14230B4B-7596-48D2-BD9B-3511F1D42C7A}" name="TablaDinámica3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -6104,7 +8838,32 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Nombre_Vendedor" xr10:uid="{C42CEAD7-099B-41B2-93B6-3F32236428E5}" sourceName="Nombre Vendedor">
+  <pivotTables>
+    <pivotTable tabId="11" name="TablaDinámica5"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="2124534689">
+      <items count="5">
+        <i x="3" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="4" s="1"/>
+        <i x="2" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Nombre Vendedor" xr10:uid="{2E0263D7-657B-429A-8540-FA90FA1E4F61}" cache="SegmentaciónDeDatos_Nombre_Vendedor" caption="Nombre Vendedor" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Mes" xr10:uid="{E0A84BD0-B3B7-4135-8038-9A9C36746A45}" cache="SegmentaciónDeDatos_Mes" caption="Mes" rowHeight="241300"/>
 </slicers>
@@ -6409,8 +9168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C0ADA3-4C22-4CF9-8AD3-3A127D5F6CB1}">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12655,11 +15414,189 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8901725E-D15F-4A1A-90C4-E36AF3274923}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="63">
+        <v>22174.383600000001</v>
+      </c>
+      <c r="C3" s="63">
+        <v>28333.934600000001</v>
+      </c>
+      <c r="D3" s="63">
+        <v>14782.922399999999</v>
+      </c>
+      <c r="E3" s="63">
+        <v>30797.755000000001</v>
+      </c>
+      <c r="F3" s="63">
+        <v>27102.024399999998</v>
+      </c>
+      <c r="G3" s="63">
+        <v>123191.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="63">
+        <v>23244.572400000001</v>
+      </c>
+      <c r="C4" s="63">
+        <v>21584.245800000001</v>
+      </c>
+      <c r="D4" s="63">
+        <v>19923.9192</v>
+      </c>
+      <c r="E4" s="63">
+        <v>20477.361400000002</v>
+      </c>
+      <c r="F4" s="63">
+        <v>25458.341199999999</v>
+      </c>
+      <c r="G4" s="63">
+        <v>110688.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="63">
+        <v>20642.622299999999</v>
+      </c>
+      <c r="C5" s="63">
+        <v>24285.437999999998</v>
+      </c>
+      <c r="D5" s="63">
+        <v>26713.981800000001</v>
+      </c>
+      <c r="E5" s="63">
+        <v>26713.981800000001</v>
+      </c>
+      <c r="F5" s="63">
+        <v>23071.166099999999</v>
+      </c>
+      <c r="G5" s="63">
+        <v>121427.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="63">
+        <v>24897.0141</v>
+      </c>
+      <c r="C6" s="63">
+        <v>22525.869900000002</v>
+      </c>
+      <c r="D6" s="63">
+        <v>20154.725699999999</v>
+      </c>
+      <c r="E6" s="63">
+        <v>27268.158299999999</v>
+      </c>
+      <c r="F6" s="63">
+        <v>23711.441999999999</v>
+      </c>
+      <c r="G6" s="63">
+        <v>118557.20999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="63">
+        <v>25309.124800000001</v>
+      </c>
+      <c r="C7" s="63">
+        <v>27973.243200000001</v>
+      </c>
+      <c r="D7" s="63">
+        <v>26641.184000000001</v>
+      </c>
+      <c r="E7" s="63">
+        <v>22645.006399999998</v>
+      </c>
+      <c r="F7" s="63">
+        <v>30637.3616</v>
+      </c>
+      <c r="G7" s="63">
+        <v>133205.91999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A23CDF-F090-4714-AB49-78B50071C889}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12932,7 +15869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B68A6B-4F66-49B3-AEDB-48F8AD760459}">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -13223,12 +16160,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D0FF2D-CC89-4DEC-8A31-5D5CCE8E047E}">
   <dimension ref="A3:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13245,29 +16182,29 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="63">
+      <c r="B4" s="64">
         <v>2397.6799999999998</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="64">
         <v>2908.12</v>
       </c>
       <c r="D4" s="62">
@@ -13281,10 +16218,10 @@
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="63">
+      <c r="B5" s="64">
         <v>2240</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="64">
         <v>2628</v>
       </c>
       <c r="D5" s="62">
@@ -13298,10 +16235,10 @@
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="64">
         <v>550</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="64">
         <v>550</v>
       </c>
       <c r="D6" s="62">
@@ -13315,10 +16252,10 @@
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="63">
+      <c r="B7" s="64">
         <v>290</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="64">
         <v>917</v>
       </c>
       <c r="D7" s="62">
@@ -13332,10 +16269,10 @@
       <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="64">
         <v>2500</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="64">
         <v>2500</v>
       </c>
       <c r="D8" s="62">
@@ -13349,10 +16286,10 @@
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="63">
+      <c r="B9" s="64">
         <v>660.75</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="64">
         <v>660.75</v>
       </c>
       <c r="D9" s="62">
@@ -13366,10 +16303,10 @@
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="64">
         <v>15760</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="64">
         <v>17432</v>
       </c>
       <c r="D10" s="62">
@@ -13393,7 +16330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9D3D7-F34D-4A34-8B58-0EC02683C78D}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
@@ -13787,7 +16724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF169ED-0A5B-4E85-A1DC-CF4116D4BB32}">
   <dimension ref="B2:I14"/>
   <sheetViews>

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE56B3B6-AF4E-4954-A6AA-9B4A79F4BA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101779F3-ED15-476C-A87D-34D36B1EBEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101779F3-ED15-476C-A87D-34D36B1EBEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752596EF-3755-4DDC-940F-960D70F8EA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="3" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="11" r:id="rId2"/>
-    <sheet name="Ventas x vendedor" sheetId="5" r:id="rId3"/>
-    <sheet name="Ventas x tienda" sheetId="6" r:id="rId4"/>
-    <sheet name="TD Gastos mensuales" sheetId="9" r:id="rId5"/>
-    <sheet name="Gastos mensuales" sheetId="7" r:id="rId6"/>
-    <sheet name="Registro clientes" sheetId="8" r:id="rId7"/>
+    <sheet name="Dashboard" sheetId="12" r:id="rId2"/>
+    <sheet name="Tabla Dinamica" sheetId="11" r:id="rId3"/>
+    <sheet name="Ventas x vendedor" sheetId="5" r:id="rId4"/>
+    <sheet name="Ventas x tienda" sheetId="6" r:id="rId5"/>
+    <sheet name="TD Gastos mensuales" sheetId="9" r:id="rId6"/>
+    <sheet name="Gastos mensuales" sheetId="7" r:id="rId7"/>
+    <sheet name="Registro clientes" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ventas!$A$1:$I$184</definedName>
@@ -32,14 +33,14 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId9"/>
-    <pivotCache cacheId="22" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId11"/>
         <x14:slicerCache r:id="rId12"/>
+        <x14:slicerCache r:id="rId13"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="112">
   <si>
     <t>Vendedor</t>
   </si>
@@ -366,6 +367,30 @@
   <si>
     <t>ventas mayo</t>
   </si>
+  <si>
+    <t>Numero mes</t>
+  </si>
+  <si>
+    <t>Ventas Totales</t>
+  </si>
+  <si>
+    <t>Ventas Efectivo</t>
+  </si>
+  <si>
+    <t>Ventas Tarjeta</t>
+  </si>
+  <si>
+    <t>Ventas Transferencia</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>% Utilidad</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
 </sst>
 </file>
 
@@ -377,7 +402,7 @@
     <numFmt numFmtId="165" formatCode=";;;"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,8 +466,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +550,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,12 +717,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -788,6 +827,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,15 +848,16 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{8F53062A-67EE-41F0-AC5B-03CBEEF10C8A}"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -848,7 +891,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ventas_original.xlsx]Hoja3!TablaDinámica5</c:name>
+    <c:name>[ventas_original.xlsx]Tabla Dinamica!TablaDinámica5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -919,43 +962,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="lt2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1046,43 +1053,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="lt2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1173,46 +1144,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="lt2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1303,46 +1235,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="lt2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1711,7 +1604,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$B$1:$B$2</c:f>
+              <c:f>'Tabla Dinamica'!$B$1:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1755,7 +1648,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja3!$A$3:$A$7</c:f>
+              <c:f>'Tabla Dinamica'!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1778,9 +1671,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$B$3:$B$7</c:f>
+              <c:f>'Tabla Dinamica'!$B$3:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>22174.383600000001</c:v>
@@ -1811,7 +1704,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$C$1:$C$2</c:f>
+              <c:f>'Tabla Dinamica'!$C$1:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1855,7 +1748,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja3!$A$3:$A$7</c:f>
+              <c:f>'Tabla Dinamica'!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1878,9 +1771,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$C$3:$C$7</c:f>
+              <c:f>'Tabla Dinamica'!$C$3:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>28333.934600000001</c:v>
@@ -1902,7 +1795,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-CECB-4443-A330-46F8777C9835}"/>
+              <c16:uniqueId val="{00000005-710C-4AAD-97BF-434A99459BC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1911,7 +1804,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$D$1:$D$2</c:f>
+              <c:f>'Tabla Dinamica'!$D$1:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1955,7 +1848,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja3!$A$3:$A$7</c:f>
+              <c:f>'Tabla Dinamica'!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1978,9 +1871,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$D$3:$D$7</c:f>
+              <c:f>'Tabla Dinamica'!$D$3:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>14782.922399999999</c:v>
@@ -2002,7 +1895,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-CECB-4443-A330-46F8777C9835}"/>
+              <c16:uniqueId val="{00000006-710C-4AAD-97BF-434A99459BC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2011,7 +1904,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$E$1:$E$2</c:f>
+              <c:f>'Tabla Dinamica'!$E$1:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2058,7 +1951,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja3!$A$3:$A$7</c:f>
+              <c:f>'Tabla Dinamica'!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2081,9 +1974,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$E$3:$E$7</c:f>
+              <c:f>'Tabla Dinamica'!$E$3:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>30797.755000000001</c:v>
@@ -2105,7 +1998,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-CECB-4443-A330-46F8777C9835}"/>
+              <c16:uniqueId val="{00000007-710C-4AAD-97BF-434A99459BC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2114,7 +2007,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$F$1:$F$2</c:f>
+              <c:f>'Tabla Dinamica'!$F$1:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2161,7 +2054,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja3!$A$3:$A$7</c:f>
+              <c:f>'Tabla Dinamica'!$A$3:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2184,9 +2077,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$F$3:$F$7</c:f>
+              <c:f>'Tabla Dinamica'!$F$3:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>27102.024399999998</c:v>
@@ -2208,7 +2101,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-CECB-4443-A330-46F8777C9835}"/>
+              <c16:uniqueId val="{00000008-710C-4AAD-97BF-434A99459BC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2294,7 +2187,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;\ #,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3347,49 +3240,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3422,7 +3273,6 @@
               <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3475,49 +3325,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3550,7 +3358,6 @@
               <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3603,49 +3410,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3678,7 +3443,6 @@
               <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3731,49 +3495,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3806,7 +3528,6 @@
               <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4311,7 +4032,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -7643,8 +7363,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Nombre Vendedor">
@@ -7667,7 +7387,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7767,8 +7487,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Mes">
@@ -7791,7 +7511,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8047,8 +7767,8 @@
         <n v="354.5"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Promedio total marzo-abril" numFmtId="0" formula="AVERAGE(Marzo,Abril )" databaseField="0"/>
-    <cacheField name="Total por Concepto" numFmtId="0" formula="Enero +Febrero +Marzo +Abril +Mayo" databaseField="0"/>
+    <cacheField name="Promedio total marzo-abril" numFmtId="0" formula="AVERAGE(Marzo,Abril)" databaseField="0"/>
+    <cacheField name="Total por Concepto" numFmtId="0" formula="Enero+Febrero+Marzo+Abril+Mayo" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -8236,7 +7956,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CC1C186-C3FE-465C-BDC9-DE8D65E8EFB0}" name="TablaDinámica5" cacheId="22" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7CC1C186-C3FE-465C-BDC9-DE8D65E8EFB0}" name="TablaDinámica5" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:G7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -8301,11 +8021,11 @@
     </i>
   </colItems>
   <dataFields count="5">
-    <dataField name="ventas enero" fld="3" baseField="2" baseItem="0"/>
-    <dataField name="ventas febrero" fld="4" baseField="2" baseItem="0"/>
-    <dataField name="ventas marzo" fld="5" baseField="2" baseItem="0"/>
-    <dataField name="ventas abril" fld="6" baseField="2" baseItem="0"/>
-    <dataField name="ventas mayo" fld="7" baseField="2" baseItem="0"/>
+    <dataField name="ventas enero" fld="3" baseField="2" baseItem="0" numFmtId="166"/>
+    <dataField name="ventas febrero" fld="4" baseField="2" baseItem="0" numFmtId="166"/>
+    <dataField name="ventas marzo" fld="5" baseField="2" baseItem="0" numFmtId="166"/>
+    <dataField name="ventas abril" fld="6" baseField="2" baseItem="0" numFmtId="166"/>
+    <dataField name="ventas mayo" fld="7" baseField="2" baseItem="0" numFmtId="166"/>
   </dataFields>
   <chartFormats count="26">
     <chartFormat chart="0" format="0" series="1">
@@ -8628,7 +8348,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14230B4B-7596-48D2-BD9B-3511F1D42C7A}" name="TablaDinámica3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14230B4B-7596-48D2-BD9B-3511F1D42C7A}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -9168,8 +8888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C0ADA3-4C22-4CF9-8AD3-3A127D5F6CB1}">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I184"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9779,10 +9499,10 @@
       <c r="I13">
         <v>48</v>
       </c>
-      <c r="K13" s="55" t="s">
+      <c r="K13" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="55"/>
+      <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -15414,18 +15134,370 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFC6B40-7C31-412A-964F-737CBFAC57B6}">
+  <dimension ref="B33:O38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="K33" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" s="65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="15">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C34:C38,Ventas!D2:D184)</f>
+        <v>159277.59000000003</v>
+      </c>
+      <c r="E34" s="3">
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C34:C38,Ventas!E2:E184)</f>
+        <v>138764.61000000002</v>
+      </c>
+      <c r="F34" s="3">
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C34:C38,Ventas!F2:F184)</f>
+        <v>15380.620000000003</v>
+      </c>
+      <c r="G34" s="3">
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C34:C38,Ventas!G2:G184)</f>
+        <v>5132.3599999999997</v>
+      </c>
+      <c r="H34" s="3">
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C34:C38,Ventas!H2:H184)</f>
+        <v>86861.320000000036</v>
+      </c>
+      <c r="I34" s="56">
+        <f>D34-H34</f>
+        <v>72416.26999999999</v>
+      </c>
+      <c r="J34" s="64">
+        <f>I34/D34</f>
+        <v>0.4546544808971556</v>
+      </c>
+      <c r="K34">
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C34:C38,Ventas!I2:I184)</f>
+        <v>1585</v>
+      </c>
+      <c r="L34" s="3">
+        <f>VLOOKUP(Dashboard!C34,'Ventas x tienda'!A2:F6,4,0)</f>
+        <v>45580.68</v>
+      </c>
+      <c r="M34" s="3">
+        <f>VLOOKUP(C34,'Ventas x tienda'!A2:F6,5,0)</f>
+        <v>34493.49</v>
+      </c>
+      <c r="N34" s="3">
+        <f>VLOOKUP(C34,'Ventas x tienda'!A2:F6,6,0)</f>
+        <v>43116.86</v>
+      </c>
+      <c r="O34" s="3">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B34,'Gastos mensuales'!$A$1:$A$10)</f>
+        <v>28156.440000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="15">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C35:C39,Ventas!D3:D185)</f>
+        <v>151460.30000000002</v>
+      </c>
+      <c r="E35" s="3">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C35:C39,Ventas!E3:E185)</f>
+        <v>121277.60999999997</v>
+      </c>
+      <c r="F35" s="3">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C35:C39,Ventas!F3:F185)</f>
+        <v>30182.690000000002</v>
+      </c>
+      <c r="G35" s="3">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C35:C39,Ventas!G3:G185)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C35:C39,Ventas!H3:H185)</f>
+        <v>83207.290000000023</v>
+      </c>
+      <c r="I35" s="56">
+        <f t="shared" ref="I35:I38" si="0">D35-H35</f>
+        <v>68253.009999999995</v>
+      </c>
+      <c r="J35" s="64">
+        <f t="shared" ref="J35:J38" si="1">I35/D35</f>
+        <v>0.450633004160166</v>
+      </c>
+      <c r="K35">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C35:C39,Ventas!I3:I185)</f>
+        <v>1346</v>
+      </c>
+      <c r="L35" s="3">
+        <f>VLOOKUP(Dashboard!C35,'Ventas x tienda'!A3:F7,4,0)</f>
+        <v>41884.949999999997</v>
+      </c>
+      <c r="M35" s="3">
+        <f>VLOOKUP(C35,'Ventas x tienda'!A3:F7,5,0)</f>
+        <v>35725.4</v>
+      </c>
+      <c r="N35" s="3">
+        <f>VLOOKUP(C35,'Ventas x tienda'!A3:F7,6,0)</f>
+        <v>33078.1</v>
+      </c>
+      <c r="O35" s="3">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B35,'Gastos mensuales'!$A$1:$A$10)</f>
+        <v>28565.140000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="15">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C36:C40,Ventas!D4:D186)</f>
+        <v>140334.59</v>
+      </c>
+      <c r="E36" s="3">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C36:C40,Ventas!E4:E186)</f>
+        <v>119819.94999999998</v>
+      </c>
+      <c r="F36" s="3">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C36:C40,Ventas!F4:F186)</f>
+        <v>20339.64</v>
+      </c>
+      <c r="G36" s="3">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C36:C40,Ventas!G4:G186)</f>
+        <v>175</v>
+      </c>
+      <c r="H36" s="3">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C36:C40,Ventas!H4:H186)</f>
+        <v>66422.169999999984</v>
+      </c>
+      <c r="I36" s="56">
+        <f t="shared" si="0"/>
+        <v>73912.420000000013</v>
+      </c>
+      <c r="J36" s="64">
+        <f t="shared" si="1"/>
+        <v>0.52668711256433653</v>
+      </c>
+      <c r="K36">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C36:C40,Ventas!I4:I186)</f>
+        <v>1304</v>
+      </c>
+      <c r="L36" s="3">
+        <f>VLOOKUP(Dashboard!C36,'Ventas x tienda'!A4:F8,4,0)</f>
+        <v>44348.77</v>
+      </c>
+      <c r="M36" s="3">
+        <f>VLOOKUP(C36,'Ventas x tienda'!A4:F8,5,0)</f>
+        <v>36957.31</v>
+      </c>
+      <c r="N36" s="3">
+        <f>VLOOKUP(C36,'Ventas x tienda'!A4:F8,6,0)</f>
+        <v>40121.120000000003</v>
+      </c>
+      <c r="O36" s="3">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B36,'Gastos mensuales'!$A$1:$A$10)</f>
+        <v>33720.93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="15">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C37:C41,Ventas!D5:D187)</f>
+        <v>134942.64000000001</v>
+      </c>
+      <c r="E37" s="3">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C37:C41,Ventas!E5:E187)</f>
+        <v>117844.51000000001</v>
+      </c>
+      <c r="F37" s="3">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C37:C41,Ventas!F5:F187)</f>
+        <v>17098.13</v>
+      </c>
+      <c r="G37" s="3">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C37:C41,Ventas!G5:G187)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C37:C41,Ventas!H5:H187)</f>
+        <v>80419.670000000013</v>
+      </c>
+      <c r="I37" s="56">
+        <f t="shared" si="0"/>
+        <v>54522.97</v>
+      </c>
+      <c r="J37" s="64">
+        <f t="shared" si="1"/>
+        <v>0.40404552630658475</v>
+      </c>
+      <c r="K37">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C37:C41,Ventas!I5:I187)</f>
+        <v>1241</v>
+      </c>
+      <c r="L37" s="3">
+        <f>VLOOKUP(Dashboard!C37,'Ventas x tienda'!A5:F9,4,0)</f>
+        <v>43116.86</v>
+      </c>
+      <c r="M37" s="3">
+        <f>VLOOKUP(C37,'Ventas x tienda'!A5:F9,5,0)</f>
+        <v>36957.31</v>
+      </c>
+      <c r="N37" s="3">
+        <f>VLOOKUP(C37,'Ventas x tienda'!A5:F9,6,0)</f>
+        <v>38483.050000000003</v>
+      </c>
+      <c r="O37" s="3">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B37,'Gastos mensuales'!$A$1:$A$10)</f>
+        <v>37694.369999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="15">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C38:C42,Ventas!D6:D188)</f>
+        <v>161194.56</v>
+      </c>
+      <c r="E38" s="3">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C38:C42,Ventas!E6:E188)</f>
+        <v>133998.82999999999</v>
+      </c>
+      <c r="F38" s="3">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C38:C42,Ventas!F6:F188)</f>
+        <v>24641.710000000003</v>
+      </c>
+      <c r="G38" s="3">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C38:C42,Ventas!G6:G188)</f>
+        <v>2554.02</v>
+      </c>
+      <c r="H38" s="3">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C38:C42,Ventas!H6:H188)</f>
+        <v>95178.446149999974</v>
+      </c>
+      <c r="I38" s="56">
+        <f t="shared" si="0"/>
+        <v>66016.113850000023</v>
+      </c>
+      <c r="J38" s="64">
+        <f t="shared" si="1"/>
+        <v>0.40954306305374094</v>
+      </c>
+      <c r="K38">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C38:C42,Ventas!I6:I188)</f>
+        <v>1397</v>
+      </c>
+      <c r="L38" s="3">
+        <f>VLOOKUP(Dashboard!C38,'Ventas x tienda'!A6:F10,4,0)</f>
+        <v>43116.86</v>
+      </c>
+      <c r="M38" s="3">
+        <f>VLOOKUP(C38,'Ventas x tienda'!A6:F10,5,0)</f>
+        <v>34493.49</v>
+      </c>
+      <c r="N38" s="3">
+        <f>VLOOKUP(C38,'Ventas x tienda'!A6:F10,6,0)</f>
+        <v>48092.27</v>
+      </c>
+      <c r="O38" s="3">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B38,'Gastos mensuales'!$A$1:$A$10)</f>
+        <v>36175.910000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8901725E-D15F-4A1A-90C4-E36AF3274923}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -15436,12 +15508,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="55" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="55" t="s">
         <v>98</v>
       </c>
       <c r="B2" t="s">
@@ -15467,22 +15539,22 @@
       <c r="A3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="57">
         <v>22174.383600000001</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="57">
         <v>28333.934600000001</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="57">
         <v>14782.922399999999</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="57">
         <v>30797.755000000001</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="57">
         <v>27102.024399999998</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="57">
         <v>123191.02</v>
       </c>
     </row>
@@ -15490,22 +15562,22 @@
       <c r="A4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="63">
+      <c r="B4" s="57">
         <v>23244.572400000001</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="57">
         <v>21584.245800000001</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="57">
         <v>19923.9192</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="57">
         <v>20477.361400000002</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="57">
         <v>25458.341199999999</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="57">
         <v>110688.44</v>
       </c>
     </row>
@@ -15513,22 +15585,22 @@
       <c r="A5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="63">
+      <c r="B5" s="57">
         <v>20642.622299999999</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="57">
         <v>24285.437999999998</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="57">
         <v>26713.981800000001</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="57">
         <v>26713.981800000001</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="57">
         <v>23071.166099999999</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="57">
         <v>121427.19</v>
       </c>
     </row>
@@ -15536,22 +15608,22 @@
       <c r="A6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="57">
         <v>24897.0141</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="57">
         <v>22525.869900000002</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="57">
         <v>20154.725699999999</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="57">
         <v>27268.158299999999</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="57">
         <v>23711.441999999999</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="57">
         <v>118557.20999999999</v>
       </c>
     </row>
@@ -15559,44 +15631,45 @@
       <c r="A7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="63">
+      <c r="B7" s="57">
         <v>25309.124800000001</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="57">
         <v>27973.243200000001</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="57">
         <v>26641.184000000001</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="57">
         <v>22645.006399999998</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="57">
         <v>30637.3616</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="57">
         <v>133205.91999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
+        <x14:slicer r:id="rId4"/>
       </x14:slicerList>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A23CDF-F090-4714-AB49-78B50071C889}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15634,12 +15707,12 @@
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -15798,12 +15871,12 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="12" t="s">
@@ -15869,7 +15942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B68A6B-4F66-49B3-AEDB-48F8AD760459}">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -16160,7 +16233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D0FF2D-CC89-4DEC-8A31-5D5CCE8E047E}">
   <dimension ref="A3:E10"/>
   <sheetViews>
@@ -16181,7 +16254,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B3" t="s">
@@ -16201,16 +16274,16 @@
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="57">
         <v>2397.6799999999998</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="57">
         <v>2908.12</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="56">
         <v>2652.8999999999996</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="56">
         <v>11529.04</v>
       </c>
     </row>
@@ -16218,16 +16291,16 @@
       <c r="A5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="57">
         <v>2240</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="57">
         <v>2628</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="56">
         <v>2434</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="56">
         <v>12608.94</v>
       </c>
     </row>
@@ -16235,16 +16308,16 @@
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="57">
         <v>550</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="57">
         <v>550</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="56">
         <v>550</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="56">
         <v>2750</v>
       </c>
     </row>
@@ -16252,16 +16325,16 @@
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="57">
         <v>290</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="57">
         <v>917</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="56">
         <v>603.5</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="56">
         <v>1833</v>
       </c>
     </row>
@@ -16269,16 +16342,16 @@
       <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="57">
         <v>2500</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="57">
         <v>2500</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="56">
         <v>2500</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="56">
         <v>10000</v>
       </c>
     </row>
@@ -16286,16 +16359,16 @@
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="57">
         <v>660.75</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="57">
         <v>660.75</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="56">
         <v>660.75</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="56">
         <v>1982.25</v>
       </c>
     </row>
@@ -16303,16 +16376,16 @@
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="64">
+      <c r="B10" s="57">
         <v>15760</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="57">
         <v>17432</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="56">
         <v>16596</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="56">
         <v>74962</v>
       </c>
     </row>
@@ -16330,7 +16403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9D3D7-F34D-4A34-8B58-0EC02683C78D}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
@@ -16372,19 +16445,19 @@
       <c r="F1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="M1" s="59" t="s">
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="M1" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="59"/>
-      <c r="P1" s="60" t="s">
+      <c r="N1" s="62"/>
+      <c r="P1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="60"/>
+      <c r="Q1" s="63"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -16724,7 +16797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF169ED-0A5B-4E85-A1DC-CF4116D4BB32}">
   <dimension ref="B2:I14"/>
   <sheetViews>

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752596EF-3755-4DDC-940F-960D70F8EA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8E2F41-5CAA-4C4F-8684-259A0459D929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
@@ -27,6 +27,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ventas!$A$1:$I$184</definedName>
+    <definedName name="datos_p">Dashboard!$D$34:$O$38</definedName>
     <definedName name="JR_PAGE_ANCHOR_0_1">[1]Ventas!#REF!</definedName>
     <definedName name="SegmentaciónDeDatos_Mes">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Nombre_Vendedor">#N/A</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
   <si>
     <t>Vendedor</t>
   </si>
@@ -402,7 +403,7 @@
     <numFmt numFmtId="165" formatCode=";;;"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +466,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -723,7 +731,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -848,8 +856,18 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15135,10 +15153,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFC6B40-7C31-412A-964F-737CBFAC57B6}">
-  <dimension ref="B33:O38"/>
+  <dimension ref="B32:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15156,47 +15174,85 @@
     <col min="15" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+      <c r="K32">
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <v>9</v>
+      </c>
+      <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="N32">
+        <v>11</v>
+      </c>
+      <c r="O32">
+        <v>12</v>
+      </c>
+    </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="65" t="s">
+      <c r="D33" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="65" t="s">
+      <c r="F33" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="G33" s="65" t="s">
+      <c r="G33" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="H33" s="65" t="s">
+      <c r="H33" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="65" t="s">
+      <c r="I33" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="J33" s="65" t="s">
+      <c r="J33" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="K33" s="65" t="s">
+      <c r="K33" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="65" t="s">
+      <c r="L33" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="M33" s="65" t="s">
+      <c r="M33" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="65" t="s">
+      <c r="N33" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="65" t="s">
+      <c r="O33" s="64" t="s">
         <v>111</v>
       </c>
     </row>
@@ -15231,11 +15287,11 @@
         <f>D34-H34</f>
         <v>72416.26999999999</v>
       </c>
-      <c r="J34" s="64">
+      <c r="J34" s="65">
         <f>I34/D34</f>
         <v>0.4546544808971556</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="15">
         <f>SUMIF(Ventas!B2:B184,Dashboard!C34:C38,Ventas!I2:I184)</f>
         <v>1585</v>
       </c>
@@ -15287,11 +15343,11 @@
         <f t="shared" ref="I35:I38" si="0">D35-H35</f>
         <v>68253.009999999995</v>
       </c>
-      <c r="J35" s="64">
-        <f t="shared" ref="J35:J38" si="1">I35/D35</f>
+      <c r="J35" s="65">
+        <f t="shared" ref="J35:J39" si="1">I35/D35</f>
         <v>0.450633004160166</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="15">
         <f>SUMIF(Ventas!B3:B185,Dashboard!C35:C39,Ventas!I3:I185)</f>
         <v>1346</v>
       </c>
@@ -15343,11 +15399,11 @@
         <f t="shared" si="0"/>
         <v>73912.420000000013</v>
       </c>
-      <c r="J36" s="64">
+      <c r="J36" s="65">
         <f t="shared" si="1"/>
         <v>0.52668711256433653</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="15">
         <f>SUMIF(Ventas!B4:B186,Dashboard!C36:C40,Ventas!I4:I186)</f>
         <v>1304</v>
       </c>
@@ -15399,11 +15455,11 @@
         <f t="shared" si="0"/>
         <v>54522.97</v>
       </c>
-      <c r="J37" s="64">
+      <c r="J37" s="65">
         <f t="shared" si="1"/>
         <v>0.40404552630658475</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="15">
         <f>SUMIF(Ventas!B5:B187,Dashboard!C37:C41,Ventas!I5:I187)</f>
         <v>1241</v>
       </c>
@@ -15455,11 +15511,11 @@
         <f t="shared" si="0"/>
         <v>66016.113850000023</v>
       </c>
-      <c r="J38" s="64">
+      <c r="J38" s="65">
         <f t="shared" si="1"/>
         <v>0.40954306305374094</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="15">
         <f>SUMIF(Ventas!B6:B188,Dashboard!C38:C42,Ventas!I6:I188)</f>
         <v>1397</v>
       </c>
@@ -15478,6 +15534,73 @@
       <c r="O38" s="3">
         <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B38,'Gastos mensuales'!$A$1:$A$10)</f>
         <v>36175.910000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67">
+        <f>SUM(D34:D38)</f>
+        <v>747209.67999999993</v>
+      </c>
+      <c r="E39" s="67">
+        <f>SUM(E34:E38)</f>
+        <v>631705.50999999989</v>
+      </c>
+      <c r="F39" s="67">
+        <f>SUM(F34:F38)</f>
+        <v>107642.79000000002</v>
+      </c>
+      <c r="G39" s="67">
+        <f>SUM(G34:G38)</f>
+        <v>7861.3799999999992</v>
+      </c>
+      <c r="H39" s="67">
+        <f>SUM(H34:H38)</f>
+        <v>412088.89615000004</v>
+      </c>
+      <c r="I39" s="67">
+        <f>SUM(I34:I38)</f>
+        <v>335120.78385000001</v>
+      </c>
+      <c r="J39" s="68">
+        <f>I39/D39</f>
+        <v>0.44849630942950314</v>
+      </c>
+      <c r="K39" s="69">
+        <f>SUM(K34:K38)</f>
+        <v>6873</v>
+      </c>
+      <c r="L39" s="67">
+        <f>SUM(L34:L38)</f>
+        <v>218048.12</v>
+      </c>
+      <c r="M39" s="67">
+        <f>SUM(M34:M38)</f>
+        <v>178627</v>
+      </c>
+      <c r="N39" s="67">
+        <f>SUM(N34:N38)</f>
+        <v>202891.4</v>
+      </c>
+      <c r="O39" s="67">
+        <f>SUM(O34:O38)</f>
+        <v>164312.79</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42">
+        <f>VLOOKUP(B42,B34:C38,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D42" s="3">
+        <f>INDEX(D34:$O$38,C42,D32)</f>
+        <v>140334.59</v>
       </c>
     </row>
   </sheetData>

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8E2F41-5CAA-4C4F-8684-259A0459D929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE257553-28A7-405F-AA26-4E4E4CDEEEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
@@ -482,7 +482,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +564,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,7 +737,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -870,6 +876,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -15156,7 +15165,7 @@
   <dimension ref="B32:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15167,7 +15176,7 @@
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -15591,16 +15600,60 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="B42" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="70">
         <f>VLOOKUP(B42,B34:C38,2,0)</f>
         <v>3</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="71">
         <f>INDEX(D34:$O$38,C42,D32)</f>
         <v>140334.59</v>
+      </c>
+      <c r="E42" s="71">
+        <f>INDEX(datos_p,C42,2)</f>
+        <v>119819.94999999998</v>
+      </c>
+      <c r="F42" s="71">
+        <f>INDEX(datos_p,C42,3)</f>
+        <v>20339.64</v>
+      </c>
+      <c r="G42" s="71">
+        <f>INDEX(datos_p,C42,4)</f>
+        <v>175</v>
+      </c>
+      <c r="H42" s="71">
+        <f>INDEX(datos_p,C42,5)</f>
+        <v>66422.169999999984</v>
+      </c>
+      <c r="I42" s="71">
+        <f>INDEX(datos_p,C42,6)</f>
+        <v>73912.420000000013</v>
+      </c>
+      <c r="J42" s="72">
+        <f>INDEX(datos_p,C42,7)</f>
+        <v>0.52668711256433653</v>
+      </c>
+      <c r="K42" s="70">
+        <f>INDEX(datos_p,C42,8)</f>
+        <v>1304</v>
+      </c>
+      <c r="L42" s="71">
+        <f>INDEX(datos_p,C42,9)</f>
+        <v>44348.77</v>
+      </c>
+      <c r="M42" s="71">
+        <f>INDEX(datos_p,C42,M32)</f>
+        <v>36957.31</v>
+      </c>
+      <c r="N42" s="71">
+        <f>INDEX(datos_p,C42,N32)</f>
+        <v>40121.120000000003</v>
+      </c>
+      <c r="O42" s="71">
+        <f>INDEX(datos_p,C42,O32)</f>
+        <v>33720.93</v>
       </c>
     </row>
   </sheetData>

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE257553-28A7-405F-AA26-4E4E4CDEEEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DCB417-3CC5-4A8F-9371-BC412C1E7E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
   <si>
     <t>Vendedor</t>
   </si>
@@ -392,6 +392,12 @@
   <si>
     <t>Gastos</t>
   </si>
+  <si>
+    <t>Resumen Ventas del Año</t>
+  </si>
+  <si>
+    <t>% Utilidad Total</t>
+  </si>
 </sst>
 </file>
 
@@ -403,7 +409,7 @@
     <numFmt numFmtId="165" formatCode=";;;"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +474,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +491,12 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -737,7 +755,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -862,23 +880,27 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="10" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -905,6 +927,930 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$34:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$D$34:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>159277.59000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151460.30000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140334.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134942.64000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161194.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA74-4665-A13F-C1163774468F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="138267472"/>
+        <c:axId val="18480672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="138267472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18480672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="18480672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138267472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$34:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$J$34:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4546544808971556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.450633004160166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52668711256433653</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40404552630658475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40954306305374094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FB0-45F2-8D9C-749BB43ABBB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="130102976"/>
+        <c:axId val="138815440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="130102976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="138815440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="138815440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130102976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.5483870967741936E-2"/>
+          <c:y val="6.741573033707865E-2"/>
+          <c:w val="0.92903225806451617"/>
+          <c:h val="0.80787490046890209"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$34:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$O$34:$O$38</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28156.440000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28565.140000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33720.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37694.369999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36175.910000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F564-4202-AA09-2F7CEA574835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="186169776"/>
+        <c:axId val="138802480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="186169776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="138802480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="138802480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186169776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2342,7 +3288,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3206,7 +4152,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4276,7 +5222,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -5217,6 +6163,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent3"/>
@@ -5253,7 +6279,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5293,7 +6319,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5333,7 +6359,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -5371,6 +6397,1532 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5839,7 +8391,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6335,7 +8887,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6837,7 +9389,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7340,6 +9892,119 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1121834</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B010A9-9E8D-DBF2-A06A-493C5A27A3E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1010708</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>455084</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D235AA2-0058-94D9-04CB-543425EDEDCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>560918</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB22A9F-066A-4AF3-8B1E-988F23815EB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7458,7 +10123,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7499,7 +10164,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7618,7 +10283,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15162,15 +17827,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFC6B40-7C31-412A-964F-737CBFAC57B6}">
-  <dimension ref="B32:O42"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
@@ -15183,6 +17849,49 @@
     <col min="15" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="74"/>
+      <c r="B1" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="56">
+        <f>D39</f>
+        <v>747209.67999999993</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="G2" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="73">
+        <f>J39</f>
+        <v>0.44849630942950314</v>
+      </c>
+      <c r="K2" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="56">
+        <f>O39</f>
+        <v>164312.79</v>
+      </c>
+    </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>1</v>
@@ -15601,63 +18310,64 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="70" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C42" s="70">
         <f>VLOOKUP(B42,B34:C38,2,0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" s="71">
         <f>INDEX(D34:$O$38,C42,D32)</f>
-        <v>140334.59</v>
+        <v>161194.56</v>
       </c>
       <c r="E42" s="71">
         <f>INDEX(datos_p,C42,2)</f>
-        <v>119819.94999999998</v>
+        <v>133998.82999999999</v>
       </c>
       <c r="F42" s="71">
         <f>INDEX(datos_p,C42,3)</f>
-        <v>20339.64</v>
+        <v>24641.710000000003</v>
       </c>
       <c r="G42" s="71">
         <f>INDEX(datos_p,C42,4)</f>
-        <v>175</v>
+        <v>2554.02</v>
       </c>
       <c r="H42" s="71">
         <f>INDEX(datos_p,C42,5)</f>
-        <v>66422.169999999984</v>
+        <v>95178.446149999974</v>
       </c>
       <c r="I42" s="71">
         <f>INDEX(datos_p,C42,6)</f>
-        <v>73912.420000000013</v>
+        <v>66016.113850000023</v>
       </c>
       <c r="J42" s="72">
         <f>INDEX(datos_p,C42,7)</f>
-        <v>0.52668711256433653</v>
+        <v>0.40954306305374094</v>
       </c>
       <c r="K42" s="70">
         <f>INDEX(datos_p,C42,8)</f>
-        <v>1304</v>
+        <v>1397</v>
       </c>
       <c r="L42" s="71">
         <f>INDEX(datos_p,C42,9)</f>
-        <v>44348.77</v>
+        <v>43116.86</v>
       </c>
       <c r="M42" s="71">
         <f>INDEX(datos_p,C42,M32)</f>
-        <v>36957.31</v>
+        <v>34493.49</v>
       </c>
       <c r="N42" s="71">
         <f>INDEX(datos_p,C42,N32)</f>
-        <v>40121.120000000003</v>
+        <v>48092.27</v>
       </c>
       <c r="O42" s="71">
         <f>INDEX(datos_p,C42,O32)</f>
-        <v>33720.93</v>
+        <v>36175.910000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DCB417-3CC5-4A8F-9371-BC412C1E7E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC3D2E1-AC78-425E-9111-344B1BE8DD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ventas!$A$1:$I$184</definedName>
-    <definedName name="datos_p">Dashboard!$D$34:$O$38</definedName>
+    <definedName name="datos_p">Dashboard!$D$35:$O$39</definedName>
     <definedName name="JR_PAGE_ANCHOR_0_1">[1]Ventas!#REF!</definedName>
     <definedName name="SegmentaciónDeDatos_Mes">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Nombre_Vendedor">#N/A</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="116">
   <si>
     <t>Vendedor</t>
   </si>
@@ -398,6 +398,12 @@
   <si>
     <t>% Utilidad Total</t>
   </si>
+  <si>
+    <t>Resumen Ventas Mensuales</t>
+  </si>
+  <si>
+    <t>Ventas Mensuales</t>
+  </si>
 </sst>
 </file>
 
@@ -409,7 +415,7 @@
     <numFmt numFmtId="165" formatCode=";;;"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,6 +504,14 @@
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="16">
@@ -755,7 +769,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -862,24 +876,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -901,6 +897,34 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -912,6 +936,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD37A03"/>
       <color rgb="FFF6484C"/>
     </mruColors>
   </colors>
@@ -1020,7 +1045,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$B$34:$B$38</c:f>
+              <c:f>Dashboard!$B$35:$B$39</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1043,7 +1068,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$D$34:$D$38</c:f>
+              <c:f>Dashboard!$D$35:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1221,6 +1246,946 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Gastos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> Totales por Concepto</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Enero</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Renta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etiquetas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Flete pedido</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Redes sociales</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sistema</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Otros gastos</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mantenimiento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gastos mensuales'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2336.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2433.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC0B-4906-9E75-3AFEFF057F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Febrero</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Renta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etiquetas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Flete pedido</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Redes sociales</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sistema</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Otros gastos</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mantenimiento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gastos mensuales'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2684.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>381.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>119.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC0B-4906-9E75-3AFEFF057F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Marzo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Renta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etiquetas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Flete pedido</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Redes sociales</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sistema</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Otros gastos</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mantenimiento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gastos mensuales'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9260</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2397.6799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>660.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15760</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EC0B-4906-9E75-3AFEFF057F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Abril</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Renta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etiquetas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Flete pedido</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Redes sociales</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sistema</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Otros gastos</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mantenimiento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gastos mensuales'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2908.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>660.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17432</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>818.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EC0B-4906-9E75-3AFEFF057F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mayo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gastos mensuales'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Renta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Etiquetas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Flete pedido</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Redes sociales</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sistema</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sueldos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Otros gastos</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mantenimiento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gastos mensuales'!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3887.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2623.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>660.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15620</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>354.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EC0B-4906-9E75-3AFEFF057F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1358391023"/>
+        <c:axId val="1249273007"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1358391023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1249273007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1249273007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1358391023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1315,7 +2280,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$B$34:$B$38</c:f>
+              <c:f>Dashboard!$B$35:$B$39</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1338,7 +2303,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$J$34:$J$38</c:f>
+              <c:f>Dashboard!$J$35:$J$39</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1648,7 +2613,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$B$34:$B$38</c:f>
+              <c:f>Dashboard!$B$35:$B$39</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1671,7 +2636,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$O$34:$O$38</c:f>
+              <c:f>Dashboard!$O$35:$O$39</c:f>
               <c:numCache>
                 <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1851,6 +2816,924 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$B$19:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Ventas Mensuales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>COGS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Utilidad</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gastos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$C$19:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>134942.64000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54522.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80419.670000000013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37694.369999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE14-41FC-8B80-6BCD5410B485}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1742612031"/>
+        <c:axId val="1864248895"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1742612031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="D37A03"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1864248895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1864248895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1742612031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5614998646918544E-2"/>
+          <c:y val="0.13774609398703122"/>
+          <c:w val="0.53170641324808476"/>
+          <c:h val="0.74576631507144542"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3D02-478F-9C9D-9745D018AE90}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-3D02-478F-9C9D-9745D018AE90}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3D02-478F-9C9D-9745D018AE90}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$E$34:$G$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ventas Efectivo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ventas Tarjeta</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ventas Transferencia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$E$43:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>117844.51000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17098.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D02-478F-9C9D-9745D018AE90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="D37A03"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="D37A03"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="D37A03"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$L$34:$N$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Tienda 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tienda 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tienda 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$L$43:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43116.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36957.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38483.050000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6535-4FD0-9249-BFE4C8C39037}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1955555247"/>
+        <c:axId val="1861432335"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1955555247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1861432335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1861432335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1955555247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3288,7 +5171,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4152,7 +6035,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -5222,949 +7105,46 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO"/>
-              <a:t>Gastos</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> Totales por Concepto</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Gastos mensuales'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Enero</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Gastos mensuales'!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Renta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Etiquetas</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Internet</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Flete pedido</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Redes sociales</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sistema</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sueldos</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Otros gastos</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Mantenimiento</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Gastos mensuales'!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>9280</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2336.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2433.36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>152</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC0B-4906-9E75-3AFEFF057F28}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Gastos mensuales'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Febrero</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Gastos mensuales'!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Renta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Etiquetas</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Internet</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Flete pedido</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Redes sociales</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sistema</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sueldos</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Otros gastos</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Mantenimiento</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Gastos mensuales'!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>9280</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2684.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13050</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>381.56</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>119.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC0B-4906-9E75-3AFEFF057F28}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Gastos mensuales'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Marzo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Gastos mensuales'!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Renta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Etiquetas</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Internet</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Flete pedido</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Redes sociales</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sistema</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sueldos</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Otros gastos</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Mantenimiento</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Gastos mensuales'!$D$2:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>9260</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2397.6799999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2240</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>660.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15760</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>290</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EC0B-4906-9E75-3AFEFF057F28}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Gastos mensuales'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Abril</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Gastos mensuales'!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Renta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Etiquetas</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Internet</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Flete pedido</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Redes sociales</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sistema</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sueldos</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Otros gastos</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Mantenimiento</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Gastos mensuales'!$E$2:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>9280</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2908.12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2628</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>660.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17432</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>818.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>917</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EC0B-4906-9E75-3AFEFF057F28}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Gastos mensuales'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mayo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Gastos mensuales'!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Renta</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Etiquetas</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Internet</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Flete pedido</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Redes sociales</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sistema</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sueldos</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Otros gastos</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Mantenimiento</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Gastos mensuales'!$F$2:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>9280</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3887.16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2623.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>660.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15620</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>354.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EC0B-4906-9E75-3AFEFF057F28}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="1358391023"/>
-        <c:axId val="1249273007"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1358391023"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1249273007"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1249273007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1358391023"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -6243,6 +7223,117 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent3"/>
@@ -6279,7 +7370,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6319,7 +7410,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6359,43 +7450,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -6901,8 +7955,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6913,7 +7967,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6926,7 +7980,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -6943,7 +7997,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6959,7 +8013,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7003,6 +8057,508 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -7923,27 +9479,33 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -7958,7 +9520,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7966,7 +9528,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -7974,14 +9536,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -7990,8 +9555,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -8014,35 +9580,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8051,32 +9617,33 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt2"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8092,16 +9659,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8135,17 +9707,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -8154,14 +9726,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8173,20 +9745,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -8200,99 +9778,96 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -8300,17 +9875,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -8319,9 +9894,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8330,14 +9908,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -8346,7 +9924,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -8355,7 +9936,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8376,7 +9957,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -8385,13 +9969,1509 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8887,7 +11967,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9054,508 +12134,6 @@
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9973,8 +12551,8 @@
       <xdr:rowOff>4233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>560918</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
@@ -9996,6 +12574,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125015</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>738187</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D61490-BBBA-546C-5794-EA41F953842E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>851297</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8F5C4D9-74C2-5AB3-4F5E-972EFF47348C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>363140</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>229790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A28C6024-EB59-0481-1997-09BC23D4BF9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12191,10 +14877,10 @@
       <c r="I13">
         <v>48</v>
       </c>
-      <c r="K13" s="58" t="s">
+      <c r="K13" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="58"/>
+      <c r="L13" s="71"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -17827,16 +20513,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFC6B40-7C31-412A-964F-737CBFAC57B6}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
@@ -17850,524 +20536,603 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="74"/>
-      <c r="B1" s="75" t="s">
+      <c r="A1" s="68"/>
+      <c r="B1" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="70" t="s">
         <v>105</v>
       </c>
       <c r="C2" s="56">
-        <f>D39</f>
+        <f>D40</f>
         <v>747209.67999999993</v>
       </c>
       <c r="D2" s="56"/>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="73">
-        <f>J39</f>
+      <c r="H2" s="67">
+        <f>J40</f>
         <v>0.44849630942950314</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="70" t="s">
         <v>111</v>
       </c>
       <c r="L2" s="56">
-        <f>O39</f>
+        <f>O40</f>
         <v>164312.79</v>
       </c>
     </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D32">
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="68"/>
+      <c r="B15" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="78">
+        <f>D43</f>
+        <v>134942.64000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="78">
+        <f>I43</f>
+        <v>54522.97</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="78">
+        <f>H43</f>
+        <v>80419.670000000013</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="78">
+        <f>O43</f>
+        <v>37694.369999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="79">
+        <f>J43</f>
+        <v>0.40404552630658475</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D33">
         <v>1</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>2</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>3</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>4</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>5</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>6</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>7</v>
       </c>
-      <c r="K32">
+      <c r="K33">
         <v>8</v>
       </c>
-      <c r="L32">
+      <c r="L33">
         <v>9</v>
       </c>
-      <c r="M32">
+      <c r="M33">
         <v>10</v>
       </c>
-      <c r="N32">
+      <c r="N33">
         <v>11</v>
       </c>
-      <c r="O32">
+      <c r="O33">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="64" t="s">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C34" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D34" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E34" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="64" t="s">
+      <c r="F34" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="G33" s="64" t="s">
+      <c r="G34" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="H33" s="64" t="s">
+      <c r="H34" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="64" t="s">
+      <c r="I34" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="J33" s="64" t="s">
+      <c r="J34" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="K33" s="64" t="s">
+      <c r="K34" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="64" t="s">
+      <c r="L34" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="M33" s="64" t="s">
+      <c r="M34" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="64" t="s">
+      <c r="N34" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="64" t="s">
+      <c r="O34" s="58" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="15">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <f>SUMIF(Ventas!B2:B184,Dashboard!C34:C38,Ventas!D2:D184)</f>
-        <v>159277.59000000003</v>
-      </c>
-      <c r="E34" s="3">
-        <f>SUMIF(Ventas!B2:B184,Dashboard!C34:C38,Ventas!E2:E184)</f>
-        <v>138764.61000000002</v>
-      </c>
-      <c r="F34" s="3">
-        <f>SUMIF(Ventas!B2:B184,Dashboard!C34:C38,Ventas!F2:F184)</f>
-        <v>15380.620000000003</v>
-      </c>
-      <c r="G34" s="3">
-        <f>SUMIF(Ventas!B2:B184,Dashboard!C34:C38,Ventas!G2:G184)</f>
-        <v>5132.3599999999997</v>
-      </c>
-      <c r="H34" s="3">
-        <f>SUMIF(Ventas!B2:B184,Dashboard!C34:C38,Ventas!H2:H184)</f>
-        <v>86861.320000000036</v>
-      </c>
-      <c r="I34" s="56">
-        <f>D34-H34</f>
-        <v>72416.26999999999</v>
-      </c>
-      <c r="J34" s="65">
-        <f>I34/D34</f>
-        <v>0.4546544808971556</v>
-      </c>
-      <c r="K34" s="15">
-        <f>SUMIF(Ventas!B2:B184,Dashboard!C34:C38,Ventas!I2:I184)</f>
-        <v>1585</v>
-      </c>
-      <c r="L34" s="3">
-        <f>VLOOKUP(Dashboard!C34,'Ventas x tienda'!A2:F6,4,0)</f>
-        <v>45580.68</v>
-      </c>
-      <c r="M34" s="3">
-        <f>VLOOKUP(C34,'Ventas x tienda'!A2:F6,5,0)</f>
-        <v>34493.49</v>
-      </c>
-      <c r="N34" s="3">
-        <f>VLOOKUP(C34,'Ventas x tienda'!A2:F6,6,0)</f>
-        <v>43116.86</v>
-      </c>
-      <c r="O34" s="3">
-        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B34,'Gastos mensuales'!$A$1:$A$10)</f>
-        <v>28156.440000000002</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="3">
-        <f>SUMIF(Ventas!B3:B185,Dashboard!C35:C39,Ventas!D3:D185)</f>
-        <v>151460.30000000002</v>
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C35:C39,Ventas!D2:D184)</f>
+        <v>159277.59000000003</v>
       </c>
       <c r="E35" s="3">
-        <f>SUMIF(Ventas!B3:B185,Dashboard!C35:C39,Ventas!E3:E185)</f>
-        <v>121277.60999999997</v>
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C35:C39,Ventas!E2:E184)</f>
+        <v>138764.61000000002</v>
       </c>
       <c r="F35" s="3">
-        <f>SUMIF(Ventas!B3:B185,Dashboard!C35:C39,Ventas!F3:F185)</f>
-        <v>30182.690000000002</v>
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C35:C39,Ventas!F2:F184)</f>
+        <v>15380.620000000003</v>
       </c>
       <c r="G35" s="3">
-        <f>SUMIF(Ventas!B3:B185,Dashboard!C35:C39,Ventas!G3:G185)</f>
-        <v>0</v>
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C35:C39,Ventas!G2:G184)</f>
+        <v>5132.3599999999997</v>
       </c>
       <c r="H35" s="3">
-        <f>SUMIF(Ventas!B3:B185,Dashboard!C35:C39,Ventas!H3:H185)</f>
-        <v>83207.290000000023</v>
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C35:C39,Ventas!H2:H184)</f>
+        <v>86861.320000000036</v>
       </c>
       <c r="I35" s="56">
-        <f t="shared" ref="I35:I38" si="0">D35-H35</f>
-        <v>68253.009999999995</v>
-      </c>
-      <c r="J35" s="65">
-        <f t="shared" ref="J35:J39" si="1">I35/D35</f>
-        <v>0.450633004160166</v>
+        <f>D35-H35</f>
+        <v>72416.26999999999</v>
+      </c>
+      <c r="J35" s="59">
+        <f>I35/D35</f>
+        <v>0.4546544808971556</v>
       </c>
       <c r="K35" s="15">
-        <f>SUMIF(Ventas!B3:B185,Dashboard!C35:C39,Ventas!I3:I185)</f>
-        <v>1346</v>
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C35:C39,Ventas!I2:I184)</f>
+        <v>1585</v>
       </c>
       <c r="L35" s="3">
-        <f>VLOOKUP(Dashboard!C35,'Ventas x tienda'!A3:F7,4,0)</f>
-        <v>41884.949999999997</v>
+        <f>VLOOKUP(Dashboard!C35,'Ventas x tienda'!A2:F6,4,0)</f>
+        <v>45580.68</v>
       </c>
       <c r="M35" s="3">
-        <f>VLOOKUP(C35,'Ventas x tienda'!A3:F7,5,0)</f>
-        <v>35725.4</v>
+        <f>VLOOKUP(C35,'Ventas x tienda'!A2:F6,5,0)</f>
+        <v>34493.49</v>
       </c>
       <c r="N35" s="3">
-        <f>VLOOKUP(C35,'Ventas x tienda'!A3:F7,6,0)</f>
-        <v>33078.1</v>
+        <f>VLOOKUP(C35,'Ventas x tienda'!A2:F6,6,0)</f>
+        <v>43116.86</v>
       </c>
       <c r="O35" s="3">
         <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B35,'Gastos mensuales'!$A$1:$A$10)</f>
-        <v>28565.140000000003</v>
+        <v>28156.440000000002</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="15">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C36:C40,Ventas!D3:D185)</f>
+        <v>151460.30000000002</v>
+      </c>
+      <c r="E36" s="3">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C36:C40,Ventas!E3:E185)</f>
+        <v>121277.60999999997</v>
+      </c>
+      <c r="F36" s="3">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C36:C40,Ventas!F3:F185)</f>
+        <v>30182.690000000002</v>
+      </c>
+      <c r="G36" s="3">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C36:C40,Ventas!G3:G185)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C36:C40,Ventas!H3:H185)</f>
+        <v>83207.290000000023</v>
+      </c>
+      <c r="I36" s="56">
+        <f t="shared" ref="I36:I39" si="0">D36-H36</f>
+        <v>68253.009999999995</v>
+      </c>
+      <c r="J36" s="59">
+        <f t="shared" ref="J36:J39" si="1">I36/D36</f>
+        <v>0.450633004160166</v>
+      </c>
+      <c r="K36" s="15">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C36:C40,Ventas!I3:I185)</f>
+        <v>1346</v>
+      </c>
+      <c r="L36" s="3">
+        <f>VLOOKUP(Dashboard!C36,'Ventas x tienda'!A3:F7,4,0)</f>
+        <v>41884.949999999997</v>
+      </c>
+      <c r="M36" s="3">
+        <f>VLOOKUP(C36,'Ventas x tienda'!A3:F7,5,0)</f>
+        <v>35725.4</v>
+      </c>
+      <c r="N36" s="3">
+        <f>VLOOKUP(C36,'Ventas x tienda'!A3:F7,6,0)</f>
+        <v>33078.1</v>
+      </c>
+      <c r="O36" s="3">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B36,'Gastos mensuales'!$A$1:$A$10)</f>
+        <v>28565.140000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C37" s="15">
         <v>3</v>
       </c>
-      <c r="D36" s="3">
-        <f>SUMIF(Ventas!B4:B186,Dashboard!C36:C40,Ventas!D4:D186)</f>
+      <c r="D37" s="3">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C37:C41,Ventas!D4:D186)</f>
         <v>140334.59</v>
       </c>
-      <c r="E36" s="3">
-        <f>SUMIF(Ventas!B4:B186,Dashboard!C36:C40,Ventas!E4:E186)</f>
+      <c r="E37" s="3">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C37:C41,Ventas!E4:E186)</f>
         <v>119819.94999999998</v>
       </c>
-      <c r="F36" s="3">
-        <f>SUMIF(Ventas!B4:B186,Dashboard!C36:C40,Ventas!F4:F186)</f>
+      <c r="F37" s="3">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C37:C41,Ventas!F4:F186)</f>
         <v>20339.64</v>
       </c>
-      <c r="G36" s="3">
-        <f>SUMIF(Ventas!B4:B186,Dashboard!C36:C40,Ventas!G4:G186)</f>
+      <c r="G37" s="3">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C37:C41,Ventas!G4:G186)</f>
         <v>175</v>
       </c>
-      <c r="H36" s="3">
-        <f>SUMIF(Ventas!B4:B186,Dashboard!C36:C40,Ventas!H4:H186)</f>
+      <c r="H37" s="3">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C37:C41,Ventas!H4:H186)</f>
         <v>66422.169999999984</v>
       </c>
-      <c r="I36" s="56">
+      <c r="I37" s="56">
         <f t="shared" si="0"/>
         <v>73912.420000000013</v>
       </c>
-      <c r="J36" s="65">
+      <c r="J37" s="59">
         <f t="shared" si="1"/>
         <v>0.52668711256433653</v>
       </c>
-      <c r="K36" s="15">
-        <f>SUMIF(Ventas!B4:B186,Dashboard!C36:C40,Ventas!I4:I186)</f>
+      <c r="K37" s="15">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C37:C41,Ventas!I4:I186)</f>
         <v>1304</v>
       </c>
-      <c r="L36" s="3">
-        <f>VLOOKUP(Dashboard!C36,'Ventas x tienda'!A4:F8,4,0)</f>
+      <c r="L37" s="3">
+        <f>VLOOKUP(Dashboard!C37,'Ventas x tienda'!A4:F8,4,0)</f>
         <v>44348.77</v>
       </c>
-      <c r="M36" s="3">
-        <f>VLOOKUP(C36,'Ventas x tienda'!A4:F8,5,0)</f>
+      <c r="M37" s="3">
+        <f>VLOOKUP(C37,'Ventas x tienda'!A4:F8,5,0)</f>
         <v>36957.31</v>
       </c>
-      <c r="N36" s="3">
-        <f>VLOOKUP(C36,'Ventas x tienda'!A4:F8,6,0)</f>
+      <c r="N37" s="3">
+        <f>VLOOKUP(C37,'Ventas x tienda'!A4:F8,6,0)</f>
         <v>40121.120000000003</v>
       </c>
-      <c r="O36" s="3">
-        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B36,'Gastos mensuales'!$A$1:$A$10)</f>
+      <c r="O37" s="3">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B37,'Gastos mensuales'!$A$1:$A$10)</f>
         <v>33720.93</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C38" s="15">
         <v>4</v>
       </c>
-      <c r="D37" s="3">
-        <f>SUMIF(Ventas!B5:B187,Dashboard!C37:C41,Ventas!D5:D187)</f>
+      <c r="D38" s="3">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C38:C42,Ventas!D5:D187)</f>
         <v>134942.64000000001</v>
       </c>
-      <c r="E37" s="3">
-        <f>SUMIF(Ventas!B5:B187,Dashboard!C37:C41,Ventas!E5:E187)</f>
+      <c r="E38" s="3">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C38:C42,Ventas!E5:E187)</f>
         <v>117844.51000000001</v>
       </c>
-      <c r="F37" s="3">
-        <f>SUMIF(Ventas!B5:B187,Dashboard!C37:C41,Ventas!F5:F187)</f>
+      <c r="F38" s="3">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C38:C42,Ventas!F5:F187)</f>
         <v>17098.13</v>
       </c>
-      <c r="G37" s="3">
-        <f>SUMIF(Ventas!B5:B187,Dashboard!C37:C41,Ventas!G5:G187)</f>
+      <c r="G38" s="3">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C38:C42,Ventas!G5:G187)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="3">
-        <f>SUMIF(Ventas!B5:B187,Dashboard!C37:C41,Ventas!H5:H187)</f>
+      <c r="H38" s="3">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C38:C42,Ventas!H5:H187)</f>
         <v>80419.670000000013</v>
       </c>
-      <c r="I37" s="56">
+      <c r="I38" s="56">
         <f t="shared" si="0"/>
         <v>54522.97</v>
       </c>
-      <c r="J37" s="65">
+      <c r="J38" s="59">
         <f t="shared" si="1"/>
         <v>0.40404552630658475</v>
       </c>
-      <c r="K37" s="15">
-        <f>SUMIF(Ventas!B5:B187,Dashboard!C37:C41,Ventas!I5:I187)</f>
+      <c r="K38" s="15">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C38:C42,Ventas!I5:I187)</f>
         <v>1241</v>
       </c>
-      <c r="L37" s="3">
-        <f>VLOOKUP(Dashboard!C37,'Ventas x tienda'!A5:F9,4,0)</f>
+      <c r="L38" s="3">
+        <f>VLOOKUP(Dashboard!C38,'Ventas x tienda'!A5:F9,4,0)</f>
         <v>43116.86</v>
       </c>
-      <c r="M37" s="3">
-        <f>VLOOKUP(C37,'Ventas x tienda'!A5:F9,5,0)</f>
+      <c r="M38" s="3">
+        <f>VLOOKUP(C38,'Ventas x tienda'!A5:F9,5,0)</f>
         <v>36957.31</v>
       </c>
-      <c r="N37" s="3">
-        <f>VLOOKUP(C37,'Ventas x tienda'!A5:F9,6,0)</f>
+      <c r="N38" s="3">
+        <f>VLOOKUP(C38,'Ventas x tienda'!A5:F9,6,0)</f>
         <v>38483.050000000003</v>
       </c>
-      <c r="O37" s="3">
-        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B37,'Gastos mensuales'!$A$1:$A$10)</f>
+      <c r="O38" s="3">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B38,'Gastos mensuales'!$A$1:$A$10)</f>
         <v>37694.369999999995</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C39" s="15">
         <v>5</v>
       </c>
-      <c r="D38" s="3">
-        <f>SUMIF(Ventas!B6:B188,Dashboard!C38:C42,Ventas!D6:D188)</f>
+      <c r="D39" s="3">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C39:C43,Ventas!D6:D188)</f>
         <v>161194.56</v>
       </c>
-      <c r="E38" s="3">
-        <f>SUMIF(Ventas!B6:B188,Dashboard!C38:C42,Ventas!E6:E188)</f>
+      <c r="E39" s="3">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C39:C43,Ventas!E6:E188)</f>
         <v>133998.82999999999</v>
       </c>
-      <c r="F38" s="3">
-        <f>SUMIF(Ventas!B6:B188,Dashboard!C38:C42,Ventas!F6:F188)</f>
+      <c r="F39" s="3">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C39:C43,Ventas!F6:F188)</f>
         <v>24641.710000000003</v>
       </c>
-      <c r="G38" s="3">
-        <f>SUMIF(Ventas!B6:B188,Dashboard!C38:C42,Ventas!G6:G188)</f>
+      <c r="G39" s="3">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C39:C43,Ventas!G6:G188)</f>
         <v>2554.02</v>
       </c>
-      <c r="H38" s="3">
-        <f>SUMIF(Ventas!B6:B188,Dashboard!C38:C42,Ventas!H6:H188)</f>
+      <c r="H39" s="3">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C39:C43,Ventas!H6:H188)</f>
         <v>95178.446149999974</v>
       </c>
-      <c r="I38" s="56">
+      <c r="I39" s="56">
         <f t="shared" si="0"/>
         <v>66016.113850000023</v>
       </c>
-      <c r="J38" s="65">
+      <c r="J39" s="59">
         <f t="shared" si="1"/>
         <v>0.40954306305374094</v>
       </c>
-      <c r="K38" s="15">
-        <f>SUMIF(Ventas!B6:B188,Dashboard!C38:C42,Ventas!I6:I188)</f>
+      <c r="K39" s="15">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C39:C43,Ventas!I6:I188)</f>
         <v>1397</v>
       </c>
-      <c r="L38" s="3">
-        <f>VLOOKUP(Dashboard!C38,'Ventas x tienda'!A6:F10,4,0)</f>
+      <c r="L39" s="3">
+        <f>VLOOKUP(Dashboard!C39,'Ventas x tienda'!A6:F10,4,0)</f>
         <v>43116.86</v>
       </c>
-      <c r="M38" s="3">
-        <f>VLOOKUP(C38,'Ventas x tienda'!A6:F10,5,0)</f>
+      <c r="M39" s="3">
+        <f>VLOOKUP(C39,'Ventas x tienda'!A6:F10,5,0)</f>
         <v>34493.49</v>
       </c>
-      <c r="N38" s="3">
-        <f>VLOOKUP(C38,'Ventas x tienda'!A6:F10,6,0)</f>
+      <c r="N39" s="3">
+        <f>VLOOKUP(C39,'Ventas x tienda'!A6:F10,6,0)</f>
         <v>48092.27</v>
       </c>
-      <c r="O38" s="3">
-        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B38,'Gastos mensuales'!$A$1:$A$10)</f>
+      <c r="O39" s="3">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B39,'Gastos mensuales'!$A$1:$A$10)</f>
         <v>36175.910000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="66" t="s">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="67">
-        <f>SUM(D34:D38)</f>
+      <c r="C40" s="60"/>
+      <c r="D40" s="61">
+        <f t="shared" ref="D40:I40" si="2">SUM(D35:D39)</f>
         <v>747209.67999999993</v>
       </c>
-      <c r="E39" s="67">
-        <f>SUM(E34:E38)</f>
+      <c r="E40" s="61">
+        <f t="shared" si="2"/>
         <v>631705.50999999989</v>
       </c>
-      <c r="F39" s="67">
-        <f>SUM(F34:F38)</f>
+      <c r="F40" s="61">
+        <f t="shared" si="2"/>
         <v>107642.79000000002</v>
       </c>
-      <c r="G39" s="67">
-        <f>SUM(G34:G38)</f>
+      <c r="G40" s="61">
+        <f t="shared" si="2"/>
         <v>7861.3799999999992</v>
       </c>
-      <c r="H39" s="67">
-        <f>SUM(H34:H38)</f>
+      <c r="H40" s="61">
+        <f t="shared" si="2"/>
         <v>412088.89615000004</v>
       </c>
-      <c r="I39" s="67">
-        <f>SUM(I34:I38)</f>
+      <c r="I40" s="61">
+        <f t="shared" si="2"/>
         <v>335120.78385000001</v>
       </c>
-      <c r="J39" s="68">
-        <f>I39/D39</f>
+      <c r="J40" s="62">
+        <f>I40/D40</f>
         <v>0.44849630942950314</v>
       </c>
-      <c r="K39" s="69">
-        <f>SUM(K34:K38)</f>
+      <c r="K40" s="63">
+        <f>SUM(K35:K39)</f>
         <v>6873</v>
       </c>
-      <c r="L39" s="67">
-        <f>SUM(L34:L38)</f>
+      <c r="L40" s="61">
+        <f>SUM(L35:L39)</f>
         <v>218048.12</v>
       </c>
-      <c r="M39" s="67">
-        <f>SUM(M34:M38)</f>
+      <c r="M40" s="61">
+        <f>SUM(M35:M39)</f>
         <v>178627</v>
       </c>
-      <c r="N39" s="67">
-        <f>SUM(N34:N38)</f>
+      <c r="N40" s="61">
+        <f>SUM(N35:N39)</f>
         <v>202891.4</v>
       </c>
-      <c r="O39" s="67">
-        <f>SUM(O34:O38)</f>
+      <c r="O40" s="61">
+        <f>SUM(O35:O39)</f>
         <v>164312.79</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="70">
-        <f>VLOOKUP(B42,B34:C38,2,0)</f>
-        <v>5</v>
-      </c>
-      <c r="D42" s="71">
-        <f>INDEX(D34:$O$38,C42,D32)</f>
-        <v>161194.56</v>
-      </c>
-      <c r="E42" s="71">
-        <f>INDEX(datos_p,C42,2)</f>
-        <v>133998.82999999999</v>
-      </c>
-      <c r="F42" s="71">
-        <f>INDEX(datos_p,C42,3)</f>
-        <v>24641.710000000003</v>
-      </c>
-      <c r="G42" s="71">
-        <f>INDEX(datos_p,C42,4)</f>
-        <v>2554.02</v>
-      </c>
-      <c r="H42" s="71">
-        <f>INDEX(datos_p,C42,5)</f>
-        <v>95178.446149999974</v>
-      </c>
-      <c r="I42" s="71">
-        <f>INDEX(datos_p,C42,6)</f>
-        <v>66016.113850000023</v>
-      </c>
-      <c r="J42" s="72">
-        <f>INDEX(datos_p,C42,7)</f>
-        <v>0.40954306305374094</v>
-      </c>
-      <c r="K42" s="70">
-        <f>INDEX(datos_p,C42,8)</f>
-        <v>1397</v>
-      </c>
-      <c r="L42" s="71">
-        <f>INDEX(datos_p,C42,9)</f>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="64" t="str">
+        <f>C18</f>
+        <v>Abril</v>
+      </c>
+      <c r="C43" s="64">
+        <f>VLOOKUP(B43,B35:C39,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D43" s="65">
+        <f>INDEX(D35:$O$39,C43,D33)</f>
+        <v>134942.64000000001</v>
+      </c>
+      <c r="E43" s="65">
+        <f>INDEX(datos_p,C43,2)</f>
+        <v>117844.51000000001</v>
+      </c>
+      <c r="F43" s="65">
+        <f>INDEX(datos_p,C43,3)</f>
+        <v>17098.13</v>
+      </c>
+      <c r="G43" s="65">
+        <f>INDEX(datos_p,C43,4)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="65">
+        <f>INDEX(datos_p,C43,5)</f>
+        <v>80419.670000000013</v>
+      </c>
+      <c r="I43" s="65">
+        <f>INDEX(datos_p,C43,6)</f>
+        <v>54522.97</v>
+      </c>
+      <c r="J43" s="66">
+        <f>INDEX(datos_p,C43,7)</f>
+        <v>0.40404552630658475</v>
+      </c>
+      <c r="K43" s="64">
+        <f>INDEX(datos_p,C43,8)</f>
+        <v>1241</v>
+      </c>
+      <c r="L43" s="65">
+        <f>INDEX(datos_p,C43,9)</f>
         <v>43116.86</v>
       </c>
-      <c r="M42" s="71">
-        <f>INDEX(datos_p,C42,M32)</f>
-        <v>34493.49</v>
-      </c>
-      <c r="N42" s="71">
-        <f>INDEX(datos_p,C42,N32)</f>
-        <v>48092.27</v>
-      </c>
-      <c r="O42" s="71">
-        <f>INDEX(datos_p,C42,O32)</f>
-        <v>36175.910000000003</v>
+      <c r="M43" s="65">
+        <f>INDEX(datos_p,C43,M33)</f>
+        <v>36957.31</v>
+      </c>
+      <c r="N43" s="65">
+        <f>INDEX(datos_p,C43,N33)</f>
+        <v>38483.050000000003</v>
+      </c>
+      <c r="O43" s="65">
+        <f>INDEX(datos_p,C43,O33)</f>
+        <v>37694.369999999995</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{A5D26690-5C56-468A-A966-543703743E9C}">
+      <formula1>$B$35:$B$39</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18593,12 +21358,12 @@
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -18757,12 +21522,12 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="12" t="s">
@@ -19331,19 +22096,19 @@
       <c r="F1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="M1" s="62" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="M1" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="P1" s="63" t="s">
+      <c r="N1" s="75"/>
+      <c r="P1" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="63"/>
+      <c r="Q1" s="76"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC3D2E1-AC78-425E-9111-344B1BE8DD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFE45D5-F306-4BA0-B0CE-85CC497BB030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
@@ -2840,13 +2840,42 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2934,16 +2963,16 @@
                 <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>134942.64000000001</c:v>
+                  <c:v>161194.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54522.97</c:v>
+                  <c:v>66016.113850000023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80419.670000000013</c:v>
+                  <c:v>95178.446149999974</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37694.369999999995</c:v>
+                  <c:v>36175.910000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2963,8 +2992,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="1742612031"/>
         <c:axId val="1864248895"/>
       </c:barChart>
@@ -2981,7 +3010,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2998,11 +3027,6 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="D37A03"/>
-                  </a:solidFill>
-                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3031,6 +3055,20 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3127,13 +3165,42 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3145,13 +3212,42 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3163,13 +3259,42 @@
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3257,13 +3382,13 @@
                 <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>117844.51000000001</c:v>
+                  <c:v>133998.82999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17098.13</c:v>
+                  <c:v>24641.710000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2554.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3296,90 +3421,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="D37A03"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="D37A03"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="D37A03"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3594,10 +3635,10 @@
                   <c:v>43116.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36957.31</c:v>
+                  <c:v>34493.49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38483.050000000003</c:v>
+                  <c:v>48092.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9479,7 +9520,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9490,7 +9531,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -9503,7 +9544,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -9520,7 +9561,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9536,7 +9577,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -9580,35 +9621,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9620,30 +9661,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9745,14 +9787,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -9842,20 +9878,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -9868,6 +9904,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -9899,7 +9946,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9908,14 +9955,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -9969,20 +10015,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9993,7 +10033,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -10006,7 +10046,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -10023,7 +10063,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -10083,49 +10123,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10137,10 +10163,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -10149,16 +10175,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -10200,23 +10227,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -10263,14 +10289,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -10321,8 +10341,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10360,20 +10380,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -10386,6 +10406,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -10417,7 +10448,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -10426,14 +10457,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -10454,20 +10484,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10488,14 +10517,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -20516,7 +20539,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20602,7 +20625,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -20611,7 +20634,7 @@
       </c>
       <c r="C19" s="78">
         <f>D43</f>
-        <v>134942.64000000001</v>
+        <v>161194.56</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -20620,7 +20643,7 @@
       </c>
       <c r="C20" s="78">
         <f>I43</f>
-        <v>54522.97</v>
+        <v>66016.113850000023</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -20629,7 +20652,7 @@
       </c>
       <c r="C21" s="78">
         <f>H43</f>
-        <v>80419.670000000013</v>
+        <v>95178.446149999974</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -20638,7 +20661,7 @@
       </c>
       <c r="C22" s="78">
         <f>O43</f>
-        <v>37694.369999999995</v>
+        <v>36175.910000000003</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -20647,7 +20670,7 @@
       </c>
       <c r="C23" s="79">
         <f>J43</f>
-        <v>0.40404552630658475</v>
+        <v>0.40954306305374094</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -21069,43 +21092,43 @@
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="64" t="str">
         <f>C18</f>
-        <v>Abril</v>
+        <v>Mayo</v>
       </c>
       <c r="C43" s="64">
         <f>VLOOKUP(B43,B35:C39,2,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" s="65">
         <f>INDEX(D35:$O$39,C43,D33)</f>
-        <v>134942.64000000001</v>
+        <v>161194.56</v>
       </c>
       <c r="E43" s="65">
         <f>INDEX(datos_p,C43,2)</f>
-        <v>117844.51000000001</v>
+        <v>133998.82999999999</v>
       </c>
       <c r="F43" s="65">
         <f>INDEX(datos_p,C43,3)</f>
-        <v>17098.13</v>
+        <v>24641.710000000003</v>
       </c>
       <c r="G43" s="65">
         <f>INDEX(datos_p,C43,4)</f>
-        <v>0</v>
+        <v>2554.02</v>
       </c>
       <c r="H43" s="65">
         <f>INDEX(datos_p,C43,5)</f>
-        <v>80419.670000000013</v>
+        <v>95178.446149999974</v>
       </c>
       <c r="I43" s="65">
         <f>INDEX(datos_p,C43,6)</f>
-        <v>54522.97</v>
+        <v>66016.113850000023</v>
       </c>
       <c r="J43" s="66">
         <f>INDEX(datos_p,C43,7)</f>
-        <v>0.40404552630658475</v>
+        <v>0.40954306305374094</v>
       </c>
       <c r="K43" s="64">
         <f>INDEX(datos_p,C43,8)</f>
-        <v>1241</v>
+        <v>1397</v>
       </c>
       <c r="L43" s="65">
         <f>INDEX(datos_p,C43,9)</f>
@@ -21113,15 +21136,15 @@
       </c>
       <c r="M43" s="65">
         <f>INDEX(datos_p,C43,M33)</f>
-        <v>36957.31</v>
+        <v>34493.49</v>
       </c>
       <c r="N43" s="65">
         <f>INDEX(datos_p,C43,N33)</f>
-        <v>38483.050000000003</v>
+        <v>48092.27</v>
       </c>
       <c r="O43" s="65">
         <f>INDEX(datos_p,C43,O33)</f>
-        <v>37694.369999999995</v>
+        <v>36175.910000000003</v>
       </c>
     </row>
   </sheetData>

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFE45D5-F306-4BA0-B0CE-85CC497BB030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6831E7-8B58-43AC-BA78-76C696DBE943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ventas!$A$1:$I$184</definedName>
-    <definedName name="datos_p">Dashboard!$D$35:$O$39</definedName>
+    <definedName name="datos_p">Dashboard!$D$42:$O$46</definedName>
     <definedName name="JR_PAGE_ANCHOR_0_1">[1]Ventas!#REF!</definedName>
     <definedName name="SegmentaciónDeDatos_Mes">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Nombre_Vendedor">#N/A</definedName>
@@ -769,7 +769,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -897,6 +897,16 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -915,16 +925,7 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -1045,7 +1046,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$B$35:$B$39</c:f>
+              <c:f>Dashboard!$B$42:$B$46</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1068,7 +1069,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$D$35:$D$39</c:f>
+              <c:f>Dashboard!$D$42:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1140,15 +1141,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
+                  <a:noFill/>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="D37A03"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1172,20 +1168,6 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2280,7 +2262,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$B$35:$B$39</c:f>
+              <c:f>Dashboard!$B$42:$B$46</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2303,7 +2285,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$J$35:$J$39</c:f>
+              <c:f>Dashboard!$J$42:$J$46</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2375,15 +2357,10 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
+                  <a:noFill/>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="D37A03"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2407,20 +2384,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2613,7 +2576,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$B$35:$B$39</c:f>
+              <c:f>Dashboard!$B$42:$B$46</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2636,7 +2599,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$O$35:$O$39</c:f>
+              <c:f>Dashboard!$O$42:$O$46</c:f>
               <c:numCache>
                 <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2709,16 +2672,12 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
+                  <a:noFill/>
                 </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="D37A03"/>
                 </a:solidFill>
+                <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2741,20 +2700,6 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2938,7 +2883,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$B$19:$B$22</c:f>
+              <c:f>Dashboard!$B$22:$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2958,7 +2903,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$C$19:$C$22</c:f>
+              <c:f>Dashboard!$C$22:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3055,20 +3000,6 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3360,7 +3291,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$E$34:$G$34</c:f>
+              <c:f>Dashboard!$E$41:$G$41</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3377,7 +3308,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$E$43:$G$43</c:f>
+              <c:f>Dashboard!$E$49:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3610,7 +3541,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dashboard!$L$34:$N$34</c:f>
+              <c:f>Dashboard!$L$41:$N$41</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3627,7 +3558,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$L$43:$N$43</c:f>
+              <c:f>Dashboard!$L$49:$N$49</c:f>
               <c:numCache>
                 <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
@@ -12498,13 +12429,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>4233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1121834</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>984250</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12534,13 +12465,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1010708</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>4233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>455084</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>751417</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>179917</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12570,13 +12501,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>4233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12606,13 +12537,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>125015</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>15479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>738187</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12641,14 +12572,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>851297</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>745464</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>15478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>226218</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>120385</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12677,15 +12608,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>363140</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>229790</xdr:rowOff>
+      <xdr:colOff>130307</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>731573</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>56885</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14900,10 +14831,10 @@
       <c r="I13">
         <v>48</v>
       </c>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="71"/>
+      <c r="L13" s="75"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -20536,10 +20467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFC6B40-7C31-412A-964F-737CBFAC57B6}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20558,599 +20489,603 @@
     <col min="15" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="81"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="56">
-        <f>D40</f>
+      <c r="C5" s="56">
+        <f>D47</f>
         <v>747209.67999999993</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="G2" s="70" t="s">
+      <c r="D5" s="56"/>
+      <c r="G5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="67">
-        <f>J40</f>
+      <c r="H5" s="67">
+        <f>J47</f>
         <v>0.44849630942950314</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K5" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="56">
-        <f>O40</f>
+      <c r="L5" s="56">
+        <f>O47</f>
         <v>164312.79</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="81"/>
+    </row>
+    <row r="18" spans="2:15" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B18" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="77" t="s">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+    </row>
+    <row r="21" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C21" s="74" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="77" t="s">
+    <row r="22" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="78">
-        <f>D43</f>
+      <c r="C22" s="72">
+        <f>D49</f>
         <v>161194.56</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="77" t="s">
+    <row r="23" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="78">
-        <f>I43</f>
+      <c r="C23" s="72">
+        <f>I49</f>
         <v>66016.113850000023</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="77" t="s">
+    <row r="24" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="78">
-        <f>H43</f>
+      <c r="C24" s="72">
+        <f>H49</f>
         <v>95178.446149999974</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="77" t="s">
+    <row r="25" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="78">
-        <f>O43</f>
+      <c r="C25" s="72">
+        <f>O49</f>
         <v>36175.910000000003</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="77" t="s">
+    <row r="26" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="79">
-        <f>J43</f>
+      <c r="C26" s="73">
+        <f>J49</f>
         <v>0.40954306305374094</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D33">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D40">
         <v>1</v>
       </c>
-      <c r="E33">
+      <c r="E40">
         <v>2</v>
       </c>
-      <c r="F33">
+      <c r="F40">
         <v>3</v>
       </c>
-      <c r="G33">
+      <c r="G40">
         <v>4</v>
       </c>
-      <c r="H33">
+      <c r="H40">
         <v>5</v>
       </c>
-      <c r="I33">
+      <c r="I40">
         <v>6</v>
       </c>
-      <c r="J33">
+      <c r="J40">
         <v>7</v>
       </c>
-      <c r="K33">
+      <c r="K40">
         <v>8</v>
       </c>
-      <c r="L33">
+      <c r="L40">
         <v>9</v>
       </c>
-      <c r="M33">
+      <c r="M40">
         <v>10</v>
       </c>
-      <c r="N33">
+      <c r="N40">
         <v>11</v>
       </c>
-      <c r="O33">
+      <c r="O40">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="58" t="s">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C41" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D41" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="58" t="s">
+      <c r="E41" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="58" t="s">
+      <c r="F41" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="58" t="s">
+      <c r="G41" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="H34" s="58" t="s">
+      <c r="H41" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="58" t="s">
+      <c r="I41" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="J34" s="58" t="s">
+      <c r="J41" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="K34" s="58" t="s">
+      <c r="K41" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="L34" s="58" t="s">
+      <c r="L41" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="M34" s="58" t="s">
+      <c r="M41" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="N34" s="58" t="s">
+      <c r="N41" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="58" t="s">
+      <c r="O41" s="58" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C42" s="15">
         <v>1</v>
       </c>
-      <c r="D35" s="3">
-        <f>SUMIF(Ventas!B2:B184,Dashboard!C35:C39,Ventas!D2:D184)</f>
+      <c r="D42" s="3">
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C42:C46,Ventas!D2:D184)</f>
         <v>159277.59000000003</v>
       </c>
-      <c r="E35" s="3">
-        <f>SUMIF(Ventas!B2:B184,Dashboard!C35:C39,Ventas!E2:E184)</f>
+      <c r="E42" s="3">
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C42:C46,Ventas!E2:E184)</f>
         <v>138764.61000000002</v>
       </c>
-      <c r="F35" s="3">
-        <f>SUMIF(Ventas!B2:B184,Dashboard!C35:C39,Ventas!F2:F184)</f>
+      <c r="F42" s="3">
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C42:C46,Ventas!F2:F184)</f>
         <v>15380.620000000003</v>
       </c>
-      <c r="G35" s="3">
-        <f>SUMIF(Ventas!B2:B184,Dashboard!C35:C39,Ventas!G2:G184)</f>
+      <c r="G42" s="3">
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C42:C46,Ventas!G2:G184)</f>
         <v>5132.3599999999997</v>
       </c>
-      <c r="H35" s="3">
-        <f>SUMIF(Ventas!B2:B184,Dashboard!C35:C39,Ventas!H2:H184)</f>
+      <c r="H42" s="3">
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C42:C46,Ventas!H2:H184)</f>
         <v>86861.320000000036</v>
       </c>
-      <c r="I35" s="56">
-        <f>D35-H35</f>
+      <c r="I42" s="56">
+        <f>D42-H42</f>
         <v>72416.26999999999</v>
       </c>
-      <c r="J35" s="59">
-        <f>I35/D35</f>
+      <c r="J42" s="59">
+        <f>I42/D42</f>
         <v>0.4546544808971556</v>
       </c>
-      <c r="K35" s="15">
-        <f>SUMIF(Ventas!B2:B184,Dashboard!C35:C39,Ventas!I2:I184)</f>
+      <c r="K42" s="15">
+        <f>SUMIF(Ventas!B2:B184,Dashboard!C42:C46,Ventas!I2:I184)</f>
         <v>1585</v>
       </c>
-      <c r="L35" s="3">
-        <f>VLOOKUP(Dashboard!C35,'Ventas x tienda'!A2:F6,4,0)</f>
+      <c r="L42" s="3">
+        <f>VLOOKUP(Dashboard!C42,'Ventas x tienda'!A2:F6,4,0)</f>
         <v>45580.68</v>
       </c>
-      <c r="M35" s="3">
-        <f>VLOOKUP(C35,'Ventas x tienda'!A2:F6,5,0)</f>
+      <c r="M42" s="3">
+        <f>VLOOKUP(C42,'Ventas x tienda'!A2:F6,5,0)</f>
         <v>34493.49</v>
       </c>
-      <c r="N35" s="3">
-        <f>VLOOKUP(C35,'Ventas x tienda'!A2:F6,6,0)</f>
+      <c r="N42" s="3">
+        <f>VLOOKUP(C42,'Ventas x tienda'!A2:F6,6,0)</f>
         <v>43116.86</v>
       </c>
-      <c r="O35" s="3">
-        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B35,'Gastos mensuales'!$A$1:$A$10)</f>
+      <c r="O42" s="3">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B42,'Gastos mensuales'!$A$1:$A$10)</f>
         <v>28156.440000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C43" s="15">
         <v>2</v>
       </c>
-      <c r="D36" s="3">
-        <f>SUMIF(Ventas!B3:B185,Dashboard!C36:C40,Ventas!D3:D185)</f>
+      <c r="D43" s="3">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C43:C47,Ventas!D3:D185)</f>
         <v>151460.30000000002</v>
       </c>
-      <c r="E36" s="3">
-        <f>SUMIF(Ventas!B3:B185,Dashboard!C36:C40,Ventas!E3:E185)</f>
+      <c r="E43" s="3">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C43:C47,Ventas!E3:E185)</f>
         <v>121277.60999999997</v>
       </c>
-      <c r="F36" s="3">
-        <f>SUMIF(Ventas!B3:B185,Dashboard!C36:C40,Ventas!F3:F185)</f>
+      <c r="F43" s="3">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C43:C47,Ventas!F3:F185)</f>
         <v>30182.690000000002</v>
       </c>
-      <c r="G36" s="3">
-        <f>SUMIF(Ventas!B3:B185,Dashboard!C36:C40,Ventas!G3:G185)</f>
+      <c r="G43" s="3">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C43:C47,Ventas!G3:G185)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="3">
-        <f>SUMIF(Ventas!B3:B185,Dashboard!C36:C40,Ventas!H3:H185)</f>
+      <c r="H43" s="3">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C43:C47,Ventas!H3:H185)</f>
         <v>83207.290000000023</v>
       </c>
-      <c r="I36" s="56">
-        <f t="shared" ref="I36:I39" si="0">D36-H36</f>
+      <c r="I43" s="56">
+        <f t="shared" ref="I43:I46" si="0">D43-H43</f>
         <v>68253.009999999995</v>
       </c>
-      <c r="J36" s="59">
-        <f t="shared" ref="J36:J39" si="1">I36/D36</f>
+      <c r="J43" s="59">
+        <f t="shared" ref="J43:J46" si="1">I43/D43</f>
         <v>0.450633004160166</v>
       </c>
-      <c r="K36" s="15">
-        <f>SUMIF(Ventas!B3:B185,Dashboard!C36:C40,Ventas!I3:I185)</f>
+      <c r="K43" s="15">
+        <f>SUMIF(Ventas!B3:B185,Dashboard!C43:C47,Ventas!I3:I185)</f>
         <v>1346</v>
       </c>
-      <c r="L36" s="3">
-        <f>VLOOKUP(Dashboard!C36,'Ventas x tienda'!A3:F7,4,0)</f>
+      <c r="L43" s="3">
+        <f>VLOOKUP(Dashboard!C43,'Ventas x tienda'!A3:F7,4,0)</f>
         <v>41884.949999999997</v>
       </c>
-      <c r="M36" s="3">
-        <f>VLOOKUP(C36,'Ventas x tienda'!A3:F7,5,0)</f>
+      <c r="M43" s="3">
+        <f>VLOOKUP(C43,'Ventas x tienda'!A3:F7,5,0)</f>
         <v>35725.4</v>
       </c>
-      <c r="N36" s="3">
-        <f>VLOOKUP(C36,'Ventas x tienda'!A3:F7,6,0)</f>
+      <c r="N43" s="3">
+        <f>VLOOKUP(C43,'Ventas x tienda'!A3:F7,6,0)</f>
         <v>33078.1</v>
       </c>
-      <c r="O36" s="3">
-        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B36,'Gastos mensuales'!$A$1:$A$10)</f>
+      <c r="O43" s="3">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B43,'Gastos mensuales'!$A$1:$A$10)</f>
         <v>28565.140000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C44" s="15">
         <v>3</v>
       </c>
-      <c r="D37" s="3">
-        <f>SUMIF(Ventas!B4:B186,Dashboard!C37:C41,Ventas!D4:D186)</f>
+      <c r="D44" s="3">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C41:C47,Ventas!D4:D186)</f>
         <v>140334.59</v>
       </c>
-      <c r="E37" s="3">
-        <f>SUMIF(Ventas!B4:B186,Dashboard!C37:C41,Ventas!E4:E186)</f>
+      <c r="E44" s="3">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C41:C47,Ventas!E4:E186)</f>
         <v>119819.94999999998</v>
       </c>
-      <c r="F37" s="3">
-        <f>SUMIF(Ventas!B4:B186,Dashboard!C37:C41,Ventas!F4:F186)</f>
+      <c r="F44" s="3">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C41:C47,Ventas!F4:F186)</f>
         <v>20339.64</v>
       </c>
-      <c r="G37" s="3">
-        <f>SUMIF(Ventas!B4:B186,Dashboard!C37:C41,Ventas!G4:G186)</f>
+      <c r="G44" s="3">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C41:C47,Ventas!G4:G186)</f>
         <v>175</v>
       </c>
-      <c r="H37" s="3">
-        <f>SUMIF(Ventas!B4:B186,Dashboard!C37:C41,Ventas!H4:H186)</f>
+      <c r="H44" s="3">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C41:C47,Ventas!H4:H186)</f>
         <v>66422.169999999984</v>
       </c>
-      <c r="I37" s="56">
+      <c r="I44" s="56">
         <f t="shared" si="0"/>
         <v>73912.420000000013</v>
       </c>
-      <c r="J37" s="59">
+      <c r="J44" s="59">
         <f t="shared" si="1"/>
         <v>0.52668711256433653</v>
       </c>
-      <c r="K37" s="15">
-        <f>SUMIF(Ventas!B4:B186,Dashboard!C37:C41,Ventas!I4:I186)</f>
+      <c r="K44" s="15">
+        <f>SUMIF(Ventas!B4:B186,Dashboard!C41:C47,Ventas!I4:I186)</f>
         <v>1304</v>
       </c>
-      <c r="L37" s="3">
-        <f>VLOOKUP(Dashboard!C37,'Ventas x tienda'!A4:F8,4,0)</f>
+      <c r="L44" s="3">
+        <f>VLOOKUP(Dashboard!C44,'Ventas x tienda'!A4:F8,4,0)</f>
         <v>44348.77</v>
       </c>
-      <c r="M37" s="3">
-        <f>VLOOKUP(C37,'Ventas x tienda'!A4:F8,5,0)</f>
+      <c r="M44" s="3">
+        <f>VLOOKUP(C44,'Ventas x tienda'!A4:F8,5,0)</f>
         <v>36957.31</v>
       </c>
-      <c r="N37" s="3">
-        <f>VLOOKUP(C37,'Ventas x tienda'!A4:F8,6,0)</f>
+      <c r="N44" s="3">
+        <f>VLOOKUP(C44,'Ventas x tienda'!A4:F8,6,0)</f>
         <v>40121.120000000003</v>
       </c>
-      <c r="O37" s="3">
-        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B37,'Gastos mensuales'!$A$1:$A$10)</f>
+      <c r="O44" s="3">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B44,'Gastos mensuales'!$A$1:$A$10)</f>
         <v>33720.93</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C45" s="15">
         <v>4</v>
       </c>
-      <c r="D38" s="3">
-        <f>SUMIF(Ventas!B5:B187,Dashboard!C38:C42,Ventas!D5:D187)</f>
+      <c r="D45" s="3">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C41:C47,Ventas!D5:D187)</f>
         <v>134942.64000000001</v>
       </c>
-      <c r="E38" s="3">
-        <f>SUMIF(Ventas!B5:B187,Dashboard!C38:C42,Ventas!E5:E187)</f>
+      <c r="E45" s="3">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C41:C47,Ventas!E5:E187)</f>
         <v>117844.51000000001</v>
       </c>
-      <c r="F38" s="3">
-        <f>SUMIF(Ventas!B5:B187,Dashboard!C38:C42,Ventas!F5:F187)</f>
+      <c r="F45" s="3">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C41:C47,Ventas!F5:F187)</f>
         <v>17098.13</v>
       </c>
-      <c r="G38" s="3">
-        <f>SUMIF(Ventas!B5:B187,Dashboard!C38:C42,Ventas!G5:G187)</f>
+      <c r="G45" s="3">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C41:C47,Ventas!G5:G187)</f>
         <v>0</v>
       </c>
-      <c r="H38" s="3">
-        <f>SUMIF(Ventas!B5:B187,Dashboard!C38:C42,Ventas!H5:H187)</f>
+      <c r="H45" s="3">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C41:C47,Ventas!H5:H187)</f>
         <v>80419.670000000013</v>
       </c>
-      <c r="I38" s="56">
+      <c r="I45" s="56">
         <f t="shared" si="0"/>
         <v>54522.97</v>
       </c>
-      <c r="J38" s="59">
+      <c r="J45" s="59">
         <f t="shared" si="1"/>
         <v>0.40404552630658475</v>
       </c>
-      <c r="K38" s="15">
-        <f>SUMIF(Ventas!B5:B187,Dashboard!C38:C42,Ventas!I5:I187)</f>
+      <c r="K45" s="15">
+        <f>SUMIF(Ventas!B5:B187,Dashboard!C41:C47,Ventas!I5:I187)</f>
         <v>1241</v>
       </c>
-      <c r="L38" s="3">
-        <f>VLOOKUP(Dashboard!C38,'Ventas x tienda'!A5:F9,4,0)</f>
+      <c r="L45" s="3">
+        <f>VLOOKUP(Dashboard!C45,'Ventas x tienda'!A5:F9,4,0)</f>
         <v>43116.86</v>
       </c>
-      <c r="M38" s="3">
-        <f>VLOOKUP(C38,'Ventas x tienda'!A5:F9,5,0)</f>
+      <c r="M45" s="3">
+        <f>VLOOKUP(C45,'Ventas x tienda'!A5:F9,5,0)</f>
         <v>36957.31</v>
       </c>
-      <c r="N38" s="3">
-        <f>VLOOKUP(C38,'Ventas x tienda'!A5:F9,6,0)</f>
+      <c r="N45" s="3">
+        <f>VLOOKUP(C45,'Ventas x tienda'!A5:F9,6,0)</f>
         <v>38483.050000000003</v>
       </c>
-      <c r="O38" s="3">
-        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B38,'Gastos mensuales'!$A$1:$A$10)</f>
+      <c r="O45" s="3">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B45,'Gastos mensuales'!$A$1:$A$10)</f>
         <v>37694.369999999995</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C46" s="15">
         <v>5</v>
       </c>
-      <c r="D39" s="3">
-        <f>SUMIF(Ventas!B6:B188,Dashboard!C39:C43,Ventas!D6:D188)</f>
+      <c r="D46" s="3">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C46:C49,Ventas!D6:D188)</f>
         <v>161194.56</v>
       </c>
-      <c r="E39" s="3">
-        <f>SUMIF(Ventas!B6:B188,Dashboard!C39:C43,Ventas!E6:E188)</f>
+      <c r="E46" s="3">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C46:C49,Ventas!E6:E188)</f>
         <v>133998.82999999999</v>
       </c>
-      <c r="F39" s="3">
-        <f>SUMIF(Ventas!B6:B188,Dashboard!C39:C43,Ventas!F6:F188)</f>
+      <c r="F46" s="3">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C46:C49,Ventas!F6:F188)</f>
         <v>24641.710000000003</v>
       </c>
-      <c r="G39" s="3">
-        <f>SUMIF(Ventas!B6:B188,Dashboard!C39:C43,Ventas!G6:G188)</f>
+      <c r="G46" s="3">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C46:C49,Ventas!G6:G188)</f>
         <v>2554.02</v>
       </c>
-      <c r="H39" s="3">
-        <f>SUMIF(Ventas!B6:B188,Dashboard!C39:C43,Ventas!H6:H188)</f>
+      <c r="H46" s="3">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C46:C49,Ventas!H6:H188)</f>
         <v>95178.446149999974</v>
       </c>
-      <c r="I39" s="56">
+      <c r="I46" s="56">
         <f t="shared" si="0"/>
         <v>66016.113850000023</v>
       </c>
-      <c r="J39" s="59">
+      <c r="J46" s="59">
         <f t="shared" si="1"/>
         <v>0.40954306305374094</v>
       </c>
-      <c r="K39" s="15">
-        <f>SUMIF(Ventas!B6:B188,Dashboard!C39:C43,Ventas!I6:I188)</f>
+      <c r="K46" s="15">
+        <f>SUMIF(Ventas!B6:B188,Dashboard!C46:C49,Ventas!I6:I188)</f>
         <v>1397</v>
       </c>
-      <c r="L39" s="3">
-        <f>VLOOKUP(Dashboard!C39,'Ventas x tienda'!A6:F10,4,0)</f>
+      <c r="L46" s="3">
+        <f>VLOOKUP(Dashboard!C46,'Ventas x tienda'!A6:F10,4,0)</f>
         <v>43116.86</v>
       </c>
-      <c r="M39" s="3">
-        <f>VLOOKUP(C39,'Ventas x tienda'!A6:F10,5,0)</f>
+      <c r="M46" s="3">
+        <f>VLOOKUP(C46,'Ventas x tienda'!A6:F10,5,0)</f>
         <v>34493.49</v>
       </c>
-      <c r="N39" s="3">
-        <f>VLOOKUP(C39,'Ventas x tienda'!A6:F10,6,0)</f>
+      <c r="N46" s="3">
+        <f>VLOOKUP(C46,'Ventas x tienda'!A6:F10,6,0)</f>
         <v>48092.27</v>
       </c>
-      <c r="O39" s="3">
-        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B39,'Gastos mensuales'!$A$1:$A$10)</f>
+      <c r="O46" s="3">
+        <f>DSUM('Gastos mensuales'!$A$1:$F$10,Dashboard!$B46,'Gastos mensuales'!$A$1:$A$10)</f>
         <v>36175.910000000003</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="60" t="s">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="61">
-        <f t="shared" ref="D40:I40" si="2">SUM(D35:D39)</f>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61">
+        <f t="shared" ref="D47:I47" si="2">SUM(D42:D46)</f>
         <v>747209.67999999993</v>
       </c>
-      <c r="E40" s="61">
+      <c r="E47" s="61">
         <f t="shared" si="2"/>
         <v>631705.50999999989</v>
       </c>
-      <c r="F40" s="61">
+      <c r="F47" s="61">
         <f t="shared" si="2"/>
         <v>107642.79000000002</v>
       </c>
-      <c r="G40" s="61">
+      <c r="G47" s="61">
         <f t="shared" si="2"/>
         <v>7861.3799999999992</v>
       </c>
-      <c r="H40" s="61">
+      <c r="H47" s="61">
         <f t="shared" si="2"/>
         <v>412088.89615000004</v>
       </c>
-      <c r="I40" s="61">
+      <c r="I47" s="61">
         <f t="shared" si="2"/>
         <v>335120.78385000001</v>
       </c>
-      <c r="J40" s="62">
-        <f>I40/D40</f>
+      <c r="J47" s="62">
+        <f>I47/D47</f>
         <v>0.44849630942950314</v>
       </c>
-      <c r="K40" s="63">
-        <f>SUM(K35:K39)</f>
+      <c r="K47" s="63">
+        <f>SUM(K42:K46)</f>
         <v>6873</v>
       </c>
-      <c r="L40" s="61">
-        <f>SUM(L35:L39)</f>
+      <c r="L47" s="61">
+        <f>SUM(L42:L46)</f>
         <v>218048.12</v>
       </c>
-      <c r="M40" s="61">
-        <f>SUM(M35:M39)</f>
+      <c r="M47" s="61">
+        <f>SUM(M42:M46)</f>
         <v>178627</v>
       </c>
-      <c r="N40" s="61">
-        <f>SUM(N35:N39)</f>
+      <c r="N47" s="61">
+        <f>SUM(N42:N46)</f>
         <v>202891.4</v>
       </c>
-      <c r="O40" s="61">
-        <f>SUM(O35:O39)</f>
+      <c r="O47" s="61">
+        <f>SUM(O42:O46)</f>
         <v>164312.79</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="64" t="str">
-        <f>C18</f>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="64" t="str">
+        <f>C21</f>
         <v>Mayo</v>
       </c>
-      <c r="C43" s="64">
-        <f>VLOOKUP(B43,B35:C39,2,0)</f>
+      <c r="C49" s="64">
+        <f>VLOOKUP(B49,B42:C46,2,0)</f>
         <v>5</v>
       </c>
-      <c r="D43" s="65">
-        <f>INDEX(D35:$O$39,C43,D33)</f>
+      <c r="D49" s="65">
+        <f>INDEX(D42:$O$46,C49,D40)</f>
         <v>161194.56</v>
       </c>
-      <c r="E43" s="65">
-        <f>INDEX(datos_p,C43,2)</f>
+      <c r="E49" s="65">
+        <f>INDEX(datos_p,C49,2)</f>
         <v>133998.82999999999</v>
       </c>
-      <c r="F43" s="65">
-        <f>INDEX(datos_p,C43,3)</f>
+      <c r="F49" s="65">
+        <f>INDEX(datos_p,C49,3)</f>
         <v>24641.710000000003</v>
       </c>
-      <c r="G43" s="65">
-        <f>INDEX(datos_p,C43,4)</f>
+      <c r="G49" s="65">
+        <f>INDEX(datos_p,C49,4)</f>
         <v>2554.02</v>
       </c>
-      <c r="H43" s="65">
-        <f>INDEX(datos_p,C43,5)</f>
+      <c r="H49" s="65">
+        <f>INDEX(datos_p,C49,5)</f>
         <v>95178.446149999974</v>
       </c>
-      <c r="I43" s="65">
-        <f>INDEX(datos_p,C43,6)</f>
+      <c r="I49" s="65">
+        <f>INDEX(datos_p,C49,6)</f>
         <v>66016.113850000023</v>
       </c>
-      <c r="J43" s="66">
-        <f>INDEX(datos_p,C43,7)</f>
+      <c r="J49" s="66">
+        <f>INDEX(datos_p,C49,7)</f>
         <v>0.40954306305374094</v>
       </c>
-      <c r="K43" s="64">
-        <f>INDEX(datos_p,C43,8)</f>
+      <c r="K49" s="64">
+        <f>INDEX(datos_p,C49,8)</f>
         <v>1397</v>
       </c>
-      <c r="L43" s="65">
-        <f>INDEX(datos_p,C43,9)</f>
+      <c r="L49" s="65">
+        <f>INDEX(datos_p,C49,9)</f>
         <v>43116.86</v>
       </c>
-      <c r="M43" s="65">
-        <f>INDEX(datos_p,C43,M33)</f>
+      <c r="M49" s="65">
+        <f>INDEX(datos_p,C49,M40)</f>
         <v>34493.49</v>
       </c>
-      <c r="N43" s="65">
-        <f>INDEX(datos_p,C43,N33)</f>
+      <c r="N49" s="65">
+        <f>INDEX(datos_p,C49,N40)</f>
         <v>48092.27</v>
       </c>
-      <c r="O43" s="65">
-        <f>INDEX(datos_p,C43,O33)</f>
+      <c r="O49" s="65">
+        <f>INDEX(datos_p,C49,O40)</f>
         <v>36175.910000000003</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{A5D26690-5C56-468A-A966-543703743E9C}">
-      <formula1>$B$35:$B$39</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{A5D26690-5C56-468A-A966-543703743E9C}">
+      <formula1>$B$42:$B$46</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21381,12 +21316,12 @@
       <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -21545,12 +21480,12 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="12" t="s">
@@ -22119,19 +22054,19 @@
       <c r="F1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="M1" s="75" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="M1" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="P1" s="76" t="s">
+      <c r="N1" s="79"/>
+      <c r="P1" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="76"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6831E7-8B58-43AC-BA78-76C696DBE943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C91FABB-27BA-48FD-B331-0DD26F308D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
+    <workbookView showHorizontalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="3" r:id="rId1"/>
@@ -769,7 +769,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -925,7 +925,6 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -20467,10 +20466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFC6B40-7C31-412A-964F-737CBFAC57B6}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="B4:O49"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="B4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20489,10 +20488,7 @@
     <col min="15" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="81"/>
-    </row>
-    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:15" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="69" t="s">
         <v>112</v>
       </c>
@@ -20510,7 +20506,7 @@
       <c r="N4" s="68"/>
       <c r="O4" s="68"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="70" t="s">
         <v>105</v>
       </c>
@@ -20533,9 +20529,6 @@
         <f>O47</f>
         <v>164312.79</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
     </row>
     <row r="18" spans="2:15" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B18" s="69" t="s">

--- a/ventas_original.xlsx
+++ b/ventas_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jbernal\Data_Science\Excel_Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C91FABB-27BA-48FD-B331-0DD26F308D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9036C47-022A-46EE-9819-1BFE693F08B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{B4E16050-6D6A-49A1-83DA-C4CBD7B8666B}"/>
   </bookViews>
